--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CF3F98B-710D-425B-BA9B-5580DA205027}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="3855" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>RateGenius Loan Services, Inc.</t>
+  </si>
+  <si>
+    <t>The Pictsweet Compnay</t>
+  </si>
+  <si>
+    <t>Genpact LLC</t>
+  </si>
+  <si>
+    <t>Collin</t>
+  </si>
+  <si>
+    <t>North Central Texas WDA</t>
+  </si>
+  <si>
+    <t>Richardson</t>
   </si>
 </sst>
 </file>
@@ -586,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,114 +647,114 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44938</v>
+        <v>44945</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5">
-        <v>139</v>
+        <v>964</v>
       </c>
       <c r="F2" s="3">
-        <v>44937</v>
+        <v>45016</v>
       </c>
       <c r="G2" s="3">
-        <v>44938</v>
+        <v>44945</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5">
-        <v>801</v>
+        <v>77</v>
       </c>
       <c r="F3" s="3">
-        <v>45003</v>
+        <v>45002</v>
       </c>
       <c r="G3" s="3">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44936</v>
+        <v>44938</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="F4" s="3">
-        <v>45281</v>
+        <v>44937</v>
       </c>
       <c r="G4" s="3">
-        <v>44936</v>
+        <v>44938</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44935</v>
+        <v>44937</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5">
-        <v>85</v>
+        <v>801</v>
       </c>
       <c r="F5" s="3">
-        <v>44971</v>
+        <v>45003</v>
       </c>
       <c r="G5" s="3">
-        <v>44935</v>
+        <v>44937</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44931</v>
+        <v>44936</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -748,63 +763,95 @@
         <v>10</v>
       </c>
       <c r="E6" s="5">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="F6" s="3">
-        <v>44957</v>
+        <v>45281</v>
       </c>
       <c r="G6" s="3">
-        <v>44931</v>
+        <v>44936</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>85</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G7" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5">
+        <v>370</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>44932</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E9" s="5">
         <v>20</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F9" s="3">
         <v>44988</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G9" s="3">
         <v>44932</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -897,14 +944,14 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -917,14 +964,14 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1097,14 +1144,14 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
@@ -1117,14 +1164,14 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="4"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
@@ -1167,14 +1214,14 @@
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="14"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
@@ -1187,14 +1234,14 @@
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="4"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
@@ -1277,24 +1324,24 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="14"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="14"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
@@ -1307,24 +1354,24 @@
       <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="4"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="4"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
@@ -1337,14 +1384,14 @@
       <c r="H62" s="4"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="14"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
@@ -1357,14 +1404,14 @@
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="4"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
@@ -1377,44 +1424,44 @@
       <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="10"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="10"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="4"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="4"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -1477,44 +1524,44 @@
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="7"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="10"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="4"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="4"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="10"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
@@ -1597,14 +1644,14 @@
       <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="10"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
@@ -1616,6 +1663,26 @@
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
     </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="10"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CF3F98B-710D-425B-BA9B-5580DA205027}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD2B940F-B4F9-4F8A-97D8-2D97D8134D24}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="4575" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -118,13 +118,40 @@
   </si>
   <si>
     <t>Richardson</t>
+  </si>
+  <si>
+    <t>State Farm at City Line Building 1-4</t>
+  </si>
+  <si>
+    <t>Bed Bath and Beyond (Lewisville)</t>
+  </si>
+  <si>
+    <t>Denton</t>
+  </si>
+  <si>
+    <t>Lewisville</t>
+  </si>
+  <si>
+    <t>Sumitomo Electric Wiring Systems</t>
+  </si>
+  <si>
+    <t>El Paso</t>
+  </si>
+  <si>
+    <t>Borderplexjobs WDA</t>
+  </si>
+  <si>
+    <t>ABM Texas General Services, Inc</t>
+  </si>
+  <si>
+    <t>Service Experts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +189,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -233,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,6 +317,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -601,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,261 +688,341 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5">
-        <v>964</v>
+        <v>255</v>
       </c>
       <c r="F2" s="3">
-        <v>45016</v>
+        <v>44942</v>
       </c>
       <c r="G2" s="3">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44942</v>
+        <v>44946</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="F3" s="3">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="G3" s="3">
-        <v>44942</v>
+        <v>44946</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>44938</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5">
-        <v>139</v>
-      </c>
-      <c r="F4" s="3">
-        <v>44937</v>
-      </c>
-      <c r="G4" s="3">
-        <v>44938</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
+      <c r="A4" s="19">
+        <v>44951</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="21">
+        <v>76</v>
+      </c>
+      <c r="F4" s="19">
+        <v>44995</v>
+      </c>
+      <c r="G4" s="19">
+        <v>44951</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44937</v>
+        <v>44951</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5">
-        <v>801</v>
+        <v>374</v>
       </c>
       <c r="F5" s="3">
-        <v>45003</v>
+        <v>45011</v>
       </c>
       <c r="G5" s="3">
-        <v>44937</v>
+        <v>44951</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44936</v>
+        <v>44950</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F6" s="3">
-        <v>45281</v>
+        <v>45016</v>
       </c>
       <c r="G6" s="3">
-        <v>44936</v>
+        <v>44950</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44935</v>
+        <v>44945</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5">
+        <v>964</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G7" s="3">
+        <v>44945</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44942</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5">
-        <v>85</v>
-      </c>
-      <c r="F7" s="3">
-        <v>44971</v>
-      </c>
-      <c r="G7" s="3">
-        <v>44935</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="E8" s="5">
+        <v>77</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45002</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44942</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>44931</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5">
-        <v>370</v>
-      </c>
-      <c r="F8" s="3">
-        <v>44957</v>
-      </c>
-      <c r="G8" s="3">
-        <v>44931</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
+        <v>44938</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>139</v>
+      </c>
+      <c r="F9" s="3">
+        <v>44937</v>
+      </c>
+      <c r="G9" s="3">
+        <v>44938</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5">
+        <v>801</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45003</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44937</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
+        <v>76</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45281</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44936</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5">
+        <v>85</v>
+      </c>
+      <c r="F12" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5">
+        <v>370</v>
+      </c>
+      <c r="F13" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G13" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>44932</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E14" s="5">
         <v>20</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F14" s="3">
         <v>44988</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G14" s="3">
         <v>44932</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -964,14 +1085,14 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1014,14 +1135,14 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -1164,14 +1285,14 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="14"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
@@ -1214,14 +1335,14 @@
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="4"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
@@ -1234,14 +1355,14 @@
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="14"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
@@ -1284,14 +1405,14 @@
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="4"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
@@ -1344,34 +1465,34 @@
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="14"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="14"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="14"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
@@ -1394,14 +1515,14 @@
       <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="4"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
@@ -1414,14 +1535,14 @@
       <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="4"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
@@ -1444,24 +1565,24 @@
       <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="10"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="10"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="14"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -1494,24 +1615,24 @@
       <c r="H73" s="4"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="4"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="4"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
@@ -1544,24 +1665,24 @@
       <c r="H78" s="4"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="7"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="10"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="4"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
@@ -1594,24 +1715,24 @@
       <c r="H83" s="4"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="4"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="4"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="10"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
@@ -1664,14 +1785,14 @@
       <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="10"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -1683,6 +1804,56 @@
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
     </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD2B940F-B4F9-4F8A-97D8-2D97D8134D24}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C4DEB64-6067-4BAA-9063-E94805F444FE}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="34200" yWindow="1830" windowWidth="21600" windowHeight="11325" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -105,9 +105,6 @@
     <t>RateGenius Loan Services, Inc.</t>
   </si>
   <si>
-    <t>The Pictsweet Compnay</t>
-  </si>
-  <si>
     <t>Genpact LLC</t>
   </si>
   <si>
@@ -145,6 +142,66 @@
   </si>
   <si>
     <t>Service Experts</t>
+  </si>
+  <si>
+    <t>The Pictsweet Company</t>
+  </si>
+  <si>
+    <t>Owens-Brockway Glass Container Inc.</t>
+  </si>
+  <si>
+    <t>McLennan</t>
+  </si>
+  <si>
+    <t>Heart of Texas WDA</t>
+  </si>
+  <si>
+    <t>Waco</t>
+  </si>
+  <si>
+    <t>Eddy Foods</t>
+  </si>
+  <si>
+    <t>Dewitt</t>
+  </si>
+  <si>
+    <t>Golden Crescent WDA</t>
+  </si>
+  <si>
+    <t>Yoakum</t>
+  </si>
+  <si>
+    <t>PTW Energy Services, Inc.</t>
+  </si>
+  <si>
+    <t>Midland</t>
+  </si>
+  <si>
+    <t>Permian Basin WDA</t>
+  </si>
+  <si>
+    <t>Georgia Pacific Gypsum</t>
+  </si>
+  <si>
+    <t>Hardeman</t>
+  </si>
+  <si>
+    <t>North Texas WDA</t>
+  </si>
+  <si>
+    <t>Quanah</t>
+  </si>
+  <si>
+    <t>Bedding Acquisition, LLC</t>
+  </si>
+  <si>
+    <t>Grand Prairie</t>
+  </si>
+  <si>
+    <t>Transde,v Inc,</t>
+  </si>
+  <si>
+    <t>Lancaster</t>
   </si>
 </sst>
 </file>
@@ -642,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,401 +745,497 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="F2" s="3">
-        <v>44942</v>
+        <v>44956</v>
       </c>
       <c r="G2" s="3">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="F3" s="3">
         <v>45016</v>
       </c>
       <c r="G3" s="3">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>44951</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="21">
-        <v>76</v>
-      </c>
-      <c r="F4" s="19">
-        <v>44995</v>
-      </c>
-      <c r="G4" s="19">
-        <v>44951</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>27</v>
+      <c r="A4" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="5">
+        <v>158</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45017</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44951</v>
+        <v>44959</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5">
-        <v>374</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3">
-        <v>45011</v>
+        <v>45019</v>
       </c>
       <c r="G5" s="3">
-        <v>44951</v>
+        <v>44959</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44950</v>
+        <v>44959</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F6" s="3">
-        <v>45016</v>
+        <v>44972</v>
       </c>
       <c r="G6" s="3">
-        <v>44950</v>
+        <v>44959</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44945</v>
+        <v>44957</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5">
-        <v>964</v>
+        <v>90</v>
       </c>
       <c r="F7" s="3">
-        <v>45016</v>
+        <v>44957</v>
       </c>
       <c r="G7" s="3">
-        <v>44945</v>
+        <v>44960</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5">
+        <v>255</v>
+      </c>
+      <c r="F8" s="3">
         <v>44942</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5">
-        <v>77</v>
-      </c>
-      <c r="F8" s="3">
-        <v>45002</v>
-      </c>
       <c r="G8" s="3">
-        <v>44942</v>
+        <v>44953</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44938</v>
+        <v>44946</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="F9" s="3">
-        <v>44937</v>
+        <v>45016</v>
       </c>
       <c r="G9" s="3">
-        <v>44938</v>
+        <v>44946</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>44937</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5">
-        <v>801</v>
-      </c>
-      <c r="F10" s="3">
-        <v>45003</v>
-      </c>
-      <c r="G10" s="3">
-        <v>44937</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>21</v>
+      <c r="A10" s="19">
+        <v>44951</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="21">
+        <v>76</v>
+      </c>
+      <c r="F10" s="19">
+        <v>44995</v>
+      </c>
+      <c r="G10" s="19">
+        <v>44951</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44936</v>
+        <v>44951</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="F11" s="3">
-        <v>45281</v>
+        <v>45011</v>
       </c>
       <c r="G11" s="3">
-        <v>44936</v>
+        <v>44951</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44935</v>
+        <v>44950</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="F12" s="3">
-        <v>44971</v>
+        <v>45016</v>
       </c>
       <c r="G12" s="3">
-        <v>44935</v>
+        <v>44950</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44931</v>
+        <v>44945</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5">
-        <v>370</v>
+        <v>964</v>
       </c>
       <c r="F13" s="3">
-        <v>44957</v>
+        <v>45016</v>
       </c>
       <c r="G13" s="3">
-        <v>44931</v>
+        <v>44945</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
+        <v>44942</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5">
+        <v>77</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45002</v>
+      </c>
+      <c r="G14" s="3">
+        <v>44942</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44938</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5">
+        <v>139</v>
+      </c>
+      <c r="F15" s="3">
+        <v>44937</v>
+      </c>
+      <c r="G15" s="3">
+        <v>44938</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5">
+        <v>801</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45003</v>
+      </c>
+      <c r="G16" s="3">
+        <v>44937</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5">
+        <v>76</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45281</v>
+      </c>
+      <c r="G17" s="3">
+        <v>44936</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5">
+        <v>85</v>
+      </c>
+      <c r="F18" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G18" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5">
+        <v>370</v>
+      </c>
+      <c r="F19" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G19" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>44932</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E20" s="5">
         <v>20</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F20" s="3">
         <v>44988</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G20" s="3">
         <v>44932</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -1135,14 +1288,14 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -1195,14 +1348,14 @@
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
@@ -1335,14 +1488,14 @@
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="14"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
@@ -1395,24 +1548,24 @@
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="4"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="14"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
@@ -1465,14 +1618,14 @@
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="4"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
@@ -1515,34 +1668,34 @@
       <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="14"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="14"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="4"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="14"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
@@ -1585,24 +1738,24 @@
       <c r="H70" s="14"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="4"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="14"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="4"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
@@ -1615,34 +1768,34 @@
       <c r="H73" s="4"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="10"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="4"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="10"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="4"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="4"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="14"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
@@ -1675,24 +1828,24 @@
       <c r="H79" s="4"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="4"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="10"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="4"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="10"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
@@ -1715,24 +1868,24 @@
       <c r="H83" s="4"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="7"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="10"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
@@ -1775,24 +1928,24 @@
       <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="4"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="4"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -1835,14 +1988,14 @@
       <c r="H95" s="4"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="10"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="4"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
@@ -1854,6 +2007,66 @@
       <c r="G97" s="3"/>
       <c r="H97" s="4"/>
     </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="9"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="10"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C4DEB64-6067-4BAA-9063-E94805F444FE}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79A5E63F-2CF9-48DF-B83C-9BAAC6158237}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="1830" windowWidth="21600" windowHeight="11325" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -202,6 +202,51 @@
   </si>
   <si>
     <t>Lancaster</t>
+  </si>
+  <si>
+    <t>Owens Corning Amarillo Facility</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>Panhandle WDA</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>Packaging Corporation of America (Woodway)</t>
+  </si>
+  <si>
+    <t>Woodway</t>
+  </si>
+  <si>
+    <t>Skorpios Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>Misfits Market Technologies, INC (Fullfillment Center)</t>
+  </si>
+  <si>
+    <t>Tarrant</t>
+  </si>
+  <si>
+    <t>Tarrant County WDA</t>
+  </si>
+  <si>
+    <t>Fort Worth</t>
+  </si>
+  <si>
+    <t>Walmart Store #7310</t>
+  </si>
+  <si>
+    <t>Fort Bend</t>
+  </si>
+  <si>
+    <t>Gulf Coast WDA</t>
+  </si>
+  <si>
+    <t>Katy</t>
   </si>
 </sst>
 </file>
@@ -699,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,132 +790,132 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44957</v>
+        <v>44965</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E2" s="5">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F2" s="3">
-        <v>44956</v>
+        <v>45065</v>
       </c>
       <c r="G2" s="3">
-        <v>44957</v>
+        <v>44966</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E3" s="5">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3">
-        <v>45016</v>
+        <v>45024</v>
       </c>
       <c r="G3" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3">
         <v>45017</v>
       </c>
       <c r="G4" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F5" s="3">
-        <v>45019</v>
+        <v>45013</v>
       </c>
       <c r="G5" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E6" s="5">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="F6" s="3">
-        <v>44972</v>
+        <v>45020</v>
       </c>
       <c r="G6" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -878,414 +923,494 @@
         <v>44957</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F7" s="3">
+        <v>44956</v>
+      </c>
+      <c r="G7" s="3">
         <v>44957</v>
       </c>
-      <c r="G7" s="3">
-        <v>44960</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="F8" s="3">
-        <v>44942</v>
+        <v>45016</v>
       </c>
       <c r="G8" s="3">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E9" s="5">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="F9" s="3">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="G9" s="3">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>44951</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="A10" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="5">
         <v>9</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="21">
-        <v>76</v>
-      </c>
-      <c r="F10" s="19">
-        <v>44995</v>
-      </c>
-      <c r="G10" s="19">
-        <v>44951</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>26</v>
+      <c r="F10" s="3">
+        <v>45019</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44951</v>
+        <v>44959</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E11" s="5">
-        <v>374</v>
+        <v>140</v>
       </c>
       <c r="F11" s="3">
-        <v>45011</v>
+        <v>44972</v>
       </c>
       <c r="G11" s="3">
-        <v>44951</v>
+        <v>44959</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44950</v>
+        <v>44957</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F12" s="3">
-        <v>45016</v>
+        <v>44957</v>
       </c>
       <c r="G12" s="3">
-        <v>44950</v>
+        <v>44960</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5">
-        <v>964</v>
+        <v>255</v>
       </c>
       <c r="F13" s="3">
-        <v>45016</v>
+        <v>44942</v>
       </c>
       <c r="G13" s="3">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44942</v>
+        <v>44946</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E14" s="5">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="F14" s="3">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="G14" s="3">
-        <v>44942</v>
+        <v>44946</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>44938</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="5">
-        <v>139</v>
-      </c>
-      <c r="F15" s="3">
-        <v>44937</v>
-      </c>
-      <c r="G15" s="3">
-        <v>44938</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>21</v>
+      <c r="A15" s="19">
+        <v>44951</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="21">
+        <v>76</v>
+      </c>
+      <c r="F15" s="19">
+        <v>44995</v>
+      </c>
+      <c r="G15" s="19">
+        <v>44951</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44937</v>
+        <v>44951</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E16" s="5">
-        <v>801</v>
+        <v>374</v>
       </c>
       <c r="F16" s="3">
-        <v>45003</v>
+        <v>45011</v>
       </c>
       <c r="G16" s="3">
-        <v>44937</v>
+        <v>44951</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44936</v>
+        <v>44950</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E17" s="5">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F17" s="3">
-        <v>45281</v>
+        <v>45016</v>
       </c>
       <c r="G17" s="3">
-        <v>44936</v>
+        <v>44950</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44935</v>
+        <v>44945</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5">
+        <v>964</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G18" s="3">
+        <v>44945</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44942</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="5">
-        <v>85</v>
-      </c>
-      <c r="F18" s="3">
-        <v>44971</v>
-      </c>
-      <c r="G18" s="3">
-        <v>44935</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="E19" s="5">
+        <v>77</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45002</v>
+      </c>
+      <c r="G19" s="3">
+        <v>44942</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>44931</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5">
-        <v>370</v>
-      </c>
-      <c r="F19" s="3">
-        <v>44957</v>
-      </c>
-      <c r="G19" s="3">
-        <v>44931</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
+        <v>44938</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5">
+        <v>139</v>
+      </c>
+      <c r="F20" s="3">
+        <v>44937</v>
+      </c>
+      <c r="G20" s="3">
+        <v>44938</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5">
+        <v>801</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45003</v>
+      </c>
+      <c r="G21" s="3">
+        <v>44937</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5">
+        <v>76</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45281</v>
+      </c>
+      <c r="G22" s="3">
+        <v>44936</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="5">
+        <v>85</v>
+      </c>
+      <c r="F23" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G23" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5">
+        <v>370</v>
+      </c>
+      <c r="F24" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G24" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>44932</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E25" s="5">
         <v>20</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F25" s="3">
         <v>44988</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G25" s="3">
         <v>44932</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1348,14 +1473,14 @@
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
@@ -1398,14 +1523,14 @@
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
@@ -1548,14 +1673,14 @@
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="14"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
@@ -1598,14 +1723,14 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="4"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
@@ -1618,14 +1743,14 @@
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="14"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
@@ -1668,14 +1793,14 @@
       <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="4"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
@@ -1728,34 +1853,34 @@
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="14"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="14"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="14"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
@@ -1778,14 +1903,14 @@
       <c r="H74" s="4"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="4"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="14"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
@@ -1798,14 +1923,14 @@
       <c r="H76" s="14"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="4"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="14"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
@@ -1828,24 +1953,24 @@
       <c r="H79" s="4"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="10"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="4"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="10"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="14"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
@@ -1878,24 +2003,24 @@
       <c r="H84" s="4"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="4"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="10"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="4"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="10"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
@@ -1928,24 +2053,24 @@
       <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="7"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="10"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -1978,24 +2103,24 @@
       <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="4"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="7"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="4"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="10"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
@@ -2048,14 +2173,14 @@
       <c r="H101" s="4"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="10"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="4"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
@@ -2067,6 +2192,56 @@
       <c r="G103" s="3"/>
       <c r="H103" s="4"/>
     </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="10"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79A5E63F-2CF9-48DF-B83C-9BAAC6158237}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD8E92E1-37E5-4952-8F5D-BC10BCA41F66}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -247,6 +247,33 @@
   </si>
   <si>
     <t>Katy</t>
+  </si>
+  <si>
+    <t>St. Mark's Medical Center</t>
+  </si>
+  <si>
+    <t>Fayette</t>
+  </si>
+  <si>
+    <t>Rural Capital WDA</t>
+  </si>
+  <si>
+    <t>La Grange</t>
+  </si>
+  <si>
+    <t>Wix.com, Inc.</t>
+  </si>
+  <si>
+    <t>TaskUs (San Antonio)</t>
+  </si>
+  <si>
+    <t>Deer Park Nursing and Rehab Center LLC</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Deer Park</t>
   </si>
 </sst>
 </file>
@@ -744,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,62 +817,62 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44965</v>
+        <v>44973</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="5">
-        <v>92</v>
-      </c>
-      <c r="F2" s="3">
-        <v>45065</v>
+        <v>40</v>
+      </c>
+      <c r="F2" s="12">
+        <v>44965</v>
       </c>
       <c r="G2" s="3">
-        <v>44966</v>
+        <v>44973</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="F3" s="3">
-        <v>45024</v>
+        <v>44981</v>
       </c>
       <c r="G3" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
@@ -854,13 +881,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="5">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F4" s="3">
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="G4" s="3">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>21</v>
@@ -868,184 +895,184 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E5" s="5">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="3">
-        <v>45013</v>
+        <v>44974</v>
       </c>
       <c r="G5" s="3">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="F6" s="3">
-        <v>45020</v>
+        <v>45065</v>
       </c>
       <c r="G6" s="3">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E7" s="5">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="F7" s="3">
-        <v>44956</v>
+        <v>45024</v>
       </c>
       <c r="G7" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F8" s="3">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="G8" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="F9" s="3">
-        <v>45017</v>
+        <v>45013</v>
       </c>
       <c r="G9" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E10" s="5">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="G10" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E11" s="5">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="F11" s="3">
-        <v>44972</v>
+        <v>44956</v>
       </c>
       <c r="G11" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1053,293 +1080,293 @@
         <v>44957</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E12" s="5">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F12" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G12" s="3">
         <v>44957</v>
       </c>
-      <c r="G12" s="3">
-        <v>44960</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44953</v>
+        <v>44959</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="F13" s="3">
-        <v>44942</v>
+        <v>45017</v>
       </c>
       <c r="G13" s="3">
-        <v>44953</v>
+        <v>44959</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E14" s="5">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="G14" s="3">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>44951</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="21">
-        <v>76</v>
-      </c>
-      <c r="F15" s="19">
-        <v>44995</v>
-      </c>
-      <c r="G15" s="19">
-        <v>44951</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>26</v>
+      <c r="A15" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="5">
+        <v>140</v>
+      </c>
+      <c r="F15" s="3">
+        <v>44972</v>
+      </c>
+      <c r="G15" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44951</v>
+        <v>44957</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5">
-        <v>374</v>
+        <v>90</v>
       </c>
       <c r="F16" s="3">
-        <v>45011</v>
+        <v>44957</v>
       </c>
       <c r="G16" s="3">
-        <v>44951</v>
+        <v>44960</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44950</v>
+        <v>44953</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="F17" s="3">
-        <v>45016</v>
+        <v>44942</v>
       </c>
       <c r="G17" s="3">
-        <v>44950</v>
+        <v>44953</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5">
-        <v>964</v>
+        <v>110</v>
       </c>
       <c r="F18" s="3">
         <v>45016</v>
       </c>
       <c r="G18" s="3">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>44951</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="21">
+        <v>76</v>
+      </c>
+      <c r="F19" s="19">
+        <v>44995</v>
+      </c>
+      <c r="G19" s="19">
+        <v>44951</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>44942</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5">
-        <v>77</v>
-      </c>
-      <c r="F19" s="3">
-        <v>45002</v>
-      </c>
-      <c r="G19" s="3">
-        <v>44942</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44938</v>
+        <v>44951</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E20" s="5">
-        <v>139</v>
+        <v>374</v>
       </c>
       <c r="F20" s="3">
-        <v>44937</v>
+        <v>45011</v>
       </c>
       <c r="G20" s="3">
-        <v>44938</v>
+        <v>44951</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>44937</v>
+        <v>44950</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5">
-        <v>801</v>
+        <v>125</v>
       </c>
       <c r="F21" s="3">
-        <v>45003</v>
+        <v>45016</v>
       </c>
       <c r="G21" s="3">
-        <v>44937</v>
+        <v>44950</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44936</v>
+        <v>44945</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E22" s="5">
-        <v>76</v>
+        <v>964</v>
       </c>
       <c r="F22" s="3">
-        <v>45281</v>
+        <v>45016</v>
       </c>
       <c r="G22" s="3">
-        <v>44936</v>
+        <v>44945</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44935</v>
+        <v>44942</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>14</v>
@@ -1348,109 +1375,173 @@
         <v>15</v>
       </c>
       <c r="E23" s="5">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F23" s="3">
-        <v>44971</v>
+        <v>45002</v>
       </c>
       <c r="G23" s="3">
-        <v>44935</v>
+        <v>44942</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44931</v>
+        <v>44938</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24" s="5">
-        <v>370</v>
+        <v>139</v>
       </c>
       <c r="F24" s="3">
-        <v>44957</v>
+        <v>44937</v>
       </c>
       <c r="G24" s="3">
-        <v>44931</v>
+        <v>44938</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="5">
+        <v>801</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45003</v>
+      </c>
+      <c r="G25" s="3">
+        <v>44937</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5">
+        <v>76</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45281</v>
+      </c>
+      <c r="G26" s="3">
+        <v>44936</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="5">
+        <v>85</v>
+      </c>
+      <c r="F27" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="5">
+        <v>370</v>
+      </c>
+      <c r="F28" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G28" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>44932</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E29" s="5">
         <v>20</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F29" s="3">
         <v>44988</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G29" s="3">
         <v>44932</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1523,14 +1614,14 @@
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
@@ -1563,14 +1654,14 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="4"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
@@ -1723,14 +1814,14 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="14"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
@@ -1763,14 +1854,14 @@
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="4"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
@@ -1793,14 +1884,14 @@
       <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="14"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
@@ -1833,14 +1924,14 @@
       <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="4"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
@@ -1903,34 +1994,34 @@
       <c r="H74" s="4"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="14"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="4"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="14"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="14"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
@@ -1943,24 +2034,24 @@
       <c r="H78" s="4"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="4"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="14"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="4"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="14"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
@@ -2003,24 +2094,24 @@
       <c r="H84" s="4"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="10"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="14"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="10"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
@@ -2043,24 +2134,24 @@
       <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="4"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="10"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="4"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="10"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
@@ -2103,24 +2194,24 @@
       <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="7"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="4"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="10"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="4"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
@@ -2143,24 +2234,24 @@
       <c r="H98" s="4"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="4"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="7"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="4"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="10"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
@@ -2223,14 +2314,14 @@
       <c r="H106" s="4"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="10"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="4"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
@@ -2242,6 +2333,46 @@
       <c r="G108" s="3"/>
       <c r="H108" s="4"/>
     </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="9"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="10"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD8E92E1-37E5-4952-8F5D-BC10BCA41F66}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8AE7310-E19E-4069-AB65-CC66E70B0AF9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>Deer Park</t>
+  </si>
+  <si>
+    <t>Boston Scientific Corporation</t>
+  </si>
+  <si>
+    <t>Houston</t>
   </si>
 </sst>
 </file>
@@ -771,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,10 +823,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>78</v>
@@ -829,16 +835,16 @@
         <v>69</v>
       </c>
       <c r="E2" s="5">
-        <v>40</v>
-      </c>
-      <c r="F2" s="12">
-        <v>44965</v>
+        <v>120</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45039</v>
       </c>
       <c r="G2" s="3">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -846,129 +852,129 @@
         <v>44973</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E3" s="5">
-        <v>186</v>
-      </c>
-      <c r="F3" s="3">
-        <v>44981</v>
+        <v>40</v>
+      </c>
+      <c r="F3" s="12">
+        <v>44965</v>
       </c>
       <c r="G3" s="3">
         <v>44973</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="F4" s="3">
-        <v>45032</v>
+        <v>44981</v>
       </c>
       <c r="G4" s="3">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F5" s="3">
-        <v>44974</v>
+        <v>45032</v>
       </c>
       <c r="G5" s="3">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44965</v>
+        <v>44972</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E6" s="5">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3">
-        <v>45065</v>
+        <v>44974</v>
       </c>
       <c r="G6" s="3">
-        <v>44966</v>
+        <v>44972</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E7" s="5">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="F7" s="3">
-        <v>45024</v>
+        <v>45065</v>
       </c>
       <c r="G7" s="3">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -976,25 +982,25 @@
         <v>44964</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E8" s="5">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F8" s="3">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="G8" s="3">
         <v>44964</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1002,25 +1008,25 @@
         <v>44964</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
         <v>60</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="5">
-        <v>65</v>
-      </c>
       <c r="F9" s="3">
-        <v>45013</v>
+        <v>45017</v>
       </c>
       <c r="G9" s="3">
         <v>44964</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1028,51 +1034,51 @@
         <v>44964</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E10" s="5">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F10" s="3">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="G10" s="3">
         <v>44964</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E11" s="5">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="F11" s="3">
-        <v>44956</v>
+        <v>45020</v>
       </c>
       <c r="G11" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1080,7 +1086,7 @@
         <v>44957</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1089,42 +1095,42 @@
         <v>10</v>
       </c>
       <c r="E12" s="5">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F12" s="3">
-        <v>45016</v>
+        <v>44956</v>
       </c>
       <c r="G12" s="3">
         <v>44957</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="F13" s="3">
-        <v>45017</v>
+        <v>45016</v>
       </c>
       <c r="G13" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1132,25 +1138,25 @@
         <v>44959</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E14" s="5">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="F14" s="3">
-        <v>45019</v>
+        <v>45017</v>
       </c>
       <c r="G14" s="3">
         <v>44959</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1158,189 +1164,189 @@
         <v>44959</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F15" s="3">
-        <v>44972</v>
+        <v>45019</v>
       </c>
       <c r="G15" s="3">
         <v>44959</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E16" s="5">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F16" s="3">
-        <v>44957</v>
+        <v>44972</v>
       </c>
       <c r="G16" s="3">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E17" s="5">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="F17" s="3">
-        <v>44942</v>
+        <v>44957</v>
       </c>
       <c r="G17" s="3">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5">
+        <v>255</v>
+      </c>
+      <c r="F18" s="3">
+        <v>44942</v>
+      </c>
+      <c r="G18" s="3">
+        <v>44953</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>44946</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <v>110</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="3">
         <v>45016</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <v>44946</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
         <v>44951</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B20" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C20" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E20" s="21">
         <v>76</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F20" s="19">
         <v>44995</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G20" s="19">
         <v>44951</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H20" s="20" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>44951</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="5">
-        <v>374</v>
-      </c>
-      <c r="F20" s="3">
-        <v>45011</v>
-      </c>
-      <c r="G20" s="3">
-        <v>44951</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="5">
-        <v>125</v>
+        <v>374</v>
       </c>
       <c r="F21" s="3">
-        <v>45016</v>
+        <v>45011</v>
       </c>
       <c r="G21" s="3">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>24</v>
@@ -1349,13 +1355,13 @@
         <v>25</v>
       </c>
       <c r="E22" s="5">
-        <v>964</v>
+        <v>125</v>
       </c>
       <c r="F22" s="3">
         <v>45016</v>
       </c>
       <c r="G22" s="3">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>26</v>
@@ -1363,62 +1369,62 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44942</v>
+        <v>44945</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E23" s="5">
-        <v>77</v>
+        <v>964</v>
       </c>
       <c r="F23" s="3">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="G23" s="3">
-        <v>44942</v>
+        <v>44945</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44938</v>
+        <v>44942</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E24" s="5">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="F24" s="3">
-        <v>44937</v>
+        <v>45002</v>
       </c>
       <c r="G24" s="3">
-        <v>44938</v>
+        <v>44942</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
@@ -1427,13 +1433,13 @@
         <v>20</v>
       </c>
       <c r="E25" s="5">
-        <v>801</v>
+        <v>139</v>
       </c>
       <c r="F25" s="3">
-        <v>45003</v>
+        <v>44937</v>
       </c>
       <c r="G25" s="3">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>21</v>
@@ -1441,88 +1447,88 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26" s="5">
-        <v>76</v>
+        <v>801</v>
       </c>
       <c r="F26" s="3">
-        <v>45281</v>
+        <v>45003</v>
       </c>
       <c r="G26" s="3">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5">
+        <v>76</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45281</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44936</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>44935</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E28" s="5">
         <v>85</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28" s="3">
         <v>44971</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G28" s="3">
         <v>44935</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>44931</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="5">
-        <v>370</v>
-      </c>
-      <c r="F28" s="3">
-        <v>44957</v>
-      </c>
-      <c r="G28" s="3">
-        <v>44931</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>44932</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
@@ -1531,27 +1537,43 @@
         <v>10</v>
       </c>
       <c r="E29" s="5">
+        <v>370</v>
+      </c>
+      <c r="F29" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G29" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>44932</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="5">
         <v>20</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F30" s="3">
         <v>44988</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G30" s="3">
         <v>44932</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -1654,24 +1676,24 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="4"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
@@ -1854,24 +1876,24 @@
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="14"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="4"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
@@ -1924,24 +1946,24 @@
       <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="14"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="4"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="14"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
@@ -2034,14 +2056,14 @@
       <c r="H78" s="4"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="14"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
@@ -2064,14 +2086,14 @@
       <c r="H81" s="14"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="4"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="14"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
@@ -2094,24 +2116,24 @@
       <c r="H84" s="4"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="14"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="4"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="14"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
@@ -2134,14 +2156,14 @@
       <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="10"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
@@ -2154,14 +2176,14 @@
       <c r="H90" s="10"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="4"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -2234,34 +2256,34 @@
       <c r="H98" s="4"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="7"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="4"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="10"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="7"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="4"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="10"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
@@ -2354,24 +2376,34 @@
       <c r="H110" s="4"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="9"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="10"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="4"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="4"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="10"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8AE7310-E19E-4069-AB65-CC66E70B0AF9}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{944AAB46-EB6F-4143-8ECB-7723B5031779}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="2805" yWindow="915" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -280,6 +280,63 @@
   </si>
   <si>
     <t>Houston</t>
+  </si>
+  <si>
+    <t>TuSimple, Inc. (Hutchins)</t>
+  </si>
+  <si>
+    <t>Hutchins</t>
+  </si>
+  <si>
+    <t>TuSimple, Inc. (Fort Worth)</t>
+  </si>
+  <si>
+    <t>SNL Distribution Services Corporation</t>
+  </si>
+  <si>
+    <t>Interceramic San Antonio Showroom</t>
+  </si>
+  <si>
+    <t>Interceramic Plano Showroom</t>
+  </si>
+  <si>
+    <t>Plano</t>
+  </si>
+  <si>
+    <t>Interceramic Houston-Spring Showroom</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Interceramic Houston Showroom (Clay Road)</t>
+  </si>
+  <si>
+    <t>Interceramic Corporate Office and Distribution Center</t>
+  </si>
+  <si>
+    <t>Carrollton</t>
+  </si>
+  <si>
+    <t>Interceramic Tile &amp; Stone Gallery</t>
+  </si>
+  <si>
+    <t>Interceramic Manufacturing Facility</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
+    <t>Interceramic Fort Worth Showroom</t>
+  </si>
+  <si>
+    <t>Interceramic Austin Showroom</t>
+  </si>
+  <si>
+    <t>EP Lamination</t>
+  </si>
+  <si>
+    <t>Southwest General Hospital, LP</t>
   </si>
 </sst>
 </file>
@@ -777,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,660 +880,660 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44980</v>
+        <v>44988</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5">
-        <v>120</v>
+        <v>827</v>
       </c>
       <c r="F2" s="3">
-        <v>45039</v>
+        <v>45047</v>
       </c>
       <c r="G2" s="3">
-        <v>44980</v>
+        <v>44988</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44973</v>
+        <v>44987</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="E3" s="5">
-        <v>40</v>
-      </c>
-      <c r="F3" s="12">
-        <v>44965</v>
+        <v>53</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45048</v>
       </c>
       <c r="G3" s="3">
-        <v>44973</v>
+        <v>44987</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44973</v>
+        <v>44985</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3">
-        <v>44981</v>
+        <v>45169</v>
       </c>
       <c r="G4" s="3">
-        <v>44973</v>
+        <v>44985</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44978</v>
+        <v>44985</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E5" s="5">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3">
-        <v>45032</v>
+        <v>45077</v>
       </c>
       <c r="G5" s="3">
-        <v>44978</v>
+        <v>44985</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44972</v>
+        <v>44985</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="F6" s="3">
-        <v>44974</v>
+        <v>44979</v>
       </c>
       <c r="G6" s="3">
-        <v>44972</v>
+        <v>44985</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44965</v>
+        <v>44985</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3">
-        <v>45065</v>
+        <v>45169</v>
       </c>
       <c r="G7" s="3">
-        <v>44966</v>
+        <v>44985</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F8" s="3">
-        <v>45024</v>
+        <v>45016</v>
       </c>
       <c r="G8" s="3">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E9" s="5">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3">
-        <v>45017</v>
+        <v>45169</v>
       </c>
       <c r="G9" s="3">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E10" s="5">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3">
-        <v>45013</v>
+        <v>45077</v>
       </c>
       <c r="G10" s="3">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3">
-        <v>45020</v>
+        <v>45077</v>
       </c>
       <c r="G11" s="3">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44957</v>
+        <v>44984</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E12" s="5">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3">
-        <v>44956</v>
+        <v>45169</v>
       </c>
       <c r="G12" s="3">
-        <v>44957</v>
+        <v>44984</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44957</v>
+        <v>44984</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F13" s="3">
         <v>45016</v>
       </c>
       <c r="G13" s="3">
-        <v>44957</v>
+        <v>44984</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44959</v>
+        <v>44984</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3">
-        <v>45017</v>
+        <v>44974</v>
       </c>
       <c r="G14" s="3">
-        <v>44959</v>
+        <v>44984</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44959</v>
+        <v>44984</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E15" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3">
-        <v>45019</v>
+        <v>44974</v>
       </c>
       <c r="G15" s="3">
-        <v>44959</v>
+        <v>44984</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44959</v>
+        <v>44980</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E16" s="5">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F16" s="3">
-        <v>44972</v>
+        <v>45039</v>
       </c>
       <c r="G16" s="3">
-        <v>44959</v>
+        <v>44980</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44957</v>
+        <v>44973</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E17" s="5">
-        <v>90</v>
-      </c>
-      <c r="F17" s="3">
-        <v>44957</v>
+        <v>40</v>
+      </c>
+      <c r="F17" s="12">
+        <v>44965</v>
       </c>
       <c r="G17" s="3">
-        <v>44960</v>
+        <v>44973</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44953</v>
+        <v>44973</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E18" s="5">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="F18" s="3">
-        <v>44942</v>
+        <v>44981</v>
       </c>
       <c r="G18" s="3">
-        <v>44953</v>
+        <v>44973</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>44946</v>
+        <v>44978</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E19" s="5">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F19" s="3">
-        <v>45016</v>
+        <v>45032</v>
       </c>
       <c r="G19" s="3">
-        <v>44946</v>
+        <v>44978</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <v>44951</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="21">
-        <v>76</v>
-      </c>
-      <c r="F20" s="19">
-        <v>44995</v>
-      </c>
-      <c r="G20" s="19">
-        <v>44951</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>26</v>
+      <c r="A20" s="3">
+        <v>44972</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="5">
+        <v>64</v>
+      </c>
+      <c r="F20" s="3">
+        <v>44974</v>
+      </c>
+      <c r="G20" s="3">
+        <v>44972</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>44951</v>
+        <v>44965</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E21" s="5">
-        <v>374</v>
+        <v>92</v>
       </c>
       <c r="F21" s="3">
-        <v>45011</v>
+        <v>45065</v>
       </c>
       <c r="G21" s="3">
-        <v>44951</v>
+        <v>44966</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44950</v>
+        <v>44964</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E22" s="5">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F22" s="3">
-        <v>45016</v>
+        <v>45024</v>
       </c>
       <c r="G22" s="3">
-        <v>44950</v>
+        <v>44964</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44945</v>
+        <v>44964</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E23" s="5">
-        <v>964</v>
+        <v>60</v>
       </c>
       <c r="F23" s="3">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="G23" s="3">
-        <v>44945</v>
+        <v>44964</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44942</v>
+        <v>44964</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E24" s="5">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F24" s="3">
-        <v>45002</v>
+        <v>45013</v>
       </c>
       <c r="G24" s="3">
-        <v>44942</v>
+        <v>44964</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>44938</v>
+        <v>44964</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E25" s="5">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="F25" s="3">
-        <v>44937</v>
+        <v>45020</v>
       </c>
       <c r="G25" s="3">
-        <v>44938</v>
+        <v>44964</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44937</v>
+        <v>44957</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" s="5">
-        <v>801</v>
+        <v>83</v>
       </c>
       <c r="F26" s="3">
-        <v>45003</v>
+        <v>44956</v>
       </c>
       <c r="G26" s="3">
-        <v>44937</v>
+        <v>44957</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>44936</v>
+        <v>44957</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -1485,235 +1542,459 @@
         <v>10</v>
       </c>
       <c r="E27" s="5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F27" s="3">
-        <v>45281</v>
+        <v>45016</v>
       </c>
       <c r="G27" s="3">
-        <v>44936</v>
+        <v>44957</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44935</v>
+        <v>44959</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E28" s="5">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="F28" s="3">
-        <v>44971</v>
+        <v>45017</v>
       </c>
       <c r="G28" s="3">
-        <v>44935</v>
+        <v>44959</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>44931</v>
+        <v>44959</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="5">
         <v>9</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="5">
-        <v>370</v>
-      </c>
       <c r="F29" s="3">
-        <v>44957</v>
+        <v>45019</v>
       </c>
       <c r="G29" s="3">
-        <v>44931</v>
+        <v>44959</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="5">
+        <v>140</v>
+      </c>
+      <c r="F30" s="3">
+        <v>44972</v>
+      </c>
+      <c r="G30" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="5">
+        <v>90</v>
+      </c>
+      <c r="F31" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G31" s="3">
+        <v>44960</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="5">
+        <v>255</v>
+      </c>
+      <c r="F32" s="3">
+        <v>44942</v>
+      </c>
+      <c r="G32" s="3">
+        <v>44953</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>44946</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="5">
+        <v>110</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G33" s="3">
+        <v>44946</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>44951</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="21">
+        <v>76</v>
+      </c>
+      <c r="F34" s="19">
+        <v>44995</v>
+      </c>
+      <c r="G34" s="19">
+        <v>44951</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>44951</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="5">
+        <v>374</v>
+      </c>
+      <c r="F35" s="3">
+        <v>45011</v>
+      </c>
+      <c r="G35" s="3">
+        <v>44951</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>44950</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="5">
+        <v>125</v>
+      </c>
+      <c r="F36" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G36" s="3">
+        <v>44950</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>44945</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="5">
+        <v>964</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G37" s="3">
+        <v>44945</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>44942</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="5">
+        <v>77</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45002</v>
+      </c>
+      <c r="G38" s="3">
+        <v>44942</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>44938</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="5">
+        <v>139</v>
+      </c>
+      <c r="F39" s="3">
+        <v>44937</v>
+      </c>
+      <c r="G39" s="3">
+        <v>44938</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="5">
+        <v>801</v>
+      </c>
+      <c r="F40" s="3">
+        <v>45003</v>
+      </c>
+      <c r="G40" s="3">
+        <v>44937</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="5">
+        <v>76</v>
+      </c>
+      <c r="F41" s="3">
+        <v>45281</v>
+      </c>
+      <c r="G41" s="3">
+        <v>44936</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="5">
+        <v>85</v>
+      </c>
+      <c r="F42" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G42" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="5">
+        <v>370</v>
+      </c>
+      <c r="F43" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G43" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>44932</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E44" s="5">
         <v>20</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F44" s="3">
         <v>44988</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G44" s="3">
         <v>44932</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
@@ -1826,14 +2107,14 @@
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="4"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
@@ -1886,14 +2167,14 @@
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="14"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
@@ -1956,14 +2237,14 @@
       <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="14"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
@@ -2026,14 +2307,14 @@
       <c r="H75" s="4"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="4"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="14"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
@@ -2066,44 +2347,44 @@
       <c r="H79" s="4"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="14"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="4"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="14"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="4"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="4"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="4"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="14"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
@@ -2126,14 +2407,14 @@
       <c r="H85" s="4"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="14"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
@@ -2166,24 +2447,24 @@
       <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="10"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="10"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -2206,34 +2487,34 @@
       <c r="H93" s="4"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="4"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="14"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="4"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="14"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="4"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="14"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
@@ -2266,24 +2547,24 @@
       <c r="H99" s="4"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="7"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="14"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="10"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="4"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
@@ -2306,24 +2587,24 @@
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="4"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="10"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="4"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="10"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
@@ -2386,14 +2667,14 @@
       <c r="H111" s="4"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="10"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="4"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -2405,6 +2686,146 @@
       <c r="G113" s="3"/>
       <c r="H113" s="4"/>
     </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="9"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="10"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="4"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="9"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="10"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{944AAB46-EB6F-4143-8ECB-7723B5031779}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF87E98D-2A51-4374-BCC8-9DA040508793}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="915" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="12312" yWindow="408" windowWidth="12156" windowHeight="8964" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Southwest General Hospital, LP</t>
+  </si>
+  <si>
+    <t>Security Specialists, Inc (Austin)</t>
   </si>
 </sst>
 </file>
@@ -834,25 +837,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,142 +881,142 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
+        <v>44993</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5">
+        <v>240</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45044</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44993</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>44988</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="5">
         <v>827</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F3" s="3">
         <v>45047</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G3" s="3">
         <v>44988</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>44987</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="5">
         <v>53</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="3">
         <v>45048</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G4" s="3">
         <v>44987</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>44985</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3">
-        <v>45169</v>
-      </c>
-      <c r="G4" s="3">
-        <v>44985</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44985</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G5" s="3">
         <v>44985</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>44985</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E6" s="5">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3">
-        <v>44979</v>
+        <v>45077</v>
       </c>
       <c r="G6" s="3">
         <v>44985</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>44985</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -1022,76 +1025,76 @@
         <v>10</v>
       </c>
       <c r="E7" s="5">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F7" s="3">
-        <v>45169</v>
+        <v>44979</v>
       </c>
       <c r="G7" s="3">
         <v>44985</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G8" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44984</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="F9" s="3">
-        <v>45169</v>
+        <v>45016</v>
       </c>
       <c r="G9" s="3">
         <v>44984</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>44984</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>78</v>
@@ -1100,33 +1103,33 @@
         <v>69</v>
       </c>
       <c r="E10" s="5">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G10" s="3">
         <v>44984</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>44984</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E11" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3">
         <v>45077</v>
@@ -1135,67 +1138,67 @@
         <v>44984</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44984</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G12" s="3">
         <v>44984</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>44984</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E13" s="5">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G13" s="3">
         <v>44984</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>44984</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>29</v>
@@ -1204,27 +1207,27 @@
         <v>25</v>
       </c>
       <c r="E14" s="5">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F14" s="3">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G14" s="3">
         <v>44984</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44984</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>25</v>
@@ -1239,41 +1242,41 @@
         <v>44984</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
+        <v>44974</v>
+      </c>
+      <c r="G16" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>44980</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="5">
-        <v>120</v>
-      </c>
-      <c r="F16" s="3">
-        <v>45039</v>
-      </c>
-      <c r="G16" s="3">
-        <v>44980</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>44973</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>78</v>
@@ -1282,258 +1285,258 @@
         <v>69</v>
       </c>
       <c r="E17" s="5">
-        <v>40</v>
-      </c>
-      <c r="F17" s="12">
-        <v>44965</v>
+        <v>120</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45039</v>
       </c>
       <c r="G17" s="3">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44973</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E18" s="5">
-        <v>186</v>
-      </c>
-      <c r="F18" s="3">
-        <v>44981</v>
+        <v>40</v>
+      </c>
+      <c r="F18" s="12">
+        <v>44965</v>
       </c>
       <c r="G18" s="3">
         <v>44973</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>44973</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="5">
+        <v>186</v>
+      </c>
+      <c r="F19" s="3">
+        <v>44981</v>
+      </c>
+      <c r="G19" s="3">
+        <v>44973</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>44978</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="5">
         <v>100</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="3">
         <v>45032</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="3">
         <v>44978</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>44972</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="5">
         <v>64</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>44974</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>44972</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>44965</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <v>92</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="3">
         <v>45065</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <v>44966</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="5">
-        <v>121</v>
-      </c>
-      <c r="F22" s="3">
-        <v>45024</v>
-      </c>
-      <c r="G22" s="3">
-        <v>44964</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>44964</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E23" s="5">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F23" s="3">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="G23" s="3">
         <v>44964</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44964</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="5">
         <v>60</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="5">
-        <v>65</v>
-      </c>
       <c r="F24" s="3">
-        <v>45013</v>
+        <v>45017</v>
       </c>
       <c r="G24" s="3">
         <v>44964</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>44964</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E25" s="5">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F25" s="3">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="G25" s="3">
         <v>44964</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="5">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45020</v>
+      </c>
+      <c r="G26" s="3">
+        <v>44964</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>44957</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="5">
-        <v>83</v>
-      </c>
-      <c r="F26" s="3">
-        <v>44956</v>
-      </c>
-      <c r="G26" s="3">
-        <v>44957</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>44957</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -1542,258 +1545,258 @@
         <v>10</v>
       </c>
       <c r="E27" s="5">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F27" s="3">
-        <v>45016</v>
+        <v>44956</v>
       </c>
       <c r="G27" s="3">
         <v>44957</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="5">
+        <v>74</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G28" s="3">
+        <v>44957</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>44959</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="5">
-        <v>158</v>
-      </c>
-      <c r="F28" s="3">
-        <v>45017</v>
-      </c>
-      <c r="G28" s="3">
-        <v>44959</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44959</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E29" s="5">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="F29" s="3">
-        <v>45019</v>
+        <v>45017</v>
       </c>
       <c r="G29" s="3">
         <v>44959</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>44959</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E30" s="5">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F30" s="3">
-        <v>44972</v>
+        <v>45019</v>
       </c>
       <c r="G30" s="3">
         <v>44959</v>
       </c>
       <c r="H30" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="5">
+        <v>140</v>
+      </c>
+      <c r="F31" s="3">
+        <v>44972</v>
+      </c>
+      <c r="G31" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>44957</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E32" s="5">
         <v>90</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F32" s="3">
         <v>44957</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G32" s="3">
         <v>44960</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <v>44953</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="5">
         <v>255</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="3">
         <v>44942</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="3">
         <v>44953</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
         <v>44946</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E34" s="5">
         <v>110</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="3">
         <v>45016</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G34" s="3">
         <v>44946</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
         <v>44951</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C35" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D35" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E35" s="21">
         <v>76</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F35" s="19">
         <v>44995</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G35" s="19">
         <v>44951</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H35" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>44951</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="5">
-        <v>374</v>
-      </c>
-      <c r="F35" s="3">
-        <v>45011</v>
-      </c>
-      <c r="G35" s="3">
-        <v>44951</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>44950</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="5">
-        <v>125</v>
+        <v>374</v>
       </c>
       <c r="F36" s="3">
-        <v>45016</v>
+        <v>45011</v>
       </c>
       <c r="G36" s="3">
+        <v>44951</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>44950</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>44945</v>
-      </c>
       <c r="B37" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>24</v>
@@ -1802,76 +1805,76 @@
         <v>25</v>
       </c>
       <c r="E37" s="5">
-        <v>964</v>
+        <v>125</v>
       </c>
       <c r="F37" s="3">
         <v>45016</v>
       </c>
       <c r="G37" s="3">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
+        <v>44945</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="5">
+        <v>964</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G38" s="3">
+        <v>44945</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>44942</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E39" s="5">
         <v>77</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F39" s="3">
         <v>45002</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G39" s="3">
         <v>44942</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>44938</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="5">
-        <v>139</v>
-      </c>
-      <c r="F39" s="3">
-        <v>44937</v>
-      </c>
-      <c r="G39" s="3">
-        <v>44938</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>44937</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>19</v>
@@ -1880,102 +1883,102 @@
         <v>20</v>
       </c>
       <c r="E40" s="5">
-        <v>801</v>
+        <v>139</v>
       </c>
       <c r="F40" s="3">
-        <v>45003</v>
+        <v>44937</v>
       </c>
       <c r="G40" s="3">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="5">
+        <v>801</v>
+      </c>
+      <c r="F41" s="3">
+        <v>45003</v>
+      </c>
+      <c r="G41" s="3">
+        <v>44937</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>44936</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E42" s="5">
         <v>76</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F42" s="3">
         <v>45281</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G42" s="3">
         <v>44936</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
         <v>44935</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E43" s="5">
         <v>85</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F43" s="3">
         <v>44971</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G43" s="3">
         <v>44935</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
         <v>44931</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="5">
-        <v>370</v>
-      </c>
-      <c r="F43" s="3">
-        <v>44957</v>
-      </c>
-      <c r="G43" s="3">
-        <v>44931</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>44932</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>9</v>
@@ -1984,29 +1987,45 @@
         <v>10</v>
       </c>
       <c r="E44" s="5">
+        <v>370</v>
+      </c>
+      <c r="F44" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G44" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44932</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="5">
         <v>20</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F45" s="3">
         <v>44988</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G45" s="3">
         <v>44932</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2016,7 +2035,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2026,7 +2045,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2036,7 +2055,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2046,7 +2065,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2056,7 +2075,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2066,7 +2085,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2076,7 +2095,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2086,7 +2105,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2096,7 +2115,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2106,27 +2125,27 @@
       <c r="G55" s="3"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="17"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2136,7 +2155,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2146,7 +2165,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2156,7 +2175,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2166,7 +2185,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2176,7 +2195,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2186,7 +2205,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2196,7 +2215,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2206,7 +2225,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2216,7 +2235,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2226,7 +2245,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2236,7 +2255,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2246,7 +2265,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2256,7 +2275,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2266,7 +2285,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2276,7 +2295,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2286,7 +2305,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2296,7 +2315,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2306,27 +2325,27 @@
       <c r="G75" s="3"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="14"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="14"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2336,7 +2355,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2346,7 +2365,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2356,7 +2375,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2366,7 +2385,7 @@
       <c r="G81" s="3"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2376,27 +2395,27 @@
       <c r="G82" s="3"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="14"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="3"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="13"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="14"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2406,7 +2425,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2416,7 +2435,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2426,7 +2445,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2436,7 +2455,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2446,7 +2465,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2456,7 +2475,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2466,7 +2485,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2476,7 +2495,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2486,17 +2505,17 @@
       <c r="G93" s="3"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="14"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="3"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -2506,7 +2525,7 @@
       <c r="G95" s="13"/>
       <c r="H95" s="14"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="13"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -2516,17 +2535,17 @@
       <c r="G96" s="13"/>
       <c r="H96" s="14"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="13"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="14"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2536,7 +2555,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2546,27 +2565,27 @@
       <c r="G99" s="3"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="13"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="14"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="3"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="13"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="14"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -2576,7 +2595,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2586,17 +2605,17 @@
       <c r="G103" s="3"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="10"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="3"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -2606,17 +2625,17 @@
       <c r="G105" s="9"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="9"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="10"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2626,7 +2645,7 @@
       <c r="G107" s="3"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2636,7 +2655,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2646,7 +2665,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2656,7 +2675,7 @@
       <c r="G110" s="3"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2666,7 +2685,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2676,7 +2695,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2686,37 +2705,37 @@
       <c r="G113" s="3"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="7"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="10"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="4"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="3"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="6"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="9"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="10"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2726,7 +2745,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2736,7 +2755,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2746,7 +2765,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2756,7 +2775,7 @@
       <c r="G120" s="3"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2766,7 +2785,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2776,7 +2795,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2786,7 +2805,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2796,7 +2815,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2806,25 +2825,35 @@
       <c r="G125" s="3"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="10"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="4"/>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="3"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="9"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="10"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="3"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Communications\WARN letters\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{19CE0048-2769-4784-B517-D1DDF22499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF87E98D-2A51-4374-BCC8-9DA040508793}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12312" yWindow="408" windowWidth="12156" windowHeight="8964" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>Security Specialists, Inc (Austin)</t>
+  </si>
+  <si>
+    <t>Penske Logistics, LLC-Keller</t>
+  </si>
+  <si>
+    <t>Keller</t>
   </si>
 </sst>
 </file>
@@ -389,6 +395,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -837,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,106 +890,106 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>44993</v>
+        <v>45005</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E2" s="5">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="F2" s="3">
-        <v>45044</v>
+        <v>45066</v>
       </c>
       <c r="G2" s="3">
-        <v>44993</v>
+        <v>45005</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>44988</v>
+        <v>44993</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5">
-        <v>827</v>
+        <v>240</v>
       </c>
       <c r="F3" s="3">
-        <v>45047</v>
+        <v>45044</v>
       </c>
       <c r="G3" s="3">
-        <v>44988</v>
+        <v>44993</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5">
-        <v>53</v>
+        <v>827</v>
       </c>
       <c r="F4" s="3">
-        <v>45048</v>
+        <v>45047</v>
       </c>
       <c r="G4" s="3">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E5" s="5">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F5" s="3">
-        <v>45169</v>
+        <v>45048</v>
       </c>
       <c r="G5" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -990,25 +997,25 @@
         <v>44985</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G6" s="3">
         <v>44985</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1016,25 +1023,25 @@
         <v>44985</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E7" s="5">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3">
-        <v>44979</v>
+        <v>45077</v>
       </c>
       <c r="G7" s="3">
         <v>44985</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1042,7 +1049,7 @@
         <v>44985</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1051,42 +1058,42 @@
         <v>10</v>
       </c>
       <c r="E8" s="5">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F8" s="3">
-        <v>45169</v>
+        <v>44979</v>
       </c>
       <c r="G8" s="3">
         <v>44985</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E9" s="5">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="F9" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G9" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1094,25 +1101,25 @@
         <v>44984</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="F10" s="3">
-        <v>45169</v>
+        <v>45016</v>
       </c>
       <c r="G10" s="3">
         <v>44984</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1120,7 +1127,7 @@
         <v>44984</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>78</v>
@@ -1129,16 +1136,16 @@
         <v>69</v>
       </c>
       <c r="E11" s="5">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G11" s="3">
         <v>44984</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1146,16 +1153,16 @@
         <v>44984</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E12" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F12" s="3">
         <v>45077</v>
@@ -1164,7 +1171,7 @@
         <v>44984</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1172,25 +1179,25 @@
         <v>44984</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F13" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G13" s="3">
         <v>44984</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1198,25 +1205,25 @@
         <v>44984</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F14" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G14" s="3">
         <v>44984</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1224,7 +1231,7 @@
         <v>44984</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>29</v>
@@ -1233,16 +1240,16 @@
         <v>25</v>
       </c>
       <c r="E15" s="5">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F15" s="3">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G15" s="3">
         <v>44984</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1250,10 +1257,10 @@
         <v>44984</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>25</v>
@@ -1268,41 +1275,41 @@
         <v>44984</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E17" s="5">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3">
-        <v>45039</v>
+        <v>44974</v>
       </c>
       <c r="G17" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>78</v>
@@ -1311,16 +1318,16 @@
         <v>69</v>
       </c>
       <c r="E18" s="5">
-        <v>40</v>
-      </c>
-      <c r="F18" s="12">
-        <v>44965</v>
+        <v>120</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45039</v>
       </c>
       <c r="G18" s="3">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1328,129 +1335,129 @@
         <v>44973</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E19" s="5">
-        <v>186</v>
-      </c>
-      <c r="F19" s="3">
-        <v>44981</v>
+        <v>40</v>
+      </c>
+      <c r="F19" s="12">
+        <v>44965</v>
       </c>
       <c r="G19" s="3">
         <v>44973</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E20" s="5">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="F20" s="3">
-        <v>45032</v>
+        <v>44981</v>
       </c>
       <c r="G20" s="3">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E21" s="5">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>44974</v>
+        <v>45032</v>
       </c>
       <c r="G21" s="3">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>44965</v>
+        <v>44972</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E22" s="5">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F22" s="3">
-        <v>45065</v>
+        <v>44974</v>
       </c>
       <c r="G22" s="3">
-        <v>44966</v>
+        <v>44972</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E23" s="5">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="F23" s="3">
-        <v>45024</v>
+        <v>45065</v>
       </c>
       <c r="G23" s="3">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1458,25 +1465,25 @@
         <v>44964</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E24" s="5">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F24" s="3">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="G24" s="3">
         <v>44964</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1484,25 +1491,25 @@
         <v>44964</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="5">
         <v>60</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="5">
-        <v>65</v>
-      </c>
       <c r="F25" s="3">
-        <v>45013</v>
+        <v>45017</v>
       </c>
       <c r="G25" s="3">
         <v>44964</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1510,51 +1517,51 @@
         <v>44964</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E26" s="5">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F26" s="3">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="G26" s="3">
         <v>44964</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E27" s="5">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="F27" s="3">
-        <v>44956</v>
+        <v>45020</v>
       </c>
       <c r="G27" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1562,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>9</v>
@@ -1571,42 +1578,42 @@
         <v>10</v>
       </c>
       <c r="E28" s="5">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F28" s="3">
-        <v>45016</v>
+        <v>44956</v>
       </c>
       <c r="G28" s="3">
         <v>44957</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E29" s="5">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="F29" s="3">
-        <v>45017</v>
+        <v>45016</v>
       </c>
       <c r="G29" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1614,25 +1621,25 @@
         <v>44959</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E30" s="5">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="F30" s="3">
-        <v>45019</v>
+        <v>45017</v>
       </c>
       <c r="G30" s="3">
         <v>44959</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1640,189 +1647,189 @@
         <v>44959</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E31" s="5">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F31" s="3">
-        <v>44972</v>
+        <v>45019</v>
       </c>
       <c r="G31" s="3">
         <v>44959</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E32" s="5">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F32" s="3">
-        <v>44957</v>
+        <v>44972</v>
       </c>
       <c r="G32" s="3">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E33" s="5">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="F33" s="3">
-        <v>44942</v>
+        <v>44957</v>
       </c>
       <c r="G33" s="3">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="5">
+        <v>255</v>
+      </c>
+      <c r="F34" s="3">
+        <v>44942</v>
+      </c>
+      <c r="G34" s="3">
+        <v>44953</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>44946</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E35" s="5">
         <v>110</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F35" s="3">
         <v>45016</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G35" s="3">
         <v>44946</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
         <v>44951</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B36" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D36" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E36" s="21">
         <v>76</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F36" s="19">
         <v>44995</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G36" s="19">
         <v>44951</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H36" s="20" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>44951</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="5">
-        <v>374</v>
-      </c>
-      <c r="F36" s="3">
-        <v>45011</v>
-      </c>
-      <c r="G36" s="3">
-        <v>44951</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="5">
-        <v>125</v>
+        <v>374</v>
       </c>
       <c r="F37" s="3">
-        <v>45016</v>
+        <v>45011</v>
       </c>
       <c r="G37" s="3">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>24</v>
@@ -1831,13 +1838,13 @@
         <v>25</v>
       </c>
       <c r="E38" s="5">
-        <v>964</v>
+        <v>125</v>
       </c>
       <c r="F38" s="3">
         <v>45016</v>
       </c>
       <c r="G38" s="3">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>26</v>
@@ -1845,62 +1852,62 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>44942</v>
+        <v>44945</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E39" s="5">
-        <v>77</v>
+        <v>964</v>
       </c>
       <c r="F39" s="3">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="G39" s="3">
-        <v>44942</v>
+        <v>44945</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>44938</v>
+        <v>44942</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E40" s="5">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="F40" s="3">
-        <v>44937</v>
+        <v>45002</v>
       </c>
       <c r="G40" s="3">
-        <v>44938</v>
+        <v>44942</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>19</v>
@@ -1909,13 +1916,13 @@
         <v>20</v>
       </c>
       <c r="E41" s="5">
-        <v>801</v>
+        <v>139</v>
       </c>
       <c r="F41" s="3">
-        <v>45003</v>
+        <v>44937</v>
       </c>
       <c r="G41" s="3">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>21</v>
@@ -1923,88 +1930,88 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E42" s="5">
-        <v>76</v>
+        <v>801</v>
       </c>
       <c r="F42" s="3">
-        <v>45281</v>
+        <v>45003</v>
       </c>
       <c r="G42" s="3">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E43" s="5">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F43" s="3">
-        <v>44971</v>
+        <v>45281</v>
       </c>
       <c r="G43" s="3">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E44" s="5">
-        <v>370</v>
+        <v>85</v>
       </c>
       <c r="F44" s="3">
-        <v>44957</v>
+        <v>44971</v>
       </c>
       <c r="G44" s="3">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>44932</v>
+        <v>44931</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>9</v>
@@ -2013,27 +2020,43 @@
         <v>10</v>
       </c>
       <c r="E45" s="5">
+        <v>370</v>
+      </c>
+      <c r="F45" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G45" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44932</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="5">
         <v>20</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F46" s="3">
         <v>44988</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G46" s="3">
         <v>44932</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
@@ -2136,24 +2159,24 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="4"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
@@ -2336,24 +2359,24 @@
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="13"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="14"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="3"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="4"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="14"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
@@ -2406,24 +2429,24 @@
       <c r="H83" s="4"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="13"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="14"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="4"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="14"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
@@ -2516,14 +2539,14 @@
       <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="13"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="14"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="4"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="13"/>
@@ -2546,14 +2569,14 @@
       <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="3"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="4"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
@@ -2576,24 +2599,24 @@
       <c r="H100" s="4"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="13"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="14"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="4"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="3"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="4"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="14"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
@@ -2616,14 +2639,14 @@
       <c r="H104" s="4"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="9"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="10"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="4"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="9"/>
@@ -2636,14 +2659,14 @@
       <c r="H106" s="10"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="3"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="4"/>
+      <c r="A107" s="9"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="10"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
@@ -2716,34 +2739,34 @@
       <c r="H114" s="4"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="6"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="7"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="4"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="9"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="10"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="3"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="4"/>
+      <c r="A117" s="9"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="10"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
@@ -2836,24 +2859,34 @@
       <c r="H126" s="4"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="9"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="10"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="3"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="4"/>
+      <c r="A128" s="9"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="10"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="3"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Communications\WARN letters\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EF7487D-8E6F-407F-84D4-207F1B001B50}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="109">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -346,6 +346,21 @@
   </si>
   <si>
     <t>Keller</t>
+  </si>
+  <si>
+    <t>Trellis Company</t>
+  </si>
+  <si>
+    <t>Williamson</t>
+  </si>
+  <si>
+    <t>Round Rock</t>
+  </si>
+  <si>
+    <t>Ibase Operations Corporation</t>
+  </si>
+  <si>
+    <t>Saten, Inc.</t>
   </si>
 </sst>
 </file>
@@ -844,25 +859,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,12 +903,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>64</v>
@@ -902,102 +917,102 @@
         <v>65</v>
       </c>
       <c r="E2" s="5">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="F2" s="3">
-        <v>45066</v>
+        <v>45059</v>
       </c>
       <c r="G2" s="3">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="F3" s="3">
-        <v>45044</v>
+        <v>45077</v>
       </c>
       <c r="G3" s="3">
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E4" s="5">
-        <v>827</v>
+        <v>105</v>
       </c>
       <c r="F4" s="3">
-        <v>45047</v>
+        <v>45020</v>
       </c>
       <c r="G4" s="3">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44987</v>
+        <v>45005</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E5" s="5">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="F5" s="3">
-        <v>45048</v>
+        <v>45066</v>
       </c>
       <c r="G5" s="3">
-        <v>44987</v>
+        <v>45005</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
@@ -1006,85 +1021,85 @@
         <v>20</v>
       </c>
       <c r="E6" s="5">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="F6" s="3">
-        <v>45169</v>
+        <v>45044</v>
       </c>
       <c r="G6" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5">
-        <v>12</v>
+        <v>827</v>
       </c>
       <c r="F7" s="3">
-        <v>45077</v>
+        <v>45047</v>
       </c>
       <c r="G7" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="F8" s="3">
-        <v>44979</v>
+        <v>45048</v>
       </c>
       <c r="G8" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44985</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3">
         <v>45169</v>
@@ -1093,128 +1108,128 @@
         <v>44985</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="5">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45077</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44985</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>44984</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
+        <v>161</v>
+      </c>
+      <c r="F11" s="3">
+        <v>44979</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44985</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5">
-        <v>118</v>
-      </c>
-      <c r="F10" s="3">
-        <v>45016</v>
-      </c>
-      <c r="G10" s="3">
-        <v>44984</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>44984</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="5">
-        <v>35</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
         <v>45169</v>
       </c>
-      <c r="G11" s="3">
-        <v>44984</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>44984</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="5">
-        <v>7</v>
-      </c>
-      <c r="F12" s="3">
-        <v>45077</v>
-      </c>
       <c r="G12" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44984</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="5">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="F13" s="3">
-        <v>45077</v>
+        <v>45016</v>
       </c>
       <c r="G13" s="3">
         <v>44984</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44984</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E14" s="5">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F14" s="3">
         <v>45169</v>
@@ -1223,821 +1238,821 @@
         <v>44984</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44984</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E15" s="5">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="F15" s="3">
-        <v>45016</v>
+        <v>45077</v>
       </c>
       <c r="G15" s="3">
         <v>44984</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44984</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
-        <v>44974</v>
+        <v>45077</v>
       </c>
       <c r="G16" s="3">
         <v>44984</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44984</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E17" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F17" s="3">
-        <v>44974</v>
+        <v>45169</v>
       </c>
       <c r="G17" s="3">
         <v>44984</v>
       </c>
       <c r="H17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5">
+        <v>60</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G18" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3">
+        <v>44974</v>
+      </c>
+      <c r="G19" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3">
+        <v>44974</v>
+      </c>
+      <c r="G20" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>44980</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E21" s="5">
         <v>120</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F21" s="3">
         <v>45039</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G21" s="3">
         <v>44980</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>44973</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E22" s="5">
         <v>40</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F22" s="12">
         <v>44965</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G22" s="3">
         <v>44973</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>44973</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E23" s="5">
         <v>186</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F23" s="3">
         <v>44981</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G23" s="3">
         <v>44973</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>44978</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E24" s="5">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F24" s="3">
         <v>45032</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G24" s="3">
         <v>44978</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>44972</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E25" s="5">
         <v>64</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F25" s="3">
         <v>44974</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G25" s="3">
         <v>44972</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>44965</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E26" s="5">
         <v>92</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F26" s="3">
         <v>45065</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G26" s="3">
         <v>44966</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="5">
-        <v>121</v>
-      </c>
-      <c r="F24" s="3">
-        <v>45024</v>
-      </c>
-      <c r="G24" s="3">
-        <v>44964</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="5">
-        <v>60</v>
-      </c>
-      <c r="F25" s="3">
-        <v>45017</v>
-      </c>
-      <c r="G25" s="3">
-        <v>44964</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="5">
-        <v>65</v>
-      </c>
-      <c r="F26" s="3">
-        <v>45013</v>
-      </c>
-      <c r="G26" s="3">
-        <v>44964</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44964</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E27" s="5">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="F27" s="3">
-        <v>45020</v>
+        <v>45024</v>
       </c>
       <c r="G27" s="3">
         <v>44964</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="5">
+        <v>60</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45017</v>
+      </c>
+      <c r="G28" s="3">
+        <v>44964</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="5">
+        <v>65</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45013</v>
+      </c>
+      <c r="G29" s="3">
+        <v>44964</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="5">
+        <v>200</v>
+      </c>
+      <c r="F30" s="3">
+        <v>45020</v>
+      </c>
+      <c r="G30" s="3">
+        <v>44964</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>44957</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E31" s="5">
         <v>83</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F31" s="3">
         <v>44956</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G31" s="3">
         <v>44957</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>44957</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E32" s="5">
         <v>74</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F32" s="3">
         <v>45016</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G32" s="3">
         <v>44957</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>44959</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E33" s="5">
         <v>158</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F33" s="3">
         <v>45017</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G33" s="3">
         <v>44959</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>44959</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E34" s="5">
         <v>9</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F34" s="3">
         <v>45019</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G34" s="3">
         <v>44959</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>44959</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E35" s="5">
         <v>140</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F35" s="3">
         <v>44972</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G35" s="3">
         <v>44959</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>44957</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E36" s="5">
         <v>90</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F36" s="3">
         <v>44957</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G36" s="3">
         <v>44960</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>44953</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E37" s="5">
         <v>255</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F37" s="3">
         <v>44942</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G37" s="3">
         <v>44953</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>44946</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E38" s="5">
         <v>110</v>
-      </c>
-      <c r="F35" s="3">
-        <v>45016</v>
-      </c>
-      <c r="G35" s="3">
-        <v>44946</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
-        <v>44951</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="21">
-        <v>76</v>
-      </c>
-      <c r="F36" s="19">
-        <v>44995</v>
-      </c>
-      <c r="G36" s="19">
-        <v>44951</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>44951</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="5">
-        <v>374</v>
-      </c>
-      <c r="F37" s="3">
-        <v>45011</v>
-      </c>
-      <c r="G37" s="3">
-        <v>44951</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>44950</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="5">
-        <v>125</v>
       </c>
       <c r="F38" s="3">
         <v>45016</v>
       </c>
       <c r="G38" s="3">
+        <v>44946</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
+        <v>44951</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="21">
+        <v>76</v>
+      </c>
+      <c r="F39" s="19">
+        <v>44995</v>
+      </c>
+      <c r="G39" s="19">
+        <v>44951</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44951</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="5">
+        <v>374</v>
+      </c>
+      <c r="F40" s="3">
+        <v>45011</v>
+      </c>
+      <c r="G40" s="3">
+        <v>44951</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>44950</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="B41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="5">
+        <v>125</v>
+      </c>
+      <c r="F41" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G41" s="3">
+        <v>44950</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>44945</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E42" s="5">
         <v>964</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F42" s="3">
         <v>45016</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G42" s="3">
         <v>44945</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>44942</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E43" s="5">
         <v>77</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F43" s="3">
         <v>45002</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G43" s="3">
         <v>44942</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>44938</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E44" s="5">
         <v>139</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F44" s="3">
         <v>44937</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G44" s="3">
         <v>44938</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>44937</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E45" s="5">
         <v>801</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F45" s="3">
         <v>45003</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G45" s="3">
         <v>44937</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>44936</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="5">
-        <v>76</v>
-      </c>
-      <c r="F43" s="3">
-        <v>45281</v>
-      </c>
-      <c r="G43" s="3">
-        <v>44936</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>44935</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="5">
-        <v>85</v>
-      </c>
-      <c r="F44" s="3">
-        <v>44971</v>
-      </c>
-      <c r="G44" s="3">
-        <v>44935</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>44931</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="5">
-        <v>370</v>
-      </c>
-      <c r="F45" s="3">
-        <v>44957</v>
-      </c>
-      <c r="G45" s="3">
-        <v>44931</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>44932</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>9</v>
@@ -2046,49 +2061,97 @@
         <v>10</v>
       </c>
       <c r="E46" s="5">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F46" s="3">
-        <v>44988</v>
+        <v>45281</v>
       </c>
       <c r="G46" s="3">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="5">
+        <v>85</v>
+      </c>
+      <c r="F47" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G47" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="5">
+        <v>370</v>
+      </c>
+      <c r="F48" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G48" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44932</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="5">
+        <v>20</v>
+      </c>
+      <c r="F49" s="3">
+        <v>44988</v>
+      </c>
+      <c r="G49" s="3">
+        <v>44932</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2098,7 +2161,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2108,7 +2171,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2118,7 +2181,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2128,7 +2191,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2138,7 +2201,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2148,7 +2211,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2158,7 +2221,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2168,17 +2231,17 @@
       <c r="G57" s="3"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="17"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2188,7 +2251,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2198,17 +2261,17 @@
       <c r="G60" s="3"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="17"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2218,7 +2281,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2228,7 +2291,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2238,7 +2301,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2248,7 +2311,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2258,7 +2321,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2268,7 +2331,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2278,7 +2341,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2288,7 +2351,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2298,7 +2361,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2308,7 +2371,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2318,7 +2381,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2328,7 +2391,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2338,7 +2401,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2348,7 +2411,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2358,7 +2421,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2368,17 +2431,17 @@
       <c r="G77" s="3"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2388,7 +2451,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2398,17 +2461,17 @@
       <c r="G80" s="3"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="3"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="14"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2418,7 +2481,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2428,7 +2491,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2438,17 +2501,17 @@
       <c r="G84" s="3"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="13"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="14"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2458,7 +2521,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2468,17 +2531,17 @@
       <c r="G87" s="3"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="3"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2488,7 +2551,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2498,7 +2561,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2508,7 +2571,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2518,7 +2581,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2528,7 +2591,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2538,7 +2601,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2548,77 +2611,77 @@
       <c r="G95" s="3"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="13"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="14"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="13"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="14"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="13"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="14"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="3"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="4"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="3"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="4"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="3"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="13"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="14"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="13"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="14"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="14"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="14"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2628,7 +2691,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2638,37 +2701,37 @@
       <c r="G104" s="3"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="3"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="4"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="9"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="10"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="9"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="10"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="13"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="14"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2678,27 +2741,27 @@
       <c r="G108" s="3"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="3"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="4"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="3"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="4"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="9"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="10"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="9"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="10"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2708,7 +2771,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2718,7 +2781,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2728,7 +2791,7 @@
       <c r="G113" s="3"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2738,7 +2801,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2748,27 +2811,27 @@
       <c r="G115" s="3"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="6"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="7"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="9"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="10"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2778,27 +2841,27 @@
       <c r="G118" s="3"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="3"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="3"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="6"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="7"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="9"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="10"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2808,7 +2871,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2818,7 +2881,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2828,7 +2891,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2838,7 +2901,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2848,7 +2911,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -2858,7 +2921,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -2868,17 +2931,17 @@
       <c r="G127" s="3"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="9"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="10"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -2888,6 +2951,36 @@
       <c r="G129" s="3"/>
       <c r="H129" s="4"/>
     </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="9"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="10"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\datax103p\Rdata\Internet\Webwork\Working Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EF7487D-8E6F-407F-84D4-207F1B001B50}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB82B879-6AD4-4DCC-9231-67C6693D3742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="1056" yWindow="48" windowWidth="21984" windowHeight="12456" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>Saten, Inc.</t>
+  </si>
+  <si>
+    <t>Walmart #1258</t>
   </si>
 </sst>
 </file>
@@ -859,25 +862,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,12 +906,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>45007</v>
+        <v>45016</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>64</v>
@@ -917,50 +920,50 @@
         <v>65</v>
       </c>
       <c r="E2" s="5">
-        <v>54</v>
+        <v>1047</v>
       </c>
       <c r="F2" s="3">
-        <v>45059</v>
+        <v>45079</v>
       </c>
       <c r="G2" s="3">
-        <v>45007</v>
+        <v>45016</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
+        <v>45007</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="5">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45059</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45007</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>45000</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="5">
-        <v>81</v>
-      </c>
-      <c r="F3" s="3">
-        <v>45077</v>
-      </c>
-      <c r="G3" s="3">
-        <v>45000</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>44999</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>105</v>
@@ -969,206 +972,206 @@
         <v>73</v>
       </c>
       <c r="E4" s="5">
+        <v>81</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45077</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45000</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>44999</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="3">
+      <c r="D5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="5">
+        <v>105</v>
+      </c>
+      <c r="F5" s="3">
         <v>45020</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>44999</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>45005</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="5">
         <v>152</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="3">
         <v>45066</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <v>45005</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>44993</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="5">
         <v>240</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="3">
         <v>45044</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="3">
         <v>44993</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>44988</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="5">
         <v>827</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <v>45047</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="3">
         <v>44988</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>44987</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E9" s="5">
         <v>53</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="3">
         <v>45048</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <v>44987</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>44985</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3">
-        <v>45169</v>
-      </c>
-      <c r="G9" s="3">
-        <v>44985</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>44985</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G10" s="3">
         <v>44985</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>44985</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E11" s="5">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="F11" s="3">
-        <v>44979</v>
+        <v>45077</v>
       </c>
       <c r="G11" s="3">
         <v>44985</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44985</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1177,76 +1180,76 @@
         <v>10</v>
       </c>
       <c r="E12" s="5">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F12" s="3">
-        <v>45169</v>
+        <v>44979</v>
       </c>
       <c r="G12" s="3">
         <v>44985</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G13" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>44984</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="F14" s="3">
-        <v>45169</v>
+        <v>45016</v>
       </c>
       <c r="G14" s="3">
         <v>44984</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44984</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>78</v>
@@ -1255,33 +1258,33 @@
         <v>69</v>
       </c>
       <c r="E15" s="5">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F15" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G15" s="3">
         <v>44984</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>44984</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E16" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F16" s="3">
         <v>45077</v>
@@ -1290,67 +1293,67 @@
         <v>44984</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>44984</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E17" s="5">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G17" s="3">
         <v>44984</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44984</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E18" s="5">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G18" s="3">
         <v>44984</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>44984</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -1359,27 +1362,27 @@
         <v>25</v>
       </c>
       <c r="E19" s="5">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F19" s="3">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G19" s="3">
         <v>44984</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>44984</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>25</v>
@@ -1394,41 +1397,41 @@
         <v>44984</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="5">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3">
+        <v>44974</v>
+      </c>
+      <c r="G21" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>44980</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="5">
-        <v>120</v>
-      </c>
-      <c r="F21" s="3">
-        <v>45039</v>
-      </c>
-      <c r="G21" s="3">
-        <v>44980</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>44973</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>78</v>
@@ -1437,258 +1440,258 @@
         <v>69</v>
       </c>
       <c r="E22" s="5">
-        <v>40</v>
-      </c>
-      <c r="F22" s="12">
-        <v>44965</v>
+        <v>120</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45039</v>
       </c>
       <c r="G22" s="3">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>44973</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E23" s="5">
-        <v>186</v>
-      </c>
-      <c r="F23" s="3">
-        <v>44981</v>
+        <v>40</v>
+      </c>
+      <c r="F23" s="12">
+        <v>44965</v>
       </c>
       <c r="G23" s="3">
         <v>44973</v>
       </c>
       <c r="H23" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>44973</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="5">
+        <v>186</v>
+      </c>
+      <c r="F24" s="3">
+        <v>44981</v>
+      </c>
+      <c r="G24" s="3">
+        <v>44973</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>44978</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="5">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25" s="3">
         <v>45032</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <v>44978</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>44972</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E26" s="5">
         <v>64</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="3">
         <v>44974</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" s="3">
         <v>44972</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>44965</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="5">
         <v>92</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F27" s="3">
         <v>45065</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G27" s="3">
         <v>44966</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="5">
-        <v>121</v>
-      </c>
-      <c r="F27" s="3">
-        <v>45024</v>
-      </c>
-      <c r="G27" s="3">
-        <v>44964</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>44964</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E28" s="5">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F28" s="3">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="G28" s="3">
         <v>44964</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44964</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="5">
         <v>60</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="5">
-        <v>65</v>
-      </c>
       <c r="F29" s="3">
-        <v>45013</v>
+        <v>45017</v>
       </c>
       <c r="G29" s="3">
         <v>44964</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>44964</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E30" s="5">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F30" s="3">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="G30" s="3">
         <v>44964</v>
       </c>
       <c r="H30" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="5">
+        <v>200</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45020</v>
+      </c>
+      <c r="G31" s="3">
+        <v>44964</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>44957</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="5">
-        <v>83</v>
-      </c>
-      <c r="F31" s="3">
-        <v>44956</v>
-      </c>
-      <c r="G31" s="3">
-        <v>44957</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>44957</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>9</v>
@@ -1697,258 +1700,258 @@
         <v>10</v>
       </c>
       <c r="E32" s="5">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F32" s="3">
-        <v>45016</v>
+        <v>44956</v>
       </c>
       <c r="G32" s="3">
         <v>44957</v>
       </c>
       <c r="H32" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5">
+        <v>74</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G33" s="3">
+        <v>44957</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>44959</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="5">
-        <v>158</v>
-      </c>
-      <c r="F33" s="3">
-        <v>45017</v>
-      </c>
-      <c r="G33" s="3">
-        <v>44959</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44959</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E34" s="5">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="F34" s="3">
-        <v>45019</v>
+        <v>45017</v>
       </c>
       <c r="G34" s="3">
         <v>44959</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>44959</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E35" s="5">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F35" s="3">
-        <v>44972</v>
+        <v>45019</v>
       </c>
       <c r="G35" s="3">
         <v>44959</v>
       </c>
       <c r="H35" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="5">
+        <v>140</v>
+      </c>
+      <c r="F36" s="3">
+        <v>44972</v>
+      </c>
+      <c r="G36" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>44957</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E37" s="5">
         <v>90</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F37" s="3">
         <v>44957</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G37" s="3">
         <v>44960</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <v>44953</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E38" s="5">
         <v>255</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F38" s="3">
         <v>44942</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G38" s="3">
         <v>44953</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>44946</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E39" s="5">
         <v>110</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F39" s="3">
         <v>45016</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G39" s="3">
         <v>44946</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="19">
         <v>44951</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B40" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C40" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D40" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E40" s="21">
         <v>76</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F40" s="19">
         <v>44995</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G40" s="19">
         <v>44951</v>
       </c>
-      <c r="H39" s="20" t="s">
+      <c r="H40" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <v>44951</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="5">
-        <v>374</v>
-      </c>
-      <c r="F40" s="3">
-        <v>45011</v>
-      </c>
-      <c r="G40" s="3">
-        <v>44951</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>44950</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="5">
-        <v>125</v>
+        <v>374</v>
       </c>
       <c r="F41" s="3">
-        <v>45016</v>
+        <v>45011</v>
       </c>
       <c r="G41" s="3">
+        <v>44951</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>44950</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>44945</v>
-      </c>
       <c r="B42" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>24</v>
@@ -1957,76 +1960,76 @@
         <v>25</v>
       </c>
       <c r="E42" s="5">
-        <v>964</v>
+        <v>125</v>
       </c>
       <c r="F42" s="3">
         <v>45016</v>
       </c>
       <c r="G42" s="3">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
+        <v>44945</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="5">
+        <v>964</v>
+      </c>
+      <c r="F43" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G43" s="3">
+        <v>44945</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
         <v>44942</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E44" s="5">
         <v>77</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F44" s="3">
         <v>45002</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G44" s="3">
         <v>44942</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
         <v>44938</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="5">
-        <v>139</v>
-      </c>
-      <c r="F44" s="3">
-        <v>44937</v>
-      </c>
-      <c r="G44" s="3">
-        <v>44938</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>44937</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>19</v>
@@ -2035,102 +2038,102 @@
         <v>20</v>
       </c>
       <c r="E45" s="5">
-        <v>801</v>
+        <v>139</v>
       </c>
       <c r="F45" s="3">
-        <v>45003</v>
+        <v>44937</v>
       </c>
       <c r="G45" s="3">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="5">
+        <v>801</v>
+      </c>
+      <c r="F46" s="3">
+        <v>45003</v>
+      </c>
+      <c r="G46" s="3">
+        <v>44937</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
         <v>44936</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E47" s="5">
         <v>76</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F47" s="3">
         <v>45281</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G47" s="3">
         <v>44936</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
         <v>44935</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E48" s="5">
         <v>85</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F48" s="3">
         <v>44971</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G48" s="3">
         <v>44935</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
         <v>44931</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="5">
-        <v>370</v>
-      </c>
-      <c r="F48" s="3">
-        <v>44957</v>
-      </c>
-      <c r="G48" s="3">
-        <v>44931</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44932</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>9</v>
@@ -2139,29 +2142,45 @@
         <v>10</v>
       </c>
       <c r="E49" s="5">
+        <v>370</v>
+      </c>
+      <c r="F49" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G49" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>44932</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="5">
         <v>20</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F50" s="3">
         <v>44988</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G50" s="3">
         <v>44932</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2171,7 +2190,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2181,7 +2200,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2191,7 +2210,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2201,7 +2220,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2211,7 +2230,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2221,7 +2240,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2231,7 +2250,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2241,7 +2260,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2251,7 +2270,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2261,27 +2280,27 @@
       <c r="G60" s="3"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="17"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2291,7 +2310,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2301,7 +2320,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2311,7 +2330,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2321,7 +2340,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2331,7 +2350,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2341,7 +2360,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2351,7 +2370,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2361,7 +2380,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2371,7 +2390,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2381,7 +2400,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2391,7 +2410,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2401,7 +2420,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2411,7 +2430,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2421,7 +2440,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2431,7 +2450,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2441,7 +2460,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2451,7 +2470,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2461,27 +2480,27 @@
       <c r="G80" s="3"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="14"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="13"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="14"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2491,7 +2510,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2501,7 +2520,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2511,7 +2530,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2521,7 +2540,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2531,27 +2550,27 @@
       <c r="G87" s="3"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="14"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="3"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="14"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2561,7 +2580,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2571,7 +2590,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2581,7 +2600,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2591,7 +2610,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2601,7 +2620,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2611,7 +2630,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -2621,7 +2640,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2631,7 +2650,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2641,17 +2660,17 @@
       <c r="G98" s="3"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="13"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="14"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="3"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -2661,7 +2680,7 @@
       <c r="G100" s="13"/>
       <c r="H100" s="14"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -2671,17 +2690,17 @@
       <c r="G101" s="13"/>
       <c r="H101" s="14"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="13"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="14"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2691,7 +2710,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2701,27 +2720,27 @@
       <c r="G104" s="3"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="13"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="14"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="13"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="14"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2731,7 +2750,7 @@
       <c r="G107" s="3"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2741,17 +2760,17 @@
       <c r="G108" s="3"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="10"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="3"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="9"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -2761,17 +2780,17 @@
       <c r="G110" s="9"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="4"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="9"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="10"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2781,7 +2800,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2791,7 +2810,7 @@
       <c r="G113" s="3"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2801,7 +2820,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2811,7 +2830,7 @@
       <c r="G115" s="3"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2821,7 +2840,7 @@
       <c r="G116" s="3"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2831,7 +2850,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2841,37 +2860,37 @@
       <c r="G118" s="3"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="7"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="10"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="4"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="3"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="6"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="7"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="9"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="10"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2881,7 +2900,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2891,7 +2910,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2901,7 +2920,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2911,7 +2930,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -2921,7 +2940,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -2931,7 +2950,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2941,7 +2960,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -2951,7 +2970,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -2961,25 +2980,35 @@
       <c r="G130" s="3"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="9"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="10"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="4"/>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="3"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="9"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="10"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="3"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\datax103p\Rdata\Internet\Webwork\Working Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB82B879-6AD4-4DCC-9231-67C6693D3742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44C3B4BA-8EE1-44AD-B677-2B299083BC77}"/>
   <bookViews>
-    <workbookView xWindow="1056" yWindow="48" windowWidth="21984" windowHeight="12456" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="30375" yWindow="2025" windowWidth="21600" windowHeight="11325" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="118">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -364,6 +364,30 @@
   </si>
   <si>
     <t>Walmart #1258</t>
+  </si>
+  <si>
+    <t>Ibex Global Solutions (San Antonio)</t>
+  </si>
+  <si>
+    <t>Molecular Templates, Inc. (MTEM)</t>
+  </si>
+  <si>
+    <t>Hunter Douglas Fabrication Company (Custom Brands Group)</t>
+  </si>
+  <si>
+    <t>McKinney</t>
+  </si>
+  <si>
+    <t>Chalk Mountain Services of Texas LLC</t>
+  </si>
+  <si>
+    <t>Winkler</t>
+  </si>
+  <si>
+    <t>Kermit</t>
+  </si>
+  <si>
+    <t>Premier Auto Management, LLC</t>
   </si>
 </sst>
 </file>
@@ -862,25 +886,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,90 +930,90 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45016</v>
+        <v>45022</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5">
-        <v>1047</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3">
         <v>45079</v>
       </c>
       <c r="G2" s="3">
-        <v>45016</v>
+        <v>45022</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E3" s="5">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="F3" s="3">
-        <v>45059</v>
+        <v>45077</v>
       </c>
       <c r="G3" s="3">
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45000</v>
+        <v>45021</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F4" s="3">
-        <v>45077</v>
+        <v>45086</v>
       </c>
       <c r="G4" s="3">
-        <v>45000</v>
+        <v>45021</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44999</v>
+        <v>45020</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>105</v>
@@ -998,154 +1022,154 @@
         <v>73</v>
       </c>
       <c r="E5" s="5">
+        <v>84</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45075</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45020</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45019</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5">
+        <v>227</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45079</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45019</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>45016</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1047</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45079</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45016</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>45007</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="5">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45059</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45007</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>45000</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="3">
+      <c r="D9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="5">
+        <v>81</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45077</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45000</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44999</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="5">
+        <v>105</v>
+      </c>
+      <c r="F10" s="3">
         <v>45020</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G10" s="3">
         <v>44999</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>45005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="5">
-        <v>152</v>
-      </c>
-      <c r="F6" s="3">
-        <v>45066</v>
-      </c>
-      <c r="G6" s="3">
-        <v>45005</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>44993</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5">
-        <v>240</v>
-      </c>
-      <c r="F7" s="3">
-        <v>45044</v>
-      </c>
-      <c r="G7" s="3">
-        <v>44993</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>44988</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5">
-        <v>827</v>
-      </c>
-      <c r="F8" s="3">
-        <v>45047</v>
-      </c>
-      <c r="G8" s="3">
-        <v>44988</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>44987</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5">
-        <v>53</v>
-      </c>
-      <c r="F9" s="3">
-        <v>45048</v>
-      </c>
-      <c r="G9" s="3">
-        <v>44987</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>44985</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3">
-        <v>45169</v>
-      </c>
-      <c r="G10" s="3">
-        <v>44985</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>44985</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>64</v>
@@ -1154,215 +1178,215 @@
         <v>65</v>
       </c>
       <c r="E11" s="5">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="F11" s="3">
-        <v>45077</v>
+        <v>45066</v>
       </c>
       <c r="G11" s="3">
+        <v>45005</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44993</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5">
+        <v>240</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45044</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44993</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44988</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5">
+        <v>827</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45047</v>
+      </c>
+      <c r="G13" s="3">
+        <v>44988</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44987</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5">
+        <v>53</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45048</v>
+      </c>
+      <c r="G14" s="3">
+        <v>44987</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>44985</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>44985</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5">
-        <v>161</v>
-      </c>
-      <c r="F12" s="3">
-        <v>44979</v>
-      </c>
-      <c r="G12" s="3">
-        <v>44985</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>44985</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3">
-        <v>45169</v>
-      </c>
-      <c r="G13" s="3">
-        <v>44985</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>44984</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="5">
-        <v>118</v>
-      </c>
-      <c r="F14" s="3">
-        <v>45016</v>
-      </c>
-      <c r="G14" s="3">
-        <v>44984</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>44984</v>
-      </c>
       <c r="B15" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F15" s="3">
         <v>45169</v>
       </c>
       <c r="G15" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E16" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F16" s="3">
         <v>45077</v>
       </c>
       <c r="G16" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E17" s="5">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="F17" s="3">
-        <v>45077</v>
+        <v>44979</v>
       </c>
       <c r="G17" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5">
         <v>15</v>
-      </c>
-      <c r="E18" s="5">
-        <v>19</v>
       </c>
       <c r="F18" s="3">
         <v>45169</v>
       </c>
       <c r="G18" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44984</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="5">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F19" s="3">
         <v>45016</v>
@@ -1371,866 +1395,946 @@
         <v>44984</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44984</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E20" s="5">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F20" s="3">
-        <v>44974</v>
+        <v>45169</v>
       </c>
       <c r="G20" s="3">
         <v>44984</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44984</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E21" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F21" s="3">
-        <v>44974</v>
+        <v>45077</v>
       </c>
       <c r="G21" s="3">
         <v>44984</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E22" s="5">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3">
-        <v>45039</v>
+        <v>45077</v>
       </c>
       <c r="G22" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5">
-        <v>40</v>
-      </c>
-      <c r="F23" s="12">
-        <v>44965</v>
+        <v>19</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45169</v>
       </c>
       <c r="G23" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="F24" s="3">
-        <v>44981</v>
+        <v>45016</v>
       </c>
       <c r="G24" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>44978</v>
+        <v>44984</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E25" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3">
-        <v>45032</v>
+        <v>44974</v>
       </c>
       <c r="G25" s="3">
-        <v>44978</v>
+        <v>44984</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44972</v>
+        <v>44984</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E26" s="5">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3">
         <v>44974</v>
       </c>
       <c r="G26" s="3">
-        <v>44972</v>
+        <v>44984</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>44965</v>
+        <v>44980</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E27" s="5">
+        <v>120</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45039</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44980</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44973</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="5">
+        <v>40</v>
+      </c>
+      <c r="F28" s="12">
+        <v>44965</v>
+      </c>
+      <c r="G28" s="3">
+        <v>44973</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44973</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="5">
+        <v>186</v>
+      </c>
+      <c r="F29" s="3">
+        <v>44981</v>
+      </c>
+      <c r="G29" s="3">
+        <v>44973</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>44978</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="5">
+        <v>100</v>
+      </c>
+      <c r="F30" s="3">
+        <v>45032</v>
+      </c>
+      <c r="G30" s="3">
+        <v>44978</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44972</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="5">
+        <v>64</v>
+      </c>
+      <c r="F31" s="3">
+        <v>44974</v>
+      </c>
+      <c r="G31" s="3">
+        <v>44972</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44965</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="5">
         <v>92</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F32" s="3">
         <v>45065</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G32" s="3">
         <v>44966</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>44964</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E33" s="5">
         <v>121</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F33" s="3">
         <v>45024</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G33" s="3">
         <v>44964</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>44964</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E34" s="5">
         <v>60</v>
-      </c>
-      <c r="F29" s="3">
-        <v>45017</v>
-      </c>
-      <c r="G29" s="3">
-        <v>44964</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="5">
-        <v>65</v>
-      </c>
-      <c r="F30" s="3">
-        <v>45013</v>
-      </c>
-      <c r="G30" s="3">
-        <v>44964</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="5">
-        <v>200</v>
-      </c>
-      <c r="F31" s="3">
-        <v>45020</v>
-      </c>
-      <c r="G31" s="3">
-        <v>44964</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>44957</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="5">
-        <v>83</v>
-      </c>
-      <c r="F32" s="3">
-        <v>44956</v>
-      </c>
-      <c r="G32" s="3">
-        <v>44957</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>44957</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="5">
-        <v>74</v>
-      </c>
-      <c r="F33" s="3">
-        <v>45016</v>
-      </c>
-      <c r="G33" s="3">
-        <v>44957</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>44959</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="5">
-        <v>158</v>
       </c>
       <c r="F34" s="3">
         <v>45017</v>
       </c>
       <c r="G34" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E35" s="5">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F35" s="3">
-        <v>45019</v>
+        <v>45013</v>
       </c>
       <c r="G35" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E36" s="5">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="F36" s="3">
-        <v>44972</v>
+        <v>45020</v>
       </c>
       <c r="G36" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>44957</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5">
+        <v>83</v>
+      </c>
+      <c r="F37" s="3">
+        <v>44956</v>
+      </c>
+      <c r="G37" s="3">
+        <v>44957</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5">
+        <v>74</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G38" s="3">
+        <v>44957</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="5">
+        <v>158</v>
+      </c>
+      <c r="F39" s="3">
+        <v>45017</v>
+      </c>
+      <c r="G39" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="5">
+        <v>9</v>
+      </c>
+      <c r="F40" s="3">
+        <v>45019</v>
+      </c>
+      <c r="G40" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="5">
+        <v>140</v>
+      </c>
+      <c r="F41" s="3">
+        <v>44972</v>
+      </c>
+      <c r="G41" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E42" s="5">
         <v>90</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F42" s="3">
         <v>44957</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G42" s="3">
         <v>44960</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>44953</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E43" s="5">
         <v>255</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F43" s="3">
         <v>44942</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G43" s="3">
         <v>44953</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>44946</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E44" s="5">
         <v>110</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F44" s="3">
         <v>45016</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G44" s="3">
         <v>44946</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="19">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
         <v>44951</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B45" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C45" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D45" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E45" s="21">
         <v>76</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F45" s="19">
         <v>44995</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G45" s="19">
         <v>44951</v>
       </c>
-      <c r="H40" s="20" t="s">
+      <c r="H45" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>44951</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E46" s="5">
         <v>374</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F46" s="3">
         <v>45011</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G46" s="3">
         <v>44951</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>44950</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E47" s="5">
         <v>125</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F47" s="3">
         <v>45016</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G47" s="3">
         <v>44950</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>44945</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E48" s="5">
         <v>964</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F48" s="3">
         <v>45016</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G48" s="3">
         <v>44945</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>44942</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E49" s="5">
         <v>77</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F49" s="3">
         <v>45002</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G49" s="3">
         <v>44942</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>44938</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E50" s="5">
         <v>139</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F50" s="3">
         <v>44937</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G50" s="3">
         <v>44938</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>44937</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E51" s="5">
         <v>801</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F51" s="3">
         <v>45003</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G51" s="3">
         <v>44937</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>44936</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E52" s="5">
         <v>76</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F52" s="3">
         <v>45281</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G52" s="3">
         <v>44936</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>44935</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E53" s="5">
         <v>85</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F53" s="3">
         <v>44971</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G53" s="3">
         <v>44935</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>44931</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E54" s="5">
         <v>370</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F54" s="3">
         <v>44957</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G54" s="3">
         <v>44931</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>44932</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E55" s="5">
         <v>20</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F55" s="3">
         <v>44988</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G55" s="3">
         <v>44932</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2240,7 +2344,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2250,7 +2354,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2260,7 +2364,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2270,7 +2374,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2280,7 +2384,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2290,17 +2394,17 @@
       <c r="G61" s="3"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="17"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2310,7 +2414,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2320,7 +2424,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2330,7 +2434,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2340,17 +2444,17 @@
       <c r="G66" s="3"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="17"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2360,7 +2464,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2370,7 +2474,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2380,7 +2484,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2390,7 +2494,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2400,7 +2504,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2410,7 +2514,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2420,7 +2524,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2430,7 +2534,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2440,7 +2544,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2450,7 +2554,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2460,7 +2564,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2470,7 +2574,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2480,7 +2584,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2490,17 +2594,17 @@
       <c r="G81" s="3"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2510,7 +2614,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2520,7 +2624,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2530,7 +2634,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2540,17 +2644,17 @@
       <c r="G86" s="3"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="3"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="14"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2560,17 +2664,17 @@
       <c r="G88" s="3"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="13"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="14"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2580,7 +2684,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2590,7 +2694,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2600,7 +2704,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2610,17 +2714,17 @@
       <c r="G93" s="3"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="3"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="14"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2630,7 +2734,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -2640,7 +2744,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2650,7 +2754,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2660,7 +2764,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2670,37 +2774,37 @@
       <c r="G99" s="3"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="13"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="14"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="13"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="14"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="13"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="14"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2710,7 +2814,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2720,17 +2824,17 @@
       <c r="G104" s="3"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="3"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="4"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="13"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="14"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -2740,17 +2844,17 @@
       <c r="G106" s="13"/>
       <c r="H106" s="14"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="3"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2760,7 +2864,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2770,27 +2874,27 @@
       <c r="G109" s="3"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="9"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="10"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="9"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="10"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="14"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2800,7 +2904,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2810,7 +2914,7 @@
       <c r="G113" s="3"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2820,27 +2924,27 @@
       <c r="G114" s="3"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="3"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="4"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="3"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="4"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="9"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="10"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="9"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="10"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2850,7 +2954,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2860,7 +2964,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2870,27 +2974,27 @@
       <c r="G119" s="3"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="6"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="7"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="9"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="10"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2900,7 +3004,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2910,7 +3014,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2920,27 +3024,27 @@
       <c r="G124" s="3"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="3"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="4"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="3"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="4"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="6"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="7"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="9"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="10"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -2950,7 +3054,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2960,7 +3064,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -2970,7 +3074,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -2980,7 +3084,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -2990,17 +3094,17 @@
       <c r="G131" s="3"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="9"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="10"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -3010,6 +3114,56 @@
       <c r="G133" s="3"/>
       <c r="H133" s="4"/>
     </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="9"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="10"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44C3B4BA-8EE1-44AD-B677-2B299083BC77}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA702D0D-ABCB-471A-8E72-AC1A12A506BE}"/>
   <bookViews>
-    <workbookView xWindow="30375" yWindow="2025" windowWidth="21600" windowHeight="11325" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="119">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>Premier Auto Management, LLC</t>
+  </si>
+  <si>
+    <t>Aramark Campus LLC Trininty University (San Antonio)</t>
   </si>
 </sst>
 </file>
@@ -886,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,166 +935,166 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F2" s="3">
-        <v>45079</v>
+        <v>45077</v>
       </c>
       <c r="G2" s="3">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E3" s="5">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3">
-        <v>45077</v>
+        <v>45079</v>
       </c>
       <c r="G3" s="3">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45021</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="3">
-        <v>45086</v>
+        <v>45077</v>
       </c>
       <c r="G4" s="3">
         <v>45021</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45021</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45086</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45021</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>45020</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="5">
-        <v>84</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45075</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45020</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E6" s="5">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="F6" s="3">
-        <v>45079</v>
+        <v>45075</v>
       </c>
       <c r="G6" s="3">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5">
-        <v>1047</v>
+        <v>227</v>
       </c>
       <c r="F7" s="3">
         <v>45079</v>
       </c>
       <c r="G7" s="3">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45007</v>
+        <v>45016</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>64</v>
@@ -1100,13 +1103,13 @@
         <v>65</v>
       </c>
       <c r="E8" s="5">
-        <v>54</v>
+        <v>1047</v>
       </c>
       <c r="F8" s="3">
-        <v>45059</v>
+        <v>45079</v>
       </c>
       <c r="G8" s="3">
-        <v>45007</v>
+        <v>45016</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>66</v>
@@ -1114,36 +1117,36 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45000</v>
+        <v>45007</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E9" s="5">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3">
-        <v>45077</v>
+        <v>45059</v>
       </c>
       <c r="G9" s="3">
-        <v>45000</v>
+        <v>45007</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>105</v>
@@ -1152,146 +1155,146 @@
         <v>73</v>
       </c>
       <c r="E10" s="5">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F10" s="3">
-        <v>45020</v>
+        <v>45077</v>
       </c>
       <c r="G10" s="3">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45005</v>
+        <v>44999</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E11" s="5">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="F11" s="3">
-        <v>45066</v>
+        <v>45020</v>
       </c>
       <c r="G11" s="3">
-        <v>45005</v>
+        <v>44999</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44993</v>
+        <v>45005</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E12" s="5">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="F12" s="3">
-        <v>45044</v>
+        <v>45066</v>
       </c>
       <c r="G12" s="3">
-        <v>44993</v>
+        <v>45005</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44988</v>
+        <v>44993</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5">
-        <v>827</v>
+        <v>240</v>
       </c>
       <c r="F13" s="3">
-        <v>45047</v>
+        <v>45044</v>
       </c>
       <c r="G13" s="3">
-        <v>44988</v>
+        <v>44993</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5">
-        <v>53</v>
+        <v>827</v>
       </c>
       <c r="F14" s="3">
-        <v>45048</v>
+        <v>45047</v>
       </c>
       <c r="G14" s="3">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E15" s="5">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F15" s="3">
-        <v>45169</v>
+        <v>45048</v>
       </c>
       <c r="G15" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1299,25 +1302,25 @@
         <v>44985</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E16" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F16" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G16" s="3">
         <v>44985</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1325,25 +1328,25 @@
         <v>44985</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E17" s="5">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="F17" s="3">
-        <v>44979</v>
+        <v>45077</v>
       </c>
       <c r="G17" s="3">
         <v>44985</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1351,7 +1354,7 @@
         <v>44985</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
@@ -1360,42 +1363,42 @@
         <v>10</v>
       </c>
       <c r="E18" s="5">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F18" s="3">
-        <v>45169</v>
+        <v>44979</v>
       </c>
       <c r="G18" s="3">
         <v>44985</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E19" s="5">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="F19" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G19" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1403,25 +1406,25 @@
         <v>44984</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E20" s="5">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="F20" s="3">
-        <v>45169</v>
+        <v>45016</v>
       </c>
       <c r="G20" s="3">
         <v>44984</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1429,7 +1432,7 @@
         <v>44984</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>78</v>
@@ -1438,16 +1441,16 @@
         <v>69</v>
       </c>
       <c r="E21" s="5">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F21" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G21" s="3">
         <v>44984</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1455,16 +1458,16 @@
         <v>44984</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E22" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F22" s="3">
         <v>45077</v>
@@ -1473,7 +1476,7 @@
         <v>44984</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1481,25 +1484,25 @@
         <v>44984</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E23" s="5">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G23" s="3">
         <v>44984</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1507,25 +1510,25 @@
         <v>44984</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E24" s="5">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F24" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G24" s="3">
         <v>44984</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1533,7 +1536,7 @@
         <v>44984</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>29</v>
@@ -1542,16 +1545,16 @@
         <v>25</v>
       </c>
       <c r="E25" s="5">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F25" s="3">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G25" s="3">
         <v>44984</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1559,10 +1562,10 @@
         <v>44984</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>25</v>
@@ -1577,41 +1580,41 @@
         <v>44984</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E27" s="5">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3">
-        <v>45039</v>
+        <v>44974</v>
       </c>
       <c r="G27" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>78</v>
@@ -1620,16 +1623,16 @@
         <v>69</v>
       </c>
       <c r="E28" s="5">
-        <v>40</v>
-      </c>
-      <c r="F28" s="12">
-        <v>44965</v>
+        <v>120</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45039</v>
       </c>
       <c r="G28" s="3">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1637,129 +1640,129 @@
         <v>44973</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E29" s="5">
-        <v>186</v>
-      </c>
-      <c r="F29" s="3">
-        <v>44981</v>
+        <v>40</v>
+      </c>
+      <c r="F29" s="12">
+        <v>44965</v>
       </c>
       <c r="G29" s="3">
         <v>44973</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E30" s="5">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="F30" s="3">
-        <v>45032</v>
+        <v>44981</v>
       </c>
       <c r="G30" s="3">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E31" s="5">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F31" s="3">
-        <v>44974</v>
+        <v>45032</v>
       </c>
       <c r="G31" s="3">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44965</v>
+        <v>44972</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E32" s="5">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F32" s="3">
-        <v>45065</v>
+        <v>44974</v>
       </c>
       <c r="G32" s="3">
-        <v>44966</v>
+        <v>44972</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E33" s="5">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="F33" s="3">
-        <v>45024</v>
+        <v>45065</v>
       </c>
       <c r="G33" s="3">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1767,25 +1770,25 @@
         <v>44964</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E34" s="5">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F34" s="3">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="G34" s="3">
         <v>44964</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1793,25 +1796,25 @@
         <v>44964</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="5">
         <v>60</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="5">
-        <v>65</v>
-      </c>
       <c r="F35" s="3">
-        <v>45013</v>
+        <v>45017</v>
       </c>
       <c r="G35" s="3">
         <v>44964</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1819,51 +1822,51 @@
         <v>44964</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E36" s="5">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F36" s="3">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="G36" s="3">
         <v>44964</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E37" s="5">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="F37" s="3">
-        <v>44956</v>
+        <v>45020</v>
       </c>
       <c r="G37" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1871,7 +1874,7 @@
         <v>44957</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>9</v>
@@ -1880,42 +1883,42 @@
         <v>10</v>
       </c>
       <c r="E38" s="5">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F38" s="3">
-        <v>45016</v>
+        <v>44956</v>
       </c>
       <c r="G38" s="3">
         <v>44957</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E39" s="5">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="F39" s="3">
-        <v>45017</v>
+        <v>45016</v>
       </c>
       <c r="G39" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1923,25 +1926,25 @@
         <v>44959</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E40" s="5">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="F40" s="3">
-        <v>45019</v>
+        <v>45017</v>
       </c>
       <c r="G40" s="3">
         <v>44959</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1949,189 +1952,189 @@
         <v>44959</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E41" s="5">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F41" s="3">
-        <v>44972</v>
+        <v>45019</v>
       </c>
       <c r="G41" s="3">
         <v>44959</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E42" s="5">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F42" s="3">
-        <v>44957</v>
+        <v>44972</v>
       </c>
       <c r="G42" s="3">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E43" s="5">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="F43" s="3">
-        <v>44942</v>
+        <v>44957</v>
       </c>
       <c r="G43" s="3">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="5">
+        <v>255</v>
+      </c>
+      <c r="F44" s="3">
+        <v>44942</v>
+      </c>
+      <c r="G44" s="3">
+        <v>44953</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>44946</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E45" s="5">
         <v>110</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F45" s="3">
         <v>45016</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G45" s="3">
         <v>44946</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="19">
         <v>44951</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B46" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C46" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D46" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E46" s="21">
         <v>76</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F46" s="19">
         <v>44995</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G46" s="19">
         <v>44951</v>
       </c>
-      <c r="H45" s="20" t="s">
+      <c r="H46" s="20" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>44951</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="5">
-        <v>374</v>
-      </c>
-      <c r="F46" s="3">
-        <v>45011</v>
-      </c>
-      <c r="G46" s="3">
-        <v>44951</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="5">
-        <v>125</v>
+        <v>374</v>
       </c>
       <c r="F47" s="3">
-        <v>45016</v>
+        <v>45011</v>
       </c>
       <c r="G47" s="3">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>24</v>
@@ -2140,13 +2143,13 @@
         <v>25</v>
       </c>
       <c r="E48" s="5">
-        <v>964</v>
+        <v>125</v>
       </c>
       <c r="F48" s="3">
         <v>45016</v>
       </c>
       <c r="G48" s="3">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>26</v>
@@ -2154,62 +2157,62 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44942</v>
+        <v>44945</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E49" s="5">
-        <v>77</v>
+        <v>964</v>
       </c>
       <c r="F49" s="3">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="G49" s="3">
-        <v>44942</v>
+        <v>44945</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44938</v>
+        <v>44942</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E50" s="5">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="F50" s="3">
-        <v>44937</v>
+        <v>45002</v>
       </c>
       <c r="G50" s="3">
-        <v>44938</v>
+        <v>44942</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>19</v>
@@ -2218,13 +2221,13 @@
         <v>20</v>
       </c>
       <c r="E51" s="5">
-        <v>801</v>
+        <v>139</v>
       </c>
       <c r="F51" s="3">
-        <v>45003</v>
+        <v>44937</v>
       </c>
       <c r="G51" s="3">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>21</v>
@@ -2232,88 +2235,88 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E52" s="5">
-        <v>76</v>
+        <v>801</v>
       </c>
       <c r="F52" s="3">
-        <v>45281</v>
+        <v>45003</v>
       </c>
       <c r="G52" s="3">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E53" s="5">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F53" s="3">
-        <v>44971</v>
+        <v>45281</v>
       </c>
       <c r="G53" s="3">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E54" s="5">
-        <v>370</v>
+        <v>85</v>
       </c>
       <c r="F54" s="3">
-        <v>44957</v>
+        <v>44971</v>
       </c>
       <c r="G54" s="3">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44932</v>
+        <v>44931</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>9</v>
@@ -2322,27 +2325,43 @@
         <v>10</v>
       </c>
       <c r="E55" s="5">
+        <v>370</v>
+      </c>
+      <c r="F55" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G55" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>44932</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="5">
         <v>20</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F56" s="3">
         <v>44988</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G56" s="3">
         <v>44932</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
@@ -2445,24 +2464,24 @@
       <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="17"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="4"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="17"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
@@ -2645,24 +2664,24 @@
       <c r="H86" s="4"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="14"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="4"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="4"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
@@ -2715,24 +2734,24 @@
       <c r="H93" s="4"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="14"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="4"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="14"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
@@ -2825,14 +2844,14 @@
       <c r="H104" s="4"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="13"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="14"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="4"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
@@ -2855,14 +2874,14 @@
       <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="4"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="14"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -2885,24 +2904,24 @@
       <c r="H110" s="4"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="14"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="4"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="4"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -2925,14 +2944,14 @@
       <c r="H114" s="4"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="10"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="4"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
@@ -2945,14 +2964,14 @@
       <c r="H116" s="10"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="4"/>
+      <c r="A117" s="9"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="10"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
@@ -3025,34 +3044,34 @@
       <c r="H124" s="4"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="7"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="4"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="10"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="4"/>
+      <c r="A127" s="9"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="10"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
@@ -3145,24 +3164,34 @@
       <c r="H136" s="4"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="9"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="10"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="4"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="4"/>
+      <c r="A138" s="9"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="10"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA702D0D-ABCB-471A-8E72-AC1A12A506BE}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71052DD6-D9D4-4847-877E-F1330CA561CA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="32940" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="127">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -387,10 +387,34 @@
     <t>Kermit</t>
   </si>
   <si>
-    <t>Premier Auto Management, LLC</t>
-  </si>
-  <si>
     <t>Aramark Campus LLC Trininty University (San Antonio)</t>
+  </si>
+  <si>
+    <t>Packers Sanitation Services- Cactus, Texas</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>Cactus</t>
+  </si>
+  <si>
+    <t>HCS Renewable Energy, LLC</t>
+  </si>
+  <si>
+    <t>Wharton</t>
+  </si>
+  <si>
+    <t>El Campo</t>
+  </si>
+  <si>
+    <t>Walmart #4795 Grapevine</t>
+  </si>
+  <si>
+    <t>Grapevine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    </t>
   </si>
 </sst>
 </file>
@@ -889,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,270 +959,270 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E2" s="5">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F2" s="3">
-        <v>45077</v>
+        <v>45120</v>
       </c>
       <c r="G2" s="3">
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45022</v>
+        <v>45035</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E3" s="5">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3">
-        <v>45079</v>
+        <v>45095</v>
       </c>
       <c r="G3" s="3">
-        <v>45022</v>
+        <v>45035</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45021</v>
+        <v>45034</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E4" s="5">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F4" s="3">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="3">
-        <v>45021</v>
+        <v>45034</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45021</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F5" s="3">
-        <v>45086</v>
+        <v>45077</v>
       </c>
       <c r="G5" s="3">
         <v>45021</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3">
-        <v>45075</v>
+        <v>45079</v>
       </c>
       <c r="G6" s="3">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="F7" s="3">
-        <v>45079</v>
+        <v>45077</v>
       </c>
       <c r="G7" s="3">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45016</v>
+        <v>45021</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5">
-        <v>1047</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="G8" s="3">
-        <v>45016</v>
+        <v>45021</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45007</v>
+        <v>45020</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E9" s="5">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F9" s="3">
-        <v>45059</v>
+        <v>45075</v>
       </c>
       <c r="G9" s="3">
-        <v>45007</v>
+        <v>45020</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45000</v>
+        <v>45019</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E10" s="5">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="F10" s="3">
-        <v>45077</v>
+        <v>45079</v>
       </c>
       <c r="G10" s="3">
-        <v>45000</v>
+        <v>45019</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44999</v>
+        <v>45016</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E11" s="5">
-        <v>105</v>
+        <v>1047</v>
       </c>
       <c r="F11" s="3">
-        <v>45020</v>
+        <v>45079</v>
       </c>
       <c r="G11" s="3">
-        <v>44999</v>
+        <v>45016</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>64</v>
@@ -1207,39 +1231,39 @@
         <v>65</v>
       </c>
       <c r="E12" s="5">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="F12" s="3">
-        <v>45066</v>
+        <v>45059</v>
       </c>
       <c r="G12" s="3">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E13" s="5">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="F13" s="3">
-        <v>45044</v>
+        <v>45077</v>
       </c>
       <c r="G13" s="3">
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>21</v>
@@ -1247,62 +1271,62 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E14" s="5">
-        <v>827</v>
+        <v>105</v>
       </c>
       <c r="F14" s="3">
-        <v>45047</v>
+        <v>45020</v>
       </c>
       <c r="G14" s="3">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44987</v>
+        <v>45005</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E15" s="5">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="F15" s="3">
-        <v>45048</v>
+        <v>45066</v>
       </c>
       <c r="G15" s="3">
-        <v>44987</v>
+        <v>45005</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>19</v>
@@ -1311,13 +1335,13 @@
         <v>20</v>
       </c>
       <c r="E16" s="5">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="F16" s="3">
-        <v>45169</v>
+        <v>45044</v>
       </c>
       <c r="G16" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>21</v>
@@ -1325,54 +1349,54 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E17" s="5">
-        <v>12</v>
+        <v>827</v>
       </c>
       <c r="F17" s="3">
-        <v>45077</v>
+        <v>45047</v>
       </c>
       <c r="G17" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="F18" s="3">
-        <v>44979</v>
+        <v>45048</v>
       </c>
       <c r="G18" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1380,16 +1404,16 @@
         <v>44985</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E19" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F19" s="3">
         <v>45169</v>
@@ -1398,85 +1422,85 @@
         <v>44985</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E20" s="5">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="F20" s="3">
-        <v>45016</v>
+        <v>45077</v>
       </c>
       <c r="G20" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E21" s="5">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="F21" s="3">
-        <v>45169</v>
+        <v>44979</v>
       </c>
       <c r="G21" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E22" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F22" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G22" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1484,25 +1508,25 @@
         <v>44984</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="5">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="F23" s="3">
-        <v>45077</v>
+        <v>45016</v>
       </c>
       <c r="G23" s="3">
         <v>44984</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1510,16 +1534,16 @@
         <v>44984</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E24" s="5">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F24" s="3">
         <v>45169</v>
@@ -1528,7 +1552,7 @@
         <v>44984</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1536,25 +1560,25 @@
         <v>44984</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E25" s="5">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="F25" s="3">
-        <v>45016</v>
+        <v>45077</v>
       </c>
       <c r="G25" s="3">
         <v>44984</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1562,25 +1586,25 @@
         <v>44984</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F26" s="3">
-        <v>44974</v>
+        <v>45077</v>
       </c>
       <c r="G26" s="3">
         <v>44984</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1588,259 +1612,259 @@
         <v>44984</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E27" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F27" s="3">
-        <v>44974</v>
+        <v>45169</v>
       </c>
       <c r="G27" s="3">
         <v>44984</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E28" s="5">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F28" s="3">
-        <v>45039</v>
+        <v>45016</v>
       </c>
       <c r="G28" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E29" s="5">
-        <v>40</v>
-      </c>
-      <c r="F29" s="12">
-        <v>44965</v>
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>44974</v>
       </c>
       <c r="G29" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E30" s="5">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="F30" s="3">
-        <v>44981</v>
+        <v>44974</v>
       </c>
       <c r="G30" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E31" s="5">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F31" s="3">
-        <v>45032</v>
+        <v>45039</v>
       </c>
       <c r="G31" s="3">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E32" s="5">
-        <v>64</v>
-      </c>
-      <c r="F32" s="3">
-        <v>44974</v>
+        <v>40</v>
+      </c>
+      <c r="F32" s="12">
+        <v>44965</v>
       </c>
       <c r="G32" s="3">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44965</v>
+        <v>44973</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E33" s="5">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="F33" s="3">
-        <v>45065</v>
+        <v>44981</v>
       </c>
       <c r="G33" s="3">
-        <v>44966</v>
+        <v>44973</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E34" s="5">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F34" s="3">
-        <v>45024</v>
+        <v>45032</v>
       </c>
       <c r="G34" s="3">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E35" s="5">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F35" s="3">
-        <v>45017</v>
+        <v>44974</v>
       </c>
       <c r="G35" s="3">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E36" s="5">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="F36" s="3">
-        <v>45013</v>
+        <v>45065</v>
       </c>
       <c r="G36" s="3">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1848,501 +1872,501 @@
         <v>44964</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E37" s="5">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="F37" s="3">
-        <v>45020</v>
+        <v>45024</v>
       </c>
       <c r="G37" s="3">
         <v>44964</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E38" s="5">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F38" s="3">
-        <v>44956</v>
+        <v>45017</v>
       </c>
       <c r="G38" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E39" s="5">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F39" s="3">
-        <v>45016</v>
+        <v>45013</v>
       </c>
       <c r="G39" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E40" s="5">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="F40" s="3">
-        <v>45017</v>
+        <v>45020</v>
       </c>
       <c r="G40" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E41" s="5">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="F41" s="3">
-        <v>45019</v>
+        <v>44956</v>
       </c>
       <c r="G41" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E42" s="5">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F42" s="3">
-        <v>44972</v>
+        <v>45016</v>
       </c>
       <c r="G42" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E43" s="5">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="F43" s="3">
-        <v>44957</v>
+        <v>45017</v>
       </c>
       <c r="G43" s="3">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44953</v>
+        <v>44959</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E44" s="5">
-        <v>255</v>
+        <v>9</v>
       </c>
       <c r="F44" s="3">
-        <v>44942</v>
+        <v>45019</v>
       </c>
       <c r="G44" s="3">
-        <v>44953</v>
+        <v>44959</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E45" s="5">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F45" s="3">
-        <v>45016</v>
+        <v>44972</v>
       </c>
       <c r="G45" s="3">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
-        <v>44951</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="21">
-        <v>76</v>
-      </c>
-      <c r="F46" s="19">
-        <v>44995</v>
-      </c>
-      <c r="G46" s="19">
-        <v>44951</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>26</v>
+      <c r="A46" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="5">
+        <v>90</v>
+      </c>
+      <c r="F46" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G46" s="3">
+        <v>44960</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44951</v>
+        <v>44953</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E47" s="5">
-        <v>374</v>
+        <v>255</v>
       </c>
       <c r="F47" s="3">
-        <v>45011</v>
+        <v>44942</v>
       </c>
       <c r="G47" s="3">
-        <v>44951</v>
+        <v>44953</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44950</v>
+        <v>44946</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E48" s="5">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F48" s="3">
         <v>45016</v>
       </c>
       <c r="G48" s="3">
-        <v>44950</v>
+        <v>44946</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44945</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="5">
-        <v>964</v>
-      </c>
-      <c r="F49" s="3">
-        <v>45016</v>
-      </c>
-      <c r="G49" s="3">
-        <v>44945</v>
-      </c>
-      <c r="H49" s="4" t="s">
+      <c r="A49" s="19">
+        <v>44951</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="21">
+        <v>76</v>
+      </c>
+      <c r="F49" s="19">
+        <v>44995</v>
+      </c>
+      <c r="G49" s="19">
+        <v>44951</v>
+      </c>
+      <c r="H49" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44942</v>
+        <v>44951</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E50" s="5">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="F50" s="3">
-        <v>45002</v>
+        <v>45011</v>
       </c>
       <c r="G50" s="3">
-        <v>44942</v>
+        <v>44951</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44938</v>
+        <v>44950</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E51" s="5">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F51" s="3">
-        <v>44937</v>
+        <v>45016</v>
       </c>
       <c r="G51" s="3">
-        <v>44938</v>
+        <v>44950</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44937</v>
+        <v>44945</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E52" s="5">
-        <v>801</v>
+        <v>964</v>
       </c>
       <c r="F52" s="3">
-        <v>45003</v>
+        <v>45016</v>
       </c>
       <c r="G52" s="3">
-        <v>44937</v>
+        <v>44945</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44936</v>
+        <v>44942</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E53" s="5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F53" s="3">
-        <v>45281</v>
+        <v>45002</v>
       </c>
       <c r="G53" s="3">
-        <v>44936</v>
+        <v>44942</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E54" s="5">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="F54" s="3">
-        <v>44971</v>
+        <v>44937</v>
       </c>
       <c r="G54" s="3">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44931</v>
+        <v>44937</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E55" s="5">
-        <v>370</v>
+        <v>801</v>
       </c>
       <c r="F55" s="3">
-        <v>44957</v>
+        <v>45003</v>
       </c>
       <c r="G55" s="3">
-        <v>44931</v>
+        <v>44937</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>9</v>
@@ -2351,47 +2375,95 @@
         <v>10</v>
       </c>
       <c r="E56" s="5">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F56" s="3">
-        <v>44988</v>
+        <v>45281</v>
       </c>
       <c r="G56" s="3">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="4"/>
+      <c r="A57" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="5">
+        <v>85</v>
+      </c>
+      <c r="F57" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G57" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="4"/>
+      <c r="A58" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="5">
+        <v>370</v>
+      </c>
+      <c r="F58" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G58" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="4"/>
+      <c r="A59" s="3">
+        <v>44932</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="5">
+        <v>20</v>
+      </c>
+      <c r="F59" s="3">
+        <v>44988</v>
+      </c>
+      <c r="G59" s="3">
+        <v>44932</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
@@ -2474,14 +2546,14 @@
       <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="17"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
@@ -2504,14 +2576,14 @@
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="4"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="17"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
@@ -2674,14 +2746,14 @@
       <c r="H87" s="4"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="14"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
@@ -2704,14 +2776,14 @@
       <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="4"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="14"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -2744,14 +2816,14 @@
       <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="14"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="4"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
@@ -2774,14 +2846,14 @@
       <c r="H97" s="4"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="4"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
@@ -2854,74 +2926,74 @@
       <c r="H105" s="4"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="14"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="4"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="14"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="4"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="14"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="4"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="4"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="4"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="4"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="14"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="4"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -2944,34 +3016,34 @@
       <c r="H114" s="4"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="4"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="14"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="10"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="4"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="10"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="4"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
@@ -2984,24 +3056,24 @@
       <c r="H118" s="4"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="4"/>
+      <c r="A119" s="9"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="10"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="4"/>
+      <c r="A120" s="9"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="10"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
@@ -3054,24 +3126,24 @@
       <c r="H125" s="4"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="6"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="7"/>
+      <c r="A126" s="3"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="4"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="10"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
@@ -3084,24 +3156,24 @@
       <c r="H128" s="4"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="4"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="4"/>
+      <c r="A130" s="9"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="10"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
@@ -3174,14 +3246,14 @@
       <c r="H137" s="4"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="10"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="4"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
@@ -3193,6 +3265,36 @@
       <c r="G139" s="3"/>
       <c r="H139" s="4"/>
     </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="9"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="10"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71052DD6-D9D4-4847-877E-F1330CA561CA}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{127456CA-FEDE-46BF-A06B-85025F2BABC3}"/>
   <bookViews>
-    <workbookView xWindow="32940" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="31080" yWindow="1365" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="128">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t>Stanley Black &amp; Decker-Fort Worth</t>
   </si>
 </sst>
 </file>
@@ -913,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,10 +962,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>64</v>
@@ -971,258 +974,258 @@
         <v>65</v>
       </c>
       <c r="E2" s="5">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="F2" s="3">
-        <v>45120</v>
+        <v>45065</v>
       </c>
       <c r="G2" s="3">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E3" s="5">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="F3" s="3">
-        <v>45095</v>
+        <v>45120</v>
       </c>
       <c r="G3" s="3">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E4" s="5">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3">
-        <v>45076</v>
+        <v>45095</v>
       </c>
       <c r="G4" s="3">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45021</v>
+        <v>45034</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E5" s="5">
+        <v>113</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45076</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45034</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45077</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45021</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F6" s="3">
-        <v>45079</v>
+        <v>45077</v>
       </c>
       <c r="G6" s="3">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3">
-        <v>45077</v>
+        <v>45079</v>
       </c>
       <c r="G7" s="3">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45021</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E8" s="5">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8" s="3">
-        <v>45086</v>
+        <v>45077</v>
       </c>
       <c r="G8" s="3">
         <v>45021</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>45021</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45086</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45021</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>45020</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="5">
-        <v>84</v>
-      </c>
-      <c r="F9" s="3">
-        <v>45075</v>
-      </c>
-      <c r="G9" s="3">
-        <v>45020</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E10" s="5">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="F10" s="3">
-        <v>45079</v>
+        <v>45075</v>
       </c>
       <c r="G10" s="3">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5">
-        <v>1047</v>
+        <v>227</v>
       </c>
       <c r="F11" s="3">
         <v>45079</v>
       </c>
       <c r="G11" s="3">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45007</v>
+        <v>45016</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>64</v>
@@ -1231,13 +1234,13 @@
         <v>65</v>
       </c>
       <c r="E12" s="5">
-        <v>54</v>
+        <v>1047</v>
       </c>
       <c r="F12" s="3">
-        <v>45059</v>
+        <v>45079</v>
       </c>
       <c r="G12" s="3">
-        <v>45007</v>
+        <v>45016</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>66</v>
@@ -1245,36 +1248,36 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45000</v>
+        <v>45007</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E13" s="5">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F13" s="3">
-        <v>45077</v>
+        <v>45059</v>
       </c>
       <c r="G13" s="3">
-        <v>45000</v>
+        <v>45007</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>105</v>
@@ -1283,146 +1286,146 @@
         <v>73</v>
       </c>
       <c r="E14" s="5">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F14" s="3">
-        <v>45020</v>
+        <v>45077</v>
       </c>
       <c r="G14" s="3">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45005</v>
+        <v>44999</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E15" s="5">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="F15" s="3">
-        <v>45066</v>
+        <v>45020</v>
       </c>
       <c r="G15" s="3">
-        <v>45005</v>
+        <v>44999</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44993</v>
+        <v>45005</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E16" s="5">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="F16" s="3">
-        <v>45044</v>
+        <v>45066</v>
       </c>
       <c r="G16" s="3">
-        <v>44993</v>
+        <v>45005</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44988</v>
+        <v>44993</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5">
-        <v>827</v>
+        <v>240</v>
       </c>
       <c r="F17" s="3">
-        <v>45047</v>
+        <v>45044</v>
       </c>
       <c r="G17" s="3">
-        <v>44988</v>
+        <v>44993</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E18" s="5">
-        <v>53</v>
+        <v>827</v>
       </c>
       <c r="F18" s="3">
-        <v>45048</v>
+        <v>45047</v>
       </c>
       <c r="G18" s="3">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E19" s="5">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F19" s="3">
-        <v>45169</v>
+        <v>45048</v>
       </c>
       <c r="G19" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1430,25 +1433,25 @@
         <v>44985</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E20" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F20" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G20" s="3">
         <v>44985</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1456,25 +1459,25 @@
         <v>44985</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E21" s="5">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="F21" s="3">
-        <v>44979</v>
+        <v>45077</v>
       </c>
       <c r="G21" s="3">
         <v>44985</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,7 +1485,7 @@
         <v>44985</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
@@ -1491,42 +1494,42 @@
         <v>10</v>
       </c>
       <c r="E22" s="5">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F22" s="3">
-        <v>45169</v>
+        <v>44979</v>
       </c>
       <c r="G22" s="3">
         <v>44985</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E23" s="5">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="F23" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G23" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1534,25 +1537,25 @@
         <v>44984</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="F24" s="3">
-        <v>45169</v>
+        <v>45016</v>
       </c>
       <c r="G24" s="3">
         <v>44984</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1560,7 +1563,7 @@
         <v>44984</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>78</v>
@@ -1569,16 +1572,16 @@
         <v>69</v>
       </c>
       <c r="E25" s="5">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F25" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G25" s="3">
         <v>44984</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1586,16 +1589,16 @@
         <v>44984</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E26" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F26" s="3">
         <v>45077</v>
@@ -1604,7 +1607,7 @@
         <v>44984</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1612,25 +1615,25 @@
         <v>44984</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E27" s="5">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G27" s="3">
         <v>44984</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1638,25 +1641,25 @@
         <v>44984</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E28" s="5">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F28" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G28" s="3">
         <v>44984</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1664,7 +1667,7 @@
         <v>44984</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1673,16 +1676,16 @@
         <v>25</v>
       </c>
       <c r="E29" s="5">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F29" s="3">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G29" s="3">
         <v>44984</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1690,10 +1693,10 @@
         <v>44984</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>25</v>
@@ -1708,41 +1711,41 @@
         <v>44984</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E31" s="5">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="F31" s="3">
-        <v>45039</v>
+        <v>44974</v>
       </c>
       <c r="G31" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>78</v>
@@ -1751,16 +1754,16 @@
         <v>69</v>
       </c>
       <c r="E32" s="5">
-        <v>40</v>
-      </c>
-      <c r="F32" s="12">
-        <v>44965</v>
+        <v>120</v>
+      </c>
+      <c r="F32" s="3">
+        <v>45039</v>
       </c>
       <c r="G32" s="3">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1768,129 +1771,129 @@
         <v>44973</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E33" s="5">
-        <v>186</v>
-      </c>
-      <c r="F33" s="3">
-        <v>44981</v>
+        <v>40</v>
+      </c>
+      <c r="F33" s="12">
+        <v>44965</v>
       </c>
       <c r="G33" s="3">
         <v>44973</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E34" s="5">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="F34" s="3">
-        <v>45032</v>
+        <v>44981</v>
       </c>
       <c r="G34" s="3">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E35" s="5">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>44974</v>
+        <v>45032</v>
       </c>
       <c r="G35" s="3">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44965</v>
+        <v>44972</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E36" s="5">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F36" s="3">
-        <v>45065</v>
+        <v>44974</v>
       </c>
       <c r="G36" s="3">
-        <v>44966</v>
+        <v>44972</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E37" s="5">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="F37" s="3">
-        <v>45024</v>
+        <v>45065</v>
       </c>
       <c r="G37" s="3">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1898,25 +1901,25 @@
         <v>44964</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E38" s="5">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F38" s="3">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="G38" s="3">
         <v>44964</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1924,25 +1927,25 @@
         <v>44964</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="5">
         <v>60</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="5">
-        <v>65</v>
-      </c>
       <c r="F39" s="3">
-        <v>45013</v>
+        <v>45017</v>
       </c>
       <c r="G39" s="3">
         <v>44964</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1950,51 +1953,51 @@
         <v>44964</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E40" s="5">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F40" s="3">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="G40" s="3">
         <v>44964</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E41" s="5">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>44956</v>
+        <v>45020</v>
       </c>
       <c r="G41" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2002,7 +2005,7 @@
         <v>44957</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>9</v>
@@ -2011,42 +2014,42 @@
         <v>10</v>
       </c>
       <c r="E42" s="5">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F42" s="3">
-        <v>45016</v>
+        <v>44956</v>
       </c>
       <c r="G42" s="3">
         <v>44957</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E43" s="5">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="F43" s="3">
-        <v>45017</v>
+        <v>45016</v>
       </c>
       <c r="G43" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2054,25 +2057,25 @@
         <v>44959</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E44" s="5">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="F44" s="3">
-        <v>45019</v>
+        <v>45017</v>
       </c>
       <c r="G44" s="3">
         <v>44959</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2080,189 +2083,189 @@
         <v>44959</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E45" s="5">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F45" s="3">
-        <v>44972</v>
+        <v>45019</v>
       </c>
       <c r="G45" s="3">
         <v>44959</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E46" s="5">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F46" s="3">
-        <v>44957</v>
+        <v>44972</v>
       </c>
       <c r="G46" s="3">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E47" s="5">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="F47" s="3">
-        <v>44942</v>
+        <v>44957</v>
       </c>
       <c r="G47" s="3">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="5">
+        <v>255</v>
+      </c>
+      <c r="F48" s="3">
+        <v>44942</v>
+      </c>
+      <c r="G48" s="3">
+        <v>44953</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>44946</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E49" s="5">
         <v>110</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F49" s="3">
         <v>45016</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G49" s="3">
         <v>44946</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="19">
         <v>44951</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B50" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C50" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D50" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E50" s="21">
         <v>76</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F50" s="19">
         <v>44995</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G50" s="19">
         <v>44951</v>
       </c>
-      <c r="H49" s="20" t="s">
+      <c r="H50" s="20" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>44951</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="5">
-        <v>374</v>
-      </c>
-      <c r="F50" s="3">
-        <v>45011</v>
-      </c>
-      <c r="G50" s="3">
-        <v>44951</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="5">
-        <v>125</v>
+        <v>374</v>
       </c>
       <c r="F51" s="3">
-        <v>45016</v>
+        <v>45011</v>
       </c>
       <c r="G51" s="3">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>24</v>
@@ -2271,13 +2274,13 @@
         <v>25</v>
       </c>
       <c r="E52" s="5">
-        <v>964</v>
+        <v>125</v>
       </c>
       <c r="F52" s="3">
         <v>45016</v>
       </c>
       <c r="G52" s="3">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>26</v>
@@ -2285,62 +2288,62 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44942</v>
+        <v>44945</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E53" s="5">
-        <v>77</v>
+        <v>964</v>
       </c>
       <c r="F53" s="3">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="G53" s="3">
-        <v>44942</v>
+        <v>44945</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44938</v>
+        <v>44942</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E54" s="5">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="F54" s="3">
-        <v>44937</v>
+        <v>45002</v>
       </c>
       <c r="G54" s="3">
-        <v>44938</v>
+        <v>44942</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>19</v>
@@ -2349,13 +2352,13 @@
         <v>20</v>
       </c>
       <c r="E55" s="5">
-        <v>801</v>
+        <v>139</v>
       </c>
       <c r="F55" s="3">
-        <v>45003</v>
+        <v>44937</v>
       </c>
       <c r="G55" s="3">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>21</v>
@@ -2363,88 +2366,88 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E56" s="5">
-        <v>76</v>
+        <v>801</v>
       </c>
       <c r="F56" s="3">
-        <v>45281</v>
+        <v>45003</v>
       </c>
       <c r="G56" s="3">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E57" s="5">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F57" s="3">
-        <v>44971</v>
+        <v>45281</v>
       </c>
       <c r="G57" s="3">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E58" s="5">
-        <v>370</v>
+        <v>85</v>
       </c>
       <c r="F58" s="3">
-        <v>44957</v>
+        <v>44971</v>
       </c>
       <c r="G58" s="3">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44932</v>
+        <v>44931</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>9</v>
@@ -2453,27 +2456,43 @@
         <v>10</v>
       </c>
       <c r="E59" s="5">
+        <v>370</v>
+      </c>
+      <c r="F59" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G59" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>44932</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="5">
         <v>20</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F60" s="3">
         <v>44988</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G60" s="3">
         <v>44932</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
@@ -2576,24 +2595,24 @@
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="17"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="4"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
@@ -2776,24 +2795,24 @@
       <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="14"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="4"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="14"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
@@ -2846,24 +2865,24 @@
       <c r="H97" s="4"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="13"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="14"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="4"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="4"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="14"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
@@ -2956,14 +2975,14 @@
       <c r="H108" s="4"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="13"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="14"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="4"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
@@ -2986,14 +3005,14 @@
       <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="4"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -3016,24 +3035,24 @@
       <c r="H114" s="4"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="13"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="14"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="4"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="4"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="14"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
@@ -3056,14 +3075,14 @@
       <c r="H118" s="4"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="10"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="4"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
@@ -3076,14 +3095,14 @@
       <c r="H120" s="10"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="4"/>
+      <c r="A121" s="9"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="10"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
@@ -3156,34 +3175,34 @@
       <c r="H128" s="4"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="6"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="7"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="4"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="9"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="10"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="7"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="4"/>
+      <c r="A131" s="9"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="10"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
@@ -3276,24 +3295,34 @@
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="9"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="10"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="4"/>
+      <c r="A142" s="9"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="10"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{127456CA-FEDE-46BF-A06B-85025F2BABC3}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EDC48BF-E3B2-4B86-8725-F038A502A250}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="1365" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="2565" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="136">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -418,6 +418,30 @@
   </si>
   <si>
     <t>Stanley Black &amp; Decker-Fort Worth</t>
+  </si>
+  <si>
+    <t>Makita U.S.A., Inc. Factory Service Center</t>
+  </si>
+  <si>
+    <t>Makita U.S.A., Inc. Distribution Center</t>
+  </si>
+  <si>
+    <t>Wilmer</t>
+  </si>
+  <si>
+    <t>DHL Supply Chain - Sugar Land</t>
+  </si>
+  <si>
+    <t>Sugar Land</t>
+  </si>
+  <si>
+    <t>DHL Supply Chain - Missouri City</t>
+  </si>
+  <si>
+    <t>Missouri City</t>
+  </si>
+  <si>
+    <t>Aventi Technologies</t>
   </si>
 </sst>
 </file>
@@ -916,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,244 +986,244 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45041</v>
+        <v>45054</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="F2" s="3">
-        <v>45065</v>
+        <v>45058</v>
       </c>
       <c r="G2" s="3">
-        <v>45041</v>
+        <v>45054</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45036</v>
+        <v>45049</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E3" s="5">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F3" s="3">
-        <v>45120</v>
+        <v>45107</v>
       </c>
       <c r="G3" s="3">
-        <v>45036</v>
+        <v>45049</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45035</v>
+        <v>45049</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="5">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3">
-        <v>45095</v>
+        <v>45107</v>
       </c>
       <c r="G4" s="3">
-        <v>45035</v>
+        <v>45049</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45034</v>
+        <v>45049</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
-        <v>45076</v>
+        <v>45105</v>
       </c>
       <c r="G5" s="3">
-        <v>45034</v>
+        <v>45049</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45021</v>
+        <v>45049</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3">
-        <v>45077</v>
+        <v>45105</v>
       </c>
       <c r="G6" s="3">
-        <v>45021</v>
+        <v>45049</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45022</v>
+        <v>45041</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E7" s="5">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="F7" s="3">
-        <v>45079</v>
+        <v>45065</v>
       </c>
       <c r="G7" s="3">
-        <v>45022</v>
+        <v>45041</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E8" s="5">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="F8" s="3">
-        <v>45077</v>
+        <v>45120</v>
       </c>
       <c r="G8" s="3">
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45021</v>
+        <v>45035</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E9" s="5">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3">
-        <v>45086</v>
+        <v>45095</v>
       </c>
       <c r="G9" s="3">
-        <v>45021</v>
+        <v>45035</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E10" s="5">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F10" s="3">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G10" s="3">
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1208,13 +1232,13 @@
         <v>15</v>
       </c>
       <c r="E11" s="5">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="F11" s="3">
-        <v>45079</v>
+        <v>45077</v>
       </c>
       <c r="G11" s="3">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>16</v>
@@ -1222,88 +1246,88 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45016</v>
+        <v>45022</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E12" s="5">
-        <v>1047</v>
+        <v>12</v>
       </c>
       <c r="F12" s="3">
         <v>45079</v>
       </c>
       <c r="G12" s="3">
-        <v>45016</v>
+        <v>45022</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E13" s="5">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="F13" s="3">
-        <v>45059</v>
+        <v>45077</v>
       </c>
       <c r="G13" s="3">
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45000</v>
+        <v>45021</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
-        <v>45077</v>
+        <v>45086</v>
       </c>
       <c r="G14" s="3">
-        <v>45000</v>
+        <v>45021</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44999</v>
+        <v>45020</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>105</v>
@@ -1312,154 +1336,154 @@
         <v>73</v>
       </c>
       <c r="E15" s="5">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F15" s="3">
+        <v>45075</v>
+      </c>
+      <c r="G15" s="3">
         <v>45020</v>
       </c>
-      <c r="G15" s="3">
-        <v>44999</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45005</v>
+        <v>45019</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E16" s="5">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="F16" s="3">
-        <v>45066</v>
+        <v>45079</v>
       </c>
       <c r="G16" s="3">
-        <v>45005</v>
+        <v>45019</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44993</v>
+        <v>45016</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E17" s="5">
-        <v>240</v>
+        <v>1047</v>
       </c>
       <c r="F17" s="3">
-        <v>45044</v>
+        <v>45079</v>
       </c>
       <c r="G17" s="3">
-        <v>44993</v>
+        <v>45016</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44988</v>
+        <v>45007</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E18" s="5">
-        <v>827</v>
+        <v>54</v>
       </c>
       <c r="F18" s="3">
-        <v>45047</v>
+        <v>45059</v>
       </c>
       <c r="G18" s="3">
-        <v>44988</v>
+        <v>45007</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>44987</v>
+        <v>45000</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E19" s="5">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F19" s="3">
-        <v>45048</v>
+        <v>45077</v>
       </c>
       <c r="G19" s="3">
-        <v>44987</v>
+        <v>45000</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44985</v>
+        <v>44999</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E20" s="5">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F20" s="3">
-        <v>45169</v>
+        <v>45020</v>
       </c>
       <c r="G20" s="3">
-        <v>44985</v>
+        <v>44999</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>44985</v>
+        <v>45005</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>64</v>
@@ -1468,198 +1492,198 @@
         <v>65</v>
       </c>
       <c r="E21" s="5">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="F21" s="3">
-        <v>45077</v>
+        <v>45066</v>
       </c>
       <c r="G21" s="3">
-        <v>44985</v>
+        <v>45005</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" s="5">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="F22" s="3">
-        <v>44979</v>
+        <v>45044</v>
       </c>
       <c r="G22" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5">
-        <v>15</v>
+        <v>827</v>
       </c>
       <c r="F23" s="3">
-        <v>45169</v>
+        <v>45047</v>
       </c>
       <c r="G23" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44984</v>
+        <v>44987</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E24" s="5">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="F24" s="3">
-        <v>45016</v>
+        <v>45048</v>
       </c>
       <c r="G24" s="3">
-        <v>44984</v>
+        <v>44987</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E25" s="5">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F25" s="3">
         <v>45169</v>
       </c>
       <c r="G25" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E26" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F26" s="3">
         <v>45077</v>
       </c>
       <c r="G26" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E27" s="5">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="F27" s="3">
-        <v>45077</v>
+        <v>44979</v>
       </c>
       <c r="G27" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="5">
         <v>15</v>
-      </c>
-      <c r="E28" s="5">
-        <v>19</v>
       </c>
       <c r="F28" s="3">
         <v>45169</v>
       </c>
       <c r="G28" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1667,16 +1691,16 @@
         <v>44984</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="5">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F29" s="3">
         <v>45016</v>
@@ -1685,7 +1709,7 @@
         <v>44984</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1693,25 +1717,25 @@
         <v>44984</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E30" s="5">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F30" s="3">
-        <v>44974</v>
+        <v>45169</v>
       </c>
       <c r="G30" s="3">
         <v>44984</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1719,415 +1743,415 @@
         <v>44984</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E31" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F31" s="3">
-        <v>44974</v>
+        <v>45077</v>
       </c>
       <c r="G31" s="3">
         <v>44984</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E32" s="5">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="F32" s="3">
-        <v>45039</v>
+        <v>45077</v>
       </c>
       <c r="G32" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E33" s="5">
-        <v>40</v>
-      </c>
-      <c r="F33" s="12">
-        <v>44965</v>
+        <v>19</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45169</v>
       </c>
       <c r="G33" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E34" s="5">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="F34" s="3">
-        <v>44981</v>
+        <v>45016</v>
       </c>
       <c r="G34" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44978</v>
+        <v>44984</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E35" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F35" s="3">
-        <v>45032</v>
+        <v>44974</v>
       </c>
       <c r="G35" s="3">
-        <v>44978</v>
+        <v>44984</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44972</v>
+        <v>44984</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E36" s="5">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3">
         <v>44974</v>
       </c>
       <c r="G36" s="3">
-        <v>44972</v>
+        <v>44984</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44965</v>
+        <v>44980</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E37" s="5">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="F37" s="3">
-        <v>45065</v>
+        <v>45039</v>
       </c>
       <c r="G37" s="3">
-        <v>44966</v>
+        <v>44980</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E38" s="5">
-        <v>121</v>
-      </c>
-      <c r="F38" s="3">
-        <v>45024</v>
+        <v>40</v>
+      </c>
+      <c r="F38" s="12">
+        <v>44965</v>
       </c>
       <c r="G38" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E39" s="5">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="F39" s="3">
-        <v>45017</v>
+        <v>44981</v>
       </c>
       <c r="G39" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E40" s="5">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F40" s="3">
-        <v>45013</v>
+        <v>45032</v>
       </c>
       <c r="G40" s="3">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E41" s="5">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="F41" s="3">
-        <v>45020</v>
+        <v>44974</v>
       </c>
       <c r="G41" s="3">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44957</v>
+        <v>44965</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E42" s="5">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F42" s="3">
-        <v>44956</v>
+        <v>45065</v>
       </c>
       <c r="G42" s="3">
-        <v>44957</v>
+        <v>44966</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E43" s="5">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F43" s="3">
-        <v>45016</v>
+        <v>45024</v>
       </c>
       <c r="G43" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E44" s="5">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="F44" s="3">
         <v>45017</v>
       </c>
       <c r="G44" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E45" s="5">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F45" s="3">
-        <v>45019</v>
+        <v>45013</v>
       </c>
       <c r="G45" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E46" s="5">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>44972</v>
+        <v>45020</v>
       </c>
       <c r="G46" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2135,414 +2159,494 @@
         <v>44957</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E47" s="5">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F47" s="3">
+        <v>44956</v>
+      </c>
+      <c r="G47" s="3">
         <v>44957</v>
       </c>
-      <c r="G47" s="3">
-        <v>44960</v>
-      </c>
       <c r="H47" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E48" s="5">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="F48" s="3">
-        <v>44942</v>
+        <v>45016</v>
       </c>
       <c r="G48" s="3">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E49" s="5">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="F49" s="3">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="G49" s="3">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
-        <v>44951</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="20" t="s">
+      <c r="A50" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="5">
         <v>9</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="21">
-        <v>76</v>
-      </c>
-      <c r="F50" s="19">
-        <v>44995</v>
-      </c>
-      <c r="G50" s="19">
-        <v>44951</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>26</v>
+      <c r="F50" s="3">
+        <v>45019</v>
+      </c>
+      <c r="G50" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44951</v>
+        <v>44959</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E51" s="5">
-        <v>374</v>
+        <v>140</v>
       </c>
       <c r="F51" s="3">
-        <v>45011</v>
+        <v>44972</v>
       </c>
       <c r="G51" s="3">
-        <v>44951</v>
+        <v>44959</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44950</v>
+        <v>44957</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E52" s="5">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F52" s="3">
-        <v>45016</v>
+        <v>44957</v>
       </c>
       <c r="G52" s="3">
-        <v>44950</v>
+        <v>44960</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E53" s="5">
-        <v>964</v>
+        <v>255</v>
       </c>
       <c r="F53" s="3">
-        <v>45016</v>
+        <v>44942</v>
       </c>
       <c r="G53" s="3">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44942</v>
+        <v>44946</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E54" s="5">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="F54" s="3">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="G54" s="3">
-        <v>44942</v>
+        <v>44946</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>44938</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="5">
-        <v>139</v>
-      </c>
-      <c r="F55" s="3">
-        <v>44937</v>
-      </c>
-      <c r="G55" s="3">
-        <v>44938</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>21</v>
+      <c r="A55" s="19">
+        <v>44951</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="21">
+        <v>76</v>
+      </c>
+      <c r="F55" s="19">
+        <v>44995</v>
+      </c>
+      <c r="G55" s="19">
+        <v>44951</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44937</v>
+        <v>44951</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E56" s="5">
-        <v>801</v>
+        <v>374</v>
       </c>
       <c r="F56" s="3">
-        <v>45003</v>
+        <v>45011</v>
       </c>
       <c r="G56" s="3">
-        <v>44937</v>
+        <v>44951</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44936</v>
+        <v>44950</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E57" s="5">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F57" s="3">
-        <v>45281</v>
+        <v>45016</v>
       </c>
       <c r="G57" s="3">
-        <v>44936</v>
+        <v>44950</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44935</v>
+        <v>44945</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E58" s="5">
-        <v>85</v>
+        <v>964</v>
       </c>
       <c r="F58" s="3">
-        <v>44971</v>
+        <v>45016</v>
       </c>
       <c r="G58" s="3">
-        <v>44935</v>
+        <v>44945</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44931</v>
+        <v>44942</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E59" s="5">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="F59" s="3">
-        <v>44957</v>
+        <v>45002</v>
       </c>
       <c r="G59" s="3">
-        <v>44931</v>
+        <v>44942</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
+        <v>44938</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="5">
+        <v>139</v>
+      </c>
+      <c r="F60" s="3">
+        <v>44937</v>
+      </c>
+      <c r="G60" s="3">
+        <v>44938</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="5">
+        <v>801</v>
+      </c>
+      <c r="F61" s="3">
+        <v>45003</v>
+      </c>
+      <c r="G61" s="3">
+        <v>44937</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="5">
+        <v>76</v>
+      </c>
+      <c r="F62" s="3">
+        <v>45281</v>
+      </c>
+      <c r="G62" s="3">
+        <v>44936</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="5">
+        <v>85</v>
+      </c>
+      <c r="F63" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G63" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="5">
+        <v>370</v>
+      </c>
+      <c r="F64" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G64" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>44932</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E65" s="5">
         <v>20</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F65" s="3">
         <v>44988</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G65" s="3">
         <v>44932</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H65" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="4"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
@@ -2605,14 +2709,14 @@
       <c r="H71" s="4"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="17"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
@@ -2655,14 +2759,14 @@
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="4"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="17"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
@@ -2805,14 +2909,14 @@
       <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="14"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="4"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
@@ -2855,14 +2959,14 @@
       <c r="H96" s="4"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="4"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
@@ -2875,14 +2979,14 @@
       <c r="H98" s="4"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="13"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="14"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="4"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
@@ -2925,14 +3029,14 @@
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="4"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="14"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
@@ -2985,34 +3089,34 @@
       <c r="H109" s="4"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="14"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="4"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="14"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="4"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="14"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="4"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -3035,14 +3139,14 @@
       <c r="H114" s="4"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="4"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="14"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
@@ -3055,14 +3159,14 @@
       <c r="H116" s="14"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="4"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
@@ -3085,24 +3189,24 @@
       <c r="H119" s="4"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="10"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="4"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="9"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="10"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="14"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
@@ -3135,24 +3239,24 @@
       <c r="H124" s="4"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="4"/>
+      <c r="A125" s="9"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="10"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="4"/>
+      <c r="A126" s="9"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="10"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
@@ -3185,24 +3289,24 @@
       <c r="H129" s="4"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="7"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="9"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="10"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="4"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
@@ -3235,24 +3339,24 @@
       <c r="H134" s="4"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="4"/>
+      <c r="A135" s="6"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="7"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="4"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="10"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
@@ -3305,14 +3409,14 @@
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="9"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="10"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
@@ -3324,6 +3428,56 @@
       <c r="G143" s="3"/>
       <c r="H143" s="4"/>
     </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="9"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="10"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EDC48BF-E3B2-4B86-8725-F038A502A250}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9552D09-21B1-400A-A901-0E1D5F783ABB}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="5370" yWindow="240" windowWidth="21600" windowHeight="11325" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="147">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -442,6 +442,39 @@
   </si>
   <si>
     <t>Aventi Technologies</t>
+  </si>
+  <si>
+    <t>Village Farms</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Monahans</t>
+  </si>
+  <si>
+    <t>GXO Logistics of Texas, LLC (Fort Worth) Comcast Facility</t>
+  </si>
+  <si>
+    <t>Bedding Acquisition, LLC (Grand Prairie Plant)</t>
+  </si>
+  <si>
+    <t>ABM Industries at the University of Texas San Antonio</t>
+  </si>
+  <si>
+    <t>Durham School Services-Brenham</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Brazos Valley WDA</t>
+  </si>
+  <si>
+    <t>Brenham</t>
+  </si>
+  <si>
+    <t>Accenture LLP (Austin)</t>
   </si>
 </sst>
 </file>
@@ -940,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,88 +1019,88 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45054</v>
+        <v>45062</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5">
-        <v>272</v>
+        <v>549</v>
       </c>
       <c r="F2" s="3">
-        <v>45058</v>
+        <v>45104</v>
       </c>
       <c r="G2" s="3">
-        <v>45054</v>
+        <v>45062</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45049</v>
+        <v>45062</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="E3" s="5">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="F3" s="3">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="G3" s="3">
-        <v>45049</v>
+        <v>45062</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45049</v>
+        <v>45061</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="F4" s="3">
-        <v>45107</v>
+        <v>45016</v>
       </c>
       <c r="G4" s="3">
-        <v>45049</v>
+        <v>45061</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -1076,533 +1109,533 @@
         <v>10</v>
       </c>
       <c r="E5" s="5">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3">
-        <v>45105</v>
+        <v>45072</v>
       </c>
       <c r="G5" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E6" s="5">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="F6" s="3">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G6" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45041</v>
+        <v>45056</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3">
-        <v>45065</v>
+        <v>45139</v>
       </c>
       <c r="G7" s="3">
-        <v>45041</v>
+        <v>45056</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45036</v>
+        <v>45054</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5">
-        <v>133</v>
+        <v>272</v>
       </c>
       <c r="F8" s="3">
-        <v>45120</v>
+        <v>45058</v>
       </c>
       <c r="G8" s="3">
-        <v>45036</v>
+        <v>45054</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45035</v>
+        <v>45049</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E9" s="5">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="F9" s="3">
-        <v>45095</v>
+        <v>45107</v>
       </c>
       <c r="G9" s="3">
-        <v>45035</v>
+        <v>45049</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45034</v>
+        <v>45049</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E10" s="5">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3">
-        <v>45076</v>
+        <v>45107</v>
       </c>
       <c r="G10" s="3">
-        <v>45034</v>
+        <v>45049</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45021</v>
+        <v>45049</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E11" s="5">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3">
-        <v>45077</v>
+        <v>45105</v>
       </c>
       <c r="G11" s="3">
-        <v>45021</v>
+        <v>45049</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45022</v>
+        <v>45049</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E12" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F12" s="3">
-        <v>45079</v>
+        <v>45105</v>
       </c>
       <c r="G12" s="3">
-        <v>45022</v>
+        <v>45049</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45021</v>
+        <v>45041</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E13" s="5">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="F13" s="3">
-        <v>45077</v>
+        <v>45065</v>
       </c>
       <c r="G13" s="3">
-        <v>45021</v>
+        <v>45041</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E14" s="5">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="F14" s="3">
-        <v>45086</v>
+        <v>45120</v>
       </c>
       <c r="G14" s="3">
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45020</v>
+        <v>45035</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E15" s="5">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F15" s="3">
-        <v>45075</v>
+        <v>45095</v>
       </c>
       <c r="G15" s="3">
-        <v>45020</v>
+        <v>45035</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45019</v>
+        <v>45034</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E16" s="5">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="F16" s="3">
-        <v>45079</v>
+        <v>45076</v>
       </c>
       <c r="G16" s="3">
-        <v>45019</v>
+        <v>45034</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>45016</v>
+        <v>45021</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E17" s="5">
-        <v>1047</v>
+        <v>120</v>
       </c>
       <c r="F17" s="3">
-        <v>45079</v>
+        <v>45077</v>
       </c>
       <c r="G17" s="3">
-        <v>45016</v>
+        <v>45021</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>45007</v>
+        <v>45022</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="F18" s="3">
-        <v>45059</v>
+        <v>45079</v>
       </c>
       <c r="G18" s="3">
-        <v>45007</v>
+        <v>45022</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>45000</v>
+        <v>45021</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E19" s="5">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F19" s="3">
         <v>45077</v>
       </c>
       <c r="G19" s="3">
-        <v>45000</v>
+        <v>45021</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44999</v>
+        <v>45021</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E20" s="5">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>45020</v>
+        <v>45086</v>
       </c>
       <c r="G20" s="3">
-        <v>44999</v>
+        <v>45021</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>45005</v>
+        <v>45020</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E21" s="5">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="F21" s="3">
-        <v>45066</v>
+        <v>45075</v>
       </c>
       <c r="G21" s="3">
-        <v>45005</v>
+        <v>45020</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44993</v>
+        <v>45019</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E22" s="5">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="F22" s="3">
-        <v>45044</v>
+        <v>45079</v>
       </c>
       <c r="G22" s="3">
-        <v>44993</v>
+        <v>45019</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44988</v>
+        <v>45016</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E23" s="5">
-        <v>827</v>
+        <v>1047</v>
       </c>
       <c r="F23" s="3">
-        <v>45047</v>
+        <v>45079</v>
       </c>
       <c r="G23" s="3">
-        <v>44988</v>
+        <v>45016</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44987</v>
+        <v>45007</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E24" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="3">
-        <v>45048</v>
+        <v>45059</v>
       </c>
       <c r="G24" s="3">
-        <v>44987</v>
+        <v>45007</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>44985</v>
+        <v>45000</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E25" s="5">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="F25" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G25" s="3">
-        <v>44985</v>
+        <v>45000</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>21</v>
@@ -1610,236 +1643,236 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44985</v>
+        <v>44999</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E26" s="5">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="F26" s="3">
-        <v>45077</v>
+        <v>45020</v>
       </c>
       <c r="G26" s="3">
-        <v>44985</v>
+        <v>44999</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>44985</v>
+        <v>45005</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E27" s="5">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F27" s="3">
-        <v>44979</v>
+        <v>45066</v>
       </c>
       <c r="G27" s="3">
-        <v>44985</v>
+        <v>45005</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" s="5">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="F28" s="3">
-        <v>45169</v>
+        <v>45044</v>
       </c>
       <c r="G28" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E29" s="5">
-        <v>118</v>
+        <v>827</v>
       </c>
       <c r="F29" s="3">
-        <v>45016</v>
+        <v>45047</v>
       </c>
       <c r="G29" s="3">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44984</v>
+        <v>44987</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="E30" s="5">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F30" s="3">
-        <v>45169</v>
+        <v>45048</v>
       </c>
       <c r="G30" s="3">
-        <v>44984</v>
+        <v>44987</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E31" s="5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F31" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G31" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E32" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F32" s="3">
         <v>45077</v>
       </c>
       <c r="G32" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E33" s="5">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="F33" s="3">
-        <v>45169</v>
+        <v>44979</v>
       </c>
       <c r="G33" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E34" s="5">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F34" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G34" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1847,25 +1880,25 @@
         <v>44984</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="5">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="F35" s="3">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G35" s="3">
         <v>44984</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1873,33 +1906,33 @@
         <v>44984</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E36" s="5">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F36" s="3">
-        <v>44974</v>
+        <v>45169</v>
       </c>
       <c r="G36" s="3">
         <v>44984</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>78</v>
@@ -1908,50 +1941,50 @@
         <v>69</v>
       </c>
       <c r="E37" s="5">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="F37" s="3">
-        <v>45039</v>
+        <v>45077</v>
       </c>
       <c r="G37" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E38" s="5">
-        <v>40</v>
-      </c>
-      <c r="F38" s="12">
-        <v>44965</v>
+        <v>4</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45077</v>
       </c>
       <c r="G38" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>14</v>
@@ -1960,13 +1993,13 @@
         <v>15</v>
       </c>
       <c r="E39" s="5">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="F39" s="3">
-        <v>44981</v>
+        <v>45169</v>
       </c>
       <c r="G39" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>16</v>
@@ -1974,739 +2007,835 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>44978</v>
+        <v>44984</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E40" s="5">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F40" s="3">
-        <v>45032</v>
+        <v>45016</v>
       </c>
       <c r="G40" s="3">
-        <v>44978</v>
+        <v>44984</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44972</v>
+        <v>44984</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E41" s="5">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3">
         <v>44974</v>
       </c>
       <c r="G41" s="3">
-        <v>44972</v>
+        <v>44984</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44965</v>
+        <v>44984</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E42" s="5">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F42" s="3">
-        <v>45065</v>
+        <v>44974</v>
       </c>
       <c r="G42" s="3">
-        <v>44966</v>
+        <v>44984</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44964</v>
+        <v>44980</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E43" s="5">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43" s="3">
-        <v>45024</v>
+        <v>45039</v>
       </c>
       <c r="G43" s="3">
-        <v>44964</v>
+        <v>44980</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E44" s="5">
-        <v>60</v>
-      </c>
-      <c r="F44" s="3">
-        <v>45017</v>
+        <v>40</v>
+      </c>
+      <c r="F44" s="12">
+        <v>44965</v>
       </c>
       <c r="G44" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E45" s="5">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="F45" s="3">
-        <v>45013</v>
+        <v>44981</v>
       </c>
       <c r="G45" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E46" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>45020</v>
+        <v>45032</v>
       </c>
       <c r="G46" s="3">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44957</v>
+        <v>44972</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E47" s="5">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F47" s="3">
-        <v>44956</v>
+        <v>44974</v>
       </c>
       <c r="G47" s="3">
-        <v>44957</v>
+        <v>44972</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44957</v>
+        <v>44965</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E48" s="5">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F48" s="3">
-        <v>45016</v>
+        <v>45065</v>
       </c>
       <c r="G48" s="3">
-        <v>44957</v>
+        <v>44966</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E49" s="5">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="F49" s="3">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="G49" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E50" s="5">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F50" s="3">
-        <v>45019</v>
+        <v>45017</v>
       </c>
       <c r="G50" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E51" s="5">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="F51" s="3">
-        <v>44972</v>
+        <v>45013</v>
       </c>
       <c r="G51" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E52" s="5">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
-        <v>44957</v>
+        <v>45020</v>
       </c>
       <c r="G52" s="3">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E53" s="5">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="F53" s="3">
-        <v>44942</v>
+        <v>44956</v>
       </c>
       <c r="G53" s="3">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E54" s="5">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="F54" s="3">
         <v>45016</v>
       </c>
       <c r="G54" s="3">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="19">
-        <v>44951</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="21">
-        <v>76</v>
-      </c>
-      <c r="F55" s="19">
-        <v>44995</v>
-      </c>
-      <c r="G55" s="19">
-        <v>44951</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>26</v>
+      <c r="A55" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="5">
+        <v>158</v>
+      </c>
+      <c r="F55" s="3">
+        <v>45017</v>
+      </c>
+      <c r="G55" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44951</v>
+        <v>44959</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E56" s="5">
-        <v>374</v>
+        <v>9</v>
       </c>
       <c r="F56" s="3">
-        <v>45011</v>
+        <v>45019</v>
       </c>
       <c r="G56" s="3">
-        <v>44951</v>
+        <v>44959</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44950</v>
+        <v>44959</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E57" s="5">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F57" s="3">
-        <v>45016</v>
+        <v>44972</v>
       </c>
       <c r="G57" s="3">
-        <v>44950</v>
+        <v>44959</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44945</v>
+        <v>44957</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E58" s="5">
-        <v>964</v>
+        <v>90</v>
       </c>
       <c r="F58" s="3">
-        <v>45016</v>
+        <v>44957</v>
       </c>
       <c r="G58" s="3">
-        <v>44945</v>
+        <v>44960</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="5">
+        <v>255</v>
+      </c>
+      <c r="F59" s="3">
         <v>44942</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="5">
-        <v>77</v>
-      </c>
-      <c r="F59" s="3">
-        <v>45002</v>
-      </c>
       <c r="G59" s="3">
-        <v>44942</v>
+        <v>44953</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44938</v>
+        <v>44946</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E60" s="5">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="F60" s="3">
-        <v>44937</v>
+        <v>45016</v>
       </c>
       <c r="G60" s="3">
-        <v>44938</v>
+        <v>44946</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>44937</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="5">
-        <v>801</v>
-      </c>
-      <c r="F61" s="3">
-        <v>45003</v>
-      </c>
-      <c r="G61" s="3">
-        <v>44937</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>21</v>
+      <c r="A61" s="19">
+        <v>44951</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="21">
+        <v>76</v>
+      </c>
+      <c r="F61" s="19">
+        <v>44995</v>
+      </c>
+      <c r="G61" s="19">
+        <v>44951</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44936</v>
+        <v>44951</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E62" s="5">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="F62" s="3">
-        <v>45281</v>
+        <v>45011</v>
       </c>
       <c r="G62" s="3">
-        <v>44936</v>
+        <v>44951</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44935</v>
+        <v>44950</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E63" s="5">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="F63" s="3">
-        <v>44971</v>
+        <v>45016</v>
       </c>
       <c r="G63" s="3">
-        <v>44935</v>
+        <v>44950</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44931</v>
+        <v>44945</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E64" s="5">
-        <v>370</v>
+        <v>964</v>
       </c>
       <c r="F64" s="3">
-        <v>44957</v>
+        <v>45016</v>
       </c>
       <c r="G64" s="3">
-        <v>44931</v>
+        <v>44945</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
+        <v>44942</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="5">
+        <v>77</v>
+      </c>
+      <c r="F65" s="3">
+        <v>45002</v>
+      </c>
+      <c r="G65" s="3">
+        <v>44942</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>44938</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="5">
+        <v>139</v>
+      </c>
+      <c r="F66" s="3">
+        <v>44937</v>
+      </c>
+      <c r="G66" s="3">
+        <v>44938</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="5">
+        <v>801</v>
+      </c>
+      <c r="F67" s="3">
+        <v>45003</v>
+      </c>
+      <c r="G67" s="3">
+        <v>44937</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="5">
+        <v>76</v>
+      </c>
+      <c r="F68" s="3">
+        <v>45281</v>
+      </c>
+      <c r="G68" s="3">
+        <v>44936</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="5">
+        <v>85</v>
+      </c>
+      <c r="F69" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G69" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="5">
+        <v>370</v>
+      </c>
+      <c r="F70" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G70" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>44932</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E71" s="5">
         <v>20</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F71" s="3">
         <v>44988</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G71" s="3">
         <v>44932</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="4"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
@@ -2759,14 +2888,14 @@
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="17"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
@@ -2819,14 +2948,14 @@
       <c r="H82" s="4"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="4"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="17"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
@@ -2959,14 +3088,14 @@
       <c r="H96" s="4"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="14"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="4"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
@@ -3019,24 +3148,24 @@
       <c r="H102" s="4"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="4"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="14"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="13"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="14"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="4"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
@@ -3089,14 +3218,14 @@
       <c r="H109" s="4"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="4"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
@@ -3139,34 +3268,34 @@
       <c r="H114" s="4"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="13"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="14"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="4"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="14"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="4"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="14"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="4"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
@@ -3209,24 +3338,24 @@
       <c r="H121" s="14"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="4"/>
+      <c r="A122" s="13"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="14"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="4"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="14"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
@@ -3239,34 +3368,34 @@
       <c r="H124" s="4"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="9"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="10"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="4"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="10"/>
+      <c r="A126" s="3"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="4"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="4"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="14"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
@@ -3299,24 +3428,24 @@
       <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="4"/>
+      <c r="A131" s="9"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="10"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="4"/>
+      <c r="A132" s="9"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="10"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
@@ -3339,24 +3468,24 @@
       <c r="H134" s="4"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="6"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="7"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="4"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="9"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="10"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="4"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
@@ -3399,24 +3528,24 @@
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="4"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="7"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="4"/>
+      <c r="A142" s="9"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="10"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
@@ -3459,14 +3588,14 @@
       <c r="H146" s="4"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="9"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="10"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
@@ -3478,6 +3607,66 @@
       <c r="G148" s="3"/>
       <c r="H148" s="4"/>
     </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="4"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="4"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="9"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="10"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9552D09-21B1-400A-A901-0E1D5F783ABB}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AA24716-1D2F-4888-9B78-55E3329D0BB3}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="240" windowWidth="21600" windowHeight="11325" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="154">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -475,6 +475,27 @@
   </si>
   <si>
     <t>Accenture LLP (Austin)</t>
+  </si>
+  <si>
+    <t>USAA - (San Antonio) Fredericksburg Rd.</t>
+  </si>
+  <si>
+    <t>[24]7.ai</t>
+  </si>
+  <si>
+    <t>Wipro</t>
+  </si>
+  <si>
+    <t>Central Garden &amp; Pet (Manufacturing)</t>
+  </si>
+  <si>
+    <t>Henderson</t>
+  </si>
+  <si>
+    <t>East Texas WDA</t>
+  </si>
+  <si>
+    <t>Athens</t>
   </si>
 </sst>
 </file>
@@ -973,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,608 +1040,608 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45062</v>
+        <v>45068</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="E2" s="5">
-        <v>549</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3">
         <v>45104</v>
       </c>
       <c r="G2" s="3">
-        <v>45062</v>
+        <v>45068</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45062</v>
+        <v>45064</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="G3" s="3">
-        <v>45062</v>
+        <v>45064</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F4" s="3">
-        <v>45016</v>
+        <v>45114</v>
       </c>
       <c r="G4" s="3">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="F5" s="3">
-        <v>45072</v>
+        <v>45121</v>
       </c>
       <c r="G5" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5">
-        <v>105</v>
+        <v>549</v>
       </c>
       <c r="F6" s="3">
-        <v>45107</v>
+        <v>45104</v>
       </c>
       <c r="G6" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="E7" s="5">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F7" s="3">
-        <v>45139</v>
+        <v>45138</v>
       </c>
       <c r="G7" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45054</v>
+        <v>45061</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5">
-        <v>272</v>
+        <v>86</v>
       </c>
       <c r="F8" s="3">
-        <v>45058</v>
+        <v>45016</v>
       </c>
       <c r="G8" s="3">
-        <v>45054</v>
+        <v>45061</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E9" s="5">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3">
-        <v>45107</v>
+        <v>45072</v>
       </c>
       <c r="G9" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E10" s="5">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F10" s="3">
         <v>45107</v>
       </c>
       <c r="G10" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E11" s="5">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3">
-        <v>45105</v>
+        <v>45139</v>
       </c>
       <c r="G11" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5">
-        <v>7</v>
+        <v>272</v>
       </c>
       <c r="F12" s="3">
-        <v>45105</v>
+        <v>45058</v>
       </c>
       <c r="G12" s="3">
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E13" s="5">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="F13" s="3">
-        <v>45065</v>
+        <v>45107</v>
       </c>
       <c r="G13" s="3">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45036</v>
+        <v>45049</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E14" s="5">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3">
-        <v>45120</v>
+        <v>45107</v>
       </c>
       <c r="G14" s="3">
-        <v>45036</v>
+        <v>45049</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45035</v>
+        <v>45049</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E15" s="5">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3">
-        <v>45095</v>
+        <v>45105</v>
       </c>
       <c r="G15" s="3">
-        <v>45035</v>
+        <v>45049</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45034</v>
+        <v>45049</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E16" s="5">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="F16" s="3">
-        <v>45076</v>
+        <v>45105</v>
       </c>
       <c r="G16" s="3">
-        <v>45034</v>
+        <v>45049</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>45021</v>
+        <v>45041</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E17" s="5">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="F17" s="3">
-        <v>45077</v>
+        <v>45065</v>
       </c>
       <c r="G17" s="3">
-        <v>45021</v>
+        <v>45041</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>45022</v>
+        <v>45036</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E18" s="5">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="F18" s="3">
-        <v>45079</v>
+        <v>45120</v>
       </c>
       <c r="G18" s="3">
-        <v>45022</v>
+        <v>45036</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>45021</v>
+        <v>45035</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E19" s="5">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F19" s="3">
-        <v>45077</v>
+        <v>45095</v>
       </c>
       <c r="G19" s="3">
-        <v>45021</v>
+        <v>45035</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>45021</v>
+        <v>45034</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E20" s="5">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F20" s="3">
-        <v>45086</v>
+        <v>45076</v>
       </c>
       <c r="G20" s="3">
-        <v>45021</v>
+        <v>45034</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E21" s="5">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="F21" s="3">
-        <v>45075</v>
+        <v>45077</v>
       </c>
       <c r="G21" s="3">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E22" s="5">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="F22" s="3">
         <v>45079</v>
       </c>
       <c r="G22" s="3">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>45016</v>
+        <v>45021</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E23" s="5">
-        <v>1047</v>
+        <v>98</v>
       </c>
       <c r="F23" s="3">
-        <v>45079</v>
+        <v>45077</v>
       </c>
       <c r="G23" s="3">
-        <v>45016</v>
+        <v>45021</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>45059</v>
+        <v>45086</v>
       </c>
       <c r="G24" s="3">
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>45000</v>
+        <v>45020</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>105</v>
@@ -1629,13 +1650,13 @@
         <v>73</v>
       </c>
       <c r="E25" s="5">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F25" s="3">
-        <v>45077</v>
+        <v>45075</v>
       </c>
       <c r="G25" s="3">
-        <v>45000</v>
+        <v>45020</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>21</v>
@@ -1643,36 +1664,36 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44999</v>
+        <v>45019</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E26" s="5">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="F26" s="3">
-        <v>45020</v>
+        <v>45079</v>
       </c>
       <c r="G26" s="3">
-        <v>44999</v>
+        <v>45019</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>45005</v>
+        <v>45016</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>64</v>
@@ -1681,302 +1702,302 @@
         <v>65</v>
       </c>
       <c r="E27" s="5">
-        <v>152</v>
+        <v>1047</v>
       </c>
       <c r="F27" s="3">
-        <v>45066</v>
+        <v>45079</v>
       </c>
       <c r="G27" s="3">
-        <v>45005</v>
+        <v>45016</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E28" s="5">
-        <v>240</v>
+        <v>54</v>
       </c>
       <c r="F28" s="3">
-        <v>45044</v>
+        <v>45059</v>
       </c>
       <c r="G28" s="3">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>44988</v>
+        <v>45000</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E29" s="5">
-        <v>827</v>
+        <v>81</v>
       </c>
       <c r="F29" s="3">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="G29" s="3">
-        <v>44988</v>
+        <v>45000</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44987</v>
+        <v>44999</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E30" s="5">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F30" s="3">
-        <v>45048</v>
+        <v>45020</v>
       </c>
       <c r="G30" s="3">
-        <v>44987</v>
+        <v>44999</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44985</v>
+        <v>45005</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E31" s="5">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="F31" s="3">
-        <v>45169</v>
+        <v>45066</v>
       </c>
       <c r="G31" s="3">
-        <v>44985</v>
+        <v>45005</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E32" s="5">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="F32" s="3">
-        <v>45077</v>
+        <v>45044</v>
       </c>
       <c r="G32" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="5">
-        <v>161</v>
+        <v>827</v>
       </c>
       <c r="F33" s="3">
-        <v>44979</v>
+        <v>45047</v>
       </c>
       <c r="G33" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E34" s="5">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F34" s="3">
-        <v>45169</v>
+        <v>45048</v>
       </c>
       <c r="G34" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E35" s="5">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="F35" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G35" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E36" s="5">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F36" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G36" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E37" s="5">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="F37" s="3">
-        <v>45077</v>
+        <v>44979</v>
       </c>
       <c r="G37" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E38" s="5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F38" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G38" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1984,25 +2005,25 @@
         <v>44984</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E39" s="5">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="F39" s="3">
-        <v>45169</v>
+        <v>45016</v>
       </c>
       <c r="G39" s="3">
         <v>44984</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2010,25 +2031,25 @@
         <v>44984</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E40" s="5">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F40" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G40" s="3">
         <v>44984</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2036,25 +2057,25 @@
         <v>44984</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E41" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F41" s="3">
-        <v>44974</v>
+        <v>45077</v>
       </c>
       <c r="G41" s="3">
         <v>44984</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2062,215 +2083,215 @@
         <v>44984</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F42" s="3">
-        <v>44974</v>
+        <v>45077</v>
       </c>
       <c r="G42" s="3">
         <v>44984</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E43" s="5">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="F43" s="3">
-        <v>45039</v>
+        <v>45169</v>
       </c>
       <c r="G43" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E44" s="5">
-        <v>40</v>
-      </c>
-      <c r="F44" s="12">
-        <v>44965</v>
+        <v>60</v>
+      </c>
+      <c r="F44" s="3">
+        <v>45016</v>
       </c>
       <c r="G44" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E45" s="5">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="F45" s="3">
-        <v>44981</v>
+        <v>44974</v>
       </c>
       <c r="G45" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44978</v>
+        <v>44984</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E46" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F46" s="3">
-        <v>45032</v>
+        <v>44974</v>
       </c>
       <c r="G46" s="3">
-        <v>44978</v>
+        <v>44984</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44972</v>
+        <v>44980</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E47" s="5">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="F47" s="3">
-        <v>44974</v>
+        <v>45039</v>
       </c>
       <c r="G47" s="3">
-        <v>44972</v>
+        <v>44980</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44965</v>
+        <v>44973</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E48" s="5">
-        <v>92</v>
-      </c>
-      <c r="F48" s="3">
-        <v>45065</v>
+        <v>40</v>
+      </c>
+      <c r="F48" s="12">
+        <v>44965</v>
       </c>
       <c r="G48" s="3">
-        <v>44966</v>
+        <v>44973</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E49" s="5">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="F49" s="3">
-        <v>45024</v>
+        <v>44981</v>
       </c>
       <c r="G49" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>19</v>
@@ -2279,13 +2300,13 @@
         <v>20</v>
       </c>
       <c r="E50" s="5">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F50" s="3">
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="G50" s="3">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>21</v>
@@ -2293,184 +2314,184 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E51" s="5">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F51" s="3">
-        <v>45013</v>
+        <v>44974</v>
       </c>
       <c r="G51" s="3">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E52" s="5">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="F52" s="3">
-        <v>45020</v>
+        <v>45065</v>
       </c>
       <c r="G52" s="3">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E53" s="5">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="F53" s="3">
-        <v>44956</v>
+        <v>45024</v>
       </c>
       <c r="G53" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E54" s="5">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F54" s="3">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="G54" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E55" s="5">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="F55" s="3">
-        <v>45017</v>
+        <v>45013</v>
       </c>
       <c r="G55" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E56" s="5">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="F56" s="3">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="G56" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E57" s="5">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="F57" s="3">
-        <v>44972</v>
+        <v>44956</v>
       </c>
       <c r="G57" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2478,293 +2499,293 @@
         <v>44957</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E58" s="5">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F58" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G58" s="3">
         <v>44957</v>
       </c>
-      <c r="G58" s="3">
-        <v>44960</v>
-      </c>
       <c r="H58" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44953</v>
+        <v>44959</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E59" s="5">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="F59" s="3">
-        <v>44942</v>
+        <v>45017</v>
       </c>
       <c r="G59" s="3">
-        <v>44953</v>
+        <v>44959</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E60" s="5">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="F60" s="3">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="G60" s="3">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="19">
-        <v>44951</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="21">
-        <v>76</v>
-      </c>
-      <c r="F61" s="19">
-        <v>44995</v>
-      </c>
-      <c r="G61" s="19">
-        <v>44951</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>26</v>
+      <c r="A61" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="5">
+        <v>140</v>
+      </c>
+      <c r="F61" s="3">
+        <v>44972</v>
+      </c>
+      <c r="G61" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44951</v>
+        <v>44957</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E62" s="5">
-        <v>374</v>
+        <v>90</v>
       </c>
       <c r="F62" s="3">
-        <v>45011</v>
+        <v>44957</v>
       </c>
       <c r="G62" s="3">
-        <v>44951</v>
+        <v>44960</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44950</v>
+        <v>44953</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E63" s="5">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="F63" s="3">
-        <v>45016</v>
+        <v>44942</v>
       </c>
       <c r="G63" s="3">
-        <v>44950</v>
+        <v>44953</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E64" s="5">
-        <v>964</v>
+        <v>110</v>
       </c>
       <c r="F64" s="3">
         <v>45016</v>
       </c>
       <c r="G64" s="3">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="H64" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="19">
+        <v>44951</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="21">
+        <v>76</v>
+      </c>
+      <c r="F65" s="19">
+        <v>44995</v>
+      </c>
+      <c r="G65" s="19">
+        <v>44951</v>
+      </c>
+      <c r="H65" s="20" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>44942</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="5">
-        <v>77</v>
-      </c>
-      <c r="F65" s="3">
-        <v>45002</v>
-      </c>
-      <c r="G65" s="3">
-        <v>44942</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>44938</v>
+        <v>44951</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E66" s="5">
-        <v>139</v>
+        <v>374</v>
       </c>
       <c r="F66" s="3">
-        <v>44937</v>
+        <v>45011</v>
       </c>
       <c r="G66" s="3">
-        <v>44938</v>
+        <v>44951</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44937</v>
+        <v>44950</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E67" s="5">
-        <v>801</v>
+        <v>125</v>
       </c>
       <c r="F67" s="3">
-        <v>45003</v>
+        <v>45016</v>
       </c>
       <c r="G67" s="3">
-        <v>44937</v>
+        <v>44950</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44936</v>
+        <v>44945</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E68" s="5">
-        <v>76</v>
+        <v>964</v>
       </c>
       <c r="F68" s="3">
-        <v>45281</v>
+        <v>45016</v>
       </c>
       <c r="G68" s="3">
-        <v>44936</v>
+        <v>44945</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44935</v>
+        <v>44942</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>14</v>
@@ -2773,13 +2794,13 @@
         <v>15</v>
       </c>
       <c r="E69" s="5">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F69" s="3">
-        <v>44971</v>
+        <v>45002</v>
       </c>
       <c r="G69" s="3">
-        <v>44935</v>
+        <v>44942</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>16</v>
@@ -2787,95 +2808,159 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>44931</v>
+        <v>44938</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E70" s="5">
-        <v>370</v>
+        <v>139</v>
       </c>
       <c r="F70" s="3">
-        <v>44957</v>
+        <v>44937</v>
       </c>
       <c r="G70" s="3">
-        <v>44931</v>
+        <v>44938</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="5">
+        <v>801</v>
+      </c>
+      <c r="F71" s="3">
+        <v>45003</v>
+      </c>
+      <c r="G71" s="3">
+        <v>44937</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="5">
+        <v>76</v>
+      </c>
+      <c r="F72" s="3">
+        <v>45281</v>
+      </c>
+      <c r="G72" s="3">
+        <v>44936</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="5">
+        <v>85</v>
+      </c>
+      <c r="F73" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G73" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="5">
+        <v>370</v>
+      </c>
+      <c r="F74" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G74" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>44932</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E75" s="5">
         <v>20</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F75" s="3">
         <v>44988</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G75" s="3">
         <v>44932</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="4"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
@@ -2948,14 +3033,14 @@
       <c r="H82" s="4"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="17"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="4"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
@@ -2988,14 +3073,14 @@
       <c r="H86" s="4"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="4"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="17"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
@@ -3148,14 +3233,14 @@
       <c r="H102" s="4"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="14"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="4"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
@@ -3188,14 +3273,14 @@
       <c r="H106" s="4"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="4"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
@@ -3218,14 +3303,14 @@
       <c r="H109" s="4"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="14"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="4"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
@@ -3258,14 +3343,14 @@
       <c r="H113" s="4"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="4"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="14"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
@@ -3328,34 +3413,34 @@
       <c r="H120" s="4"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="14"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="4"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="14"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="4"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="14"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="4"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
@@ -3368,24 +3453,24 @@
       <c r="H124" s="4"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="4"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="14"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="4"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="14"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
@@ -3428,24 +3513,24 @@
       <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="9"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="10"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="14"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="9"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="10"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="4"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
@@ -3468,24 +3553,24 @@
       <c r="H134" s="4"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="4"/>
+      <c r="A135" s="9"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="10"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="4"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="10"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
@@ -3528,24 +3613,24 @@
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="6"/>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="7"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="9"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="10"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
@@ -3568,24 +3653,24 @@
       <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="4"/>
+      <c r="A145" s="6"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="7"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="4"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="10"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
@@ -3648,14 +3733,14 @@
       <c r="H152" s="4"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="9"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="11"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="10"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="4"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
@@ -3667,6 +3752,46 @@
       <c r="G154" s="3"/>
       <c r="H154" s="4"/>
     </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="4"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="4"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="9"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="10"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\datax103p\Rdata\Internet\Webwork\Working Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AA24716-1D2F-4888-9B78-55E3329D0BB3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ABA641B-1F8E-4DEF-9CB0-4CA1967AD824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="72" yWindow="84" windowWidth="20424" windowHeight="11628" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="156">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t>Athens</t>
+  </si>
+  <si>
+    <t>Scribe Media LLC</t>
+  </si>
+  <si>
+    <t>Diversified Technical Services, INC. (San Antonio)</t>
   </si>
 </sst>
 </file>
@@ -994,25 +1000,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,38 +1044,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>45068</v>
+        <v>45076</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="F2" s="3">
-        <v>45104</v>
+        <v>45138</v>
       </c>
       <c r="G2" s="3">
-        <v>45068</v>
+        <v>45076</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>45064</v>
+        <v>45071</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -1078,527 +1084,527 @@
         <v>20</v>
       </c>
       <c r="E3" s="5">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F3" s="3">
-        <v>45107</v>
+        <v>45070</v>
       </c>
       <c r="G3" s="3">
-        <v>45064</v>
+        <v>45071</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
+        <v>45068</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="5">
+        <v>80</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45104</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45068</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>45064</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5">
+        <v>64</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45107</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45064</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>45063</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E6" s="5">
         <v>69</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F6" s="3">
         <v>45114</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G6" s="3">
         <v>45063</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>45062</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5">
-        <v>235</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45121</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45062</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>45062</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5">
-        <v>549</v>
-      </c>
-      <c r="F6" s="3">
-        <v>45104</v>
-      </c>
-      <c r="G6" s="3">
-        <v>45062</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45062</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="F7" s="3">
-        <v>45138</v>
+        <v>45121</v>
       </c>
       <c r="G7" s="3">
         <v>45062</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>45062</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5">
+        <v>549</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45104</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45062</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>45062</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="5">
+        <v>81</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45138</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45062</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>45061</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E10" s="5">
         <v>86</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F10" s="3">
         <v>45016</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G10" s="3">
         <v>45061</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>45056</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3">
-        <v>45072</v>
-      </c>
-      <c r="G9" s="3">
-        <v>45056</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>45056</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="5">
-        <v>105</v>
-      </c>
-      <c r="F10" s="3">
-        <v>45107</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45056</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45056</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E11" s="5">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3">
-        <v>45139</v>
+        <v>45072</v>
       </c>
       <c r="G11" s="3">
         <v>45056</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>45056</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="5">
+        <v>105</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45107</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45056</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>45056</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45139</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45056</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>45054</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E14" s="5">
         <v>272</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F14" s="3">
         <v>45058</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G14" s="3">
         <v>45054</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>45049</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="5">
-        <v>123</v>
-      </c>
-      <c r="F13" s="3">
-        <v>45107</v>
-      </c>
-      <c r="G13" s="3">
-        <v>45049</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>45049</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="5">
-        <v>29</v>
-      </c>
-      <c r="F14" s="3">
-        <v>45107</v>
-      </c>
-      <c r="G14" s="3">
-        <v>45049</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45049</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E15" s="5">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="F15" s="3">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G15" s="3">
         <v>45049</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>45049</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="5">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F16" s="3">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G16" s="3">
         <v>45049</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>45049</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45105</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45049</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>45049</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="5">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45105</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45049</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>45041</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E19" s="5">
         <v>175</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F19" s="3">
         <v>45065</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G19" s="3">
         <v>45041</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>45036</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E20" s="5">
         <v>133</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F20" s="3">
         <v>45120</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G20" s="3">
         <v>45036</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>45035</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E21" s="5">
         <v>62</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F21" s="3">
         <v>45095</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G21" s="3">
         <v>45035</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>45034</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E22" s="5">
         <v>113</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F22" s="3">
         <v>45076</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G22" s="3">
         <v>45034</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>45021</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="5">
-        <v>120</v>
-      </c>
-      <c r="F21" s="3">
-        <v>45077</v>
-      </c>
-      <c r="G21" s="3">
-        <v>45021</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>45022</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="5">
-        <v>12</v>
-      </c>
-      <c r="F22" s="3">
-        <v>45079</v>
-      </c>
-      <c r="G22" s="3">
-        <v>45022</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>45021</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F23" s="3">
         <v>45077</v>
@@ -1607,1315 +1613,1315 @@
         <v>45021</v>
       </c>
       <c r="H23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>45022</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="5">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45079</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45022</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>45021</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="5">
+        <v>98</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45077</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45021</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>45021</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E26" s="5">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F26" s="3">
         <v>45086</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G26" s="3">
         <v>45021</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>45020</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E27" s="5">
         <v>84</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F27" s="3">
         <v>45075</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G27" s="3">
         <v>45020</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>45019</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E28" s="5">
         <v>227</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F28" s="3">
         <v>45079</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G28" s="3">
         <v>45019</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>45016</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E29" s="5">
         <v>1047</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F29" s="3">
         <v>45079</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G29" s="3">
         <v>45016</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>45007</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E30" s="5">
         <v>54</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F30" s="3">
         <v>45059</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G30" s="3">
         <v>45007</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>45000</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E31" s="5">
         <v>81</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F31" s="3">
         <v>45077</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G31" s="3">
         <v>45000</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>44999</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E32" s="5">
         <v>105</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F32" s="3">
         <v>45020</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G32" s="3">
         <v>44999</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <v>45005</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E33" s="5">
         <v>152</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F33" s="3">
         <v>45066</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G33" s="3">
         <v>45005</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
         <v>44993</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E34" s="5">
         <v>240</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F34" s="3">
         <v>45044</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G34" s="3">
         <v>44993</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>44988</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E35" s="5">
         <v>827</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F35" s="3">
         <v>45047</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G35" s="3">
         <v>44988</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>44987</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E36" s="5">
         <v>53</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F36" s="3">
         <v>45048</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G36" s="3">
         <v>44987</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>44985</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="5">
-        <v>17</v>
-      </c>
-      <c r="F35" s="3">
-        <v>45169</v>
-      </c>
-      <c r="G35" s="3">
-        <v>44985</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>44985</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="5">
-        <v>12</v>
-      </c>
-      <c r="F36" s="3">
-        <v>45077</v>
-      </c>
-      <c r="G36" s="3">
-        <v>44985</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>44985</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E37" s="5">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="F37" s="3">
-        <v>44979</v>
+        <v>45169</v>
       </c>
       <c r="G37" s="3">
         <v>44985</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44985</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E38" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F38" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G38" s="3">
         <v>44985</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E39" s="5">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="F39" s="3">
-        <v>45016</v>
+        <v>44979</v>
       </c>
       <c r="G39" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E40" s="5">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F40" s="3">
         <v>45169</v>
       </c>
       <c r="G40" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44984</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E41" s="5">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="F41" s="3">
-        <v>45077</v>
+        <v>45016</v>
       </c>
       <c r="G41" s="3">
         <v>44984</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>44984</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E42" s="5">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F42" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G42" s="3">
         <v>44984</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>44984</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E43" s="5">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F43" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G43" s="3">
         <v>44984</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>44984</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="5">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F44" s="3">
-        <v>45016</v>
+        <v>45077</v>
       </c>
       <c r="G44" s="3">
         <v>44984</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44984</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E45" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F45" s="3">
-        <v>44974</v>
+        <v>45169</v>
       </c>
       <c r="G45" s="3">
         <v>44984</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44984</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E46" s="5">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F46" s="3">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G46" s="3">
         <v>44984</v>
       </c>
       <c r="H46" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="5">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3">
+        <v>44974</v>
+      </c>
+      <c r="G47" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="5">
+        <v>10</v>
+      </c>
+      <c r="F48" s="3">
+        <v>44974</v>
+      </c>
+      <c r="G48" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
         <v>44980</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E49" s="5">
         <v>120</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F49" s="3">
         <v>45039</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G49" s="3">
         <v>44980</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
         <v>44973</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E50" s="5">
         <v>40</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F50" s="12">
         <v>44965</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G50" s="3">
         <v>44973</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
         <v>44973</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E51" s="5">
         <v>186</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F51" s="3">
         <v>44981</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G51" s="3">
         <v>44973</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
         <v>44978</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E52" s="5">
         <v>100</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F52" s="3">
         <v>45032</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G52" s="3">
         <v>44978</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
         <v>44972</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E53" s="5">
         <v>64</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F53" s="3">
         <v>44974</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G53" s="3">
         <v>44972</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
         <v>44965</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E54" s="5">
         <v>92</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F54" s="3">
         <v>45065</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G54" s="3">
         <v>44966</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="5">
-        <v>121</v>
-      </c>
-      <c r="F53" s="3">
-        <v>45024</v>
-      </c>
-      <c r="G53" s="3">
-        <v>44964</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="5">
-        <v>60</v>
-      </c>
-      <c r="F54" s="3">
-        <v>45017</v>
-      </c>
-      <c r="G54" s="3">
-        <v>44964</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>44964</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E55" s="5">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="F55" s="3">
-        <v>45013</v>
+        <v>45024</v>
       </c>
       <c r="G55" s="3">
         <v>44964</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>44964</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E56" s="5">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="F56" s="3">
-        <v>45020</v>
+        <v>45017</v>
       </c>
       <c r="G56" s="3">
         <v>44964</v>
       </c>
       <c r="H56" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="5">
+        <v>65</v>
+      </c>
+      <c r="F57" s="3">
+        <v>45013</v>
+      </c>
+      <c r="G57" s="3">
+        <v>44964</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="5">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>45020</v>
+      </c>
+      <c r="G58" s="3">
+        <v>44964</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
         <v>44957</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E59" s="5">
         <v>83</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F59" s="3">
         <v>44956</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G59" s="3">
         <v>44957</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
         <v>44957</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E60" s="5">
         <v>74</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F60" s="3">
         <v>45016</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G60" s="3">
         <v>44957</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>44959</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" s="5">
-        <v>158</v>
-      </c>
-      <c r="F59" s="3">
-        <v>45017</v>
-      </c>
-      <c r="G59" s="3">
-        <v>44959</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>44959</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E60" s="5">
-        <v>9</v>
-      </c>
-      <c r="F60" s="3">
-        <v>45019</v>
-      </c>
-      <c r="G60" s="3">
-        <v>44959</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>44959</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E61" s="5">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F61" s="3">
-        <v>44972</v>
+        <v>45017</v>
       </c>
       <c r="G61" s="3">
         <v>44959</v>
       </c>
       <c r="H61" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="5">
+        <v>9</v>
+      </c>
+      <c r="F62" s="3">
+        <v>45019</v>
+      </c>
+      <c r="G62" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="5">
+        <v>140</v>
+      </c>
+      <c r="F63" s="3">
+        <v>44972</v>
+      </c>
+      <c r="G63" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
         <v>44957</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E64" s="5">
         <v>90</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F64" s="3">
         <v>44957</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G64" s="3">
         <v>44960</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H64" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
         <v>44953</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E65" s="5">
         <v>255</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F65" s="3">
         <v>44942</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G65" s="3">
         <v>44953</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H65" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
         <v>44946</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E66" s="5">
         <v>110</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F66" s="3">
         <v>45016</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G66" s="3">
         <v>44946</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="19">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="19">
         <v>44951</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B67" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C67" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D67" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E67" s="21">
         <v>76</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F67" s="19">
         <v>44995</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G67" s="19">
         <v>44951</v>
       </c>
-      <c r="H65" s="20" t="s">
+      <c r="H67" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
         <v>44951</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="5">
-        <v>374</v>
-      </c>
-      <c r="F66" s="3">
-        <v>45011</v>
-      </c>
-      <c r="G66" s="3">
-        <v>44951</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>44950</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="5">
-        <v>125</v>
-      </c>
-      <c r="F67" s="3">
-        <v>45016</v>
-      </c>
-      <c r="G67" s="3">
-        <v>44950</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>44945</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E68" s="5">
+        <v>374</v>
+      </c>
+      <c r="F68" s="3">
+        <v>45011</v>
+      </c>
+      <c r="G68" s="3">
+        <v>44951</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>44950</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="5">
+        <v>125</v>
+      </c>
+      <c r="F69" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G69" s="3">
+        <v>44950</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>44945</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="5">
         <v>964</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F70" s="3">
         <v>45016</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G70" s="3">
         <v>44945</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H70" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
         <v>44942</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E71" s="5">
         <v>77</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F71" s="3">
         <v>45002</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G71" s="3">
         <v>44942</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
         <v>44938</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E72" s="5">
         <v>139</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F72" s="3">
         <v>44937</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G72" s="3">
         <v>44938</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
         <v>44937</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E73" s="5">
         <v>801</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F73" s="3">
         <v>45003</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G73" s="3">
         <v>44937</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
         <v>44936</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="5">
-        <v>76</v>
-      </c>
-      <c r="F72" s="3">
-        <v>45281</v>
-      </c>
-      <c r="G72" s="3">
-        <v>44936</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>44935</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="5">
-        <v>85</v>
-      </c>
-      <c r="F73" s="3">
-        <v>44971</v>
-      </c>
-      <c r="G73" s="3">
-        <v>44935</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>44931</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>9</v>
@@ -2924,65 +2930,97 @@
         <v>10</v>
       </c>
       <c r="E74" s="5">
+        <v>76</v>
+      </c>
+      <c r="F74" s="3">
+        <v>45281</v>
+      </c>
+      <c r="G74" s="3">
+        <v>44936</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="5">
+        <v>85</v>
+      </c>
+      <c r="F75" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G75" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="5">
         <v>370</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F76" s="3">
         <v>44957</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G76" s="3">
         <v>44931</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H76" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
         <v>44932</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E77" s="5">
         <v>20</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F77" s="3">
         <v>44988</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G77" s="3">
         <v>44932</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H77" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2992,7 +3030,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3002,7 +3040,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3012,7 +3050,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3022,7 +3060,7 @@
       <c r="G81" s="3"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3032,7 +3070,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3042,7 +3080,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3052,7 +3090,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3062,7 +3100,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3072,17 +3110,17 @@
       <c r="G86" s="3"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="17"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3092,17 +3130,17 @@
       <c r="G88" s="3"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="16"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3112,7 +3150,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3122,7 +3160,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3132,7 +3170,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3142,7 +3180,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3152,7 +3190,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3162,7 +3200,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3172,7 +3210,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3182,7 +3220,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3192,7 +3230,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3202,7 +3240,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3212,7 +3250,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3222,7 +3260,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -3232,7 +3270,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3242,7 +3280,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -3252,7 +3290,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -3262,7 +3300,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -3272,17 +3310,17 @@
       <c r="G106" s="3"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="14"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3292,17 +3330,17 @@
       <c r="G108" s="3"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="4"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="13"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3312,7 +3350,7 @@
       <c r="G110" s="3"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3322,7 +3360,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -3332,7 +3370,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -3342,17 +3380,17 @@
       <c r="G113" s="3"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="13"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="14"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="3"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -3362,17 +3400,17 @@
       <c r="G115" s="3"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="4"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="13"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="14"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3382,7 +3420,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -3392,7 +3430,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -3402,7 +3440,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -3412,7 +3450,7 @@
       <c r="G120" s="3"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -3422,7 +3460,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3432,7 +3470,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -3442,7 +3480,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3452,27 +3490,27 @@
       <c r="G124" s="3"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="13"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="14"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="14"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="3"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -3482,27 +3520,27 @@
       <c r="G127" s="13"/>
       <c r="H127" s="14"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="4"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="4"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="13"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="14"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="13"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="14"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -3512,17 +3550,17 @@
       <c r="G130" s="3"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="13"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="14"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="3"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -3532,17 +3570,17 @@
       <c r="G132" s="3"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="4"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="13"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="14"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -3552,47 +3590,47 @@
       <c r="G134" s="3"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="9"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="10"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="9"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="10"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="4"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="4"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="3"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="3"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="9"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="10"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="9"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="10"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -3602,7 +3640,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -3612,7 +3650,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -3622,7 +3660,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -3632,7 +3670,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -3642,7 +3680,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -3652,47 +3690,47 @@
       <c r="G144" s="3"/>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="6"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="7"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="9"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="10"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="4"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="4"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="3"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="3"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="6"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="7"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="9"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="10"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -3702,7 +3740,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -3712,7 +3750,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="4"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -3722,7 +3760,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="4"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -3732,7 +3770,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -3742,7 +3780,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -3752,7 +3790,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="4"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -3762,7 +3800,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -3772,17 +3810,17 @@
       <c r="G156" s="3"/>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
-      <c r="B157" s="10"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="11"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="10"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="3"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="4"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -3792,6 +3830,26 @@
       <c r="G158" s="3"/>
       <c r="H158" s="4"/>
     </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="9"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="10"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="3"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\datax103p\Rdata\Internet\Webwork\Working Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ABA641B-1F8E-4DEF-9CB0-4CA1967AD824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F99DC574-6BAC-4E5E-80AC-D27BEAF7FFA9}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="84" windowWidth="20424" windowHeight="11628" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="31155" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,9 +414,6 @@
     <t>Grapevine</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    </t>
-  </si>
-  <si>
     <t>Stanley Black &amp; Decker-Fort Worth</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>Diversified Technical Services, INC. (San Antonio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Premier Auto Management, LLC                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </t>
   </si>
 </sst>
 </file>
@@ -1003,22 +1003,22 @@
   <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,12 +1044,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45076</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
@@ -1070,12 +1070,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45071</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -1096,18 +1096,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45068</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E4" s="5">
         <v>80</v>
@@ -1119,15 +1119,15 @@
         <v>45068</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45064</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
@@ -1148,12 +1148,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45063</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>24</v>
@@ -1174,12 +1174,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45062</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>14</v>
@@ -1200,12 +1200,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45062</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
@@ -1226,18 +1226,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45062</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="E9" s="5">
         <v>81</v>
@@ -1249,15 +1249,15 @@
         <v>45062</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45061</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>14</v>
@@ -1278,12 +1278,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45056</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1304,12 +1304,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45056</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>64</v>
@@ -1330,15 +1330,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45056</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>47</v>
@@ -1353,15 +1353,15 @@
         <v>45056</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45054</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>29</v>
@@ -1382,12 +1382,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45049</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>68</v>
@@ -1405,15 +1405,15 @@
         <v>45049</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45049</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>68</v>
@@ -1431,15 +1431,15 @@
         <v>45049</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45049</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
@@ -1457,15 +1457,15 @@
         <v>45049</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45049</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>78</v>
@@ -1486,12 +1486,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45041</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>64</v>
@@ -1512,7 +1512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45036</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45035</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45034</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45021</v>
       </c>
@@ -1616,12 +1616,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45022</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>32</v>
@@ -1642,7 +1642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45021</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45021</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45020</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45019</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45016</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45007</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>45000</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44999</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>45005</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>44993</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44988</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44987</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>44985</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44985</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44985</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44985</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>44984</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>44984</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>44984</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44984</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44984</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44984</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44984</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44984</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44980</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44973</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>44973</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44978</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>44972</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>44965</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>44964</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>44964</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>44964</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44964</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44957</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44957</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44959</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44959</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44959</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44957</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44953</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44946</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>44951</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44951</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44950</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44945</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44942</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44938</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44937</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44936</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44935</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44931</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44932</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3030,7 +3030,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3040,7 +3040,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3050,7 +3050,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3060,7 +3060,7 @@
       <c r="G81" s="3"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3070,7 +3070,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3080,7 +3080,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3090,7 +3090,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3100,7 +3100,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3110,7 +3110,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3120,7 +3120,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3130,7 +3130,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -3140,7 +3140,7 @@
       <c r="G89" s="16"/>
       <c r="H89" s="17"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3150,7 +3150,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3160,7 +3160,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3170,7 +3170,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3180,7 +3180,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3190,7 +3190,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3200,7 +3200,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3210,7 +3210,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3220,7 +3220,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3230,7 +3230,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3240,7 +3240,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3250,7 +3250,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3260,7 +3260,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -3270,7 +3270,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3280,7 +3280,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -3290,7 +3290,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -3300,7 +3300,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -3310,7 +3310,7 @@
       <c r="G106" s="3"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -3320,7 +3320,7 @@
       <c r="G107" s="3"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3330,7 +3330,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -3340,7 +3340,7 @@
       <c r="G109" s="13"/>
       <c r="H109" s="14"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3350,7 +3350,7 @@
       <c r="G110" s="3"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3360,7 +3360,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -3370,7 +3370,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -3380,7 +3380,7 @@
       <c r="G113" s="3"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -3390,7 +3390,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -3400,7 +3400,7 @@
       <c r="G115" s="3"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -3410,7 +3410,7 @@
       <c r="G116" s="13"/>
       <c r="H116" s="14"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3420,7 +3420,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -3430,7 +3430,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -3440,7 +3440,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -3450,7 +3450,7 @@
       <c r="G120" s="3"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -3460,7 +3460,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3470,7 +3470,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -3480,7 +3480,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3490,7 +3490,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -3500,7 +3500,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -3510,7 +3510,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -3520,7 +3520,7 @@
       <c r="G127" s="13"/>
       <c r="H127" s="14"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -3530,7 +3530,7 @@
       <c r="G128" s="13"/>
       <c r="H128" s="14"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -3540,7 +3540,7 @@
       <c r="G129" s="13"/>
       <c r="H129" s="14"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -3550,7 +3550,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -3560,7 +3560,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -3570,7 +3570,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="13"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -3580,7 +3580,7 @@
       <c r="G133" s="13"/>
       <c r="H133" s="14"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -3590,7 +3590,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -3600,7 +3600,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -3610,7 +3610,7 @@
       <c r="G136" s="3"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -3620,7 +3620,7 @@
       <c r="G137" s="9"/>
       <c r="H137" s="10"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -3630,7 +3630,7 @@
       <c r="G138" s="9"/>
       <c r="H138" s="10"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -3640,7 +3640,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -3650,7 +3650,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -3660,7 +3660,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -3670,7 +3670,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -3680,7 +3680,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -3690,7 +3690,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -3700,7 +3700,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -3710,7 +3710,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -3720,7 +3720,7 @@
       <c r="G147" s="8"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -3730,7 +3730,7 @@
       <c r="G148" s="9"/>
       <c r="H148" s="10"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -3740,7 +3740,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -3750,7 +3750,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="4"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -3760,7 +3760,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="4"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -3770,7 +3770,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -3780,7 +3780,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -3790,7 +3790,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="4"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -3800,7 +3800,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -3810,7 +3810,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -3820,7 +3820,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="4"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -3830,7 +3830,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -3840,7 +3840,7 @@
       <c r="G159" s="9"/>
       <c r="H159" s="10"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F99DC574-6BAC-4E5E-80AC-D27BEAF7FFA9}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8704F57-E032-456A-BF32-26D0FB8A2843}"/>
   <bookViews>
-    <workbookView xWindow="31155" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="160">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -501,7 +501,19 @@
     <t>Diversified Technical Services, INC. (San Antonio)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Premier Auto Management, LLC                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </t>
+    <t xml:space="preserve">Premier Auto Management, LLC                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </t>
+  </si>
+  <si>
+    <t>Attala Steele Industries (Hilsboro Plant)</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>Hillsboro</t>
+  </si>
+  <si>
+    <t>Chartwells (Midland ISD)</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,88 +1058,88 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45076</v>
+        <v>45084</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E2" s="5">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="G2" s="3">
-        <v>45076</v>
+        <v>45084</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45071</v>
+        <v>45078</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E3" s="5">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3">
-        <v>45070</v>
+        <v>45072</v>
       </c>
       <c r="G3" s="3">
-        <v>45071</v>
+        <v>45078</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45068</v>
+        <v>45076</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="F4" s="3">
-        <v>45104</v>
+        <v>45138</v>
       </c>
       <c r="G4" s="3">
-        <v>45068</v>
+        <v>45076</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45064</v>
+        <v>45071</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
@@ -1136,13 +1148,13 @@
         <v>20</v>
       </c>
       <c r="E5" s="5">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F5" s="3">
-        <v>45107</v>
+        <v>45070</v>
       </c>
       <c r="G5" s="3">
-        <v>45064</v>
+        <v>45071</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>21</v>
@@ -1150,80 +1162,80 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45063</v>
+        <v>45068</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="E6" s="5">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F6" s="3">
-        <v>45114</v>
+        <v>45104</v>
       </c>
       <c r="G6" s="3">
-        <v>45063</v>
+        <v>45068</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45062</v>
+        <v>45064</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5">
-        <v>235</v>
+        <v>64</v>
       </c>
       <c r="F7" s="3">
-        <v>45121</v>
+        <v>45107</v>
       </c>
       <c r="G7" s="3">
-        <v>45062</v>
+        <v>45064</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5">
-        <v>549</v>
+        <v>69</v>
       </c>
       <c r="F8" s="3">
-        <v>45104</v>
+        <v>45114</v>
       </c>
       <c r="G8" s="3">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1231,103 +1243,103 @@
         <v>45062</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="F9" s="3">
-        <v>45138</v>
+        <v>45121</v>
       </c>
       <c r="G9" s="3">
         <v>45062</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5">
-        <v>86</v>
+        <v>549</v>
       </c>
       <c r="F10" s="3">
-        <v>45016</v>
+        <v>45104</v>
       </c>
       <c r="G10" s="3">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="E11" s="5">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F11" s="3">
-        <v>45072</v>
+        <v>45138</v>
       </c>
       <c r="G11" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45056</v>
+        <v>45061</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E12" s="5">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F12" s="3">
-        <v>45107</v>
+        <v>45016</v>
       </c>
       <c r="G12" s="3">
-        <v>45056</v>
+        <v>45061</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1335,103 +1347,103 @@
         <v>45056</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3">
-        <v>45139</v>
+        <v>45072</v>
       </c>
       <c r="G13" s="3">
         <v>45056</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45054</v>
+        <v>45056</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E14" s="5">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="F14" s="3">
-        <v>45058</v>
+        <v>45107</v>
       </c>
       <c r="G14" s="3">
-        <v>45054</v>
+        <v>45056</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="F15" s="3">
-        <v>45107</v>
+        <v>45139</v>
       </c>
       <c r="G15" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E16" s="5">
-        <v>29</v>
+        <v>272</v>
       </c>
       <c r="F16" s="3">
-        <v>45107</v>
+        <v>45058</v>
       </c>
       <c r="G16" s="3">
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1439,25 +1451,25 @@
         <v>45049</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E17" s="5">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="F17" s="3">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G17" s="3">
         <v>45049</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1465,181 +1477,181 @@
         <v>45049</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="5">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F18" s="3">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G18" s="3">
         <v>45049</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E19" s="5">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3">
-        <v>45065</v>
+        <v>45105</v>
       </c>
       <c r="G19" s="3">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>45036</v>
+        <v>45049</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E20" s="5">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="F20" s="3">
-        <v>45120</v>
+        <v>45105</v>
       </c>
       <c r="G20" s="3">
-        <v>45036</v>
+        <v>45049</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>45035</v>
+        <v>45041</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E21" s="5">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="F21" s="3">
-        <v>45095</v>
+        <v>45065</v>
       </c>
       <c r="G21" s="3">
-        <v>45035</v>
+        <v>45041</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>45034</v>
+        <v>45036</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E22" s="5">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F22" s="3">
-        <v>45076</v>
+        <v>45120</v>
       </c>
       <c r="G22" s="3">
-        <v>45034</v>
+        <v>45036</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>45021</v>
+        <v>45035</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E23" s="5">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="F23" s="3">
-        <v>45077</v>
+        <v>45095</v>
       </c>
       <c r="G23" s="3">
-        <v>45021</v>
+        <v>45035</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>45022</v>
+        <v>45034</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E24" s="5">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F24" s="3">
-        <v>45079</v>
+        <v>45076</v>
       </c>
       <c r="G24" s="3">
-        <v>45022</v>
+        <v>45034</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1647,16 +1659,16 @@
         <v>45021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E25" s="5">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F25" s="3">
         <v>45077</v>
@@ -1665,345 +1677,345 @@
         <v>45021</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E26" s="5">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F26" s="3">
-        <v>45086</v>
+        <v>45079</v>
       </c>
       <c r="G26" s="3">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E27" s="5">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F27" s="3">
-        <v>45075</v>
+        <v>45077</v>
       </c>
       <c r="G27" s="3">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E28" s="5">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="F28" s="3">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="G28" s="3">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>45016</v>
+        <v>45020</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E29" s="5">
-        <v>1047</v>
+        <v>84</v>
       </c>
       <c r="F29" s="3">
-        <v>45079</v>
+        <v>45075</v>
       </c>
       <c r="G29" s="3">
-        <v>45016</v>
+        <v>45020</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>45007</v>
+        <v>45019</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E30" s="5">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="F30" s="3">
-        <v>45059</v>
+        <v>45079</v>
       </c>
       <c r="G30" s="3">
-        <v>45007</v>
+        <v>45019</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>45000</v>
+        <v>45016</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E31" s="5">
-        <v>81</v>
+        <v>1047</v>
       </c>
       <c r="F31" s="3">
-        <v>45077</v>
+        <v>45079</v>
       </c>
       <c r="G31" s="3">
-        <v>45000</v>
+        <v>45016</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44999</v>
+        <v>45007</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E32" s="5">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="F32" s="3">
-        <v>45020</v>
+        <v>45059</v>
       </c>
       <c r="G32" s="3">
-        <v>44999</v>
+        <v>45007</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>45005</v>
+        <v>45000</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E33" s="5">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="F33" s="3">
-        <v>45066</v>
+        <v>45077</v>
       </c>
       <c r="G33" s="3">
-        <v>45005</v>
+        <v>45000</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>44993</v>
+        <v>44999</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E34" s="5">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="F34" s="3">
-        <v>45044</v>
+        <v>45020</v>
       </c>
       <c r="G34" s="3">
-        <v>44993</v>
+        <v>44999</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44988</v>
+        <v>45005</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E35" s="5">
-        <v>827</v>
+        <v>152</v>
       </c>
       <c r="F35" s="3">
-        <v>45047</v>
+        <v>45066</v>
       </c>
       <c r="G35" s="3">
-        <v>44988</v>
+        <v>45005</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44987</v>
+        <v>44993</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E36" s="5">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="F36" s="3">
-        <v>45048</v>
+        <v>45044</v>
       </c>
       <c r="G36" s="3">
-        <v>44987</v>
+        <v>44993</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E37" s="5">
-        <v>17</v>
+        <v>827</v>
       </c>
       <c r="F37" s="3">
-        <v>45169</v>
+        <v>45047</v>
       </c>
       <c r="G37" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E38" s="5">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F38" s="3">
-        <v>45077</v>
+        <v>45048</v>
       </c>
       <c r="G38" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2011,25 +2023,25 @@
         <v>44985</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E39" s="5">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="F39" s="3">
-        <v>44979</v>
+        <v>45169</v>
       </c>
       <c r="G39" s="3">
         <v>44985</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2037,77 +2049,77 @@
         <v>44985</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E40" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F40" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G40" s="3">
         <v>44985</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E41" s="5">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="F41" s="3">
-        <v>45016</v>
+        <v>44979</v>
       </c>
       <c r="G41" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E42" s="5">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F42" s="3">
         <v>45169</v>
       </c>
       <c r="G42" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2115,25 +2127,25 @@
         <v>44984</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E43" s="5">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="F43" s="3">
-        <v>45077</v>
+        <v>45016</v>
       </c>
       <c r="G43" s="3">
         <v>44984</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2141,25 +2153,25 @@
         <v>44984</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E44" s="5">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F44" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G44" s="3">
         <v>44984</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2167,25 +2179,25 @@
         <v>44984</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E45" s="5">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F45" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G45" s="3">
         <v>44984</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2193,25 +2205,25 @@
         <v>44984</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E46" s="5">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F46" s="3">
-        <v>45016</v>
+        <v>45077</v>
       </c>
       <c r="G46" s="3">
         <v>44984</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2219,25 +2231,25 @@
         <v>44984</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E47" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F47" s="3">
-        <v>44974</v>
+        <v>45169</v>
       </c>
       <c r="G47" s="3">
         <v>44984</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2245,233 +2257,233 @@
         <v>44984</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E48" s="5">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F48" s="3">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G48" s="3">
         <v>44984</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E49" s="5">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="F49" s="3">
-        <v>45039</v>
+        <v>44974</v>
       </c>
       <c r="G49" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E50" s="5">
-        <v>40</v>
-      </c>
-      <c r="F50" s="12">
-        <v>44965</v>
+        <v>10</v>
+      </c>
+      <c r="F50" s="3">
+        <v>44974</v>
       </c>
       <c r="G50" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E51" s="5">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="F51" s="3">
-        <v>44981</v>
+        <v>45039</v>
       </c>
       <c r="G51" s="3">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E52" s="5">
-        <v>100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>45032</v>
+        <v>40</v>
+      </c>
+      <c r="F52" s="12">
+        <v>44965</v>
       </c>
       <c r="G52" s="3">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E53" s="5">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="F53" s="3">
-        <v>44974</v>
+        <v>44981</v>
       </c>
       <c r="G53" s="3">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44965</v>
+        <v>44978</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E54" s="5">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>45065</v>
+        <v>45032</v>
       </c>
       <c r="G54" s="3">
-        <v>44966</v>
+        <v>44978</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="5">
         <v>64</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="5">
-        <v>121</v>
-      </c>
       <c r="F55" s="3">
-        <v>45024</v>
+        <v>44974</v>
       </c>
       <c r="G55" s="3">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E56" s="5">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F56" s="3">
-        <v>45017</v>
+        <v>45065</v>
       </c>
       <c r="G56" s="3">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2479,25 +2491,25 @@
         <v>44964</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E57" s="5">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="F57" s="3">
-        <v>45013</v>
+        <v>45024</v>
       </c>
       <c r="G57" s="3">
         <v>44964</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2505,129 +2517,129 @@
         <v>44964</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E58" s="5">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="F58" s="3">
-        <v>45020</v>
+        <v>45017</v>
       </c>
       <c r="G58" s="3">
         <v>44964</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E59" s="5">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F59" s="3">
-        <v>44956</v>
+        <v>45013</v>
       </c>
       <c r="G59" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E60" s="5">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>45016</v>
+        <v>45020</v>
       </c>
       <c r="G60" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E61" s="5">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="F61" s="3">
-        <v>45017</v>
+        <v>44956</v>
       </c>
       <c r="G61" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E62" s="5">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="F62" s="3">
-        <v>45019</v>
+        <v>45016</v>
       </c>
       <c r="G62" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2635,345 +2647,345 @@
         <v>44959</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E63" s="5">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F63" s="3">
-        <v>44972</v>
+        <v>45017</v>
       </c>
       <c r="G63" s="3">
         <v>44959</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E64" s="5">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="F64" s="3">
-        <v>44957</v>
+        <v>45019</v>
       </c>
       <c r="G64" s="3">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>44953</v>
+        <v>44959</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E65" s="5">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="F65" s="3">
-        <v>44942</v>
+        <v>44972</v>
       </c>
       <c r="G65" s="3">
-        <v>44953</v>
+        <v>44959</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E66" s="5">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F66" s="3">
-        <v>45016</v>
+        <v>44957</v>
       </c>
       <c r="G66" s="3">
-        <v>44946</v>
+        <v>44960</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="19">
-        <v>44951</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="21">
-        <v>76</v>
-      </c>
-      <c r="F67" s="19">
-        <v>44995</v>
-      </c>
-      <c r="G67" s="19">
-        <v>44951</v>
-      </c>
-      <c r="H67" s="20" t="s">
-        <v>26</v>
+      <c r="A67" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="5">
+        <v>255</v>
+      </c>
+      <c r="F67" s="3">
+        <v>44942</v>
+      </c>
+      <c r="G67" s="3">
+        <v>44953</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
+        <v>44946</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="5">
+        <v>110</v>
+      </c>
+      <c r="F68" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G68" s="3">
+        <v>44946</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="19">
         <v>44951</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" s="5">
-        <v>374</v>
-      </c>
-      <c r="F68" s="3">
-        <v>45011</v>
-      </c>
-      <c r="G68" s="3">
+      <c r="B69" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="21">
+        <v>76</v>
+      </c>
+      <c r="F69" s="19">
+        <v>44995</v>
+      </c>
+      <c r="G69" s="19">
         <v>44951</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>44950</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E69" s="5">
-        <v>125</v>
-      </c>
-      <c r="F69" s="3">
-        <v>45016</v>
-      </c>
-      <c r="G69" s="3">
-        <v>44950</v>
-      </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>44945</v>
+        <v>44951</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E70" s="5">
-        <v>964</v>
+        <v>374</v>
       </c>
       <c r="F70" s="3">
-        <v>45016</v>
+        <v>45011</v>
       </c>
       <c r="G70" s="3">
-        <v>44945</v>
+        <v>44951</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>44942</v>
+        <v>44950</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E71" s="5">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="F71" s="3">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="G71" s="3">
-        <v>44942</v>
+        <v>44950</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>44938</v>
+        <v>44945</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E72" s="5">
-        <v>139</v>
+        <v>964</v>
       </c>
       <c r="F72" s="3">
-        <v>44937</v>
+        <v>45016</v>
       </c>
       <c r="G72" s="3">
-        <v>44938</v>
+        <v>44945</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E73" s="5">
-        <v>801</v>
+        <v>77</v>
       </c>
       <c r="F73" s="3">
-        <v>45003</v>
+        <v>45002</v>
       </c>
       <c r="G73" s="3">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>44936</v>
+        <v>44938</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E74" s="5">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="F74" s="3">
-        <v>45281</v>
+        <v>44937</v>
       </c>
       <c r="G74" s="3">
-        <v>44936</v>
+        <v>44938</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>44935</v>
+        <v>44937</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E75" s="5">
-        <v>85</v>
+        <v>801</v>
       </c>
       <c r="F75" s="3">
-        <v>44971</v>
+        <v>45003</v>
       </c>
       <c r="G75" s="3">
-        <v>44935</v>
+        <v>44937</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>44931</v>
+        <v>44936</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>9</v>
@@ -2982,63 +2994,95 @@
         <v>10</v>
       </c>
       <c r="E76" s="5">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="F76" s="3">
-        <v>44957</v>
+        <v>45281</v>
       </c>
       <c r="G76" s="3">
-        <v>44931</v>
+        <v>44936</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="5">
+        <v>85</v>
+      </c>
+      <c r="F77" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G77" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="5">
+        <v>370</v>
+      </c>
+      <c r="F78" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G78" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>44932</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E79" s="5">
         <v>20</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F79" s="3">
         <v>44988</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G79" s="3">
         <v>44932</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H79" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="4"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
@@ -3131,14 +3175,14 @@
       <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="17"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
@@ -3151,14 +3195,14 @@
       <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="4"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="17"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -3331,14 +3375,14 @@
       <c r="H108" s="4"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="13"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="14"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="4"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
@@ -3351,14 +3395,14 @@
       <c r="H110" s="4"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="4"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
@@ -3401,14 +3445,14 @@
       <c r="H115" s="4"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="14"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="4"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
@@ -3421,14 +3465,14 @@
       <c r="H117" s="4"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="4"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
@@ -3511,24 +3555,24 @@
       <c r="H126" s="4"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="13"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="14"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="13"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="14"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="4"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
@@ -3541,24 +3585,24 @@
       <c r="H129" s="14"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="4"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="14"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="4"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="14"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
@@ -3571,14 +3615,14 @@
       <c r="H132" s="4"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="13"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="14"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="4"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
@@ -3591,14 +3635,14 @@
       <c r="H134" s="4"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="4"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
@@ -3611,44 +3655,44 @@
       <c r="H136" s="4"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="9"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="10"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="4"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="10"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="4"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="4"/>
+      <c r="A139" s="9"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="10"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="4"/>
+      <c r="A140" s="9"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="10"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
@@ -3711,44 +3755,44 @@
       <c r="H146" s="4"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="6"/>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="7"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="9"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="11"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="10"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="4"/>
+      <c r="A149" s="6"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="7"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="4"/>
+      <c r="A150" s="9"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="10"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
@@ -3831,14 +3875,14 @@
       <c r="H158" s="4"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="9"/>
-      <c r="B159" s="10"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="10"/>
+      <c r="A159" s="3"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="4"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
@@ -3850,6 +3894,26 @@
       <c r="G160" s="3"/>
       <c r="H160" s="4"/>
     </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="9"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="10"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8704F57-E032-456A-BF32-26D0FB8A2843}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCC6767B-ED57-4D0F-88BF-E3FD3169B8FC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="167">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -514,6 +514,27 @@
   </si>
   <si>
     <t>Chartwells (Midland ISD)</t>
+  </si>
+  <si>
+    <t>Federal Express Corporation (Temple)</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Central Texas WDA</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Nucor (Longview)</t>
+  </si>
+  <si>
+    <t>Gregg</t>
+  </si>
+  <si>
+    <t>Longview</t>
   </si>
 </sst>
 </file>
@@ -1012,25 +1033,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,142 +1077,142 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
+        <v>45091</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="5">
+        <v>173</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45156</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45091</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>45085</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="5">
+        <v>58</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45173</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45085</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>45084</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E4" s="5">
         <v>74</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F4" s="3">
         <v>45107</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G4" s="3">
         <v>45084</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>45078</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E5" s="5">
         <v>126</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F5" s="3">
         <v>45072</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G5" s="3">
         <v>45078</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>45076</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E6" s="5">
         <v>137</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F6" s="3">
         <v>45138</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G6" s="3">
         <v>45076</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>45071</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5">
-        <v>90</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45070</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45071</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>45068</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="5">
-        <v>80</v>
-      </c>
-      <c r="F6" s="3">
-        <v>45104</v>
-      </c>
-      <c r="G6" s="3">
-        <v>45068</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>45064</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
@@ -1200,527 +1221,527 @@
         <v>20</v>
       </c>
       <c r="E7" s="5">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F7" s="3">
-        <v>45107</v>
+        <v>45070</v>
       </c>
       <c r="G7" s="3">
-        <v>45064</v>
+        <v>45071</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
+        <v>45068</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="5">
+        <v>80</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45104</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45068</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>45064</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>64</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45107</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45064</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>45063</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E10" s="5">
         <v>69</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F10" s="3">
         <v>45114</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G10" s="3">
         <v>45063</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>45062</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5">
-        <v>235</v>
-      </c>
-      <c r="F9" s="3">
-        <v>45121</v>
-      </c>
-      <c r="G9" s="3">
-        <v>45062</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>45062</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5">
-        <v>549</v>
-      </c>
-      <c r="F10" s="3">
-        <v>45104</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45062</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45062</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="F11" s="3">
-        <v>45138</v>
+        <v>45121</v>
       </c>
       <c r="G11" s="3">
         <v>45062</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>45062</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5">
+        <v>549</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45104</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45062</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>45062</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="5">
+        <v>81</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45138</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45062</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>45061</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E14" s="5">
         <v>86</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F14" s="3">
         <v>45016</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G14" s="3">
         <v>45061</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>45056</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5">
-        <v>23</v>
-      </c>
-      <c r="F13" s="3">
-        <v>45072</v>
-      </c>
-      <c r="G13" s="3">
-        <v>45056</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>45056</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="5">
-        <v>105</v>
-      </c>
-      <c r="F14" s="3">
-        <v>45107</v>
-      </c>
-      <c r="G14" s="3">
-        <v>45056</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45056</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E15" s="5">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F15" s="3">
-        <v>45139</v>
+        <v>45072</v>
       </c>
       <c r="G15" s="3">
         <v>45056</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>45056</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5">
+        <v>105</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45107</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45056</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>45056</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="5">
+        <v>27</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45139</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45056</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>45054</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E18" s="5">
         <v>272</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F18" s="3">
         <v>45058</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G18" s="3">
         <v>45054</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>45049</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="5">
-        <v>123</v>
-      </c>
-      <c r="F17" s="3">
-        <v>45107</v>
-      </c>
-      <c r="G17" s="3">
-        <v>45049</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>45049</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="5">
-        <v>29</v>
-      </c>
-      <c r="F18" s="3">
-        <v>45107</v>
-      </c>
-      <c r="G18" s="3">
-        <v>45049</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45049</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E19" s="5">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="F19" s="3">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G19" s="3">
         <v>45049</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>45049</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="5">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F20" s="3">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G20" s="3">
         <v>45049</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>45049</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45105</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45049</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>45049</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="5">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45105</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45049</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>45041</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E23" s="5">
         <v>175</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F23" s="3">
         <v>45065</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G23" s="3">
         <v>45041</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>45036</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E24" s="5">
         <v>133</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F24" s="3">
         <v>45120</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G24" s="3">
         <v>45036</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>45035</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E25" s="5">
         <v>62</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F25" s="3">
         <v>45095</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G25" s="3">
         <v>45035</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>45034</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E26" s="5">
         <v>113</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F26" s="3">
         <v>45076</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G26" s="3">
         <v>45034</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>45021</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="5">
-        <v>120</v>
-      </c>
-      <c r="F25" s="3">
-        <v>45077</v>
-      </c>
-      <c r="G25" s="3">
-        <v>45021</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>45022</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="5">
-        <v>12</v>
-      </c>
-      <c r="F26" s="3">
-        <v>45079</v>
-      </c>
-      <c r="G26" s="3">
-        <v>45022</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>45021</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E27" s="5">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F27" s="3">
         <v>45077</v>
@@ -1729,1315 +1750,1315 @@
         <v>45021</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>45022</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="5">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45079</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45022</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>45021</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="5">
+        <v>98</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45077</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45021</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>45021</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E30" s="5">
         <v>100</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F30" s="3">
         <v>45086</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G30" s="3">
         <v>45021</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>45020</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E31" s="5">
         <v>84</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F31" s="3">
         <v>45075</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G31" s="3">
         <v>45020</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>45019</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E32" s="5">
         <v>227</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F32" s="3">
         <v>45079</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G32" s="3">
         <v>45019</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <v>45016</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E33" s="5">
         <v>1047</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F33" s="3">
         <v>45079</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G33" s="3">
         <v>45016</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
         <v>45007</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E34" s="5">
         <v>54</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F34" s="3">
         <v>45059</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G34" s="3">
         <v>45007</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>45000</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E35" s="5">
         <v>81</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F35" s="3">
         <v>45077</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G35" s="3">
         <v>45000</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>44999</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E36" s="5">
         <v>105</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F36" s="3">
         <v>45020</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G36" s="3">
         <v>44999</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>45005</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E37" s="5">
         <v>152</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F37" s="3">
         <v>45066</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G37" s="3">
         <v>45005</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <v>44993</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E38" s="5">
         <v>240</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F38" s="3">
         <v>45044</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G38" s="3">
         <v>44993</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>44988</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E39" s="5">
         <v>827</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F39" s="3">
         <v>45047</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G39" s="3">
         <v>44988</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>44987</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E40" s="5">
         <v>53</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F40" s="3">
         <v>45048</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G40" s="3">
         <v>44987</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>44985</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="5">
-        <v>17</v>
-      </c>
-      <c r="F39" s="3">
-        <v>45169</v>
-      </c>
-      <c r="G39" s="3">
-        <v>44985</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>44985</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="5">
-        <v>12</v>
-      </c>
-      <c r="F40" s="3">
-        <v>45077</v>
-      </c>
-      <c r="G40" s="3">
-        <v>44985</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44985</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E41" s="5">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="F41" s="3">
-        <v>44979</v>
+        <v>45169</v>
       </c>
       <c r="G41" s="3">
         <v>44985</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>44985</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E42" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F42" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G42" s="3">
         <v>44985</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E43" s="5">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="F43" s="3">
-        <v>45016</v>
+        <v>44979</v>
       </c>
       <c r="G43" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E44" s="5">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F44" s="3">
         <v>45169</v>
       </c>
       <c r="G44" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44984</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E45" s="5">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="F45" s="3">
-        <v>45077</v>
+        <v>45016</v>
       </c>
       <c r="G45" s="3">
         <v>44984</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44984</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E46" s="5">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F46" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G46" s="3">
         <v>44984</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>44984</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E47" s="5">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F47" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G47" s="3">
         <v>44984</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>44984</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E48" s="5">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F48" s="3">
-        <v>45016</v>
+        <v>45077</v>
       </c>
       <c r="G48" s="3">
         <v>44984</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44984</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E49" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F49" s="3">
-        <v>44974</v>
+        <v>45169</v>
       </c>
       <c r="G49" s="3">
         <v>44984</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>44984</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E50" s="5">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F50" s="3">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G50" s="3">
         <v>44984</v>
       </c>
       <c r="H50" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="5">
+        <v>10</v>
+      </c>
+      <c r="F51" s="3">
+        <v>44974</v>
+      </c>
+      <c r="G51" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="5">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3">
+        <v>44974</v>
+      </c>
+      <c r="G52" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
         <v>44980</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E53" s="5">
         <v>120</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F53" s="3">
         <v>45039</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G53" s="3">
         <v>44980</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
         <v>44973</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E54" s="5">
         <v>40</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F54" s="12">
         <v>44965</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G54" s="3">
         <v>44973</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
         <v>44973</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E55" s="5">
         <v>186</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F55" s="3">
         <v>44981</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G55" s="3">
         <v>44973</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
         <v>44978</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E56" s="5">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F56" s="3">
         <v>45032</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G56" s="3">
         <v>44978</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
         <v>44972</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E57" s="5">
         <v>64</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F57" s="3">
         <v>44974</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G57" s="3">
         <v>44972</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
         <v>44965</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E58" s="5">
         <v>92</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F58" s="3">
         <v>45065</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G58" s="3">
         <v>44966</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57" s="5">
-        <v>121</v>
-      </c>
-      <c r="F57" s="3">
-        <v>45024</v>
-      </c>
-      <c r="G57" s="3">
-        <v>44964</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="5">
-        <v>60</v>
-      </c>
-      <c r="F58" s="3">
-        <v>45017</v>
-      </c>
-      <c r="G58" s="3">
-        <v>44964</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44964</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E59" s="5">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="F59" s="3">
-        <v>45013</v>
+        <v>45024</v>
       </c>
       <c r="G59" s="3">
         <v>44964</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>44964</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E60" s="5">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="F60" s="3">
-        <v>45020</v>
+        <v>45017</v>
       </c>
       <c r="G60" s="3">
         <v>44964</v>
       </c>
       <c r="H60" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="5">
+        <v>65</v>
+      </c>
+      <c r="F61" s="3">
+        <v>45013</v>
+      </c>
+      <c r="G61" s="3">
+        <v>44964</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="5">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>45020</v>
+      </c>
+      <c r="G62" s="3">
+        <v>44964</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
         <v>44957</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E63" s="5">
         <v>83</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F63" s="3">
         <v>44956</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G63" s="3">
         <v>44957</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
         <v>44957</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E64" s="5">
         <v>74</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F64" s="3">
         <v>45016</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G64" s="3">
         <v>44957</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H64" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>44959</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E63" s="5">
-        <v>158</v>
-      </c>
-      <c r="F63" s="3">
-        <v>45017</v>
-      </c>
-      <c r="G63" s="3">
-        <v>44959</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>44959</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E64" s="5">
-        <v>9</v>
-      </c>
-      <c r="F64" s="3">
-        <v>45019</v>
-      </c>
-      <c r="G64" s="3">
-        <v>44959</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>44959</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E65" s="5">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F65" s="3">
-        <v>44972</v>
+        <v>45017</v>
       </c>
       <c r="G65" s="3">
         <v>44959</v>
       </c>
       <c r="H65" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="5">
+        <v>9</v>
+      </c>
+      <c r="F66" s="3">
+        <v>45019</v>
+      </c>
+      <c r="G66" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="5">
+        <v>140</v>
+      </c>
+      <c r="F67" s="3">
+        <v>44972</v>
+      </c>
+      <c r="G67" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
         <v>44957</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E68" s="5">
         <v>90</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F68" s="3">
         <v>44957</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G68" s="3">
         <v>44960</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
         <v>44953</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E69" s="5">
         <v>255</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F69" s="3">
         <v>44942</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G69" s="3">
         <v>44953</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
         <v>44946</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E70" s="5">
         <v>110</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F70" s="3">
         <v>45016</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G70" s="3">
         <v>44946</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H70" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="19">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="19">
         <v>44951</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B71" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C71" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D71" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E71" s="21">
         <v>76</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F71" s="19">
         <v>44995</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G71" s="19">
         <v>44951</v>
       </c>
-      <c r="H69" s="20" t="s">
+      <c r="H71" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
         <v>44951</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" s="5">
-        <v>374</v>
-      </c>
-      <c r="F70" s="3">
-        <v>45011</v>
-      </c>
-      <c r="G70" s="3">
-        <v>44951</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>44950</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="5">
-        <v>125</v>
-      </c>
-      <c r="F71" s="3">
-        <v>45016</v>
-      </c>
-      <c r="G71" s="3">
-        <v>44950</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>44945</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E72" s="5">
+        <v>374</v>
+      </c>
+      <c r="F72" s="3">
+        <v>45011</v>
+      </c>
+      <c r="G72" s="3">
+        <v>44951</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>44950</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="5">
+        <v>125</v>
+      </c>
+      <c r="F73" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G73" s="3">
+        <v>44950</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>44945</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="5">
         <v>964</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F74" s="3">
         <v>45016</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G74" s="3">
         <v>44945</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H74" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
         <v>44942</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E75" s="5">
         <v>77</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F75" s="3">
         <v>45002</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G75" s="3">
         <v>44942</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
         <v>44938</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E76" s="5">
         <v>139</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F76" s="3">
         <v>44937</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G76" s="3">
         <v>44938</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H76" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
         <v>44937</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E77" s="5">
         <v>801</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F77" s="3">
         <v>45003</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G77" s="3">
         <v>44937</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H77" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
         <v>44936</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="5">
-        <v>76</v>
-      </c>
-      <c r="F76" s="3">
-        <v>45281</v>
-      </c>
-      <c r="G76" s="3">
-        <v>44936</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>44935</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="5">
-        <v>85</v>
-      </c>
-      <c r="F77" s="3">
-        <v>44971</v>
-      </c>
-      <c r="G77" s="3">
-        <v>44935</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>44931</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>9</v>
@@ -3046,65 +3067,97 @@
         <v>10</v>
       </c>
       <c r="E78" s="5">
+        <v>76</v>
+      </c>
+      <c r="F78" s="3">
+        <v>45281</v>
+      </c>
+      <c r="G78" s="3">
+        <v>44936</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="5">
+        <v>85</v>
+      </c>
+      <c r="F79" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G79" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="5">
         <v>370</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F80" s="3">
         <v>44957</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G80" s="3">
         <v>44931</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
         <v>44932</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E81" s="5">
         <v>20</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F81" s="3">
         <v>44988</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G81" s="3">
         <v>44932</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3114,7 +3167,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3124,7 +3177,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3134,7 +3187,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3144,7 +3197,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3154,7 +3207,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3164,7 +3217,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3174,7 +3227,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3184,7 +3237,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3194,17 +3247,17 @@
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="17"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="3"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3214,17 +3267,17 @@
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="16"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="17"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3234,7 +3287,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3244,7 +3297,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3254,7 +3307,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3264,7 +3317,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3274,7 +3327,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3284,7 +3337,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3294,7 +3347,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3304,7 +3357,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -3314,7 +3367,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3324,7 +3377,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -3334,7 +3387,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -3344,7 +3397,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -3354,7 +3407,7 @@
       <c r="G106" s="3"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -3364,7 +3417,7 @@
       <c r="G107" s="3"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3374,7 +3427,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -3384,7 +3437,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3394,17 +3447,17 @@
       <c r="G110" s="3"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="14"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="3"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -3414,17 +3467,17 @@
       <c r="G112" s="3"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="4"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="13"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="14"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -3434,7 +3487,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -3444,7 +3497,7 @@
       <c r="G115" s="3"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -3454,7 +3507,7 @@
       <c r="G116" s="3"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3464,17 +3517,17 @@
       <c r="G117" s="3"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="13"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="14"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="3"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -3484,17 +3537,17 @@
       <c r="G119" s="3"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="13"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="14"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -3504,7 +3557,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3514,7 +3567,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -3524,7 +3577,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3534,7 +3587,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -3544,7 +3597,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -3554,7 +3607,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -3564,7 +3617,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -3574,27 +3627,27 @@
       <c r="G128" s="3"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="14"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="13"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="14"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="3"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="3"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -3604,27 +3657,27 @@
       <c r="G131" s="13"/>
       <c r="H131" s="14"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="4"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="4"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="13"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="14"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="13"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="14"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -3634,17 +3687,17 @@
       <c r="G134" s="3"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="13"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="14"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="3"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -3654,17 +3707,17 @@
       <c r="G136" s="3"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="4"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="13"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="14"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -3674,47 +3727,47 @@
       <c r="G138" s="3"/>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="10"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="10"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="4"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="4"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="3"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="3"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="9"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="10"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="9"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="10"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -3724,7 +3777,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -3734,7 +3787,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -3744,7 +3797,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -3754,7 +3807,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -3764,7 +3817,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -3774,47 +3827,47 @@
       <c r="G148" s="3"/>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="6"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="7"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="10"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="4"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="4"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="3"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="4"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="3"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="6"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="7"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="9"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="10"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -3824,7 +3877,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -3834,7 +3887,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="4"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -3844,7 +3897,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -3854,7 +3907,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -3864,7 +3917,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="4"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -3874,7 +3927,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -3884,7 +3937,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="4"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -3894,17 +3947,17 @@
       <c r="G160" s="3"/>
       <c r="H160" s="4"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="9"/>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="11"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="10"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="3"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="4"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -3914,6 +3967,26 @@
       <c r="G162" s="3"/>
       <c r="H162" s="4"/>
     </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="9"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="10"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="3"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCC6767B-ED57-4D0F-88BF-E3FD3169B8FC}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C14ACA72-8B13-47C9-B861-EEF2532AE6DE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="-13155" yWindow="1905" windowWidth="12195" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="171">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -535,6 +535,18 @@
   </si>
   <si>
     <t>Longview</t>
+  </si>
+  <si>
+    <t>Southeast Service Corporation (Bastrop Independent School District)</t>
+  </si>
+  <si>
+    <t>Bastrop</t>
+  </si>
+  <si>
+    <t>Neilsen and Bainbridge, LLC</t>
+  </si>
+  <si>
+    <t>Accenture Austin)</t>
   </si>
 </sst>
 </file>
@@ -1033,25 +1045,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,272 +1089,272 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
+        <v>45092</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="5">
+        <v>218</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45152</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45092</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>45092</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="5">
+        <v>116</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45069</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45092</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>45092</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="5">
+        <v>91</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45143</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45092</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>45091</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E5" s="5">
         <v>173</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F5" s="3">
         <v>45156</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G5" s="3">
         <v>45091</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>45085</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E6" s="5">
         <v>58</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F6" s="3">
         <v>45173</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G6" s="3">
         <v>45085</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>45084</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E7" s="5">
         <v>74</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F7" s="3">
         <v>45107</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G7" s="3">
         <v>45084</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>45078</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E8" s="5">
         <v>126</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F8" s="3">
         <v>45072</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G8" s="3">
         <v>45078</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>45076</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E9" s="5">
         <v>137</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F9" s="3">
         <v>45138</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G9" s="3">
         <v>45076</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>45071</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E10" s="5">
         <v>90</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F10" s="3">
         <v>45070</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G10" s="3">
         <v>45071</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>45068</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E11" s="5">
         <v>80</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F11" s="3">
         <v>45104</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G11" s="3">
         <v>45068</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>45064</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5">
-        <v>64</v>
-      </c>
-      <c r="F9" s="3">
-        <v>45107</v>
-      </c>
-      <c r="G9" s="3">
-        <v>45064</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>45063</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5">
-        <v>69</v>
-      </c>
-      <c r="F10" s="3">
-        <v>45114</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45063</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>45062</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="5">
-        <v>235</v>
-      </c>
-      <c r="F11" s="3">
-        <v>45121</v>
-      </c>
-      <c r="G11" s="3">
-        <v>45062</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>45062</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>19</v>
@@ -1351,50 +1363,50 @@
         <v>20</v>
       </c>
       <c r="E12" s="5">
-        <v>549</v>
+        <v>64</v>
       </c>
       <c r="F12" s="3">
-        <v>45104</v>
+        <v>45107</v>
       </c>
       <c r="G12" s="3">
-        <v>45062</v>
+        <v>45064</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
+        <v>45063</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5">
+        <v>69</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45114</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45063</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>45062</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="5">
-        <v>81</v>
-      </c>
-      <c r="F13" s="3">
-        <v>45138</v>
-      </c>
-      <c r="G13" s="3">
-        <v>45062</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>45061</v>
-      </c>
       <c r="B14" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1403,596 +1415,596 @@
         <v>15</v>
       </c>
       <c r="E14" s="5">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="F14" s="3">
-        <v>45016</v>
+        <v>45121</v>
       </c>
       <c r="G14" s="3">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
+        <v>45062</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5">
+        <v>549</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45104</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45062</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>45062</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="5">
+        <v>81</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45138</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45062</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>45061</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="5">
+        <v>86</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45061</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>45056</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E18" s="5">
         <v>23</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F18" s="3">
         <v>45072</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G18" s="3">
         <v>45056</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>45056</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E19" s="5">
         <v>105</v>
-      </c>
-      <c r="F16" s="3">
-        <v>45107</v>
-      </c>
-      <c r="G16" s="3">
-        <v>45056</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>45056</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="5">
-        <v>27</v>
-      </c>
-      <c r="F17" s="3">
-        <v>45139</v>
-      </c>
-      <c r="G17" s="3">
-        <v>45056</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>45054</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="5">
-        <v>272</v>
-      </c>
-      <c r="F18" s="3">
-        <v>45058</v>
-      </c>
-      <c r="G18" s="3">
-        <v>45054</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>45049</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="5">
-        <v>123</v>
       </c>
       <c r="F19" s="3">
         <v>45107</v>
       </c>
       <c r="G19" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E20" s="5">
+        <v>27</v>
+      </c>
+      <c r="F20" s="3">
+        <v>45139</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45056</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>45054</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="3">
-        <v>45107</v>
-      </c>
-      <c r="G20" s="3">
-        <v>45049</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>45049</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="F21" s="3">
-        <v>45105</v>
+        <v>45058</v>
       </c>
       <c r="G21" s="3">
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45049</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E22" s="5">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="F22" s="3">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G22" s="3">
         <v>45049</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E23" s="5">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="F23" s="3">
-        <v>45065</v>
+        <v>45107</v>
       </c>
       <c r="G23" s="3">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>45036</v>
+        <v>45049</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E24" s="5">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3">
-        <v>45120</v>
+        <v>45105</v>
       </c>
       <c r="G24" s="3">
-        <v>45036</v>
+        <v>45049</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>45035</v>
+        <v>45049</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="5">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45105</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45049</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>45041</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="5">
+        <v>175</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45065</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45041</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>45036</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="5">
+        <v>133</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45120</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45036</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>45035</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="5">
         <v>62</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F28" s="3">
         <v>45095</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G28" s="3">
         <v>45035</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>45034</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E29" s="5">
         <v>113</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F29" s="3">
         <v>45076</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G29" s="3">
         <v>45034</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>45021</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="5">
-        <v>120</v>
-      </c>
-      <c r="F27" s="3">
-        <v>45077</v>
-      </c>
-      <c r="G27" s="3">
-        <v>45021</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>45022</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="5">
-        <v>12</v>
-      </c>
-      <c r="F28" s="3">
-        <v>45079</v>
-      </c>
-      <c r="G28" s="3">
-        <v>45022</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>45021</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="5">
-        <v>98</v>
-      </c>
-      <c r="F29" s="3">
-        <v>45077</v>
-      </c>
-      <c r="G29" s="3">
-        <v>45021</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45021</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E30" s="5">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F30" s="3">
-        <v>45086</v>
+        <v>45077</v>
       </c>
       <c r="G30" s="3">
         <v>45021</v>
       </c>
       <c r="H30" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>45022</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="5">
+        <v>12</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45079</v>
+      </c>
+      <c r="G31" s="3">
+        <v>45022</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>45021</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="5">
+        <v>98</v>
+      </c>
+      <c r="F32" s="3">
+        <v>45077</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45021</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>45021</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="5">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45086</v>
+      </c>
+      <c r="G33" s="3">
+        <v>45021</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>45020</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E34" s="5">
         <v>84</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F34" s="3">
         <v>45075</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G34" s="3">
         <v>45020</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>45019</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E35" s="5">
         <v>227</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F35" s="3">
         <v>45079</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G35" s="3">
         <v>45019</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>45016</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E36" s="5">
         <v>1047</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F36" s="3">
         <v>45079</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G36" s="3">
         <v>45016</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>45007</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="5">
-        <v>54</v>
-      </c>
-      <c r="F34" s="3">
-        <v>45059</v>
-      </c>
-      <c r="G34" s="3">
-        <v>45007</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>45000</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="5">
-        <v>81</v>
-      </c>
-      <c r="F35" s="3">
-        <v>45077</v>
-      </c>
-      <c r="G35" s="3">
-        <v>45000</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>44999</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="5">
-        <v>105</v>
-      </c>
-      <c r="F36" s="3">
-        <v>45020</v>
-      </c>
-      <c r="G36" s="3">
-        <v>44999</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>45005</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>64</v>
@@ -2001,102 +2013,102 @@
         <v>65</v>
       </c>
       <c r="E37" s="5">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="F37" s="3">
-        <v>45066</v>
+        <v>45059</v>
       </c>
       <c r="G37" s="3">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E38" s="5">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="F38" s="3">
-        <v>45044</v>
+        <v>45077</v>
       </c>
       <c r="G38" s="3">
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E39" s="5">
-        <v>827</v>
+        <v>105</v>
       </c>
       <c r="F39" s="3">
-        <v>45047</v>
+        <v>45020</v>
       </c>
       <c r="G39" s="3">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>44987</v>
+        <v>45005</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E40" s="5">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="F40" s="3">
-        <v>45048</v>
+        <v>45066</v>
       </c>
       <c r="G40" s="3">
-        <v>44987</v>
+        <v>45005</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>19</v>
@@ -2105,85 +2117,85 @@
         <v>20</v>
       </c>
       <c r="E41" s="5">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="F41" s="3">
-        <v>45169</v>
+        <v>45044</v>
       </c>
       <c r="G41" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E42" s="5">
-        <v>12</v>
+        <v>827</v>
       </c>
       <c r="F42" s="3">
-        <v>45077</v>
+        <v>45047</v>
       </c>
       <c r="G42" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E43" s="5">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="F43" s="3">
-        <v>44979</v>
+        <v>45048</v>
       </c>
       <c r="G43" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44985</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E44" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F44" s="3">
         <v>45169</v>
@@ -2192,128 +2204,128 @@
         <v>44985</v>
       </c>
       <c r="H44" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="5">
+        <v>12</v>
+      </c>
+      <c r="F45" s="3">
+        <v>45077</v>
+      </c>
+      <c r="G45" s="3">
+        <v>44985</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>44984</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="D46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="5">
+        <v>161</v>
+      </c>
+      <c r="F46" s="3">
+        <v>44979</v>
+      </c>
+      <c r="G46" s="3">
+        <v>44985</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="5">
-        <v>118</v>
-      </c>
-      <c r="F45" s="3">
-        <v>45016</v>
-      </c>
-      <c r="G45" s="3">
-        <v>44984</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>44984</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="5">
-        <v>35</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="D47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="5">
+        <v>15</v>
+      </c>
+      <c r="F47" s="3">
         <v>45169</v>
       </c>
-      <c r="G46" s="3">
-        <v>44984</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>44984</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="5">
-        <v>7</v>
-      </c>
-      <c r="F47" s="3">
-        <v>45077</v>
-      </c>
       <c r="G47" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44984</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E48" s="5">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="F48" s="3">
-        <v>45077</v>
+        <v>45016</v>
       </c>
       <c r="G48" s="3">
         <v>44984</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44984</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E49" s="5">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F49" s="3">
         <v>45169</v>
@@ -2322,821 +2334,821 @@
         <v>44984</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44984</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E50" s="5">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="F50" s="3">
-        <v>45016</v>
+        <v>45077</v>
       </c>
       <c r="G50" s="3">
         <v>44984</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>44984</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F51" s="3">
-        <v>44974</v>
+        <v>45077</v>
       </c>
       <c r="G51" s="3">
         <v>44984</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44984</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E52" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F52" s="3">
-        <v>44974</v>
+        <v>45169</v>
       </c>
       <c r="G52" s="3">
         <v>44984</v>
       </c>
       <c r="H52" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="5">
+        <v>60</v>
+      </c>
+      <c r="F53" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G53" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="5">
+        <v>10</v>
+      </c>
+      <c r="F54" s="3">
+        <v>44974</v>
+      </c>
+      <c r="G54" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="5">
+        <v>10</v>
+      </c>
+      <c r="F55" s="3">
+        <v>44974</v>
+      </c>
+      <c r="G55" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>44980</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E56" s="5">
         <v>120</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F56" s="3">
         <v>45039</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G56" s="3">
         <v>44980</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>44973</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E57" s="5">
         <v>40</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F57" s="12">
         <v>44965</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G57" s="3">
         <v>44973</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>44973</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E58" s="5">
         <v>186</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F58" s="3">
         <v>44981</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G58" s="3">
         <v>44973</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>44978</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E59" s="5">
         <v>100</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F59" s="3">
         <v>45032</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G59" s="3">
         <v>44978</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>44972</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E60" s="5">
         <v>64</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F60" s="3">
         <v>44974</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G60" s="3">
         <v>44972</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>44965</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E61" s="5">
         <v>92</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F61" s="3">
         <v>45065</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G61" s="3">
         <v>44966</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E59" s="5">
-        <v>121</v>
-      </c>
-      <c r="F59" s="3">
-        <v>45024</v>
-      </c>
-      <c r="G59" s="3">
-        <v>44964</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="5">
-        <v>60</v>
-      </c>
-      <c r="F60" s="3">
-        <v>45017</v>
-      </c>
-      <c r="G60" s="3">
-        <v>44964</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="5">
-        <v>65</v>
-      </c>
-      <c r="F61" s="3">
-        <v>45013</v>
-      </c>
-      <c r="G61" s="3">
-        <v>44964</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44964</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E62" s="5">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="F62" s="3">
-        <v>45020</v>
+        <v>45024</v>
       </c>
       <c r="G62" s="3">
         <v>44964</v>
       </c>
       <c r="H62" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="5">
+        <v>60</v>
+      </c>
+      <c r="F63" s="3">
+        <v>45017</v>
+      </c>
+      <c r="G63" s="3">
+        <v>44964</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="5">
+        <v>65</v>
+      </c>
+      <c r="F64" s="3">
+        <v>45013</v>
+      </c>
+      <c r="G64" s="3">
+        <v>44964</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="5">
+        <v>200</v>
+      </c>
+      <c r="F65" s="3">
+        <v>45020</v>
+      </c>
+      <c r="G65" s="3">
+        <v>44964</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>44957</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E66" s="5">
         <v>83</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F66" s="3">
         <v>44956</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G66" s="3">
         <v>44957</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>44957</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E67" s="5">
         <v>74</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F67" s="3">
         <v>45016</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G67" s="3">
         <v>44957</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>44959</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E68" s="5">
         <v>158</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F68" s="3">
         <v>45017</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G68" s="3">
         <v>44959</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>44959</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E69" s="5">
         <v>9</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F69" s="3">
         <v>45019</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G69" s="3">
         <v>44959</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>44959</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E70" s="5">
         <v>140</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F70" s="3">
         <v>44972</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G70" s="3">
         <v>44959</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H70" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>44957</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E71" s="5">
         <v>90</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F71" s="3">
         <v>44957</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G71" s="3">
         <v>44960</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>44953</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E72" s="5">
         <v>255</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F72" s="3">
         <v>44942</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G72" s="3">
         <v>44953</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>44946</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E73" s="5">
         <v>110</v>
-      </c>
-      <c r="F70" s="3">
-        <v>45016</v>
-      </c>
-      <c r="G70" s="3">
-        <v>44946</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="19">
-        <v>44951</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="21">
-        <v>76</v>
-      </c>
-      <c r="F71" s="19">
-        <v>44995</v>
-      </c>
-      <c r="G71" s="19">
-        <v>44951</v>
-      </c>
-      <c r="H71" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <v>44951</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="5">
-        <v>374</v>
-      </c>
-      <c r="F72" s="3">
-        <v>45011</v>
-      </c>
-      <c r="G72" s="3">
-        <v>44951</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
-        <v>44950</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="5">
-        <v>125</v>
       </c>
       <c r="F73" s="3">
         <v>45016</v>
       </c>
       <c r="G73" s="3">
+        <v>44946</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="19">
+        <v>44951</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="21">
+        <v>76</v>
+      </c>
+      <c r="F74" s="19">
+        <v>44995</v>
+      </c>
+      <c r="G74" s="19">
+        <v>44951</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>44951</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="5">
+        <v>374</v>
+      </c>
+      <c r="F75" s="3">
+        <v>45011</v>
+      </c>
+      <c r="G75" s="3">
+        <v>44951</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>44950</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="B76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="5">
+        <v>125</v>
+      </c>
+      <c r="F76" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G76" s="3">
+        <v>44950</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>44945</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E77" s="5">
         <v>964</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F77" s="3">
         <v>45016</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G77" s="3">
         <v>44945</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H77" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>44942</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E78" s="5">
         <v>77</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F78" s="3">
         <v>45002</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G78" s="3">
         <v>44942</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>44938</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E79" s="5">
         <v>139</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F79" s="3">
         <v>44937</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G79" s="3">
         <v>44938</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H79" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>44937</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E80" s="5">
         <v>801</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F80" s="3">
         <v>45003</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G80" s="3">
         <v>44937</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>44936</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="5">
-        <v>76</v>
-      </c>
-      <c r="F78" s="3">
-        <v>45281</v>
-      </c>
-      <c r="G78" s="3">
-        <v>44936</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
-        <v>44935</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="5">
-        <v>85</v>
-      </c>
-      <c r="F79" s="3">
-        <v>44971</v>
-      </c>
-      <c r="G79" s="3">
-        <v>44935</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
-        <v>44931</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="5">
-        <v>370</v>
-      </c>
-      <c r="F80" s="3">
-        <v>44957</v>
-      </c>
-      <c r="G80" s="3">
-        <v>44931</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
-        <v>44932</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>9</v>
@@ -3145,49 +3157,97 @@
         <v>10</v>
       </c>
       <c r="E81" s="5">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F81" s="3">
-        <v>44988</v>
+        <v>45281</v>
       </c>
       <c r="G81" s="3">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="3"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="3"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="5">
+        <v>85</v>
+      </c>
+      <c r="F82" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G82" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="5">
+        <v>370</v>
+      </c>
+      <c r="F83" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G83" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>44932</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="5">
+        <v>20</v>
+      </c>
+      <c r="F84" s="3">
+        <v>44988</v>
+      </c>
+      <c r="G84" s="3">
+        <v>44932</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3197,7 +3257,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3207,7 +3267,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3217,7 +3277,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3227,7 +3287,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3237,7 +3297,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3247,7 +3307,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3257,7 +3317,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3267,17 +3327,17 @@
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="16"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="17"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3287,7 +3347,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3297,17 +3357,17 @@
       <c r="G95" s="3"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="3"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="4"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="16"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="17"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3317,7 +3377,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3327,7 +3387,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3337,7 +3397,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3347,7 +3407,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3357,7 +3417,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -3367,7 +3427,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3377,7 +3437,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -3387,7 +3447,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -3397,7 +3457,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -3407,7 +3467,7 @@
       <c r="G106" s="3"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -3417,7 +3477,7 @@
       <c r="G107" s="3"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3427,7 +3487,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -3437,7 +3497,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3447,7 +3507,7 @@
       <c r="G110" s="3"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3457,7 +3517,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -3467,17 +3527,17 @@
       <c r="G112" s="3"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="13"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="14"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -3487,7 +3547,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -3497,17 +3557,17 @@
       <c r="G115" s="3"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="3"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="4"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="14"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3517,7 +3577,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -3527,7 +3587,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -3537,17 +3597,17 @@
       <c r="G119" s="3"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="13"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="14"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -3557,7 +3617,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3567,17 +3627,17 @@
       <c r="G122" s="3"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="3"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="4"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="14"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3587,7 +3647,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -3597,7 +3657,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -3607,7 +3667,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -3617,7 +3677,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -3627,7 +3687,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -3637,7 +3697,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -3647,77 +3707,77 @@
       <c r="G130" s="3"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="13"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="14"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="13"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="14"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="13"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="14"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="3"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="4"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="3"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="4"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="3"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="4"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="13"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="14"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="13"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="14"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="13"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="14"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="13"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="14"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -3727,7 +3787,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -3737,37 +3797,37 @@
       <c r="G139" s="3"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="3"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="4"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="9"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="10"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="9"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="10"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="13"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="14"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -3777,27 +3837,27 @@
       <c r="G143" s="3"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="3"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="4"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="3"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="4"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="9"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="10"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="9"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="10"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -3807,7 +3867,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -3817,7 +3877,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -3827,7 +3887,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -3837,7 +3897,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -3847,27 +3907,27 @@
       <c r="G150" s="3"/>
       <c r="H150" s="4"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="6"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="7"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="9"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="10"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="4"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -3877,27 +3937,27 @@
       <c r="G153" s="3"/>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="3"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="4"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="3"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="4"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="6"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="9"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="10"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -3907,7 +3967,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -3917,7 +3977,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="4"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -3927,7 +3987,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -3937,7 +3997,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="4"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -3947,7 +4007,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="4"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -3957,7 +4017,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="4"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -3967,17 +4027,17 @@
       <c r="G162" s="3"/>
       <c r="H162" s="4"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="9"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="11"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="10"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="4"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -3987,6 +4047,36 @@
       <c r="G164" s="3"/>
       <c r="H164" s="4"/>
     </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="4"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="9"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="10"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C14ACA72-8B13-47C9-B861-EEF2532AE6DE}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C939A80-0F98-4EB3-9314-9585E22A4316}"/>
   <bookViews>
-    <workbookView xWindow="-13155" yWindow="1905" windowWidth="12195" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="184">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -547,13 +547,52 @@
   </si>
   <si>
     <t>Accenture Austin)</t>
+  </si>
+  <si>
+    <t>Cognizant Technology Solutions</t>
+  </si>
+  <si>
+    <t>Management &amp; Training Corporation (MTC) - Diboll</t>
+  </si>
+  <si>
+    <t>Angelina</t>
+  </si>
+  <si>
+    <t>Deep East Texas WDA</t>
+  </si>
+  <si>
+    <t>Diboll</t>
+  </si>
+  <si>
+    <t>Federal Heath Sign Company, LLC</t>
+  </si>
+  <si>
+    <t>Euless</t>
+  </si>
+  <si>
+    <t>Management &amp; Training Corporation (Cleveland TX)</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>Packers Sanitation Services, Inc. (PSSI) Center, Texas</t>
+  </si>
+  <si>
+    <t>Shelby</t>
+  </si>
+  <si>
+    <t>Center</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,6 +636,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -668,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -729,6 +773,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1045,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,323 +1143,320 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>45092</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="5">
-        <v>218</v>
-      </c>
-      <c r="F2" s="3">
-        <v>45152</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45092</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
+      <c r="A2" s="22">
+        <v>45104</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="24">
+        <v>93</v>
+      </c>
+      <c r="F2" s="22">
+        <v>45086</v>
+      </c>
+      <c r="G2" s="22">
+        <v>45104</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>45092</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="5">
-        <v>116</v>
-      </c>
-      <c r="F3" s="3">
-        <v>45069</v>
-      </c>
-      <c r="G3" s="3">
-        <v>45092</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>45092</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="5">
-        <v>91</v>
-      </c>
-      <c r="F4" s="3">
-        <v>45143</v>
-      </c>
-      <c r="G4" s="3">
-        <v>45092</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>168</v>
+      <c r="A3" s="22">
+        <v>45104</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="24">
+        <v>107</v>
+      </c>
+      <c r="G3" s="22">
+        <v>45104</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>45104</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="24">
+        <v>47</v>
+      </c>
+      <c r="F4" s="22">
+        <v>45170</v>
+      </c>
+      <c r="G4" s="22">
+        <v>45104</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45091</v>
+        <v>45104</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="E5" s="5">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="F5" s="3">
-        <v>45156</v>
+        <v>45169</v>
       </c>
       <c r="G5" s="3">
-        <v>45091</v>
+        <v>45104</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45085</v>
+        <v>45100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" s="3">
-        <v>45173</v>
+        <v>45158</v>
       </c>
       <c r="G6" s="3">
-        <v>45085</v>
+        <v>45100</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45084</v>
+        <v>45092</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E7" s="5">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="F7" s="3">
-        <v>45107</v>
+        <v>45152</v>
       </c>
       <c r="G7" s="3">
-        <v>45084</v>
+        <v>45092</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45078</v>
+        <v>45092</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E8" s="5">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F8" s="3">
-        <v>45072</v>
+        <v>45069</v>
       </c>
       <c r="G8" s="3">
-        <v>45078</v>
+        <v>45092</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45076</v>
+        <v>45092</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E9" s="5">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="F9" s="3">
-        <v>45138</v>
+        <v>45143</v>
       </c>
       <c r="G9" s="3">
-        <v>45076</v>
+        <v>45092</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45071</v>
+        <v>45091</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="E10" s="5">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="F10" s="3">
-        <v>45070</v>
+        <v>45156</v>
       </c>
       <c r="G10" s="3">
-        <v>45071</v>
+        <v>45091</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45068</v>
+        <v>45085</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E11" s="5">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F11" s="3">
-        <v>45104</v>
+        <v>45173</v>
       </c>
       <c r="G11" s="3">
-        <v>45068</v>
+        <v>45085</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45064</v>
+        <v>45084</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E12" s="5">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F12" s="3">
         <v>45107</v>
       </c>
       <c r="G12" s="3">
-        <v>45064</v>
+        <v>45084</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45063</v>
+        <v>45078</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="F13" s="3">
-        <v>45114</v>
+        <v>45072</v>
       </c>
       <c r="G13" s="3">
-        <v>45063</v>
+        <v>45078</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45062</v>
+        <v>45076</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1415,13 +1465,13 @@
         <v>15</v>
       </c>
       <c r="E14" s="5">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="F14" s="3">
-        <v>45121</v>
+        <v>45138</v>
       </c>
       <c r="G14" s="3">
-        <v>45062</v>
+        <v>45076</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>16</v>
@@ -1429,10 +1479,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45062</v>
+        <v>45071</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -1441,13 +1491,13 @@
         <v>20</v>
       </c>
       <c r="E15" s="5">
-        <v>549</v>
+        <v>90</v>
       </c>
       <c r="F15" s="3">
-        <v>45104</v>
+        <v>45070</v>
       </c>
       <c r="G15" s="3">
-        <v>45062</v>
+        <v>45071</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>21</v>
@@ -1455,504 +1505,504 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45062</v>
+        <v>45068</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E16" s="5">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="3">
-        <v>45138</v>
+        <v>45104</v>
       </c>
       <c r="G16" s="3">
-        <v>45062</v>
+        <v>45068</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>45061</v>
+        <v>45064</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F17" s="3">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="G17" s="3">
-        <v>45061</v>
+        <v>45064</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>45056</v>
+        <v>45063</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5">
+        <v>69</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45114</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45063</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="5">
-        <v>23</v>
-      </c>
-      <c r="F18" s="3">
-        <v>45072</v>
-      </c>
-      <c r="G18" s="3">
-        <v>45056</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E19" s="5">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="F19" s="3">
-        <v>45107</v>
+        <v>45121</v>
       </c>
       <c r="G19" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E20" s="5">
-        <v>27</v>
+        <v>549</v>
       </c>
       <c r="F20" s="3">
-        <v>45139</v>
+        <v>45104</v>
       </c>
       <c r="G20" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>45054</v>
+        <v>45062</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="E21" s="5">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="F21" s="3">
-        <v>45058</v>
+        <v>45138</v>
       </c>
       <c r="G21" s="3">
-        <v>45054</v>
+        <v>45062</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>45049</v>
+        <v>45061</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E22" s="5">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="F22" s="3">
-        <v>45107</v>
+        <v>45016</v>
       </c>
       <c r="G22" s="3">
-        <v>45049</v>
+        <v>45061</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E23" s="5">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F23" s="3">
-        <v>45107</v>
+        <v>45072</v>
       </c>
       <c r="G23" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E24" s="5">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="F24" s="3">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G24" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E25" s="5">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F25" s="3">
-        <v>45105</v>
+        <v>45139</v>
       </c>
       <c r="G25" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>45041</v>
+        <v>45054</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E26" s="5">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="F26" s="3">
-        <v>45065</v>
+        <v>45058</v>
       </c>
       <c r="G26" s="3">
-        <v>45041</v>
+        <v>45054</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>45036</v>
+        <v>45049</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E27" s="5">
+        <v>123</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45107</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45049</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="F27" s="3">
-        <v>45120</v>
-      </c>
-      <c r="G27" s="3">
-        <v>45036</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>45035</v>
+        <v>45049</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="5">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F28" s="3">
-        <v>45095</v>
+        <v>45107</v>
       </c>
       <c r="G28" s="3">
-        <v>45035</v>
+        <v>45049</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>45034</v>
+        <v>45049</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E29" s="5">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="F29" s="3">
-        <v>45076</v>
+        <v>45105</v>
       </c>
       <c r="G29" s="3">
-        <v>45034</v>
+        <v>45049</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>45021</v>
+        <v>45049</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E30" s="5">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="F30" s="3">
-        <v>45077</v>
+        <v>45105</v>
       </c>
       <c r="G30" s="3">
-        <v>45021</v>
+        <v>45049</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>45022</v>
+        <v>45041</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E31" s="5">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="F31" s="3">
-        <v>45079</v>
+        <v>45065</v>
       </c>
       <c r="G31" s="3">
-        <v>45022</v>
+        <v>45041</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E32" s="5">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="F32" s="3">
-        <v>45077</v>
+        <v>45120</v>
       </c>
       <c r="G32" s="3">
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>45021</v>
+        <v>45035</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E33" s="5">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F33" s="3">
-        <v>45086</v>
+        <v>45095</v>
       </c>
       <c r="G33" s="3">
-        <v>45021</v>
+        <v>45035</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E34" s="5">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F34" s="3">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G34" s="3">
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>14</v>
@@ -1961,13 +2011,13 @@
         <v>15</v>
       </c>
       <c r="E35" s="5">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="F35" s="3">
-        <v>45079</v>
+        <v>45077</v>
       </c>
       <c r="G35" s="3">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>16</v>
@@ -1975,88 +2025,88 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>45016</v>
+        <v>45022</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E36" s="5">
-        <v>1047</v>
+        <v>12</v>
       </c>
       <c r="F36" s="3">
         <v>45079</v>
       </c>
       <c r="G36" s="3">
-        <v>45016</v>
+        <v>45022</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E37" s="5">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="F37" s="3">
-        <v>45059</v>
+        <v>45077</v>
       </c>
       <c r="G37" s="3">
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>45000</v>
+        <v>45021</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E38" s="5">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F38" s="3">
-        <v>45077</v>
+        <v>45086</v>
       </c>
       <c r="G38" s="3">
-        <v>45000</v>
+        <v>45021</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44999</v>
+        <v>45020</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>105</v>
@@ -2065,154 +2115,154 @@
         <v>73</v>
       </c>
       <c r="E39" s="5">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F39" s="3">
+        <v>45075</v>
+      </c>
+      <c r="G39" s="3">
         <v>45020</v>
       </c>
-      <c r="G39" s="3">
-        <v>44999</v>
-      </c>
       <c r="H39" s="4" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>45005</v>
+        <v>45019</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E40" s="5">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="F40" s="3">
-        <v>45066</v>
+        <v>45079</v>
       </c>
       <c r="G40" s="3">
-        <v>45005</v>
+        <v>45019</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44993</v>
+        <v>45016</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>240</v>
+        <v>1047</v>
       </c>
       <c r="F41" s="3">
-        <v>45044</v>
+        <v>45079</v>
       </c>
       <c r="G41" s="3">
-        <v>44993</v>
+        <v>45016</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44988</v>
+        <v>45007</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E42" s="5">
-        <v>827</v>
+        <v>54</v>
       </c>
       <c r="F42" s="3">
-        <v>45047</v>
+        <v>45059</v>
       </c>
       <c r="G42" s="3">
-        <v>44988</v>
+        <v>45007</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44987</v>
+        <v>45000</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E43" s="5">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F43" s="3">
-        <v>45048</v>
+        <v>45077</v>
       </c>
       <c r="G43" s="3">
-        <v>44987</v>
+        <v>45000</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44985</v>
+        <v>44999</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E44" s="5">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F44" s="3">
-        <v>45169</v>
+        <v>45020</v>
       </c>
       <c r="G44" s="3">
-        <v>44985</v>
+        <v>44999</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>44985</v>
+        <v>45005</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>64</v>
@@ -2221,198 +2271,198 @@
         <v>65</v>
       </c>
       <c r="E45" s="5">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="F45" s="3">
-        <v>45077</v>
+        <v>45066</v>
       </c>
       <c r="G45" s="3">
-        <v>44985</v>
+        <v>45005</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E46" s="5">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="F46" s="3">
-        <v>44979</v>
+        <v>45044</v>
       </c>
       <c r="G46" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E47" s="5">
-        <v>15</v>
+        <v>827</v>
       </c>
       <c r="F47" s="3">
-        <v>45169</v>
+        <v>45047</v>
       </c>
       <c r="G47" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44984</v>
+        <v>44987</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E48" s="5">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="F48" s="3">
-        <v>45016</v>
+        <v>45048</v>
       </c>
       <c r="G48" s="3">
-        <v>44984</v>
+        <v>44987</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E49" s="5">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F49" s="3">
         <v>45169</v>
       </c>
       <c r="G49" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E50" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F50" s="3">
         <v>45077</v>
       </c>
       <c r="G50" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E51" s="5">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="F51" s="3">
-        <v>45077</v>
+        <v>44979</v>
       </c>
       <c r="G51" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="5">
         <v>15</v>
-      </c>
-      <c r="E52" s="5">
-        <v>19</v>
       </c>
       <c r="F52" s="3">
         <v>45169</v>
       </c>
       <c r="G52" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2420,16 +2470,16 @@
         <v>44984</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E53" s="5">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F53" s="3">
         <v>45016</v>
@@ -2438,7 +2488,7 @@
         <v>44984</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2446,25 +2496,25 @@
         <v>44984</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E54" s="5">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F54" s="3">
-        <v>44974</v>
+        <v>45169</v>
       </c>
       <c r="G54" s="3">
         <v>44984</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2472,415 +2522,415 @@
         <v>44984</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E55" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F55" s="3">
-        <v>44974</v>
+        <v>45077</v>
       </c>
       <c r="G55" s="3">
         <v>44984</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E56" s="5">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="F56" s="3">
-        <v>45039</v>
+        <v>45077</v>
       </c>
       <c r="G56" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E57" s="5">
-        <v>40</v>
-      </c>
-      <c r="F57" s="12">
-        <v>44965</v>
+        <v>19</v>
+      </c>
+      <c r="F57" s="3">
+        <v>45169</v>
       </c>
       <c r="G57" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E58" s="5">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="F58" s="3">
-        <v>44981</v>
+        <v>45016</v>
       </c>
       <c r="G58" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44978</v>
+        <v>44984</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E59" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F59" s="3">
-        <v>45032</v>
+        <v>44974</v>
       </c>
       <c r="G59" s="3">
-        <v>44978</v>
+        <v>44984</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44972</v>
+        <v>44984</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E60" s="5">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F60" s="3">
         <v>44974</v>
       </c>
       <c r="G60" s="3">
-        <v>44972</v>
+        <v>44984</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44965</v>
+        <v>44980</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E61" s="5">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="F61" s="3">
-        <v>45065</v>
+        <v>45039</v>
       </c>
       <c r="G61" s="3">
-        <v>44966</v>
+        <v>44980</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E62" s="5">
-        <v>121</v>
-      </c>
-      <c r="F62" s="3">
-        <v>45024</v>
+        <v>40</v>
+      </c>
+      <c r="F62" s="12">
+        <v>44965</v>
       </c>
       <c r="G62" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E63" s="5">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="F63" s="3">
-        <v>45017</v>
+        <v>44981</v>
       </c>
       <c r="G63" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E64" s="5">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F64" s="3">
-        <v>45013</v>
+        <v>45032</v>
       </c>
       <c r="G64" s="3">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E65" s="5">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="F65" s="3">
-        <v>45020</v>
+        <v>44974</v>
       </c>
       <c r="G65" s="3">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>44957</v>
+        <v>44965</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E66" s="5">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F66" s="3">
-        <v>44956</v>
+        <v>45065</v>
       </c>
       <c r="G66" s="3">
-        <v>44957</v>
+        <v>44966</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E67" s="5">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F67" s="3">
-        <v>45016</v>
+        <v>45024</v>
       </c>
       <c r="G67" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E68" s="5">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="F68" s="3">
         <v>45017</v>
       </c>
       <c r="G68" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E69" s="5">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F69" s="3">
-        <v>45019</v>
+        <v>45013</v>
       </c>
       <c r="G69" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E70" s="5">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="F70" s="3">
-        <v>44972</v>
+        <v>45020</v>
       </c>
       <c r="G70" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2888,414 +2938,494 @@
         <v>44957</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E71" s="5">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F71" s="3">
+        <v>44956</v>
+      </c>
+      <c r="G71" s="3">
         <v>44957</v>
       </c>
-      <c r="G71" s="3">
-        <v>44960</v>
-      </c>
       <c r="H71" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E72" s="5">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="F72" s="3">
-        <v>44942</v>
+        <v>45016</v>
       </c>
       <c r="G72" s="3">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E73" s="5">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="F73" s="3">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="G73" s="3">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="19">
-        <v>44951</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C74" s="20" t="s">
+      <c r="A74" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" s="5">
         <v>9</v>
       </c>
-      <c r="D74" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="21">
-        <v>76</v>
-      </c>
-      <c r="F74" s="19">
-        <v>44995</v>
-      </c>
-      <c r="G74" s="19">
-        <v>44951</v>
-      </c>
-      <c r="H74" s="20" t="s">
-        <v>26</v>
+      <c r="F74" s="3">
+        <v>45019</v>
+      </c>
+      <c r="G74" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>44951</v>
+        <v>44959</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E75" s="5">
-        <v>374</v>
+        <v>140</v>
       </c>
       <c r="F75" s="3">
-        <v>45011</v>
+        <v>44972</v>
       </c>
       <c r="G75" s="3">
-        <v>44951</v>
+        <v>44959</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>44950</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E76" s="5">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F76" s="3">
-        <v>45016</v>
+        <v>44957</v>
       </c>
       <c r="G76" s="3">
-        <v>44950</v>
+        <v>44960</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E77" s="5">
-        <v>964</v>
+        <v>255</v>
       </c>
       <c r="F77" s="3">
-        <v>45016</v>
+        <v>44942</v>
       </c>
       <c r="G77" s="3">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>44942</v>
+        <v>44946</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E78" s="5">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="F78" s="3">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="G78" s="3">
-        <v>44942</v>
+        <v>44946</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>44938</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E79" s="5">
-        <v>139</v>
-      </c>
-      <c r="F79" s="3">
-        <v>44937</v>
-      </c>
-      <c r="G79" s="3">
-        <v>44938</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>21</v>
+      <c r="A79" s="19">
+        <v>44951</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="21">
+        <v>76</v>
+      </c>
+      <c r="F79" s="19">
+        <v>44995</v>
+      </c>
+      <c r="G79" s="19">
+        <v>44951</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>44937</v>
+        <v>44951</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E80" s="5">
-        <v>801</v>
+        <v>374</v>
       </c>
       <c r="F80" s="3">
-        <v>45003</v>
+        <v>45011</v>
       </c>
       <c r="G80" s="3">
-        <v>44937</v>
+        <v>44951</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>44936</v>
+        <v>44950</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E81" s="5">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F81" s="3">
-        <v>45281</v>
+        <v>45016</v>
       </c>
       <c r="G81" s="3">
-        <v>44936</v>
+        <v>44950</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>44935</v>
+        <v>44945</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E82" s="5">
-        <v>85</v>
+        <v>964</v>
       </c>
       <c r="F82" s="3">
-        <v>44971</v>
+        <v>45016</v>
       </c>
       <c r="G82" s="3">
-        <v>44935</v>
+        <v>44945</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>44931</v>
+        <v>44942</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E83" s="5">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="F83" s="3">
-        <v>44957</v>
+        <v>45002</v>
       </c>
       <c r="G83" s="3">
-        <v>44931</v>
+        <v>44942</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
+        <v>44938</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="5">
+        <v>139</v>
+      </c>
+      <c r="F84" s="3">
+        <v>44937</v>
+      </c>
+      <c r="G84" s="3">
+        <v>44938</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="5">
+        <v>801</v>
+      </c>
+      <c r="F85" s="3">
+        <v>45003</v>
+      </c>
+      <c r="G85" s="3">
+        <v>44937</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="5">
+        <v>76</v>
+      </c>
+      <c r="F86" s="3">
+        <v>45281</v>
+      </c>
+      <c r="G86" s="3">
+        <v>44936</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="5">
+        <v>85</v>
+      </c>
+      <c r="F87" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G87" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="5">
+        <v>370</v>
+      </c>
+      <c r="F88" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G88" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>44932</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E89" s="5">
         <v>20</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F89" s="3">
         <v>44988</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G89" s="3">
         <v>44932</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H89" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
@@ -3358,14 +3488,14 @@
       <c r="H95" s="4"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="16"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="17"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="4"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
@@ -3408,14 +3538,14 @@
       <c r="H100" s="4"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="4"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="17"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
@@ -3558,14 +3688,14 @@
       <c r="H115" s="4"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="14"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="4"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
@@ -3608,14 +3738,14 @@
       <c r="H120" s="4"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="4"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="14"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
@@ -3628,14 +3758,14 @@
       <c r="H122" s="4"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="14"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="4"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
@@ -3678,14 +3808,14 @@
       <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="4"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="14"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
@@ -3738,34 +3868,34 @@
       <c r="H133" s="4"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="13"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="14"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="4"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="13"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="14"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="4"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="13"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="14"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="4"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
@@ -3788,14 +3918,14 @@
       <c r="H138" s="4"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="4"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="13"/>
@@ -3808,14 +3938,14 @@
       <c r="H140" s="14"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="4"/>
+      <c r="A141" s="13"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="14"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
@@ -3838,24 +3968,24 @@
       <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="10"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="9"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="10"/>
+      <c r="A145" s="13"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="14"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
@@ -3888,24 +4018,24 @@
       <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="4"/>
+      <c r="A149" s="9"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="10"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="4"/>
+      <c r="A150" s="9"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="10"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
@@ -3938,24 +4068,24 @@
       <c r="H153" s="4"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="6"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="7"/>
+      <c r="A154" s="3"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="9"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="11"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="10"/>
+      <c r="A155" s="3"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="4"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
@@ -3988,24 +4118,24 @@
       <c r="H158" s="4"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="4"/>
+      <c r="A159" s="6"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="7"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="4"/>
+      <c r="A160" s="9"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="10"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
@@ -4058,14 +4188,14 @@
       <c r="H165" s="4"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="9"/>
-      <c r="B166" s="10"/>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="11"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="10"/>
+      <c r="A166" s="3"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="4"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
@@ -4077,6 +4207,56 @@
       <c r="G167" s="3"/>
       <c r="H167" s="4"/>
     </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="4"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="4"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="4"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="9"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="10"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C939A80-0F98-4EB3-9314-9585E22A4316}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A386AFD-E764-4748-BDEE-D5F821EF640F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="4140" yWindow="1290" windowWidth="21600" windowHeight="11235" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="191">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -586,6 +586,27 @@
   </si>
   <si>
     <t>Center</t>
+  </si>
+  <si>
+    <t>Aramark Campus, LLC at New Braunfels ISD</t>
+  </si>
+  <si>
+    <t>Comal</t>
+  </si>
+  <si>
+    <t>New Braunfels</t>
+  </si>
+  <si>
+    <t>Management Training Corporation (Sanders Estes Unit)</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>AAC Holding Corporation</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,476 +1164,479 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="3">
+        <v>45106</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5">
+        <v>188</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45154</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45106</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>45106</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5">
+        <v>120</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45169</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45106</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>45106</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5">
+        <v>59</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45107</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45106</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
         <v>45104</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B5" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C5" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D5" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E5" s="24">
         <v>93</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F5" s="22">
         <v>45086</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G5" s="22">
         <v>45104</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H5" s="23" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
         <v>45104</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B6" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C6" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D6" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E6" s="24">
         <v>107</v>
       </c>
-      <c r="G3" s="22">
+      <c r="F6" s="12">
+        <v>45169</v>
+      </c>
+      <c r="G6" s="22">
         <v>45104</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H6" s="23" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
         <v>45104</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B7" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C7" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D7" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E7" s="24">
         <v>47</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F7" s="22">
         <v>45170</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G7" s="22">
         <v>45104</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H7" s="23" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>45104</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="5">
-        <v>101</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45169</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45104</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>45100</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5">
-        <v>56</v>
-      </c>
-      <c r="F6" s="3">
-        <v>45158</v>
-      </c>
-      <c r="G6" s="3">
-        <v>45100</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>45092</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="5">
-        <v>218</v>
-      </c>
-      <c r="F7" s="3">
-        <v>45152</v>
-      </c>
-      <c r="G7" s="3">
-        <v>45092</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="E8" s="5">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F8" s="3">
-        <v>45069</v>
+        <v>45169</v>
       </c>
       <c r="G8" s="3">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>45100</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45158</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45100</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>45092</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="5">
-        <v>91</v>
-      </c>
-      <c r="F9" s="3">
-        <v>45143</v>
-      </c>
-      <c r="G9" s="3">
-        <v>45092</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="E10" s="5">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="F10" s="3">
-        <v>45156</v>
+        <v>45152</v>
       </c>
       <c r="G10" s="3">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="E11" s="5">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="F11" s="3">
-        <v>45173</v>
+        <v>45069</v>
       </c>
       <c r="G11" s="3">
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45084</v>
+        <v>45092</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E12" s="5">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F12" s="3">
-        <v>45107</v>
+        <v>45143</v>
       </c>
       <c r="G12" s="3">
-        <v>45084</v>
+        <v>45092</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45078</v>
+        <v>45091</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="E13" s="5">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="F13" s="3">
-        <v>45072</v>
+        <v>45156</v>
       </c>
       <c r="G13" s="3">
-        <v>45078</v>
+        <v>45091</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45076</v>
+        <v>45085</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E14" s="5">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3">
-        <v>45138</v>
+        <v>45173</v>
       </c>
       <c r="G14" s="3">
-        <v>45076</v>
+        <v>45085</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45071</v>
+        <v>45084</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F15" s="3">
-        <v>45070</v>
+        <v>45107</v>
       </c>
       <c r="G15" s="3">
-        <v>45071</v>
+        <v>45084</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45068</v>
+        <v>45078</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="F16" s="3">
-        <v>45104</v>
+        <v>45072</v>
       </c>
       <c r="G16" s="3">
-        <v>45068</v>
+        <v>45078</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>45064</v>
+        <v>45076</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E17" s="5">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="F17" s="3">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="G17" s="3">
-        <v>45064</v>
+        <v>45076</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>45063</v>
+        <v>45071</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E18" s="5">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F18" s="3">
-        <v>45114</v>
+        <v>45070</v>
       </c>
       <c r="G18" s="3">
-        <v>45063</v>
+        <v>45071</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>45062</v>
+        <v>45068</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="E19" s="5">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="F19" s="3">
-        <v>45121</v>
+        <v>45104</v>
       </c>
       <c r="G19" s="3">
-        <v>45062</v>
+        <v>45068</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>45062</v>
+        <v>45064</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -1621,13 +1645,13 @@
         <v>20</v>
       </c>
       <c r="E20" s="5">
-        <v>549</v>
+        <v>64</v>
       </c>
       <c r="F20" s="3">
-        <v>45104</v>
+        <v>45107</v>
       </c>
       <c r="G20" s="3">
-        <v>45062</v>
+        <v>45064</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>21</v>
@@ -1635,36 +1659,36 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F21" s="3">
-        <v>45138</v>
+        <v>45114</v>
       </c>
       <c r="G21" s="3">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>14</v>
@@ -1673,13 +1697,13 @@
         <v>15</v>
       </c>
       <c r="E22" s="5">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="F22" s="3">
-        <v>45016</v>
+        <v>45121</v>
       </c>
       <c r="G22" s="3">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>16</v>
@@ -1687,184 +1711,184 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23" s="5">
-        <v>23</v>
+        <v>549</v>
       </c>
       <c r="F23" s="3">
-        <v>45072</v>
+        <v>45104</v>
       </c>
       <c r="G23" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="E24" s="5">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F24" s="3">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="G24" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>45056</v>
+        <v>45061</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E25" s="5">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="F25" s="3">
-        <v>45139</v>
+        <v>45016</v>
       </c>
       <c r="G25" s="3">
-        <v>45056</v>
+        <v>45061</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>45054</v>
+        <v>45056</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E26" s="5">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="F26" s="3">
-        <v>45058</v>
+        <v>45072</v>
       </c>
       <c r="G26" s="3">
-        <v>45054</v>
+        <v>45056</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E27" s="5">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F27" s="3">
         <v>45107</v>
       </c>
       <c r="G27" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E28" s="5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F28" s="3">
-        <v>45107</v>
+        <v>45139</v>
       </c>
       <c r="G28" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E29" s="5">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="F29" s="3">
-        <v>45105</v>
+        <v>45058</v>
       </c>
       <c r="G29" s="3">
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1872,397 +1896,397 @@
         <v>45049</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E30" s="5">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="F30" s="3">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G30" s="3">
         <v>45049</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E31" s="5">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="F31" s="3">
-        <v>45065</v>
+        <v>45107</v>
       </c>
       <c r="G31" s="3">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>45036</v>
+        <v>45049</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E32" s="5">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="F32" s="3">
-        <v>45120</v>
+        <v>45105</v>
       </c>
       <c r="G32" s="3">
-        <v>45036</v>
+        <v>45049</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>45035</v>
+        <v>45049</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E33" s="5">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="F33" s="3">
-        <v>45095</v>
+        <v>45105</v>
       </c>
       <c r="G33" s="3">
-        <v>45035</v>
+        <v>45049</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E34" s="5">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="F34" s="3">
-        <v>45076</v>
+        <v>45065</v>
       </c>
       <c r="G34" s="3">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E35" s="5">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F35" s="3">
-        <v>45077</v>
+        <v>45120</v>
       </c>
       <c r="G35" s="3">
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>45022</v>
+        <v>45035</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E36" s="5">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F36" s="3">
-        <v>45079</v>
+        <v>45095</v>
       </c>
       <c r="G36" s="3">
-        <v>45022</v>
+        <v>45035</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>45021</v>
+        <v>45034</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E37" s="5">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F37" s="3">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="G37" s="3">
-        <v>45021</v>
+        <v>45034</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>45021</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E38" s="5">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F38" s="3">
-        <v>45086</v>
+        <v>45077</v>
       </c>
       <c r="G38" s="3">
         <v>45021</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E39" s="5">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F39" s="3">
-        <v>45075</v>
+        <v>45079</v>
       </c>
       <c r="G39" s="3">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E40" s="5">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="F40" s="3">
-        <v>45079</v>
+        <v>45077</v>
       </c>
       <c r="G40" s="3">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>45016</v>
+        <v>45021</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E41" s="5">
-        <v>1047</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="G41" s="3">
-        <v>45016</v>
+        <v>45021</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>45007</v>
+        <v>45020</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E42" s="5">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F42" s="3">
-        <v>45059</v>
+        <v>45075</v>
       </c>
       <c r="G42" s="3">
-        <v>45007</v>
+        <v>45020</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>45000</v>
+        <v>45019</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E43" s="5">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="F43" s="3">
-        <v>45077</v>
+        <v>45079</v>
       </c>
       <c r="G43" s="3">
-        <v>45000</v>
+        <v>45019</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44999</v>
+        <v>45016</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E44" s="5">
-        <v>105</v>
+        <v>1047</v>
       </c>
       <c r="F44" s="3">
-        <v>45020</v>
+        <v>45079</v>
       </c>
       <c r="G44" s="3">
-        <v>44999</v>
+        <v>45016</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>64</v>
@@ -2271,39 +2295,39 @@
         <v>65</v>
       </c>
       <c r="E45" s="5">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="F45" s="3">
-        <v>45066</v>
+        <v>45059</v>
       </c>
       <c r="G45" s="3">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E46" s="5">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="F46" s="3">
-        <v>45044</v>
+        <v>45077</v>
       </c>
       <c r="G46" s="3">
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>21</v>
@@ -2311,62 +2335,62 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E47" s="5">
-        <v>827</v>
+        <v>105</v>
       </c>
       <c r="F47" s="3">
-        <v>45047</v>
+        <v>45020</v>
       </c>
       <c r="G47" s="3">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44987</v>
+        <v>45005</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E48" s="5">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="F48" s="3">
-        <v>45048</v>
+        <v>45066</v>
       </c>
       <c r="G48" s="3">
-        <v>44987</v>
+        <v>45005</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>19</v>
@@ -2375,13 +2399,13 @@
         <v>20</v>
       </c>
       <c r="E49" s="5">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="F49" s="3">
-        <v>45169</v>
+        <v>45044</v>
       </c>
       <c r="G49" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>21</v>
@@ -2389,54 +2413,54 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E50" s="5">
-        <v>12</v>
+        <v>827</v>
       </c>
       <c r="F50" s="3">
-        <v>45077</v>
+        <v>45047</v>
       </c>
       <c r="G50" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E51" s="5">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="F51" s="3">
-        <v>44979</v>
+        <v>45048</v>
       </c>
       <c r="G51" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2444,16 +2468,16 @@
         <v>44985</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E52" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F52" s="3">
         <v>45169</v>
@@ -2462,85 +2486,85 @@
         <v>44985</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E53" s="5">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="F53" s="3">
-        <v>45016</v>
+        <v>45077</v>
       </c>
       <c r="G53" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E54" s="5">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="F54" s="3">
-        <v>45169</v>
+        <v>44979</v>
       </c>
       <c r="G54" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E55" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F55" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G55" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2548,25 +2572,25 @@
         <v>44984</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E56" s="5">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="F56" s="3">
-        <v>45077</v>
+        <v>45016</v>
       </c>
       <c r="G56" s="3">
         <v>44984</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2574,16 +2598,16 @@
         <v>44984</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E57" s="5">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F57" s="3">
         <v>45169</v>
@@ -2592,7 +2616,7 @@
         <v>44984</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2600,25 +2624,25 @@
         <v>44984</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E58" s="5">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="F58" s="3">
-        <v>45016</v>
+        <v>45077</v>
       </c>
       <c r="G58" s="3">
         <v>44984</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2626,25 +2650,25 @@
         <v>44984</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E59" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F59" s="3">
-        <v>44974</v>
+        <v>45077</v>
       </c>
       <c r="G59" s="3">
         <v>44984</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2652,259 +2676,259 @@
         <v>44984</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E60" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F60" s="3">
-        <v>44974</v>
+        <v>45169</v>
       </c>
       <c r="G60" s="3">
         <v>44984</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E61" s="5">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F61" s="3">
-        <v>45039</v>
+        <v>45016</v>
       </c>
       <c r="G61" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E62" s="5">
-        <v>40</v>
-      </c>
-      <c r="F62" s="12">
-        <v>44965</v>
+        <v>10</v>
+      </c>
+      <c r="F62" s="3">
+        <v>44974</v>
       </c>
       <c r="G62" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E63" s="5">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="F63" s="3">
-        <v>44981</v>
+        <v>44974</v>
       </c>
       <c r="G63" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E64" s="5">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F64" s="3">
-        <v>45032</v>
+        <v>45039</v>
       </c>
       <c r="G64" s="3">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E65" s="5">
-        <v>64</v>
-      </c>
-      <c r="F65" s="3">
-        <v>44974</v>
+        <v>40</v>
+      </c>
+      <c r="F65" s="12">
+        <v>44965</v>
       </c>
       <c r="G65" s="3">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>44965</v>
+        <v>44973</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E66" s="5">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="F66" s="3">
-        <v>45065</v>
+        <v>44981</v>
       </c>
       <c r="G66" s="3">
-        <v>44966</v>
+        <v>44973</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E67" s="5">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F67" s="3">
-        <v>45024</v>
+        <v>45032</v>
       </c>
       <c r="G67" s="3">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E68" s="5">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F68" s="3">
-        <v>45017</v>
+        <v>44974</v>
       </c>
       <c r="G68" s="3">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E69" s="5">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="F69" s="3">
-        <v>45013</v>
+        <v>45065</v>
       </c>
       <c r="G69" s="3">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2912,501 +2936,501 @@
         <v>44964</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E70" s="5">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="F70" s="3">
-        <v>45020</v>
+        <v>45024</v>
       </c>
       <c r="G70" s="3">
         <v>44964</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E71" s="5">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F71" s="3">
-        <v>44956</v>
+        <v>45017</v>
       </c>
       <c r="G71" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E72" s="5">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F72" s="3">
-        <v>45016</v>
+        <v>45013</v>
       </c>
       <c r="G72" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E73" s="5">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="F73" s="3">
-        <v>45017</v>
+        <v>45020</v>
       </c>
       <c r="G73" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E74" s="5">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="F74" s="3">
-        <v>45019</v>
+        <v>44956</v>
       </c>
       <c r="G74" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E75" s="5">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F75" s="3">
-        <v>44972</v>
+        <v>45016</v>
       </c>
       <c r="G75" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E76" s="5">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="F76" s="3">
-        <v>44957</v>
+        <v>45017</v>
       </c>
       <c r="G76" s="3">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>44953</v>
+        <v>44959</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E77" s="5">
-        <v>255</v>
+        <v>9</v>
       </c>
       <c r="F77" s="3">
-        <v>44942</v>
+        <v>45019</v>
       </c>
       <c r="G77" s="3">
-        <v>44953</v>
+        <v>44959</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E78" s="5">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F78" s="3">
-        <v>45016</v>
+        <v>44972</v>
       </c>
       <c r="G78" s="3">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="19">
-        <v>44951</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="21">
-        <v>76</v>
-      </c>
-      <c r="F79" s="19">
-        <v>44995</v>
-      </c>
-      <c r="G79" s="19">
-        <v>44951</v>
-      </c>
-      <c r="H79" s="20" t="s">
-        <v>26</v>
+      <c r="A79" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="5">
+        <v>90</v>
+      </c>
+      <c r="F79" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G79" s="3">
+        <v>44960</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>44951</v>
+        <v>44953</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E80" s="5">
-        <v>374</v>
+        <v>255</v>
       </c>
       <c r="F80" s="3">
-        <v>45011</v>
+        <v>44942</v>
       </c>
       <c r="G80" s="3">
-        <v>44951</v>
+        <v>44953</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>44950</v>
+        <v>44946</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E81" s="5">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F81" s="3">
         <v>45016</v>
       </c>
       <c r="G81" s="3">
-        <v>44950</v>
+        <v>44946</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>44945</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E82" s="5">
-        <v>964</v>
-      </c>
-      <c r="F82" s="3">
-        <v>45016</v>
-      </c>
-      <c r="G82" s="3">
-        <v>44945</v>
-      </c>
-      <c r="H82" s="4" t="s">
+      <c r="A82" s="19">
+        <v>44951</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="21">
+        <v>76</v>
+      </c>
+      <c r="F82" s="19">
+        <v>44995</v>
+      </c>
+      <c r="G82" s="19">
+        <v>44951</v>
+      </c>
+      <c r="H82" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>44942</v>
+        <v>44951</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E83" s="5">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="F83" s="3">
-        <v>45002</v>
+        <v>45011</v>
       </c>
       <c r="G83" s="3">
-        <v>44942</v>
+        <v>44951</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>44938</v>
+        <v>44950</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E84" s="5">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F84" s="3">
-        <v>44937</v>
+        <v>45016</v>
       </c>
       <c r="G84" s="3">
-        <v>44938</v>
+        <v>44950</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>44937</v>
+        <v>44945</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E85" s="5">
-        <v>801</v>
+        <v>964</v>
       </c>
       <c r="F85" s="3">
-        <v>45003</v>
+        <v>45016</v>
       </c>
       <c r="G85" s="3">
-        <v>44937</v>
+        <v>44945</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>44936</v>
+        <v>44942</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E86" s="5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F86" s="3">
-        <v>45281</v>
+        <v>45002</v>
       </c>
       <c r="G86" s="3">
-        <v>44936</v>
+        <v>44942</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E87" s="5">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="F87" s="3">
-        <v>44971</v>
+        <v>44937</v>
       </c>
       <c r="G87" s="3">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>44931</v>
+        <v>44937</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E88" s="5">
-        <v>370</v>
+        <v>801</v>
       </c>
       <c r="F88" s="3">
-        <v>44957</v>
+        <v>45003</v>
       </c>
       <c r="G88" s="3">
-        <v>44931</v>
+        <v>44937</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>9</v>
@@ -3415,47 +3439,95 @@
         <v>10</v>
       </c>
       <c r="E89" s="5">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F89" s="3">
-        <v>44988</v>
+        <v>45281</v>
       </c>
       <c r="G89" s="3">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="4"/>
+      <c r="A90" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="5">
+        <v>85</v>
+      </c>
+      <c r="F90" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G90" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="4"/>
+      <c r="A91" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="5">
+        <v>370</v>
+      </c>
+      <c r="F91" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G91" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="4"/>
+      <c r="A92" s="3">
+        <v>44932</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="5">
+        <v>20</v>
+      </c>
+      <c r="F92" s="3">
+        <v>44988</v>
+      </c>
+      <c r="G92" s="3">
+        <v>44932</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
@@ -3538,14 +3610,14 @@
       <c r="H100" s="4"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="16"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="17"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="4"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
@@ -3568,14 +3640,14 @@
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="4"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="17"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
@@ -3738,14 +3810,14 @@
       <c r="H120" s="4"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="14"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="4"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
@@ -3768,14 +3840,14 @@
       <c r="H123" s="4"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="4"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
@@ -3808,14 +3880,14 @@
       <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="13"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="14"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="4"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
@@ -3838,14 +3910,14 @@
       <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="4"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="14"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
@@ -3918,74 +3990,74 @@
       <c r="H138" s="4"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="13"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="14"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="4"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="13"/>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="14"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="13"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="14"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="4"/>
+      <c r="A142" s="13"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="14"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="4"/>
+      <c r="A143" s="13"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="14"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="4"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="14"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="13"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="14"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="4"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
@@ -4008,34 +4080,34 @@
       <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="4"/>
+      <c r="A148" s="13"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="14"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="9"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="11"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="10"/>
+      <c r="A149" s="3"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="4"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="10"/>
+      <c r="A150" s="3"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="4"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
@@ -4048,24 +4120,24 @@
       <c r="H151" s="4"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="4"/>
+      <c r="A152" s="9"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="10"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="4"/>
+      <c r="A153" s="9"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="10"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
@@ -4118,24 +4190,24 @@
       <c r="H158" s="4"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="6"/>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="7"/>
+      <c r="A159" s="3"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="4"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="9"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="10"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
@@ -4148,24 +4220,24 @@
       <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="4"/>
+      <c r="A162" s="6"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="7"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="4"/>
+      <c r="A163" s="9"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="10"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
@@ -4238,14 +4310,14 @@
       <c r="H170" s="4"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="9"/>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="11"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="10"/>
+      <c r="A171" s="3"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="4"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
@@ -4257,6 +4329,36 @@
       <c r="G172" s="3"/>
       <c r="H172" s="4"/>
     </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="4"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="9"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="10"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A386AFD-E764-4748-BDEE-D5F821EF640F}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5C6A6D7-D286-4049-8D45-EE0F178F5D68}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1290" windowWidth="21600" windowHeight="11235" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="6240" yWindow="0" windowWidth="14640" windowHeight="15480" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="192">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -607,6 +607,9 @@
   </si>
   <si>
     <t>AAC Holding Corporation</t>
+  </si>
+  <si>
+    <t>S&amp;B Industry Inc.</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,28 +1168,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45106</v>
+        <v>45112</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E2" s="5">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="F2" s="3">
-        <v>45154</v>
+        <v>45128</v>
       </c>
       <c r="G2" s="3">
-        <v>45106</v>
+        <v>45112</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1194,25 +1197,25 @@
         <v>45106</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5">
         <v>188</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="5">
-        <v>120</v>
-      </c>
       <c r="F3" s="3">
-        <v>45169</v>
+        <v>45154</v>
       </c>
       <c r="G3" s="3">
         <v>45106</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1220,51 +1223,51 @@
         <v>45106</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="F4" s="3">
-        <v>45107</v>
+        <v>45169</v>
       </c>
       <c r="G4" s="3">
         <v>45106</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45106</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45107</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45106</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>45104</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="24">
-        <v>93</v>
-      </c>
-      <c r="F5" s="22">
-        <v>45086</v>
-      </c>
-      <c r="G5" s="22">
-        <v>45104</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1272,25 +1275,25 @@
         <v>45104</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="E6" s="24">
-        <v>107</v>
-      </c>
-      <c r="F6" s="12">
-        <v>45169</v>
+        <v>93</v>
+      </c>
+      <c r="F6" s="22">
+        <v>45086</v>
       </c>
       <c r="G6" s="22">
         <v>45104</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1298,100 +1301,100 @@
         <v>45104</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E7" s="24">
-        <v>47</v>
-      </c>
-      <c r="F7" s="22">
-        <v>45170</v>
+        <v>107</v>
+      </c>
+      <c r="F7" s="12">
+        <v>45169</v>
       </c>
       <c r="G7" s="22">
         <v>45104</v>
       </c>
       <c r="H7" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>45104</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="24">
+        <v>47</v>
+      </c>
+      <c r="F8" s="22">
+        <v>45170</v>
+      </c>
+      <c r="G8" s="22">
+        <v>45104</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>45104</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="5">
-        <v>101</v>
-      </c>
-      <c r="F8" s="3">
-        <v>45169</v>
-      </c>
-      <c r="G8" s="3">
-        <v>45104</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="E9" s="5">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="F9" s="3">
-        <v>45158</v>
+        <v>45169</v>
       </c>
       <c r="G9" s="3">
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45092</v>
+        <v>45100</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="F10" s="3">
-        <v>45152</v>
+        <v>45158</v>
       </c>
       <c r="G10" s="3">
-        <v>45092</v>
+        <v>45100</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>21</v>
@@ -1402,7 +1405,7 @@
         <v>45092</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>105</v>
@@ -1411,10 +1414,10 @@
         <v>73</v>
       </c>
       <c r="E11" s="5">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="F11" s="3">
-        <v>45069</v>
+        <v>45152</v>
       </c>
       <c r="G11" s="3">
         <v>45092</v>
@@ -1423,290 +1426,290 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45092</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E12" s="5">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F12" s="3">
-        <v>45143</v>
+        <v>45069</v>
       </c>
       <c r="G12" s="3">
         <v>45092</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>45092</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>45091</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="E13" s="5">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="F13" s="3">
-        <v>45156</v>
+        <v>45143</v>
       </c>
       <c r="G13" s="3">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45085</v>
+        <v>45091</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E14" s="5">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="F14" s="3">
-        <v>45173</v>
+        <v>45156</v>
       </c>
       <c r="G14" s="3">
-        <v>45085</v>
+        <v>45091</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="E15" s="5">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F15" s="3">
-        <v>45107</v>
+        <v>45173</v>
       </c>
       <c r="G15" s="3">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45078</v>
+        <v>45084</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E16" s="5">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="F16" s="3">
-        <v>45072</v>
+        <v>45107</v>
       </c>
       <c r="G16" s="3">
-        <v>45078</v>
+        <v>45084</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>45076</v>
+        <v>45078</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E17" s="5">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F17" s="3">
-        <v>45138</v>
+        <v>45072</v>
       </c>
       <c r="G17" s="3">
-        <v>45076</v>
+        <v>45078</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>45071</v>
+        <v>45076</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E18" s="5">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="F18" s="3">
-        <v>45070</v>
+        <v>45138</v>
       </c>
       <c r="G18" s="3">
-        <v>45071</v>
+        <v>45076</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>45068</v>
+        <v>45071</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="E19" s="5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F19" s="3">
-        <v>45104</v>
+        <v>45070</v>
       </c>
       <c r="G19" s="3">
-        <v>45068</v>
+        <v>45071</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>45064</v>
+        <v>45068</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="E20" s="5">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F20" s="3">
-        <v>45107</v>
+        <v>45104</v>
       </c>
       <c r="G20" s="3">
-        <v>45064</v>
+        <v>45068</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E21" s="5">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F21" s="3">
-        <v>45114</v>
+        <v>45107</v>
       </c>
       <c r="G21" s="3">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E22" s="5">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="F22" s="3">
-        <v>45121</v>
+        <v>45114</v>
       </c>
       <c r="G22" s="3">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1714,25 +1717,25 @@
         <v>45062</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5">
-        <v>549</v>
+        <v>235</v>
       </c>
       <c r="F23" s="3">
-        <v>45104</v>
+        <v>45121</v>
       </c>
       <c r="G23" s="3">
         <v>45062</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1740,77 +1743,77 @@
         <v>45062</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="E24" s="5">
-        <v>81</v>
+        <v>549</v>
       </c>
       <c r="F24" s="3">
-        <v>45138</v>
+        <v>45104</v>
       </c>
       <c r="G24" s="3">
         <v>45062</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="E25" s="5">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F25" s="3">
-        <v>45016</v>
+        <v>45138</v>
       </c>
       <c r="G25" s="3">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>45056</v>
+        <v>45061</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26" s="5">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="F26" s="3">
-        <v>45072</v>
+        <v>45016</v>
       </c>
       <c r="G26" s="3">
-        <v>45056</v>
+        <v>45061</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1818,25 +1821,25 @@
         <v>45056</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E27" s="5">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="F27" s="3">
-        <v>45107</v>
+        <v>45072</v>
       </c>
       <c r="G27" s="3">
         <v>45056</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1844,77 +1847,77 @@
         <v>45056</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E28" s="5">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="F28" s="3">
-        <v>45139</v>
+        <v>45107</v>
       </c>
       <c r="G28" s="3">
         <v>45056</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>45054</v>
+        <v>45056</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E29" s="5">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="F29" s="3">
-        <v>45058</v>
+        <v>45139</v>
       </c>
       <c r="G29" s="3">
-        <v>45054</v>
+        <v>45056</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E30" s="5">
-        <v>123</v>
+        <v>272</v>
       </c>
       <c r="F30" s="3">
-        <v>45107</v>
+        <v>45058</v>
       </c>
       <c r="G30" s="3">
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1922,7 +1925,7 @@
         <v>45049</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>68</v>
@@ -1931,7 +1934,7 @@
         <v>69</v>
       </c>
       <c r="E31" s="5">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="F31" s="3">
         <v>45107</v>
@@ -1940,7 +1943,7 @@
         <v>45049</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1948,25 +1951,25 @@
         <v>45049</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E32" s="5">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F32" s="3">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G32" s="3">
         <v>45049</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1974,16 +1977,16 @@
         <v>45049</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E33" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F33" s="3">
         <v>45105</v>
@@ -1992,41 +1995,41 @@
         <v>45049</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E34" s="5">
-        <v>175</v>
+        <v>7</v>
       </c>
       <c r="F34" s="3">
-        <v>45065</v>
+        <v>45105</v>
       </c>
       <c r="G34" s="3">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>64</v>
@@ -2035,258 +2038,258 @@
         <v>65</v>
       </c>
       <c r="E35" s="5">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="F35" s="3">
-        <v>45120</v>
+        <v>45065</v>
       </c>
       <c r="G35" s="3">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E36" s="5">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="F36" s="3">
-        <v>45095</v>
+        <v>45120</v>
       </c>
       <c r="G36" s="3">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E37" s="5">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="F37" s="3">
-        <v>45076</v>
+        <v>45095</v>
       </c>
       <c r="G37" s="3">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>45021</v>
+        <v>45034</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E38" s="5">
+        <v>113</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45076</v>
+      </c>
+      <c r="G38" s="3">
+        <v>45034</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="F38" s="3">
-        <v>45077</v>
-      </c>
-      <c r="G38" s="3">
-        <v>45021</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E39" s="5">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F39" s="3">
-        <v>45079</v>
+        <v>45077</v>
       </c>
       <c r="G39" s="3">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E40" s="5">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="F40" s="3">
-        <v>45077</v>
+        <v>45079</v>
       </c>
       <c r="G40" s="3">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>45021</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E41" s="5">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F41" s="3">
-        <v>45086</v>
+        <v>45077</v>
       </c>
       <c r="G41" s="3">
         <v>45021</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>45021</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="5">
+        <v>100</v>
+      </c>
+      <c r="F42" s="3">
+        <v>45086</v>
+      </c>
+      <c r="G42" s="3">
+        <v>45021</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>45020</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="5">
-        <v>84</v>
-      </c>
-      <c r="F42" s="3">
-        <v>45075</v>
-      </c>
-      <c r="G42" s="3">
-        <v>45020</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E43" s="5">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="F43" s="3">
-        <v>45079</v>
+        <v>45075</v>
       </c>
       <c r="G43" s="3">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E44" s="5">
-        <v>1047</v>
+        <v>227</v>
       </c>
       <c r="F44" s="3">
         <v>45079</v>
       </c>
       <c r="G44" s="3">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>45007</v>
+        <v>45016</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>64</v>
@@ -2295,13 +2298,13 @@
         <v>65</v>
       </c>
       <c r="E45" s="5">
-        <v>54</v>
+        <v>1047</v>
       </c>
       <c r="F45" s="3">
-        <v>45059</v>
+        <v>45079</v>
       </c>
       <c r="G45" s="3">
-        <v>45007</v>
+        <v>45016</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>66</v>
@@ -2309,36 +2312,36 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>45000</v>
+        <v>45007</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E46" s="5">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F46" s="3">
-        <v>45077</v>
+        <v>45059</v>
       </c>
       <c r="G46" s="3">
-        <v>45000</v>
+        <v>45007</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>105</v>
@@ -2347,146 +2350,146 @@
         <v>73</v>
       </c>
       <c r="E47" s="5">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F47" s="3">
-        <v>45020</v>
+        <v>45077</v>
       </c>
       <c r="G47" s="3">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>45005</v>
+        <v>44999</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E48" s="5">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="F48" s="3">
-        <v>45066</v>
+        <v>45020</v>
       </c>
       <c r="G48" s="3">
-        <v>45005</v>
+        <v>44999</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44993</v>
+        <v>45005</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E49" s="5">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="F49" s="3">
-        <v>45044</v>
+        <v>45066</v>
       </c>
       <c r="G49" s="3">
-        <v>44993</v>
+        <v>45005</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44988</v>
+        <v>44993</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E50" s="5">
-        <v>827</v>
+        <v>240</v>
       </c>
       <c r="F50" s="3">
-        <v>45047</v>
+        <v>45044</v>
       </c>
       <c r="G50" s="3">
-        <v>44988</v>
+        <v>44993</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E51" s="5">
-        <v>53</v>
+        <v>827</v>
       </c>
       <c r="F51" s="3">
-        <v>45048</v>
+        <v>45047</v>
       </c>
       <c r="G51" s="3">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E52" s="5">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F52" s="3">
-        <v>45169</v>
+        <v>45048</v>
       </c>
       <c r="G52" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2494,25 +2497,25 @@
         <v>44985</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E53" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F53" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G53" s="3">
         <v>44985</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2520,25 +2523,25 @@
         <v>44985</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E54" s="5">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="F54" s="3">
-        <v>44979</v>
+        <v>45077</v>
       </c>
       <c r="G54" s="3">
         <v>44985</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2546,7 +2549,7 @@
         <v>44985</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>9</v>
@@ -2555,42 +2558,42 @@
         <v>10</v>
       </c>
       <c r="E55" s="5">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F55" s="3">
-        <v>45169</v>
+        <v>44979</v>
       </c>
       <c r="G55" s="3">
         <v>44985</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E56" s="5">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="F56" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G56" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2598,25 +2601,25 @@
         <v>44984</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E57" s="5">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="F57" s="3">
-        <v>45169</v>
+        <v>45016</v>
       </c>
       <c r="G57" s="3">
         <v>44984</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2624,7 +2627,7 @@
         <v>44984</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>78</v>
@@ -2633,16 +2636,16 @@
         <v>69</v>
       </c>
       <c r="E58" s="5">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F58" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G58" s="3">
         <v>44984</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2650,16 +2653,16 @@
         <v>44984</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E59" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F59" s="3">
         <v>45077</v>
@@ -2668,7 +2671,7 @@
         <v>44984</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2676,25 +2679,25 @@
         <v>44984</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E60" s="5">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F60" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G60" s="3">
         <v>44984</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2702,25 +2705,25 @@
         <v>44984</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E61" s="5">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F61" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G61" s="3">
         <v>44984</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2728,7 +2731,7 @@
         <v>44984</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>29</v>
@@ -2737,16 +2740,16 @@
         <v>25</v>
       </c>
       <c r="E62" s="5">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F62" s="3">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G62" s="3">
         <v>44984</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2754,10 +2757,10 @@
         <v>44984</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>25</v>
@@ -2772,41 +2775,41 @@
         <v>44984</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E64" s="5">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="F64" s="3">
-        <v>45039</v>
+        <v>44974</v>
       </c>
       <c r="G64" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>78</v>
@@ -2815,16 +2818,16 @@
         <v>69</v>
       </c>
       <c r="E65" s="5">
-        <v>40</v>
-      </c>
-      <c r="F65" s="12">
-        <v>44965</v>
+        <v>120</v>
+      </c>
+      <c r="F65" s="3">
+        <v>45039</v>
       </c>
       <c r="G65" s="3">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2832,129 +2835,129 @@
         <v>44973</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E66" s="5">
-        <v>186</v>
-      </c>
-      <c r="F66" s="3">
-        <v>44981</v>
+        <v>40</v>
+      </c>
+      <c r="F66" s="12">
+        <v>44965</v>
       </c>
       <c r="G66" s="3">
         <v>44973</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E67" s="5">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="F67" s="3">
-        <v>45032</v>
+        <v>44981</v>
       </c>
       <c r="G67" s="3">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E68" s="5">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F68" s="3">
-        <v>44974</v>
+        <v>45032</v>
       </c>
       <c r="G68" s="3">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44965</v>
+        <v>44972</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E69" s="5">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F69" s="3">
-        <v>45065</v>
+        <v>44974</v>
       </c>
       <c r="G69" s="3">
-        <v>44966</v>
+        <v>44972</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E70" s="5">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="F70" s="3">
-        <v>45024</v>
+        <v>45065</v>
       </c>
       <c r="G70" s="3">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2962,25 +2965,25 @@
         <v>44964</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E71" s="5">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F71" s="3">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="G71" s="3">
         <v>44964</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2988,25 +2991,25 @@
         <v>44964</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="5">
         <v>60</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" s="5">
-        <v>65</v>
-      </c>
       <c r="F72" s="3">
-        <v>45013</v>
+        <v>45017</v>
       </c>
       <c r="G72" s="3">
         <v>44964</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3014,51 +3017,51 @@
         <v>44964</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E73" s="5">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F73" s="3">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="G73" s="3">
         <v>44964</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E74" s="5">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="F74" s="3">
-        <v>44956</v>
+        <v>45020</v>
       </c>
       <c r="G74" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3066,7 +3069,7 @@
         <v>44957</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>9</v>
@@ -3075,42 +3078,42 @@
         <v>10</v>
       </c>
       <c r="E75" s="5">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F75" s="3">
-        <v>45016</v>
+        <v>44956</v>
       </c>
       <c r="G75" s="3">
         <v>44957</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E76" s="5">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="F76" s="3">
-        <v>45017</v>
+        <v>45016</v>
       </c>
       <c r="G76" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3118,25 +3121,25 @@
         <v>44959</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E77" s="5">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="F77" s="3">
-        <v>45019</v>
+        <v>45017</v>
       </c>
       <c r="G77" s="3">
         <v>44959</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3144,189 +3147,189 @@
         <v>44959</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E78" s="5">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F78" s="3">
-        <v>44972</v>
+        <v>45019</v>
       </c>
       <c r="G78" s="3">
         <v>44959</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E79" s="5">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F79" s="3">
-        <v>44957</v>
+        <v>44972</v>
       </c>
       <c r="G79" s="3">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E80" s="5">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="F80" s="3">
-        <v>44942</v>
+        <v>44957</v>
       </c>
       <c r="G80" s="3">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="5">
+        <v>255</v>
+      </c>
+      <c r="F81" s="3">
+        <v>44942</v>
+      </c>
+      <c r="G81" s="3">
+        <v>44953</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>44946</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E82" s="5">
         <v>110</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F82" s="3">
         <v>45016</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G82" s="3">
         <v>44946</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="19">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="19">
         <v>44951</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B83" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C83" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="20" t="s">
+      <c r="D83" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="21">
+      <c r="E83" s="21">
         <v>76</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F83" s="19">
         <v>44995</v>
       </c>
-      <c r="G82" s="19">
+      <c r="G83" s="19">
         <v>44951</v>
       </c>
-      <c r="H82" s="20" t="s">
+      <c r="H83" s="20" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>44951</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E83" s="5">
-        <v>374</v>
-      </c>
-      <c r="F83" s="3">
-        <v>45011</v>
-      </c>
-      <c r="G83" s="3">
-        <v>44951</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E84" s="5">
-        <v>125</v>
+        <v>374</v>
       </c>
       <c r="F84" s="3">
-        <v>45016</v>
+        <v>45011</v>
       </c>
       <c r="G84" s="3">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>24</v>
@@ -3335,13 +3338,13 @@
         <v>25</v>
       </c>
       <c r="E85" s="5">
-        <v>964</v>
+        <v>125</v>
       </c>
       <c r="F85" s="3">
         <v>45016</v>
       </c>
       <c r="G85" s="3">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>26</v>
@@ -3349,62 +3352,62 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>44942</v>
+        <v>44945</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E86" s="5">
-        <v>77</v>
+        <v>964</v>
       </c>
       <c r="F86" s="3">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="G86" s="3">
-        <v>44942</v>
+        <v>44945</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>44938</v>
+        <v>44942</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E87" s="5">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="F87" s="3">
-        <v>44937</v>
+        <v>45002</v>
       </c>
       <c r="G87" s="3">
-        <v>44938</v>
+        <v>44942</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>19</v>
@@ -3413,13 +3416,13 @@
         <v>20</v>
       </c>
       <c r="E88" s="5">
-        <v>801</v>
+        <v>139</v>
       </c>
       <c r="F88" s="3">
-        <v>45003</v>
+        <v>44937</v>
       </c>
       <c r="G88" s="3">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>21</v>
@@ -3427,88 +3430,88 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E89" s="5">
-        <v>76</v>
+        <v>801</v>
       </c>
       <c r="F89" s="3">
-        <v>45281</v>
+        <v>45003</v>
       </c>
       <c r="G89" s="3">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E90" s="5">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F90" s="3">
-        <v>44971</v>
+        <v>45281</v>
       </c>
       <c r="G90" s="3">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E91" s="5">
-        <v>370</v>
+        <v>85</v>
       </c>
       <c r="F91" s="3">
-        <v>44957</v>
+        <v>44971</v>
       </c>
       <c r="G91" s="3">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>44932</v>
+        <v>44931</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>9</v>
@@ -3517,27 +3520,43 @@
         <v>10</v>
       </c>
       <c r="E92" s="5">
+        <v>370</v>
+      </c>
+      <c r="F92" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G92" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>44932</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="5">
         <v>20</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F93" s="3">
         <v>44988</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G93" s="3">
         <v>44932</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="4"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
@@ -3640,24 +3659,24 @@
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="17"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="4"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="4"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="17"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
@@ -3840,24 +3859,24 @@
       <c r="H123" s="4"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="13"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="14"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="4"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="4"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="14"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
@@ -3910,24 +3929,24 @@
       <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="13"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="14"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="4"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="4"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="14"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
@@ -4020,14 +4039,14 @@
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="13"/>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="14"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="13"/>
@@ -4050,14 +4069,14 @@
       <c r="H144" s="14"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="4"/>
+      <c r="A145" s="13"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="14"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
@@ -4080,24 +4099,24 @@
       <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="13"/>
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="14"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="4"/>
+      <c r="A149" s="13"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="14"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
@@ -4120,14 +4139,14 @@
       <c r="H151" s="4"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="9"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="10"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="4"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
@@ -4140,14 +4159,14 @@
       <c r="H153" s="10"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="4"/>
+      <c r="A154" s="9"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="10"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
@@ -4220,34 +4239,34 @@
       <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="6"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="7"/>
+      <c r="A162" s="3"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="4"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="9"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="11"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="10"/>
+      <c r="A163" s="6"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="7"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="4"/>
+      <c r="A164" s="9"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="10"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
@@ -4340,24 +4359,34 @@
       <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="9"/>
-      <c r="B174" s="10"/>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="11"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="10"/>
+      <c r="A174" s="3"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="4"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="10"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2E1912C-336D-4EBF-B93B-8630009684DC}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D368B27-FB06-4FC4-BAB7-4F85CCE90F41}"/>
   <bookViews>
-    <workbookView xWindow="31965" yWindow="2280" windowWidth="21600" windowHeight="11295" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="31890" yWindow="1680" windowWidth="21600" windowHeight="11235" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="247">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -528,9 +528,6 @@
     <t>Temple</t>
   </si>
   <si>
-    <t>Nucor (Longview)</t>
-  </si>
-  <si>
     <t>Gregg</t>
   </si>
   <si>
@@ -760,6 +757,24 @@
   </si>
   <si>
     <t>South Plains WDA</t>
+  </si>
+  <si>
+    <t>Nucor Steel (Longview)</t>
+  </si>
+  <si>
+    <t>Vibra Hospital of Desoto</t>
+  </si>
+  <si>
+    <t>DeSoto</t>
+  </si>
+  <si>
+    <t>Yellow Freight (Dallas)</t>
+  </si>
+  <si>
+    <t>Ericsson, Inc.</t>
+  </si>
+  <si>
+    <t>FedEx Supply Chain Logistics &amp; Electronics (Ft. Worth)</t>
   </si>
 </sst>
 </file>
@@ -1272,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,12 +1331,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45126</v>
+        <v>45140</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>64</v>
@@ -1330,24 +1345,24 @@
         <v>65</v>
       </c>
       <c r="E2" s="5">
-        <v>64</v>
+        <v>280</v>
       </c>
       <c r="F2" s="3">
-        <v>45208</v>
+        <v>45192</v>
       </c>
       <c r="G2" s="3">
-        <v>45126</v>
+        <v>45140</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45124</v>
+        <v>45139</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
@@ -1356,94 +1371,94 @@
         <v>25</v>
       </c>
       <c r="E3" s="5">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3">
-        <v>45124</v>
+        <v>45198</v>
       </c>
       <c r="G3" s="3">
-        <v>45124</v>
+        <v>45139</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45124</v>
+        <v>45139</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5">
-        <v>27</v>
+        <v>530</v>
       </c>
       <c r="F4" s="3">
-        <v>45124</v>
+        <v>45135</v>
       </c>
       <c r="G4" s="3">
-        <v>45124</v>
+        <v>45139</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45124</v>
+        <v>45134</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="F5" s="3">
-        <v>45124</v>
+        <v>45198</v>
       </c>
       <c r="G5" s="3">
-        <v>45124</v>
+        <v>45134</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E6" s="5">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3">
-        <v>45124</v>
+        <v>45208</v>
       </c>
       <c r="G6" s="3">
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1451,16 +1466,16 @@
         <v>45124</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F7" s="3">
         <v>45124</v>
@@ -1469,7 +1484,7 @@
         <v>45124</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1477,16 +1492,16 @@
         <v>45124</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E8" s="5">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3">
         <v>45124</v>
@@ -1495,7 +1510,7 @@
         <v>45124</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1503,16 +1518,16 @@
         <v>45124</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E9" s="5">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3">
         <v>45124</v>
@@ -1521,7 +1536,7 @@
         <v>45124</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,16 +1544,16 @@
         <v>45124</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E10" s="5">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3">
         <v>45124</v>
@@ -1547,7 +1562,7 @@
         <v>45124</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1555,16 +1570,16 @@
         <v>45124</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3">
         <v>45124</v>
@@ -1573,7 +1588,7 @@
         <v>45124</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1581,16 +1596,16 @@
         <v>45124</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="E12" s="5">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F12" s="3">
         <v>45124</v>
@@ -1599,7 +1614,7 @@
         <v>45124</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1607,17 +1622,17 @@
         <v>45124</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="5">
         <v>25</v>
       </c>
-      <c r="E13" s="5">
-        <v>28</v>
-      </c>
       <c r="F13" s="3">
         <v>45124</v>
       </c>
@@ -1625,7 +1640,7 @@
         <v>45124</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1633,16 +1648,16 @@
         <v>45124</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="E14" s="5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" s="3">
         <v>45124</v>
@@ -1651,24 +1666,24 @@
         <v>45124</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45124</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>219</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="E15" s="5">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F15" s="3">
         <v>45124</v>
@@ -1677,7 +1692,7 @@
         <v>45124</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1685,16 +1700,16 @@
         <v>45124</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="E16" s="5">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F16" s="3">
         <v>45124</v>
@@ -1703,7 +1718,7 @@
         <v>45124</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1711,16 +1726,16 @@
         <v>45124</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E17" s="5">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3">
         <v>45124</v>
@@ -1729,7 +1744,7 @@
         <v>45124</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1737,16 +1752,16 @@
         <v>45124</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="E18" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3">
         <v>45124</v>
@@ -1755,24 +1770,24 @@
         <v>45124</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45124</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E19" s="5">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F19" s="3">
         <v>45124</v>
@@ -1781,7 +1796,7 @@
         <v>45124</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1789,16 +1804,16 @@
         <v>45124</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E20" s="5">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F20" s="3">
         <v>45124</v>
@@ -1807,7 +1822,7 @@
         <v>45124</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1815,16 +1830,16 @@
         <v>45124</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="E21" s="5">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3">
         <v>45124</v>
@@ -1833,7 +1848,7 @@
         <v>45124</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>232</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1841,16 +1856,16 @@
         <v>45124</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E22" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F22" s="3">
         <v>45124</v>
@@ -1859,7 +1874,7 @@
         <v>45124</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1867,16 +1882,16 @@
         <v>45124</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="E23" s="5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F23" s="3">
         <v>45124</v>
@@ -1885,7 +1900,7 @@
         <v>45124</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1893,16 +1908,16 @@
         <v>45124</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E24" s="5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F24" s="3">
         <v>45124</v>
@@ -1911,7 +1926,7 @@
         <v>45124</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1919,17 +1934,17 @@
         <v>45124</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" s="5">
         <v>19</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="5">
-        <v>26</v>
-      </c>
       <c r="F25" s="3">
         <v>45124</v>
       </c>
@@ -1937,7 +1952,7 @@
         <v>45124</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1945,16 +1960,16 @@
         <v>45124</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c r="E26" s="5">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F26" s="3">
         <v>45124</v>
@@ -1963,1185 +1978,1185 @@
         <v>45124</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>45112</v>
+        <v>45124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="E27" s="5">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F27" s="3">
-        <v>45128</v>
+        <v>45124</v>
       </c>
       <c r="G27" s="3">
-        <v>45112</v>
+        <v>45124</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>66</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>45106</v>
+        <v>45124</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E28" s="5">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="F28" s="3">
-        <v>45154</v>
+        <v>45124</v>
       </c>
       <c r="G28" s="3">
-        <v>45106</v>
+        <v>45124</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>45106</v>
+        <v>45124</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E29" s="5">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="F29" s="3">
-        <v>45169</v>
+        <v>45124</v>
       </c>
       <c r="G29" s="3">
-        <v>45106</v>
+        <v>45124</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" s="5">
+        <v>31</v>
+      </c>
+      <c r="F30" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G30" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>45112</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="5">
+        <v>115</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45128</v>
+      </c>
+      <c r="G31" s="3">
+        <v>45112</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>45106</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="5">
-        <v>59</v>
-      </c>
-      <c r="F30" s="3">
-        <v>45107</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="B32" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5">
+        <v>188</v>
+      </c>
+      <c r="F32" s="3">
+        <v>45154</v>
+      </c>
+      <c r="G32" s="3">
         <v>45106</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H32" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>45106</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
-        <v>45104</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="24">
-        <v>93</v>
-      </c>
-      <c r="F31" s="22">
-        <v>45086</v>
-      </c>
-      <c r="G31" s="22">
-        <v>45104</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
-        <v>45104</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="24">
-        <v>107</v>
-      </c>
-      <c r="F32" s="12">
+      <c r="C33" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="5">
+        <v>120</v>
+      </c>
+      <c r="F33" s="3">
         <v>45169</v>
       </c>
-      <c r="G32" s="22">
-        <v>45104</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
-        <v>45104</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="24">
-        <v>47</v>
-      </c>
-      <c r="F33" s="22">
-        <v>45170</v>
-      </c>
-      <c r="G33" s="22">
-        <v>45104</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>177</v>
+      <c r="G33" s="3">
+        <v>45106</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
+        <v>45106</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="5">
+        <v>59</v>
+      </c>
+      <c r="F34" s="3">
+        <v>45107</v>
+      </c>
+      <c r="G34" s="3">
+        <v>45106</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
         <v>45104</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="24">
+        <v>93</v>
+      </c>
+      <c r="F35" s="22">
+        <v>45086</v>
+      </c>
+      <c r="G35" s="22">
+        <v>45104</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>45104</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="24">
+        <v>107</v>
+      </c>
+      <c r="F36" s="12">
+        <v>45169</v>
+      </c>
+      <c r="G36" s="22">
+        <v>45104</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>45104</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="24">
+        <v>47</v>
+      </c>
+      <c r="F37" s="22">
+        <v>45170</v>
+      </c>
+      <c r="G37" s="22">
+        <v>45104</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>45104</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E38" s="5">
+        <v>101</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45169</v>
+      </c>
+      <c r="G38" s="3">
+        <v>45104</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="E34" s="5">
-        <v>101</v>
-      </c>
-      <c r="F34" s="3">
-        <v>45169</v>
-      </c>
-      <c r="G34" s="3">
-        <v>45104</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>45100</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="5">
-        <v>56</v>
-      </c>
-      <c r="F35" s="3">
-        <v>45158</v>
-      </c>
-      <c r="G35" s="3">
-        <v>45100</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>45092</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="5">
-        <v>218</v>
-      </c>
-      <c r="F36" s="3">
-        <v>45152</v>
-      </c>
-      <c r="G36" s="3">
-        <v>45092</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>45092</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="5">
-        <v>116</v>
-      </c>
-      <c r="F37" s="3">
-        <v>45069</v>
-      </c>
-      <c r="G37" s="3">
-        <v>45092</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>45092</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="5">
-        <v>91</v>
-      </c>
-      <c r="F38" s="3">
-        <v>45143</v>
-      </c>
-      <c r="G38" s="3">
-        <v>45092</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>45091</v>
+        <v>45100</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="E39" s="5">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="F39" s="3">
-        <v>45156</v>
+        <v>45158</v>
       </c>
       <c r="G39" s="3">
-        <v>45091</v>
+        <v>45100</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="E40" s="5">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="F40" s="3">
-        <v>45173</v>
+        <v>45152</v>
       </c>
       <c r="G40" s="3">
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>45084</v>
+        <v>45092</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E41" s="5">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="F41" s="3">
-        <v>45107</v>
+        <v>45069</v>
       </c>
       <c r="G41" s="3">
-        <v>45084</v>
+        <v>45092</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>45078</v>
+        <v>45092</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E42" s="5">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="F42" s="3">
-        <v>45072</v>
+        <v>45143</v>
       </c>
       <c r="G42" s="3">
-        <v>45078</v>
+        <v>45092</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>45076</v>
+        <v>45091</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>154</v>
+        <v>241</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="E43" s="5">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="F43" s="3">
-        <v>45138</v>
+        <v>45156</v>
       </c>
       <c r="G43" s="3">
-        <v>45076</v>
+        <v>45091</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>45071</v>
+        <v>45085</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="E44" s="5">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="F44" s="3">
-        <v>45070</v>
+        <v>45173</v>
       </c>
       <c r="G44" s="3">
-        <v>45071</v>
+        <v>45085</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>45068</v>
+        <v>45084</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="E45" s="5">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F45" s="3">
-        <v>45104</v>
+        <v>45107</v>
       </c>
       <c r="G45" s="3">
-        <v>45068</v>
+        <v>45084</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>45064</v>
+        <v>45078</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E46" s="5">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="F46" s="3">
-        <v>45107</v>
+        <v>45072</v>
       </c>
       <c r="G46" s="3">
-        <v>45064</v>
+        <v>45078</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>45063</v>
+        <v>45076</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E47" s="5">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="F47" s="3">
-        <v>45114</v>
+        <v>45138</v>
       </c>
       <c r="G47" s="3">
-        <v>45063</v>
+        <v>45076</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>45062</v>
+        <v>45071</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E48" s="5">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="F48" s="3">
-        <v>45121</v>
+        <v>45070</v>
       </c>
       <c r="G48" s="3">
-        <v>45062</v>
+        <v>45071</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>45062</v>
+        <v>45068</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="E49" s="5">
-        <v>549</v>
+        <v>80</v>
       </c>
       <c r="F49" s="3">
         <v>45104</v>
       </c>
       <c r="G49" s="3">
-        <v>45062</v>
+        <v>45068</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>45062</v>
+        <v>45064</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="E50" s="5">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F50" s="3">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="G50" s="3">
-        <v>45062</v>
+        <v>45064</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E51" s="5">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F51" s="3">
-        <v>45016</v>
+        <v>45114</v>
       </c>
       <c r="G51" s="3">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E52" s="5">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="F52" s="3">
-        <v>45072</v>
+        <v>45121</v>
       </c>
       <c r="G52" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E53" s="5">
-        <v>105</v>
+        <v>549</v>
       </c>
       <c r="F53" s="3">
-        <v>45107</v>
+        <v>45104</v>
       </c>
       <c r="G53" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="E54" s="5">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F54" s="3">
-        <v>45139</v>
+        <v>45138</v>
       </c>
       <c r="G54" s="3">
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>45054</v>
+        <v>45061</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E55" s="5">
-        <v>272</v>
+        <v>86</v>
       </c>
       <c r="F55" s="3">
-        <v>45058</v>
+        <v>45016</v>
       </c>
       <c r="G55" s="3">
-        <v>45054</v>
+        <v>45061</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E56" s="5">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="F56" s="3">
-        <v>45107</v>
+        <v>45072</v>
       </c>
       <c r="G56" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E57" s="5">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F57" s="3">
         <v>45107</v>
       </c>
       <c r="G57" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E58" s="5">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F58" s="3">
-        <v>45105</v>
+        <v>45139</v>
       </c>
       <c r="G58" s="3">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E59" s="5">
-        <v>7</v>
+        <v>272</v>
       </c>
       <c r="F59" s="3">
-        <v>45105</v>
+        <v>45058</v>
       </c>
       <c r="G59" s="3">
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E60" s="5">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="F60" s="3">
-        <v>45065</v>
+        <v>45107</v>
       </c>
       <c r="G60" s="3">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>45036</v>
+        <v>45049</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E61" s="5">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="F61" s="3">
-        <v>45120</v>
+        <v>45107</v>
       </c>
       <c r="G61" s="3">
-        <v>45036</v>
+        <v>45049</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>45035</v>
+        <v>45049</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E62" s="5">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F62" s="3">
-        <v>45095</v>
+        <v>45105</v>
       </c>
       <c r="G62" s="3">
-        <v>45035</v>
+        <v>45049</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>45034</v>
+        <v>45049</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E63" s="5">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="F63" s="3">
-        <v>45076</v>
+        <v>45105</v>
       </c>
       <c r="G63" s="3">
-        <v>45034</v>
+        <v>45049</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>45021</v>
+        <v>45041</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E64" s="5">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="F64" s="3">
-        <v>45077</v>
+        <v>45065</v>
       </c>
       <c r="G64" s="3">
-        <v>45021</v>
+        <v>45041</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>45022</v>
+        <v>45036</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E65" s="5">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="F65" s="3">
-        <v>45079</v>
+        <v>45120</v>
       </c>
       <c r="G65" s="3">
-        <v>45022</v>
+        <v>45036</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>45021</v>
+        <v>45035</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E66" s="5">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F66" s="3">
-        <v>45077</v>
+        <v>45095</v>
       </c>
       <c r="G66" s="3">
-        <v>45021</v>
+        <v>45035</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>45021</v>
+        <v>45034</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E67" s="5">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F67" s="3">
-        <v>45086</v>
+        <v>45076</v>
       </c>
       <c r="G67" s="3">
-        <v>45021</v>
+        <v>45034</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E68" s="5">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="F68" s="3">
-        <v>45075</v>
+        <v>45077</v>
       </c>
       <c r="G68" s="3">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E69" s="5">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="F69" s="3">
         <v>45079</v>
       </c>
       <c r="G69" s="3">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>45016</v>
+        <v>45021</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E70" s="5">
-        <v>1047</v>
+        <v>98</v>
       </c>
       <c r="F70" s="3">
-        <v>45079</v>
+        <v>45077</v>
       </c>
       <c r="G70" s="3">
-        <v>45016</v>
+        <v>45021</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E71" s="5">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F71" s="3">
-        <v>45059</v>
+        <v>45086</v>
       </c>
       <c r="G71" s="3">
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>45000</v>
+        <v>45020</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>105</v>
@@ -3150,13 +3165,13 @@
         <v>73</v>
       </c>
       <c r="E72" s="5">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F72" s="3">
-        <v>45077</v>
+        <v>45075</v>
       </c>
       <c r="G72" s="3">
-        <v>45000</v>
+        <v>45020</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>21</v>
@@ -3164,36 +3179,36 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>44999</v>
+        <v>45019</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E73" s="5">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="F73" s="3">
-        <v>45020</v>
+        <v>45079</v>
       </c>
       <c r="G73" s="3">
-        <v>44999</v>
+        <v>45019</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>45005</v>
+        <v>45016</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>64</v>
@@ -3202,302 +3217,302 @@
         <v>65</v>
       </c>
       <c r="E74" s="5">
-        <v>152</v>
+        <v>1047</v>
       </c>
       <c r="F74" s="3">
-        <v>45066</v>
+        <v>45079</v>
       </c>
       <c r="G74" s="3">
-        <v>45005</v>
+        <v>45016</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E75" s="5">
-        <v>240</v>
+        <v>54</v>
       </c>
       <c r="F75" s="3">
-        <v>45044</v>
+        <v>45059</v>
       </c>
       <c r="G75" s="3">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>44988</v>
+        <v>45000</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E76" s="5">
-        <v>827</v>
+        <v>81</v>
       </c>
       <c r="F76" s="3">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="G76" s="3">
-        <v>44988</v>
+        <v>45000</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>44987</v>
+        <v>44999</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E77" s="5">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F77" s="3">
-        <v>45048</v>
+        <v>45020</v>
       </c>
       <c r="G77" s="3">
-        <v>44987</v>
+        <v>44999</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>44985</v>
+        <v>45005</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E78" s="5">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="F78" s="3">
-        <v>45169</v>
+        <v>45066</v>
       </c>
       <c r="G78" s="3">
-        <v>44985</v>
+        <v>45005</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E79" s="5">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="F79" s="3">
-        <v>45077</v>
+        <v>45044</v>
       </c>
       <c r="G79" s="3">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E80" s="5">
-        <v>161</v>
+        <v>827</v>
       </c>
       <c r="F80" s="3">
-        <v>44979</v>
+        <v>45047</v>
       </c>
       <c r="G80" s="3">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E81" s="5">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F81" s="3">
-        <v>45169</v>
+        <v>45048</v>
       </c>
       <c r="G81" s="3">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E82" s="5">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="F82" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G82" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E83" s="5">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F83" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G83" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E84" s="5">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="F84" s="3">
-        <v>45077</v>
+        <v>44979</v>
       </c>
       <c r="G84" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E85" s="5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F85" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G85" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3505,25 +3520,25 @@
         <v>44984</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E86" s="5">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="F86" s="3">
-        <v>45169</v>
+        <v>45016</v>
       </c>
       <c r="G86" s="3">
         <v>44984</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3531,25 +3546,25 @@
         <v>44984</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E87" s="5">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F87" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G87" s="3">
         <v>44984</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3557,25 +3572,25 @@
         <v>44984</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E88" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F88" s="3">
-        <v>44974</v>
+        <v>45077</v>
       </c>
       <c r="G88" s="3">
         <v>44984</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3583,215 +3598,215 @@
         <v>44984</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E89" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F89" s="3">
-        <v>44974</v>
+        <v>45077</v>
       </c>
       <c r="G89" s="3">
         <v>44984</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E90" s="5">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="F90" s="3">
-        <v>45039</v>
+        <v>45169</v>
       </c>
       <c r="G90" s="3">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E91" s="5">
-        <v>40</v>
-      </c>
-      <c r="F91" s="12">
-        <v>44965</v>
+        <v>60</v>
+      </c>
+      <c r="F91" s="3">
+        <v>45016</v>
       </c>
       <c r="G91" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E92" s="5">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="F92" s="3">
-        <v>44981</v>
+        <v>44974</v>
       </c>
       <c r="G92" s="3">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>44978</v>
+        <v>44984</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E93" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F93" s="3">
-        <v>45032</v>
+        <v>44974</v>
       </c>
       <c r="G93" s="3">
-        <v>44978</v>
+        <v>44984</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>44972</v>
+        <v>44980</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E94" s="5">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="F94" s="3">
-        <v>44974</v>
+        <v>45039</v>
       </c>
       <c r="G94" s="3">
-        <v>44972</v>
+        <v>44980</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>44965</v>
+        <v>44973</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E95" s="5">
-        <v>92</v>
-      </c>
-      <c r="F95" s="3">
-        <v>45065</v>
+        <v>40</v>
+      </c>
+      <c r="F95" s="12">
+        <v>44965</v>
       </c>
       <c r="G95" s="3">
-        <v>44966</v>
+        <v>44973</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E96" s="5">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="F96" s="3">
-        <v>45024</v>
+        <v>44981</v>
       </c>
       <c r="G96" s="3">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>19</v>
@@ -3800,13 +3815,13 @@
         <v>20</v>
       </c>
       <c r="E97" s="5">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F97" s="3">
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="G97" s="3">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>21</v>
@@ -3814,184 +3829,184 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E98" s="5">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F98" s="3">
-        <v>45013</v>
+        <v>44974</v>
       </c>
       <c r="G98" s="3">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E99" s="5">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="F99" s="3">
-        <v>45020</v>
+        <v>45065</v>
       </c>
       <c r="G99" s="3">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E100" s="5">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="F100" s="3">
-        <v>44956</v>
+        <v>45024</v>
       </c>
       <c r="G100" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E101" s="5">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F101" s="3">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="G101" s="3">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E102" s="5">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="F102" s="3">
-        <v>45017</v>
+        <v>45013</v>
       </c>
       <c r="G102" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E103" s="5">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="F103" s="3">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="G103" s="3">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E104" s="5">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="F104" s="3">
-        <v>44972</v>
+        <v>44956</v>
       </c>
       <c r="G104" s="3">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3999,293 +4014,293 @@
         <v>44957</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E105" s="5">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F105" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G105" s="3">
         <v>44957</v>
       </c>
-      <c r="G105" s="3">
-        <v>44960</v>
-      </c>
       <c r="H105" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>44953</v>
+        <v>44959</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E106" s="5">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="F106" s="3">
-        <v>44942</v>
+        <v>45017</v>
       </c>
       <c r="G106" s="3">
-        <v>44953</v>
+        <v>44959</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E107" s="5">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="F107" s="3">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="G107" s="3">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="19">
-        <v>44951</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" s="21">
-        <v>76</v>
-      </c>
-      <c r="F108" s="19">
-        <v>44995</v>
-      </c>
-      <c r="G108" s="19">
-        <v>44951</v>
-      </c>
-      <c r="H108" s="20" t="s">
-        <v>26</v>
+      <c r="A108" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E108" s="5">
+        <v>140</v>
+      </c>
+      <c r="F108" s="3">
+        <v>44972</v>
+      </c>
+      <c r="G108" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>44951</v>
+        <v>44957</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E109" s="5">
-        <v>374</v>
+        <v>90</v>
       </c>
       <c r="F109" s="3">
-        <v>45011</v>
+        <v>44957</v>
       </c>
       <c r="G109" s="3">
-        <v>44951</v>
+        <v>44960</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>44950</v>
+        <v>44953</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E110" s="5">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="F110" s="3">
-        <v>45016</v>
+        <v>44942</v>
       </c>
       <c r="G110" s="3">
-        <v>44950</v>
+        <v>44953</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E111" s="5">
-        <v>964</v>
+        <v>110</v>
       </c>
       <c r="F111" s="3">
         <v>45016</v>
       </c>
       <c r="G111" s="3">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="H111" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="19">
+        <v>44951</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="21">
+        <v>76</v>
+      </c>
+      <c r="F112" s="19">
+        <v>44995</v>
+      </c>
+      <c r="G112" s="19">
+        <v>44951</v>
+      </c>
+      <c r="H112" s="20" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>44942</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" s="5">
-        <v>77</v>
-      </c>
-      <c r="F112" s="3">
-        <v>45002</v>
-      </c>
-      <c r="G112" s="3">
-        <v>44942</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>44938</v>
+        <v>44951</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E113" s="5">
-        <v>139</v>
+        <v>374</v>
       </c>
       <c r="F113" s="3">
-        <v>44937</v>
+        <v>45011</v>
       </c>
       <c r="G113" s="3">
-        <v>44938</v>
+        <v>44951</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>44937</v>
+        <v>44950</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E114" s="5">
-        <v>801</v>
+        <v>125</v>
       </c>
       <c r="F114" s="3">
-        <v>45003</v>
+        <v>45016</v>
       </c>
       <c r="G114" s="3">
-        <v>44937</v>
+        <v>44950</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>44936</v>
+        <v>44945</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E115" s="5">
-        <v>76</v>
+        <v>964</v>
       </c>
       <c r="F115" s="3">
-        <v>45281</v>
+        <v>45016</v>
       </c>
       <c r="G115" s="3">
-        <v>44936</v>
+        <v>44945</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>44935</v>
+        <v>44942</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>14</v>
@@ -4294,13 +4309,13 @@
         <v>15</v>
       </c>
       <c r="E116" s="5">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F116" s="3">
-        <v>44971</v>
+        <v>45002</v>
       </c>
       <c r="G116" s="3">
-        <v>44935</v>
+        <v>44942</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>16</v>
@@ -4308,95 +4323,159 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>44931</v>
+        <v>44938</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E117" s="5">
-        <v>370</v>
+        <v>139</v>
       </c>
       <c r="F117" s="3">
-        <v>44957</v>
+        <v>44937</v>
       </c>
       <c r="G117" s="3">
-        <v>44931</v>
+        <v>44938</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="5">
+        <v>801</v>
+      </c>
+      <c r="F118" s="3">
+        <v>45003</v>
+      </c>
+      <c r="G118" s="3">
+        <v>44937</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="5">
+        <v>76</v>
+      </c>
+      <c r="F119" s="3">
+        <v>45281</v>
+      </c>
+      <c r="G119" s="3">
+        <v>44936</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="5">
+        <v>85</v>
+      </c>
+      <c r="F120" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G120" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="5">
+        <v>370</v>
+      </c>
+      <c r="F121" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G121" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <v>44932</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D122" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E122" s="5">
         <v>20</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F122" s="3">
         <v>44988</v>
       </c>
-      <c r="G118" s="3">
+      <c r="G122" s="3">
         <v>44932</v>
       </c>
-      <c r="H118" s="4" t="s">
+      <c r="H122" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="4"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="4"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
@@ -4469,14 +4548,14 @@
       <c r="H129" s="4"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="16"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="16"/>
-      <c r="H130" s="17"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
@@ -4509,14 +4588,14 @@
       <c r="H133" s="4"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="4"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="17"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
@@ -4669,14 +4748,14 @@
       <c r="H149" s="4"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="13"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-      <c r="H150" s="14"/>
+      <c r="A150" s="3"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="4"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
@@ -4709,14 +4788,14 @@
       <c r="H153" s="4"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="4"/>
+      <c r="A154" s="13"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="14"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
@@ -4739,14 +4818,14 @@
       <c r="H156" s="4"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="13"/>
-      <c r="B157" s="14"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="13"/>
-      <c r="H157" s="14"/>
+      <c r="A157" s="3"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="4"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
@@ -4779,14 +4858,14 @@
       <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="4"/>
+      <c r="A161" s="13"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="14"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
@@ -4849,34 +4928,34 @@
       <c r="H167" s="4"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="13"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="15"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="13"/>
-      <c r="H168" s="14"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="4"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="13"/>
-      <c r="B169" s="14"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="15"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="14"/>
+      <c r="A169" s="3"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="4"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="13"/>
-      <c r="B170" s="14"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="15"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="13"/>
-      <c r="H170" s="14"/>
+      <c r="A170" s="3"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="4"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
@@ -4889,24 +4968,24 @@
       <c r="H171" s="4"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="3"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="4"/>
+      <c r="A172" s="13"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="4"/>
+      <c r="A173" s="13"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="14"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="13"/>
@@ -4949,24 +5028,24 @@
       <c r="H177" s="4"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="9"/>
-      <c r="B178" s="10"/>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="11"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="10"/>
+      <c r="A178" s="13"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="14"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="9"/>
-      <c r="B179" s="10"/>
-      <c r="C179" s="10"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="11"/>
-      <c r="F179" s="9"/>
-      <c r="G179" s="9"/>
-      <c r="H179" s="10"/>
+      <c r="A179" s="3"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
@@ -4989,24 +5068,24 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="3"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="4"/>
+      <c r="A182" s="9"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="10"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="4"/>
+      <c r="A183" s="9"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="10"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
@@ -5049,24 +5128,24 @@
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="6"/>
-      <c r="B188" s="7"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="8"/>
-      <c r="G188" s="8"/>
-      <c r="H188" s="7"/>
+      <c r="A188" s="3"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="9"/>
-      <c r="B189" s="10"/>
-      <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="11"/>
-      <c r="F189" s="9"/>
-      <c r="G189" s="9"/>
-      <c r="H189" s="10"/>
+      <c r="A189" s="3"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
@@ -5089,24 +5168,24 @@
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="3"/>
-      <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="4"/>
+      <c r="A192" s="6"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="7"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="3"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="4"/>
+      <c r="A193" s="9"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="10"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
@@ -5169,14 +5248,14 @@
       <c r="H199" s="4"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="9"/>
-      <c r="B200" s="10"/>
-      <c r="C200" s="10"/>
-      <c r="D200" s="10"/>
-      <c r="E200" s="11"/>
-      <c r="F200" s="9"/>
-      <c r="G200" s="9"/>
-      <c r="H200" s="10"/>
+      <c r="A200" s="3"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="4"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
@@ -5188,6 +5267,46 @@
       <c r="G201" s="3"/>
       <c r="H201" s="4"/>
     </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="3"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="4"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="3"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="4"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="9"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="10"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="3"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D368B27-FB06-4FC4-BAB7-4F85CCE90F41}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A42CC8D5-EBDC-472C-9086-CFF1F1359ACC}"/>
   <bookViews>
-    <workbookView xWindow="31890" yWindow="1680" windowWidth="21600" windowHeight="11235" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="29070" yWindow="4545" windowWidth="12915" windowHeight="11295" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="262">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -775,6 +775,51 @@
   </si>
   <si>
     <t>FedEx Supply Chain Logistics &amp; Electronics (Ft. Worth)</t>
+  </si>
+  <si>
+    <t>Honeywell Intelligrated</t>
+  </si>
+  <si>
+    <t>Babylon, Inc</t>
+  </si>
+  <si>
+    <t>TATA Consultancy Services</t>
+  </si>
+  <si>
+    <t>PSW Real Estate, LLC</t>
+  </si>
+  <si>
+    <t>Regal Rexnord</t>
+  </si>
+  <si>
+    <t>Mission</t>
+  </si>
+  <si>
+    <t>Compass Group</t>
+  </si>
+  <si>
+    <t>Yellow Freight (Abilene)</t>
+  </si>
+  <si>
+    <t>Yellow Freight (Fort Worth}</t>
+  </si>
+  <si>
+    <t>Yellow Freight (El Paso)</t>
+  </si>
+  <si>
+    <t>Yellow Freight (Sherman)</t>
+  </si>
+  <si>
+    <t>Grayson</t>
+  </si>
+  <si>
+    <t>Texoma WDA</t>
+  </si>
+  <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Yellow Freight (Waco)</t>
   </si>
 </sst>
 </file>
@@ -1287,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,12 +1376,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>64</v>
@@ -1345,406 +1390,406 @@
         <v>65</v>
       </c>
       <c r="E2" s="5">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3">
-        <v>45192</v>
+        <v>45226</v>
       </c>
       <c r="G2" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F3" s="3">
-        <v>45198</v>
+        <v>45145</v>
       </c>
       <c r="G3" s="3">
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E4" s="5">
-        <v>530</v>
+        <v>85</v>
       </c>
       <c r="F4" s="3">
-        <v>45135</v>
+        <v>45201</v>
       </c>
       <c r="G4" s="3">
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45134</v>
+        <v>45142</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F5" s="3">
-        <v>45198</v>
+        <v>45138</v>
       </c>
       <c r="G5" s="3">
-        <v>45134</v>
+        <v>45142</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>243</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45126</v>
+        <v>45141</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="E6" s="5">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F6" s="3">
-        <v>45208</v>
+        <v>45199</v>
       </c>
       <c r="G6" s="3">
-        <v>45126</v>
+        <v>45141</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E7" s="5">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="F7" s="3">
-        <v>45124</v>
+        <v>45139</v>
       </c>
       <c r="G7" s="3">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45124</v>
+        <v>45139</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5">
-        <v>27</v>
+        <v>530</v>
       </c>
       <c r="F8" s="3">
-        <v>45124</v>
+        <v>45135</v>
       </c>
       <c r="G8" s="3">
-        <v>45124</v>
+        <v>45139</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>69</v>
+        <v>230</v>
       </c>
       <c r="E9" s="5">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>45124</v>
+        <v>45135</v>
       </c>
       <c r="G9" s="3">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E10" s="5">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F10" s="3">
-        <v>45124</v>
+        <v>45135</v>
       </c>
       <c r="G10" s="3">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E11" s="5">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3">
-        <v>45124</v>
+        <v>45135</v>
       </c>
       <c r="G11" s="3">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="E12" s="5">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F12" s="3">
-        <v>45124</v>
+        <v>45135</v>
       </c>
       <c r="G12" s="3">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F13" s="3">
-        <v>45124</v>
+        <v>45135</v>
       </c>
       <c r="G13" s="3">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45124</v>
+        <v>45140</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E14" s="5">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="F14" s="3">
-        <v>45124</v>
+        <v>45192</v>
       </c>
       <c r="G14" s="3">
-        <v>45124</v>
+        <v>45140</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45124</v>
+        <v>45139</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E15" s="5">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F15" s="3">
-        <v>45124</v>
+        <v>45198</v>
       </c>
       <c r="G15" s="3">
-        <v>45124</v>
+        <v>45139</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>211</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45124</v>
+        <v>45134</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>213</v>
+        <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="F16" s="3">
-        <v>45124</v>
+        <v>45198</v>
       </c>
       <c r="G16" s="3">
-        <v>45124</v>
+        <v>45134</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E17" s="5">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F17" s="3">
-        <v>45124</v>
+        <v>45208</v>
       </c>
       <c r="G17" s="3">
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1752,16 +1797,16 @@
         <v>45124</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="E18" s="5">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F18" s="3">
         <v>45124</v>
@@ -1770,24 +1815,24 @@
         <v>45124</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45124</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="E19" s="5">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F19" s="3">
         <v>45124</v>
@@ -1796,7 +1841,7 @@
         <v>45124</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1804,16 +1849,16 @@
         <v>45124</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="5">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F20" s="3">
         <v>45124</v>
@@ -1822,7 +1867,7 @@
         <v>45124</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1830,16 +1875,16 @@
         <v>45124</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E21" s="5">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F21" s="3">
         <v>45124</v>
@@ -1848,7 +1893,7 @@
         <v>45124</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1856,17 +1901,17 @@
         <v>45124</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5">
         <v>38</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="5">
-        <v>30</v>
-      </c>
       <c r="F22" s="3">
         <v>45124</v>
       </c>
@@ -1874,7 +1919,7 @@
         <v>45124</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1882,16 +1927,16 @@
         <v>45124</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c r="E23" s="5">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F23" s="3">
         <v>45124</v>
@@ -1900,7 +1945,7 @@
         <v>45124</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1908,7 +1953,7 @@
         <v>45124</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>64</v>
@@ -1917,7 +1962,7 @@
         <v>65</v>
       </c>
       <c r="E24" s="5">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F24" s="3">
         <v>45124</v>
@@ -1926,7 +1971,7 @@
         <v>45124</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>66</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1934,16 +1979,16 @@
         <v>45124</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>229</v>
+        <v>64</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="E25" s="5">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F25" s="3">
         <v>45124</v>
@@ -1952,7 +1997,7 @@
         <v>45124</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1960,16 +2005,16 @@
         <v>45124</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F26" s="3">
         <v>45124</v>
@@ -1978,7 +2023,7 @@
         <v>45124</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1986,16 +2031,16 @@
         <v>45124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="E27" s="5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F27" s="3">
         <v>45124</v>
@@ -2004,7 +2049,7 @@
         <v>45124</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2012,16 +2057,16 @@
         <v>45124</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E28" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F28" s="3">
         <v>45124</v>
@@ -2030,7 +2075,7 @@
         <v>45124</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2038,16 +2083,16 @@
         <v>45124</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="E29" s="5">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F29" s="3">
         <v>45124</v>
@@ -2056,21 +2101,21 @@
         <v>45124</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45124</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="E30" s="5">
         <v>31</v>
@@ -2082,264 +2127,264 @@
         <v>45124</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>45112</v>
+        <v>45124</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E31" s="5">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="F31" s="3">
-        <v>45128</v>
+        <v>45124</v>
       </c>
       <c r="G31" s="3">
-        <v>45112</v>
+        <v>45124</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>45106</v>
+        <v>45124</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E32" s="5">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="F32" s="3">
-        <v>45154</v>
+        <v>45124</v>
       </c>
       <c r="G32" s="3">
-        <v>45106</v>
+        <v>45124</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>45106</v>
+        <v>45124</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E33" s="5">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F33" s="3">
-        <v>45169</v>
+        <v>45124</v>
       </c>
       <c r="G33" s="3">
-        <v>45106</v>
+        <v>45124</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>188</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>45106</v>
+        <v>45124</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="5">
+        <v>21</v>
+      </c>
+      <c r="F34" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G34" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="5">
+        <v>29</v>
+      </c>
+      <c r="F35" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G35" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="5">
+        <v>19</v>
+      </c>
+      <c r="F36" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G36" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="5">
-        <v>59</v>
-      </c>
-      <c r="F34" s="3">
-        <v>45107</v>
-      </c>
-      <c r="G34" s="3">
-        <v>45106</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
-        <v>45104</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" s="24">
-        <v>93</v>
-      </c>
-      <c r="F35" s="22">
-        <v>45086</v>
-      </c>
-      <c r="G35" s="22">
-        <v>45104</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
-        <v>45104</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="24">
-        <v>107</v>
-      </c>
-      <c r="F36" s="12">
-        <v>45169</v>
-      </c>
-      <c r="G36" s="22">
-        <v>45104</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
-        <v>45104</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="24">
-        <v>47</v>
-      </c>
-      <c r="F37" s="22">
-        <v>45170</v>
-      </c>
-      <c r="G37" s="22">
-        <v>45104</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>176</v>
+      <c r="E37" s="5">
+        <v>25</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G37" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>45104</v>
+        <v>45124</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="E38" s="5">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="F38" s="3">
-        <v>45169</v>
+        <v>45124</v>
       </c>
       <c r="G38" s="3">
-        <v>45104</v>
+        <v>45124</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>45100</v>
+        <v>45124</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E39" s="5">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F39" s="3">
-        <v>45158</v>
+        <v>45124</v>
       </c>
       <c r="G39" s="3">
-        <v>45100</v>
+        <v>45124</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>45092</v>
+        <v>45124</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E40" s="5">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="F40" s="3">
-        <v>45152</v>
+        <v>45124</v>
       </c>
       <c r="G40" s="3">
-        <v>45092</v>
+        <v>45124</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>21</v>
@@ -2347,244 +2392,244 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>45092</v>
+        <v>45124</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="E41" s="5">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="F41" s="3">
-        <v>45069</v>
+        <v>45124</v>
       </c>
       <c r="G41" s="3">
-        <v>45092</v>
+        <v>45124</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>45092</v>
+        <v>45112</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E42" s="5">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F42" s="3">
-        <v>45143</v>
+        <v>45128</v>
       </c>
       <c r="G42" s="3">
-        <v>45092</v>
+        <v>45112</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>45091</v>
+        <v>45106</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="E43" s="5">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F43" s="3">
-        <v>45156</v>
+        <v>45154</v>
       </c>
       <c r="G43" s="3">
-        <v>45091</v>
+        <v>45106</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>45085</v>
+        <v>45106</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="E44" s="5">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="F44" s="3">
-        <v>45173</v>
+        <v>45169</v>
       </c>
       <c r="G44" s="3">
-        <v>45085</v>
+        <v>45106</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>45084</v>
+        <v>45106</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E45" s="5">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F45" s="3">
         <v>45107</v>
       </c>
       <c r="G45" s="3">
-        <v>45084</v>
+        <v>45106</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>45078</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="5">
-        <v>126</v>
-      </c>
-      <c r="F46" s="3">
-        <v>45072</v>
-      </c>
-      <c r="G46" s="3">
-        <v>45078</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>158</v>
+      <c r="A46" s="22">
+        <v>45104</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="24">
+        <v>93</v>
+      </c>
+      <c r="F46" s="22">
+        <v>45086</v>
+      </c>
+      <c r="G46" s="22">
+        <v>45104</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>45076</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="5">
-        <v>137</v>
-      </c>
-      <c r="F47" s="3">
-        <v>45138</v>
-      </c>
-      <c r="G47" s="3">
-        <v>45076</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>16</v>
+      <c r="A47" s="22">
+        <v>45104</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="24">
+        <v>107</v>
+      </c>
+      <c r="F47" s="12">
+        <v>45169</v>
+      </c>
+      <c r="G47" s="22">
+        <v>45104</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>45071</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="5">
-        <v>90</v>
-      </c>
-      <c r="F48" s="3">
-        <v>45070</v>
-      </c>
-      <c r="G48" s="3">
-        <v>45071</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>21</v>
+      <c r="A48" s="22">
+        <v>45104</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="24">
+        <v>47</v>
+      </c>
+      <c r="F48" s="22">
+        <v>45170</v>
+      </c>
+      <c r="G48" s="22">
+        <v>45104</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>45068</v>
+        <v>45104</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E49" s="5">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F49" s="3">
+        <v>45169</v>
+      </c>
+      <c r="G49" s="3">
         <v>45104</v>
       </c>
-      <c r="G49" s="3">
-        <v>45068</v>
-      </c>
       <c r="H49" s="4" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>45064</v>
+        <v>45100</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>19</v>
@@ -2593,13 +2638,13 @@
         <v>20</v>
       </c>
       <c r="E50" s="5">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F50" s="3">
-        <v>45107</v>
+        <v>45158</v>
       </c>
       <c r="G50" s="3">
-        <v>45064</v>
+        <v>45100</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>21</v>
@@ -2607,634 +2652,634 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>45063</v>
+        <v>45092</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E51" s="5">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="F51" s="3">
-        <v>45114</v>
+        <v>45152</v>
       </c>
       <c r="G51" s="3">
-        <v>45063</v>
+        <v>45092</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>45062</v>
+        <v>45092</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E52" s="5">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="F52" s="3">
-        <v>45121</v>
+        <v>45069</v>
       </c>
       <c r="G52" s="3">
-        <v>45062</v>
+        <v>45092</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>45062</v>
+        <v>45092</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E53" s="5">
-        <v>549</v>
+        <v>91</v>
       </c>
       <c r="F53" s="3">
-        <v>45104</v>
+        <v>45143</v>
       </c>
       <c r="G53" s="3">
-        <v>45062</v>
+        <v>45092</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>45062</v>
+        <v>45091</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E54" s="5">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="F54" s="3">
-        <v>45138</v>
+        <v>45156</v>
       </c>
       <c r="G54" s="3">
-        <v>45062</v>
+        <v>45091</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>45061</v>
+        <v>45085</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E55" s="5">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F55" s="3">
-        <v>45016</v>
+        <v>45173</v>
       </c>
       <c r="G55" s="3">
-        <v>45061</v>
+        <v>45085</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>45056</v>
+        <v>45084</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E56" s="5">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F56" s="3">
-        <v>45072</v>
+        <v>45107</v>
       </c>
       <c r="G56" s="3">
-        <v>45056</v>
+        <v>45084</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>45056</v>
+        <v>45078</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E57" s="5">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F57" s="3">
-        <v>45107</v>
+        <v>45072</v>
       </c>
       <c r="G57" s="3">
-        <v>45056</v>
+        <v>45078</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>45056</v>
+        <v>45076</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E58" s="5">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="F58" s="3">
-        <v>45139</v>
+        <v>45138</v>
       </c>
       <c r="G58" s="3">
-        <v>45056</v>
+        <v>45076</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>45054</v>
+        <v>45071</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E59" s="5">
-        <v>272</v>
+        <v>90</v>
       </c>
       <c r="F59" s="3">
-        <v>45058</v>
+        <v>45070</v>
       </c>
       <c r="G59" s="3">
-        <v>45054</v>
+        <v>45071</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>45049</v>
+        <v>45068</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="E60" s="5">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="F60" s="3">
-        <v>45107</v>
+        <v>45104</v>
       </c>
       <c r="G60" s="3">
-        <v>45049</v>
+        <v>45068</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>45049</v>
+        <v>45064</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E61" s="5">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F61" s="3">
         <v>45107</v>
       </c>
       <c r="G61" s="3">
-        <v>45049</v>
+        <v>45064</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>45049</v>
+        <v>45063</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="5">
+        <v>69</v>
+      </c>
+      <c r="F62" s="3">
+        <v>45114</v>
+      </c>
+      <c r="G62" s="3">
+        <v>45063</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="5">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3">
-        <v>45105</v>
-      </c>
-      <c r="G62" s="3">
-        <v>45049</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>45049</v>
+        <v>45062</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E63" s="5">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="F63" s="3">
-        <v>45105</v>
+        <v>45121</v>
       </c>
       <c r="G63" s="3">
-        <v>45049</v>
+        <v>45062</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>45041</v>
+        <v>45062</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E64" s="5">
-        <v>175</v>
+        <v>549</v>
       </c>
       <c r="F64" s="3">
-        <v>45065</v>
+        <v>45104</v>
       </c>
       <c r="G64" s="3">
-        <v>45041</v>
+        <v>45062</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>45036</v>
+        <v>45062</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="E65" s="5">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="F65" s="3">
-        <v>45120</v>
+        <v>45138</v>
       </c>
       <c r="G65" s="3">
-        <v>45036</v>
+        <v>45062</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>45035</v>
+        <v>45061</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E66" s="5">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F66" s="3">
-        <v>45095</v>
+        <v>45016</v>
       </c>
       <c r="G66" s="3">
-        <v>45035</v>
+        <v>45061</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>45034</v>
+        <v>45056</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E67" s="5">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="F67" s="3">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="G67" s="3">
-        <v>45034</v>
+        <v>45056</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>45021</v>
+        <v>45056</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E68" s="5">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F68" s="3">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="G68" s="3">
-        <v>45021</v>
+        <v>45056</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>45022</v>
+        <v>45056</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E69" s="5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F69" s="3">
-        <v>45079</v>
+        <v>45139</v>
       </c>
       <c r="G69" s="3">
-        <v>45022</v>
+        <v>45056</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>45021</v>
+        <v>45054</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E70" s="5">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="F70" s="3">
-        <v>45077</v>
+        <v>45058</v>
       </c>
       <c r="G70" s="3">
-        <v>45021</v>
+        <v>45054</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>45021</v>
+        <v>45049</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E71" s="5">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F71" s="3">
-        <v>45086</v>
+        <v>45107</v>
       </c>
       <c r="G71" s="3">
-        <v>45021</v>
+        <v>45049</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>45020</v>
+        <v>45049</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E72" s="5">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F72" s="3">
-        <v>45075</v>
+        <v>45107</v>
       </c>
       <c r="G72" s="3">
-        <v>45020</v>
+        <v>45049</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>45019</v>
+        <v>45049</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E73" s="5">
-        <v>227</v>
+        <v>4</v>
       </c>
       <c r="F73" s="3">
-        <v>45079</v>
+        <v>45105</v>
       </c>
       <c r="G73" s="3">
-        <v>45019</v>
+        <v>45049</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>45016</v>
+        <v>45049</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E74" s="5">
-        <v>1047</v>
+        <v>7</v>
       </c>
       <c r="F74" s="3">
-        <v>45079</v>
+        <v>45105</v>
       </c>
       <c r="G74" s="3">
-        <v>45016</v>
+        <v>45049</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>45007</v>
+        <v>45041</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>64</v>
@@ -3243,13 +3288,13 @@
         <v>65</v>
       </c>
       <c r="E75" s="5">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="F75" s="3">
-        <v>45059</v>
+        <v>45065</v>
       </c>
       <c r="G75" s="3">
-        <v>45007</v>
+        <v>45041</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>66</v>
@@ -3257,1345 +3302,1521 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>45000</v>
+        <v>45036</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E76" s="5">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="F76" s="3">
-        <v>45077</v>
+        <v>45120</v>
       </c>
       <c r="G76" s="3">
-        <v>45000</v>
+        <v>45036</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>44999</v>
+        <v>45035</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E77" s="5">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="F77" s="3">
-        <v>45020</v>
+        <v>45095</v>
       </c>
       <c r="G77" s="3">
-        <v>44999</v>
+        <v>45035</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>45005</v>
+        <v>45034</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E78" s="5">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="F78" s="3">
-        <v>45066</v>
+        <v>45076</v>
       </c>
       <c r="G78" s="3">
-        <v>45005</v>
+        <v>45034</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>44993</v>
+        <v>45021</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E79" s="5">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="F79" s="3">
-        <v>45044</v>
+        <v>45077</v>
       </c>
       <c r="G79" s="3">
-        <v>44993</v>
+        <v>45021</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>44988</v>
+        <v>45022</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E80" s="5">
-        <v>827</v>
+        <v>12</v>
       </c>
       <c r="F80" s="3">
-        <v>45047</v>
+        <v>45079</v>
       </c>
       <c r="G80" s="3">
-        <v>44988</v>
+        <v>45022</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>44987</v>
+        <v>45021</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E81" s="5">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F81" s="3">
-        <v>45048</v>
+        <v>45077</v>
       </c>
       <c r="G81" s="3">
-        <v>44987</v>
+        <v>45021</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>44985</v>
+        <v>45021</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E82" s="5">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="F82" s="3">
-        <v>45169</v>
+        <v>45086</v>
       </c>
       <c r="G82" s="3">
-        <v>44985</v>
+        <v>45021</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>44985</v>
+        <v>45020</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E83" s="5">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F83" s="3">
-        <v>45077</v>
+        <v>45075</v>
       </c>
       <c r="G83" s="3">
-        <v>44985</v>
+        <v>45020</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>44985</v>
+        <v>45019</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E84" s="5">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="F84" s="3">
-        <v>44979</v>
+        <v>45079</v>
       </c>
       <c r="G84" s="3">
-        <v>44985</v>
+        <v>45019</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E85" s="5">
-        <v>15</v>
+        <v>1047</v>
       </c>
       <c r="F85" s="3">
-        <v>45169</v>
+        <v>45079</v>
       </c>
       <c r="G85" s="3">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>44984</v>
+        <v>45007</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E86" s="5">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="F86" s="3">
-        <v>45016</v>
+        <v>45059</v>
       </c>
       <c r="G86" s="3">
-        <v>44984</v>
+        <v>45007</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>44984</v>
+        <v>45000</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E87" s="5">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F87" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G87" s="3">
-        <v>44984</v>
+        <v>45000</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>44984</v>
+        <v>44999</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E88" s="5">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="F88" s="3">
-        <v>45077</v>
+        <v>45020</v>
       </c>
       <c r="G88" s="3">
-        <v>44984</v>
+        <v>44999</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>44984</v>
+        <v>45005</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E89" s="5">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="F89" s="3">
-        <v>45077</v>
+        <v>45066</v>
       </c>
       <c r="G89" s="3">
-        <v>44984</v>
+        <v>45005</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>44984</v>
+        <v>44993</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E90" s="5">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="F90" s="3">
-        <v>45169</v>
+        <v>45044</v>
       </c>
       <c r="G90" s="3">
-        <v>44984</v>
+        <v>44993</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E91" s="5">
-        <v>60</v>
+        <v>827</v>
       </c>
       <c r="F91" s="3">
-        <v>45016</v>
+        <v>45047</v>
       </c>
       <c r="G91" s="3">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>44984</v>
+        <v>44987</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E92" s="5">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="F92" s="3">
-        <v>44974</v>
+        <v>45048</v>
       </c>
       <c r="G92" s="3">
-        <v>44984</v>
+        <v>44987</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E93" s="5">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F93" s="3">
-        <v>44974</v>
+        <v>45169</v>
       </c>
       <c r="G93" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E94" s="5">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="F94" s="3">
-        <v>45039</v>
+        <v>45077</v>
       </c>
       <c r="G94" s="3">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>44973</v>
+        <v>44985</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E95" s="5">
-        <v>40</v>
-      </c>
-      <c r="F95" s="12">
-        <v>44965</v>
+        <v>161</v>
+      </c>
+      <c r="F95" s="3">
+        <v>44979</v>
       </c>
       <c r="G95" s="3">
-        <v>44973</v>
+        <v>44985</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>44973</v>
+        <v>44985</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="5">
         <v>15</v>
       </c>
-      <c r="E96" s="5">
-        <v>186</v>
-      </c>
       <c r="F96" s="3">
-        <v>44981</v>
+        <v>45169</v>
       </c>
       <c r="G96" s="3">
-        <v>44973</v>
+        <v>44985</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>44978</v>
+        <v>44984</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E97" s="5">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F97" s="3">
-        <v>45032</v>
+        <v>45016</v>
       </c>
       <c r="G97" s="3">
-        <v>44978</v>
+        <v>44984</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>44972</v>
+        <v>44984</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E98" s="5">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F98" s="3">
-        <v>44974</v>
+        <v>45169</v>
       </c>
       <c r="G98" s="3">
-        <v>44972</v>
+        <v>44984</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>44965</v>
+        <v>44984</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E99" s="5">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="F99" s="3">
-        <v>45065</v>
+        <v>45077</v>
       </c>
       <c r="G99" s="3">
-        <v>44966</v>
+        <v>44984</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E100" s="5">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="F100" s="3">
-        <v>45024</v>
+        <v>45077</v>
       </c>
       <c r="G100" s="3">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="5">
         <v>19</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E101" s="5">
-        <v>60</v>
-      </c>
       <c r="F101" s="3">
-        <v>45017</v>
+        <v>45169</v>
       </c>
       <c r="G101" s="3">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" s="5">
         <v>60</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E102" s="5">
-        <v>65</v>
-      </c>
       <c r="F102" s="3">
-        <v>45013</v>
+        <v>45016</v>
       </c>
       <c r="G102" s="3">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E103" s="5">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F103" s="3">
-        <v>45020</v>
+        <v>44974</v>
       </c>
       <c r="G103" s="3">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>44957</v>
+        <v>44984</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="5">
         <v>10</v>
       </c>
-      <c r="E104" s="5">
+      <c r="F104" s="3">
+        <v>44974</v>
+      </c>
+      <c r="G104" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H104" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="F104" s="3">
-        <v>44956</v>
-      </c>
-      <c r="G104" s="3">
-        <v>44957</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>44957</v>
+        <v>44980</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E105" s="5">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="F105" s="3">
-        <v>45016</v>
+        <v>45039</v>
       </c>
       <c r="G105" s="3">
-        <v>44957</v>
+        <v>44980</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>44959</v>
+        <v>44973</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E106" s="5">
-        <v>158</v>
-      </c>
-      <c r="F106" s="3">
-        <v>45017</v>
+        <v>40</v>
+      </c>
+      <c r="F106" s="12">
+        <v>44965</v>
       </c>
       <c r="G106" s="3">
-        <v>44959</v>
+        <v>44973</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>44959</v>
+        <v>44973</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E107" s="5">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="F107" s="3">
-        <v>45019</v>
+        <v>44981</v>
       </c>
       <c r="G107" s="3">
-        <v>44959</v>
+        <v>44973</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>44959</v>
+        <v>44978</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E108" s="5">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="F108" s="3">
-        <v>44972</v>
+        <v>45032</v>
       </c>
       <c r="G108" s="3">
-        <v>44959</v>
+        <v>44978</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>44957</v>
+        <v>44972</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E109" s="5">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F109" s="3">
-        <v>44957</v>
+        <v>44974</v>
       </c>
       <c r="G109" s="3">
-        <v>44960</v>
+        <v>44972</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>44953</v>
+        <v>44965</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E110" s="5">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="F110" s="3">
-        <v>44942</v>
+        <v>45065</v>
       </c>
       <c r="G110" s="3">
-        <v>44953</v>
+        <v>44966</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>44946</v>
+        <v>44964</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E111" s="5">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F111" s="3">
-        <v>45016</v>
+        <v>45024</v>
       </c>
       <c r="G111" s="3">
-        <v>44946</v>
+        <v>44964</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="19">
-        <v>44951</v>
-      </c>
-      <c r="B112" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" s="21">
-        <v>76</v>
-      </c>
-      <c r="F112" s="19">
-        <v>44995</v>
-      </c>
-      <c r="G112" s="19">
-        <v>44951</v>
-      </c>
-      <c r="H112" s="20" t="s">
-        <v>26</v>
+      <c r="A112" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="5">
+        <v>60</v>
+      </c>
+      <c r="F112" s="3">
+        <v>45017</v>
+      </c>
+      <c r="G112" s="3">
+        <v>44964</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>44951</v>
+        <v>44964</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E113" s="5">
-        <v>374</v>
+        <v>65</v>
       </c>
       <c r="F113" s="3">
-        <v>45011</v>
+        <v>45013</v>
       </c>
       <c r="G113" s="3">
-        <v>44951</v>
+        <v>44964</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>44950</v>
+        <v>44964</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E114" s="5">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="F114" s="3">
-        <v>45016</v>
+        <v>45020</v>
       </c>
       <c r="G114" s="3">
-        <v>44950</v>
+        <v>44964</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>44945</v>
+        <v>44957</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E115" s="5">
-        <v>964</v>
+        <v>83</v>
       </c>
       <c r="F115" s="3">
-        <v>45016</v>
+        <v>44956</v>
       </c>
       <c r="G115" s="3">
-        <v>44945</v>
+        <v>44957</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>44942</v>
+        <v>44957</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E116" s="5">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F116" s="3">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="G116" s="3">
-        <v>44942</v>
+        <v>44957</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>44938</v>
+        <v>44959</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E117" s="5">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F117" s="3">
-        <v>44937</v>
+        <v>45017</v>
       </c>
       <c r="G117" s="3">
-        <v>44938</v>
+        <v>44959</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>44937</v>
+        <v>44959</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E118" s="5">
-        <v>801</v>
+        <v>9</v>
       </c>
       <c r="F118" s="3">
-        <v>45003</v>
+        <v>45019</v>
       </c>
       <c r="G118" s="3">
-        <v>44937</v>
+        <v>44959</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>44936</v>
+        <v>44959</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E119" s="5">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="F119" s="3">
-        <v>45281</v>
+        <v>44972</v>
       </c>
       <c r="G119" s="3">
-        <v>44936</v>
+        <v>44959</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>44935</v>
+        <v>44957</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E120" s="5">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F120" s="3">
-        <v>44971</v>
+        <v>44957</v>
       </c>
       <c r="G120" s="3">
-        <v>44935</v>
+        <v>44960</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>44931</v>
+        <v>44953</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E121" s="5">
-        <v>370</v>
+        <v>255</v>
       </c>
       <c r="F121" s="3">
-        <v>44957</v>
+        <v>44942</v>
       </c>
       <c r="G121" s="3">
-        <v>44931</v>
+        <v>44953</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
+        <v>44946</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" s="5">
+        <v>110</v>
+      </c>
+      <c r="F122" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G122" s="3">
+        <v>44946</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="19">
+        <v>44951</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="21">
+        <v>76</v>
+      </c>
+      <c r="F123" s="19">
+        <v>44995</v>
+      </c>
+      <c r="G123" s="19">
+        <v>44951</v>
+      </c>
+      <c r="H123" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>44951</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" s="5">
+        <v>374</v>
+      </c>
+      <c r="F124" s="3">
+        <v>45011</v>
+      </c>
+      <c r="G124" s="3">
+        <v>44951</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>44950</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125" s="5">
+        <v>125</v>
+      </c>
+      <c r="F125" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G125" s="3">
+        <v>44950</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>44945</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" s="5">
+        <v>964</v>
+      </c>
+      <c r="F126" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G126" s="3">
+        <v>44945</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>44942</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="5">
+        <v>77</v>
+      </c>
+      <c r="F127" s="3">
+        <v>45002</v>
+      </c>
+      <c r="G127" s="3">
+        <v>44942</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>44938</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128" s="5">
+        <v>139</v>
+      </c>
+      <c r="F128" s="3">
+        <v>44937</v>
+      </c>
+      <c r="G128" s="3">
+        <v>44938</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129" s="5">
+        <v>801</v>
+      </c>
+      <c r="F129" s="3">
+        <v>45003</v>
+      </c>
+      <c r="G129" s="3">
+        <v>44937</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="5">
+        <v>76</v>
+      </c>
+      <c r="F130" s="3">
+        <v>45281</v>
+      </c>
+      <c r="G130" s="3">
+        <v>44936</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="5">
+        <v>85</v>
+      </c>
+      <c r="F131" s="3">
+        <v>44971</v>
+      </c>
+      <c r="G131" s="3">
+        <v>44935</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="5">
+        <v>370</v>
+      </c>
+      <c r="F132" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G132" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <v>44932</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B133" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D133" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E133" s="5">
         <v>20</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F133" s="3">
         <v>44988</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G133" s="3">
         <v>44932</v>
       </c>
-      <c r="H122" s="4" t="s">
+      <c r="H133" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="4"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="4"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="4"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="4"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="4"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="4"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="4"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="4"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="4"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="4"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="4"/>
-    </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="16"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="17"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="4"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
@@ -4698,14 +4919,14 @@
       <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="4"/>
+      <c r="A145" s="16"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="17"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
@@ -4788,14 +5009,14 @@
       <c r="H153" s="4"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="13"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
-      <c r="H154" s="14"/>
+      <c r="A154" s="3"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
@@ -4858,14 +5079,14 @@
       <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="13"/>
-      <c r="B161" s="14"/>
-      <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="13"/>
-      <c r="H161" s="14"/>
+      <c r="A161" s="3"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
@@ -4898,14 +5119,14 @@
       <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="4"/>
+      <c r="A165" s="13"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="14"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
@@ -4978,24 +5199,24 @@
       <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="13"/>
-      <c r="B173" s="14"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="15"/>
-      <c r="F173" s="13"/>
-      <c r="G173" s="13"/>
-      <c r="H173" s="14"/>
+      <c r="A173" s="3"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="13"/>
-      <c r="B174" s="14"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="15"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="13"/>
-      <c r="H174" s="14"/>
+      <c r="A174" s="3"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
@@ -5028,14 +5249,14 @@
       <c r="H177" s="4"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="13"/>
-      <c r="B178" s="14"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="15"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="13"/>
-      <c r="H178" s="14"/>
+      <c r="A178" s="3"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="4"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
@@ -5068,44 +5289,44 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="9"/>
-      <c r="B182" s="10"/>
-      <c r="C182" s="10"/>
-      <c r="D182" s="10"/>
-      <c r="E182" s="11"/>
-      <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
-      <c r="H182" s="10"/>
+      <c r="A182" s="3"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="9"/>
-      <c r="B183" s="10"/>
-      <c r="C183" s="10"/>
-      <c r="D183" s="10"/>
-      <c r="E183" s="11"/>
-      <c r="F183" s="9"/>
-      <c r="G183" s="9"/>
-      <c r="H183" s="10"/>
+      <c r="A183" s="13"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="14"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="4"/>
+      <c r="A184" s="13"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="13"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="14"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="4"/>
+      <c r="A185" s="13"/>
+      <c r="B185" s="14"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="14"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
@@ -5138,14 +5359,14 @@
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="4"/>
+      <c r="A189" s="13"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="13"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="14"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
@@ -5168,14 +5389,14 @@
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="6"/>
-      <c r="B192" s="7"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="7"/>
-      <c r="E192" s="7"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
-      <c r="H192" s="7"/>
+      <c r="A192" s="3"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="4"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
@@ -5188,14 +5409,14 @@
       <c r="H193" s="10"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="3"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="4"/>
+      <c r="A194" s="9"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="10"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
@@ -5278,14 +5499,14 @@
       <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="4"/>
+      <c r="A203" s="6"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
+      <c r="H203" s="7"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
@@ -5307,6 +5528,116 @@
       <c r="G205" s="3"/>
       <c r="H205" s="4"/>
     </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="3"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="4"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="3"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="4"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="3"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="4"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="3"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="4"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="3"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="4"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="3"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="4"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="3"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="4"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="3"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="4"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="3"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="4"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="9"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="11"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="10"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="3"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A42CC8D5-EBDC-472C-9086-CFF1F1359ACC}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2B76EC2-C42E-4DF0-8840-092C3F4883A2}"/>
   <bookViews>
-    <workbookView xWindow="29070" yWindow="4545" windowWidth="12915" windowHeight="11295" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="57615" yWindow="90" windowWidth="14130" windowHeight="15480" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="266">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -820,6 +820,18 @@
   </si>
   <si>
     <t>Yellow Freight (Waco)</t>
+  </si>
+  <si>
+    <t>Bob Evans Foods (Sulphur Springs)</t>
+  </si>
+  <si>
+    <t>Hopkins</t>
+  </si>
+  <si>
+    <t>North East Texas WDA</t>
+  </si>
+  <si>
+    <t>Sulphur Springs</t>
   </si>
 </sst>
 </file>
@@ -1332,25 +1344,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.1796875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.26953125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,76 +1388,79 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>45146</v>
+        <v>45121</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>64</v>
+        <v>263</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="E2" s="5">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F2" s="3">
-        <v>45226</v>
+        <v>45177</v>
       </c>
       <c r="G2" s="3">
-        <v>45146</v>
+        <v>45121</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="J2" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>45146</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E3" s="5">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3">
-        <v>45145</v>
+        <v>45226</v>
       </c>
       <c r="G3" s="3">
         <v>45146</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>45146</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F4" s="3">
-        <v>45201</v>
+        <v>45145</v>
       </c>
       <c r="G4" s="3">
         <v>45146</v>
@@ -1454,151 +1469,151 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>45142</v>
+        <v>45146</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E5" s="5">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F5" s="3">
-        <v>45138</v>
+        <v>45201</v>
       </c>
       <c r="G5" s="3">
-        <v>45142</v>
+        <v>45146</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F6" s="3">
-        <v>45199</v>
+        <v>45138</v>
       </c>
       <c r="G6" s="3">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>45141</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="E7" s="5">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="F7" s="3">
-        <v>45139</v>
+        <v>45199</v>
       </c>
       <c r="G7" s="3">
         <v>45141</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>45141</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="5">
+        <v>153</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45139</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45141</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>45139</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E9" s="5">
         <v>530</v>
-      </c>
-      <c r="F8" s="3">
-        <v>45135</v>
-      </c>
-      <c r="G8" s="3">
-        <v>45139</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>45141</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>45135</v>
       </c>
       <c r="G9" s="3">
-        <v>45141</v>
+        <v>45139</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>45141</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="E10" s="5">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>45135</v>
@@ -1607,24 +1622,24 @@
         <v>45141</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>45141</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E11" s="5">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="F11" s="3">
         <v>45135</v>
@@ -1633,24 +1648,24 @@
         <v>45141</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>45141</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>259</v>
+        <v>33</v>
       </c>
       <c r="E12" s="5">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3">
         <v>45135</v>
@@ -1659,24 +1674,24 @@
         <v>45141</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45141</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="E13" s="5">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F13" s="3">
         <v>45135</v>
@@ -1685,197 +1700,197 @@
         <v>45141</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>45141</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="5">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45135</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45141</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="15" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>45140</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E15" s="5">
         <v>280</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F15" s="3">
         <v>45192</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
         <v>45140</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="16" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>45139</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="5">
         <v>64</v>
-      </c>
-      <c r="F15" s="3">
-        <v>45198</v>
-      </c>
-      <c r="G15" s="3">
-        <v>45139</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>45134</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5">
-        <v>76</v>
       </c>
       <c r="F16" s="3">
         <v>45198</v>
       </c>
       <c r="G16" s="3">
+        <v>45139</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>45134</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5">
+        <v>76</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45198</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45134</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>45126</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <v>64</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="3">
         <v>45208</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="3">
         <v>45126</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <v>53</v>
       </c>
-      <c r="F18" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G18" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="F19" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="5">
         <v>27</v>
       </c>
-      <c r="F19" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G19" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="F20" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="5">
-        <v>35</v>
-      </c>
-      <c r="F20" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G20" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>78</v>
@@ -1884,111 +1899,111 @@
         <v>69</v>
       </c>
       <c r="E21" s="5">
+        <v>35</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="5">
         <v>39</v>
       </c>
-      <c r="F21" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G21" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="F22" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="5">
         <v>38</v>
       </c>
-      <c r="F22" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G22" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="F23" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="5">
         <v>41</v>
       </c>
-      <c r="F23" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G23" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H23" s="4" t="s">
+      <c r="F24" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="5">
-        <v>25</v>
-      </c>
-      <c r="F24" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G24" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E25" s="5">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F25" s="3">
         <v>45124</v>
@@ -1997,125 +2012,125 @@
         <v>45124</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>45124</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="5">
+        <v>33</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5">
         <v>27</v>
       </c>
-      <c r="F26" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G26" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H26" s="4" t="s">
+      <c r="F27" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B27" s="4" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E28" s="5">
         <v>21</v>
       </c>
-      <c r="F27" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G27" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H27" s="4" t="s">
+      <c r="F28" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B28" s="4" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="5">
         <v>28</v>
       </c>
-      <c r="F28" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G28" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H28" s="4" t="s">
+      <c r="F29" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B29" s="4" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="E29" s="5">
-        <v>31</v>
-      </c>
-      <c r="F29" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G29" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="E30" s="5">
         <v>31</v>
@@ -2127,255 +2142,255 @@
         <v>45124</v>
       </c>
       <c r="H30" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="5">
+        <v>31</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G31" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B31" s="4" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E32" s="5">
         <v>38</v>
       </c>
-      <c r="F31" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G31" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="F32" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B32" s="4" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="5">
         <v>43</v>
       </c>
-      <c r="F32" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G32" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H32" s="4" t="s">
+      <c r="F33" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G33" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E34" s="5">
         <v>30</v>
       </c>
-      <c r="F33" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G33" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H33" s="4" t="s">
+      <c r="F34" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G34" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E35" s="5">
         <v>21</v>
       </c>
-      <c r="F34" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G34" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H34" s="4" t="s">
+      <c r="F35" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G35" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B35" s="4" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E36" s="5">
         <v>29</v>
       </c>
-      <c r="F35" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G35" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H35" s="4" t="s">
+      <c r="F36" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G36" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B36" s="4" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E37" s="5">
         <v>19</v>
       </c>
-      <c r="F36" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G36" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H36" s="4" t="s">
+      <c r="F37" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G37" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B37" s="4" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E38" s="5">
         <v>25</v>
       </c>
-      <c r="F37" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G37" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H37" s="4" t="s">
+      <c r="F38" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G38" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B38" s="4" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E39" s="5">
         <v>14</v>
       </c>
-      <c r="F38" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G38" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H38" s="4" t="s">
+      <c r="F39" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G39" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B39" s="4" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E39" s="5">
-        <v>26</v>
-      </c>
-      <c r="F39" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G39" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E40" s="5">
         <v>26</v>
@@ -2387,301 +2402,301 @@
         <v>45124</v>
       </c>
       <c r="H40" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="5">
+        <v>26</v>
+      </c>
+      <c r="F41" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G41" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>45124</v>
-      </c>
-      <c r="B41" s="4" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E42" s="5">
         <v>31</v>
       </c>
-      <c r="F41" s="3">
-        <v>45124</v>
-      </c>
-      <c r="G41" s="3">
-        <v>45124</v>
-      </c>
-      <c r="H41" s="4" t="s">
+      <c r="F42" s="3">
+        <v>45124</v>
+      </c>
+      <c r="G42" s="3">
+        <v>45124</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
         <v>45112</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E43" s="5">
         <v>115</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F43" s="3">
         <v>45128</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G43" s="3">
         <v>45112</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>45106</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="5">
-        <v>188</v>
-      </c>
-      <c r="F43" s="3">
-        <v>45154</v>
-      </c>
-      <c r="G43" s="3">
-        <v>45106</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>45106</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E44" s="5">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="F44" s="3">
-        <v>45169</v>
+        <v>45154</v>
       </c>
       <c r="G44" s="3">
         <v>45106</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>45106</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E45" s="5">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="F45" s="3">
-        <v>45107</v>
+        <v>45169</v>
       </c>
       <c r="G45" s="3">
         <v>45106</v>
       </c>
       <c r="H45" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>45106</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="5">
+        <v>59</v>
+      </c>
+      <c r="F46" s="3">
+        <v>45107</v>
+      </c>
+      <c r="G46" s="3">
+        <v>45106</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
-        <v>45104</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="E46" s="24">
-        <v>93</v>
-      </c>
-      <c r="F46" s="22">
-        <v>45086</v>
-      </c>
-      <c r="G46" s="22">
-        <v>45104</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="22">
         <v>45104</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="E47" s="24">
-        <v>107</v>
-      </c>
-      <c r="F47" s="12">
-        <v>45169</v>
+        <v>93</v>
+      </c>
+      <c r="F47" s="22">
+        <v>45086</v>
       </c>
       <c r="G47" s="22">
         <v>45104</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="22">
         <v>45104</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E48" s="24">
-        <v>47</v>
-      </c>
-      <c r="F48" s="22">
-        <v>45170</v>
+        <v>107</v>
+      </c>
+      <c r="F48" s="12">
+        <v>45169</v>
       </c>
       <c r="G48" s="22">
         <v>45104</v>
       </c>
       <c r="H48" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="22">
+        <v>45104</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="24">
+        <v>47</v>
+      </c>
+      <c r="F49" s="22">
+        <v>45170</v>
+      </c>
+      <c r="G49" s="22">
+        <v>45104</v>
+      </c>
+      <c r="H49" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
         <v>45104</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E50" s="5">
         <v>101</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F50" s="3">
         <v>45169</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G50" s="3">
         <v>45104</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
         <v>45100</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E51" s="5">
         <v>56</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F51" s="3">
         <v>45158</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G51" s="3">
         <v>45100</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>45092</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="5">
-        <v>218</v>
-      </c>
-      <c r="F51" s="3">
-        <v>45152</v>
-      </c>
-      <c r="G51" s="3">
-        <v>45092</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>45092</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>105</v>
@@ -2690,10 +2705,10 @@
         <v>73</v>
       </c>
       <c r="E52" s="5">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="F52" s="3">
-        <v>45069</v>
+        <v>45152</v>
       </c>
       <c r="G52" s="3">
         <v>45092</v>
@@ -2702,506 +2717,506 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>45092</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E53" s="5">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F53" s="3">
-        <v>45143</v>
+        <v>45069</v>
       </c>
       <c r="G53" s="3">
         <v>45092</v>
       </c>
       <c r="H53" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>45092</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="D54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="5">
+        <v>91</v>
+      </c>
+      <c r="F54" s="3">
+        <v>45143</v>
+      </c>
+      <c r="G54" s="3">
+        <v>45092</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
         <v>45091</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E55" s="5">
         <v>173</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F55" s="3">
         <v>45156</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G55" s="3">
         <v>45091</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
         <v>45085</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E56" s="5">
         <v>58</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F56" s="3">
         <v>45173</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G56" s="3">
         <v>45085</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
         <v>45084</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E57" s="5">
         <v>74</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F57" s="3">
         <v>45107</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G57" s="3">
         <v>45084</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
         <v>45078</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E58" s="5">
         <v>126</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F58" s="3">
         <v>45072</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G58" s="3">
         <v>45078</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
         <v>45076</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E59" s="5">
         <v>137</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F59" s="3">
         <v>45138</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G59" s="3">
         <v>45076</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
         <v>45071</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E60" s="5">
         <v>90</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F60" s="3">
         <v>45070</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G60" s="3">
         <v>45071</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
         <v>45068</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E61" s="5">
         <v>80</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F61" s="3">
         <v>45104</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G61" s="3">
         <v>45068</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
         <v>45064</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E62" s="5">
         <v>64</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F62" s="3">
         <v>45107</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G62" s="3">
         <v>45064</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
         <v>45063</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E63" s="5">
         <v>69</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F63" s="3">
         <v>45114</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G63" s="3">
         <v>45063</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>45062</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="5">
-        <v>235</v>
-      </c>
-      <c r="F63" s="3">
-        <v>45121</v>
-      </c>
-      <c r="G63" s="3">
-        <v>45062</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>45062</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E64" s="5">
-        <v>549</v>
+        <v>235</v>
       </c>
       <c r="F64" s="3">
-        <v>45104</v>
+        <v>45121</v>
       </c>
       <c r="G64" s="3">
         <v>45062</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>45062</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="E65" s="5">
-        <v>81</v>
+        <v>549</v>
       </c>
       <c r="F65" s="3">
-        <v>45138</v>
+        <v>45104</v>
       </c>
       <c r="G65" s="3">
         <v>45062</v>
       </c>
       <c r="H65" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>45062</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="5">
+        <v>81</v>
+      </c>
+      <c r="F66" s="3">
+        <v>45138</v>
+      </c>
+      <c r="G66" s="3">
+        <v>45062</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
         <v>45061</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E67" s="5">
         <v>86</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F67" s="3">
         <v>45016</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G67" s="3">
         <v>45061</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>45056</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="5">
-        <v>23</v>
-      </c>
-      <c r="F67" s="3">
-        <v>45072</v>
-      </c>
-      <c r="G67" s="3">
-        <v>45056</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>45056</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E68" s="5">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="F68" s="3">
-        <v>45107</v>
+        <v>45072</v>
       </c>
       <c r="G68" s="3">
         <v>45056</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>45056</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E69" s="5">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="F69" s="3">
-        <v>45139</v>
+        <v>45107</v>
       </c>
       <c r="G69" s="3">
         <v>45056</v>
       </c>
       <c r="H69" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>45056</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" s="5">
+        <v>27</v>
+      </c>
+      <c r="F70" s="3">
+        <v>45139</v>
+      </c>
+      <c r="G70" s="3">
+        <v>45056</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
         <v>45054</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E71" s="5">
         <v>272</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F71" s="3">
         <v>45058</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G71" s="3">
         <v>45054</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>45049</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" s="5">
-        <v>123</v>
-      </c>
-      <c r="F71" s="3">
-        <v>45107</v>
-      </c>
-      <c r="G71" s="3">
-        <v>45049</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>45049</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>68</v>
@@ -3210,7 +3225,7 @@
         <v>69</v>
       </c>
       <c r="E72" s="5">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="F72" s="3">
         <v>45107</v>
@@ -3219,50 +3234,50 @@
         <v>45049</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>45049</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E73" s="5">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F73" s="3">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G73" s="3">
         <v>45049</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>45049</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E74" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F74" s="3">
         <v>45105</v>
@@ -3271,41 +3286,41 @@
         <v>45049</v>
       </c>
       <c r="H74" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>45049</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="5">
+        <v>7</v>
+      </c>
+      <c r="F75" s="3">
+        <v>45105</v>
+      </c>
+      <c r="G75" s="3">
+        <v>45049</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
         <v>45041</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E75" s="5">
-        <v>175</v>
-      </c>
-      <c r="F75" s="3">
-        <v>45065</v>
-      </c>
-      <c r="G75" s="3">
-        <v>45041</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>45036</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>64</v>
@@ -3314,258 +3329,258 @@
         <v>65</v>
       </c>
       <c r="E76" s="5">
+        <v>175</v>
+      </c>
+      <c r="F76" s="3">
+        <v>45065</v>
+      </c>
+      <c r="G76" s="3">
+        <v>45041</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>45036</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E77" s="5">
         <v>133</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F77" s="3">
         <v>45120</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G77" s="3">
         <v>45036</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H77" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
         <v>45035</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E78" s="5">
         <v>62</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F78" s="3">
         <v>45095</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G78" s="3">
         <v>45035</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
         <v>45034</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E79" s="5">
         <v>113</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F79" s="3">
         <v>45076</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G79" s="3">
         <v>45034</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H79" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
         <v>45021</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E80" s="5">
         <v>120</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F80" s="3">
         <v>45077</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G80" s="3">
         <v>45021</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
         <v>45022</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E81" s="5">
         <v>12</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F81" s="3">
         <v>45079</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G81" s="3">
         <v>45022</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>45021</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E81" s="5">
-        <v>98</v>
-      </c>
-      <c r="F81" s="3">
-        <v>45077</v>
-      </c>
-      <c r="G81" s="3">
-        <v>45021</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>45021</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E82" s="5">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F82" s="3">
-        <v>45086</v>
+        <v>45077</v>
       </c>
       <c r="G82" s="3">
         <v>45021</v>
       </c>
       <c r="H82" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>45021</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="5">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>45086</v>
+      </c>
+      <c r="G83" s="3">
+        <v>45021</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
         <v>45020</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E84" s="5">
         <v>84</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F84" s="3">
         <v>45075</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G84" s="3">
         <v>45020</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H84" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
         <v>45019</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E85" s="5">
         <v>227</v>
-      </c>
-      <c r="F84" s="3">
-        <v>45079</v>
-      </c>
-      <c r="G84" s="3">
-        <v>45019</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>45016</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E85" s="5">
-        <v>1047</v>
       </c>
       <c r="F85" s="3">
         <v>45079</v>
       </c>
       <c r="G85" s="3">
+        <v>45019</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
         <v>45016</v>
       </c>
-      <c r="H85" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>45007</v>
-      </c>
       <c r="B86" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>64</v>
@@ -3574,50 +3589,50 @@
         <v>65</v>
       </c>
       <c r="E86" s="5">
-        <v>54</v>
+        <v>1047</v>
       </c>
       <c r="F86" s="3">
-        <v>45059</v>
+        <v>45079</v>
       </c>
       <c r="G86" s="3">
-        <v>45007</v>
+        <v>45016</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
+        <v>45007</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E87" s="5">
+        <v>54</v>
+      </c>
+      <c r="F87" s="3">
+        <v>45059</v>
+      </c>
+      <c r="G87" s="3">
+        <v>45007</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
         <v>45000</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E87" s="5">
-        <v>81</v>
-      </c>
-      <c r="F87" s="3">
-        <v>45077</v>
-      </c>
-      <c r="G87" s="3">
-        <v>45000</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>44999</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>105</v>
@@ -3626,206 +3641,206 @@
         <v>73</v>
       </c>
       <c r="E88" s="5">
+        <v>81</v>
+      </c>
+      <c r="F88" s="3">
+        <v>45077</v>
+      </c>
+      <c r="G88" s="3">
+        <v>45000</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <v>44999</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F88" s="3">
+      <c r="D89" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E89" s="5">
+        <v>105</v>
+      </c>
+      <c r="F89" s="3">
         <v>45020</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G89" s="3">
         <v>44999</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H89" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
         <v>45005</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E90" s="5">
         <v>152</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F90" s="3">
         <v>45066</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G90" s="3">
         <v>45005</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H90" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
         <v>44993</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D91" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E91" s="5">
         <v>240</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F91" s="3">
         <v>45044</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G91" s="3">
         <v>44993</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H91" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
         <v>44988</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E92" s="5">
         <v>827</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F92" s="3">
         <v>45047</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G92" s="3">
         <v>44988</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="H92" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
         <v>44987</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D93" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E93" s="5">
         <v>53</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F93" s="3">
         <v>45048</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G93" s="3">
         <v>44987</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>44985</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E93" s="5">
-        <v>17</v>
-      </c>
-      <c r="F93" s="3">
-        <v>45169</v>
-      </c>
-      <c r="G93" s="3">
-        <v>44985</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>44985</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E94" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F94" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G94" s="3">
         <v>44985</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>44985</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E95" s="5">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="F95" s="3">
-        <v>44979</v>
+        <v>45077</v>
       </c>
       <c r="G95" s="3">
         <v>44985</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>44985</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>9</v>
@@ -3834,76 +3849,76 @@
         <v>10</v>
       </c>
       <c r="E96" s="5">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F96" s="3">
-        <v>45169</v>
+        <v>44979</v>
       </c>
       <c r="G96" s="3">
         <v>44985</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E97" s="5">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="F97" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G97" s="3">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>44984</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E98" s="5">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="F98" s="3">
-        <v>45169</v>
+        <v>45016</v>
       </c>
       <c r="G98" s="3">
         <v>44984</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>44984</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>78</v>
@@ -3912,33 +3927,33 @@
         <v>69</v>
       </c>
       <c r="E99" s="5">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F99" s="3">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G99" s="3">
         <v>44984</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>44984</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E100" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F100" s="3">
         <v>45077</v>
@@ -3947,67 +3962,67 @@
         <v>44984</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>44984</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E101" s="5">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F101" s="3">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G101" s="3">
         <v>44984</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>44984</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E102" s="5">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F102" s="3">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G102" s="3">
         <v>44984</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>44984</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>29</v>
@@ -4016,27 +4031,27 @@
         <v>25</v>
       </c>
       <c r="E103" s="5">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F103" s="3">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G103" s="3">
         <v>44984</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>44984</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>25</v>
@@ -4051,41 +4066,41 @@
         <v>44984</v>
       </c>
       <c r="H104" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="5">
+        <v>10</v>
+      </c>
+      <c r="F105" s="3">
+        <v>44974</v>
+      </c>
+      <c r="G105" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H105" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
         <v>44980</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E105" s="5">
-        <v>120</v>
-      </c>
-      <c r="F105" s="3">
-        <v>45039</v>
-      </c>
-      <c r="G105" s="3">
-        <v>44980</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>44973</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>78</v>
@@ -4094,258 +4109,258 @@
         <v>69</v>
       </c>
       <c r="E106" s="5">
-        <v>40</v>
-      </c>
-      <c r="F106" s="12">
-        <v>44965</v>
+        <v>120</v>
+      </c>
+      <c r="F106" s="3">
+        <v>45039</v>
       </c>
       <c r="G106" s="3">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>44973</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E107" s="5">
-        <v>186</v>
-      </c>
-      <c r="F107" s="3">
-        <v>44981</v>
+        <v>40</v>
+      </c>
+      <c r="F107" s="12">
+        <v>44965</v>
       </c>
       <c r="G107" s="3">
         <v>44973</v>
       </c>
       <c r="H107" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
+        <v>44973</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="5">
+        <v>186</v>
+      </c>
+      <c r="F108" s="3">
+        <v>44981</v>
+      </c>
+      <c r="G108" s="3">
+        <v>44973</v>
+      </c>
+      <c r="H108" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
         <v>44978</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B109" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D109" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E109" s="5">
         <v>100</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F109" s="3">
         <v>45032</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G109" s="3">
         <v>44978</v>
       </c>
-      <c r="H108" s="4" t="s">
+      <c r="H109" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="3">
         <v>44972</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D110" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E110" s="5">
         <v>64</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F110" s="3">
         <v>44974</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G110" s="3">
         <v>44972</v>
       </c>
-      <c r="H109" s="4" t="s">
+      <c r="H110" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="3">
         <v>44965</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D111" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E111" s="5">
         <v>92</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F111" s="3">
         <v>45065</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G111" s="3">
         <v>44966</v>
       </c>
-      <c r="H110" s="4" t="s">
+      <c r="H111" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E111" s="5">
-        <v>121</v>
-      </c>
-      <c r="F111" s="3">
-        <v>45024</v>
-      </c>
-      <c r="G111" s="3">
-        <v>44964</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>44964</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E112" s="5">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F112" s="3">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="G112" s="3">
         <v>44964</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>44964</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="5">
         <v>60</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E113" s="5">
-        <v>65</v>
-      </c>
       <c r="F113" s="3">
-        <v>45013</v>
+        <v>45017</v>
       </c>
       <c r="G113" s="3">
         <v>44964</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>44964</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E114" s="5">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F114" s="3">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="G114" s="3">
         <v>44964</v>
       </c>
       <c r="H114" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E115" s="5">
+        <v>200</v>
+      </c>
+      <c r="F115" s="3">
+        <v>45020</v>
+      </c>
+      <c r="G115" s="3">
+        <v>44964</v>
+      </c>
+      <c r="H115" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>44957</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" s="5">
-        <v>83</v>
-      </c>
-      <c r="F115" s="3">
-        <v>44956</v>
-      </c>
-      <c r="G115" s="3">
-        <v>44957</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>44957</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>9</v>
@@ -4354,258 +4369,258 @@
         <v>10</v>
       </c>
       <c r="E116" s="5">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F116" s="3">
-        <v>45016</v>
+        <v>44956</v>
       </c>
       <c r="G116" s="3">
         <v>44957</v>
       </c>
       <c r="H116" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="5">
+        <v>74</v>
+      </c>
+      <c r="F117" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G117" s="3">
+        <v>44957</v>
+      </c>
+      <c r="H117" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
-        <v>44959</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E117" s="5">
-        <v>158</v>
-      </c>
-      <c r="F117" s="3">
-        <v>45017</v>
-      </c>
-      <c r="G117" s="3">
-        <v>44959</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>44959</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E118" s="5">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="F118" s="3">
-        <v>45019</v>
+        <v>45017</v>
       </c>
       <c r="G118" s="3">
         <v>44959</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>44959</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E119" s="5">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F119" s="3">
-        <v>44972</v>
+        <v>45019</v>
       </c>
       <c r="G119" s="3">
         <v>44959</v>
       </c>
       <c r="H119" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E120" s="5">
+        <v>140</v>
+      </c>
+      <c r="F120" s="3">
+        <v>44972</v>
+      </c>
+      <c r="G120" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H120" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" s="3">
         <v>44957</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B121" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C121" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D121" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E121" s="5">
         <v>90</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F121" s="3">
         <v>44957</v>
       </c>
-      <c r="G120" s="3">
+      <c r="G121" s="3">
         <v>44960</v>
       </c>
-      <c r="H120" s="4" t="s">
+      <c r="H121" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="3">
         <v>44953</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D122" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E122" s="5">
         <v>255</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F122" s="3">
         <v>44942</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G122" s="3">
         <v>44953</v>
       </c>
-      <c r="H121" s="4" t="s">
+      <c r="H122" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="3">
         <v>44946</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B123" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C123" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D123" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E123" s="5">
         <v>110</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F123" s="3">
         <v>45016</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G123" s="3">
         <v>44946</v>
       </c>
-      <c r="H122" s="4" t="s">
+      <c r="H123" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="19">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="19">
         <v>44951</v>
       </c>
-      <c r="B123" s="20" t="s">
+      <c r="B124" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C123" s="20" t="s">
+      <c r="C124" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="20" t="s">
+      <c r="D124" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E123" s="21">
+      <c r="E124" s="21">
         <v>76</v>
       </c>
-      <c r="F123" s="19">
+      <c r="F124" s="19">
         <v>44995</v>
       </c>
-      <c r="G123" s="19">
+      <c r="G124" s="19">
         <v>44951</v>
       </c>
-      <c r="H123" s="20" t="s">
+      <c r="H124" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="3">
         <v>44951</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B125" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E124" s="5">
-        <v>374</v>
-      </c>
-      <c r="F124" s="3">
-        <v>45011</v>
-      </c>
-      <c r="G124" s="3">
-        <v>44951</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
-        <v>44950</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E125" s="5">
-        <v>125</v>
+        <v>374</v>
       </c>
       <c r="F125" s="3">
-        <v>45016</v>
+        <v>45011</v>
       </c>
       <c r="G125" s="3">
+        <v>44951</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="3">
         <v>44950</v>
       </c>
-      <c r="H125" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
-        <v>44945</v>
-      </c>
       <c r="B126" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>24</v>
@@ -4614,76 +4629,76 @@
         <v>25</v>
       </c>
       <c r="E126" s="5">
-        <v>964</v>
+        <v>125</v>
       </c>
       <c r="F126" s="3">
         <v>45016</v>
       </c>
       <c r="G126" s="3">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
+        <v>44945</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="5">
+        <v>964</v>
+      </c>
+      <c r="F127" s="3">
+        <v>45016</v>
+      </c>
+      <c r="G127" s="3">
+        <v>44945</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="3">
         <v>44942</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B128" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C128" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D128" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E128" s="5">
         <v>77</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F128" s="3">
         <v>45002</v>
       </c>
-      <c r="G127" s="3">
+      <c r="G128" s="3">
         <v>44942</v>
       </c>
-      <c r="H127" s="4" t="s">
+      <c r="H128" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" s="3">
         <v>44938</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B129" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E128" s="5">
-        <v>139</v>
-      </c>
-      <c r="F128" s="3">
-        <v>44937</v>
-      </c>
-      <c r="G128" s="3">
-        <v>44938</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
-        <v>44937</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>19</v>
@@ -4692,102 +4707,102 @@
         <v>20</v>
       </c>
       <c r="E129" s="5">
-        <v>801</v>
+        <v>139</v>
       </c>
       <c r="F129" s="3">
-        <v>45003</v>
+        <v>44937</v>
       </c>
       <c r="G129" s="3">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="H129" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" s="5">
+        <v>801</v>
+      </c>
+      <c r="F130" s="3">
+        <v>45003</v>
+      </c>
+      <c r="G130" s="3">
+        <v>44937</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131" s="3">
         <v>44936</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B131" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D131" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E131" s="5">
         <v>76</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F131" s="3">
         <v>45281</v>
       </c>
-      <c r="G130" s="3">
+      <c r="G131" s="3">
         <v>44936</v>
       </c>
-      <c r="H130" s="4" t="s">
+      <c r="H131" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" s="3">
         <v>44935</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B132" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D132" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E132" s="5">
         <v>85</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F132" s="3">
         <v>44971</v>
       </c>
-      <c r="G131" s="3">
+      <c r="G132" s="3">
         <v>44935</v>
       </c>
-      <c r="H131" s="4" t="s">
+      <c r="H132" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" s="3">
         <v>44931</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B133" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="5">
-        <v>370</v>
-      </c>
-      <c r="F132" s="3">
-        <v>44957</v>
-      </c>
-      <c r="G132" s="3">
-        <v>44931</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
-        <v>44932</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>9</v>
@@ -4796,29 +4811,45 @@
         <v>10</v>
       </c>
       <c r="E133" s="5">
+        <v>370</v>
+      </c>
+      <c r="F133" s="3">
+        <v>44957</v>
+      </c>
+      <c r="G133" s="3">
+        <v>44931</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134" s="3">
+        <v>44932</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="5">
         <v>20</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F134" s="3">
         <v>44988</v>
       </c>
-      <c r="G133" s="3">
+      <c r="G134" s="3">
         <v>44932</v>
       </c>
-      <c r="H133" s="4" t="s">
+      <c r="H134" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="4"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -4828,7 +4859,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -4838,7 +4869,7 @@
       <c r="G136" s="3"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -4848,7 +4879,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -4858,7 +4889,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -4868,7 +4899,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -4878,7 +4909,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -4888,7 +4919,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -4898,7 +4929,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -4908,7 +4939,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -4918,27 +4949,27 @@
       <c r="G144" s="3"/>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="16"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="16"/>
-      <c r="H145" s="17"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="4"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145" s="3"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" s="16"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="17"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -4948,7 +4979,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="3"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -4958,7 +4989,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -4968,7 +4999,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -4978,7 +5009,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="4"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -4988,7 +5019,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="4"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -4998,7 +5029,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -5008,7 +5039,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -5018,7 +5049,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="4"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -5028,7 +5059,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -5038,7 +5069,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -5048,7 +5079,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="4"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -5058,7 +5089,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -5068,7 +5099,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="4"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -5078,7 +5109,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="4"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -5088,7 +5119,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="4"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -5098,7 +5129,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="4"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -5108,7 +5139,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="4"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -5118,27 +5149,27 @@
       <c r="G164" s="3"/>
       <c r="H164" s="4"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="13"/>
-      <c r="B165" s="14"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="13"/>
-      <c r="H165" s="14"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="4"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165" s="3"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="4"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A166" s="13"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="14"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -5148,7 +5179,7 @@
       <c r="G167" s="3"/>
       <c r="H167" s="4"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -5158,7 +5189,7 @@
       <c r="G168" s="3"/>
       <c r="H168" s="4"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -5168,7 +5199,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="4"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -5178,7 +5209,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="4"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -5188,27 +5219,27 @@
       <c r="G171" s="3"/>
       <c r="H171" s="4"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="13"/>
-      <c r="B172" s="14"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="13"/>
-      <c r="G172" s="13"/>
-      <c r="H172" s="14"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="4"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A172" s="3"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="4"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A173" s="13"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="14"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -5218,7 +5249,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="4"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -5228,7 +5259,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="4"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -5238,7 +5269,7 @@
       <c r="G176" s="3"/>
       <c r="H176" s="4"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -5248,7 +5279,7 @@
       <c r="G177" s="3"/>
       <c r="H177" s="4"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -5258,7 +5289,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="4"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="3"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -5268,7 +5299,7 @@
       <c r="G179" s="3"/>
       <c r="H179" s="4"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="3"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -5278,7 +5309,7 @@
       <c r="G180" s="3"/>
       <c r="H180" s="4"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="3"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -5288,7 +5319,7 @@
       <c r="G181" s="3"/>
       <c r="H181" s="4"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -5298,17 +5329,17 @@
       <c r="G182" s="3"/>
       <c r="H182" s="4"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="13"/>
-      <c r="B183" s="14"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="15"/>
-      <c r="F183" s="13"/>
-      <c r="G183" s="13"/>
-      <c r="H183" s="14"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183" s="3"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="4"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="13"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
@@ -5318,7 +5349,7 @@
       <c r="G184" s="13"/>
       <c r="H184" s="14"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="13"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
@@ -5328,17 +5359,17 @@
       <c r="G185" s="13"/>
       <c r="H185" s="14"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="4"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A186" s="13"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="13"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="14"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -5348,7 +5379,7 @@
       <c r="G187" s="3"/>
       <c r="H187" s="4"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="3"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -5358,27 +5389,27 @@
       <c r="G188" s="3"/>
       <c r="H188" s="4"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="13"/>
-      <c r="B189" s="14"/>
-      <c r="C189" s="14"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="15"/>
-      <c r="F189" s="13"/>
-      <c r="G189" s="13"/>
-      <c r="H189" s="14"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="4"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189" s="3"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="4"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190" s="13"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="13"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="14"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -5388,7 +5419,7 @@
       <c r="G191" s="3"/>
       <c r="H191" s="4"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="3"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -5398,17 +5429,17 @@
       <c r="G192" s="3"/>
       <c r="H192" s="4"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="9"/>
-      <c r="B193" s="10"/>
-      <c r="C193" s="10"/>
-      <c r="D193" s="10"/>
-      <c r="E193" s="11"/>
-      <c r="F193" s="9"/>
-      <c r="G193" s="9"/>
-      <c r="H193" s="10"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A193" s="3"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="4"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="9"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -5418,17 +5449,17 @@
       <c r="G194" s="9"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="4"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A195" s="9"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="10"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -5438,7 +5469,7 @@
       <c r="G196" s="3"/>
       <c r="H196" s="4"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="3"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -5448,7 +5479,7 @@
       <c r="G197" s="3"/>
       <c r="H197" s="4"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -5458,7 +5489,7 @@
       <c r="G198" s="3"/>
       <c r="H198" s="4"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -5468,7 +5499,7 @@
       <c r="G199" s="3"/>
       <c r="H199" s="4"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="3"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -5478,7 +5509,7 @@
       <c r="G200" s="3"/>
       <c r="H200" s="4"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="3"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -5488,7 +5519,7 @@
       <c r="G201" s="3"/>
       <c r="H201" s="4"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="3"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -5498,37 +5529,37 @@
       <c r="G202" s="3"/>
       <c r="H202" s="4"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="6"/>
-      <c r="B203" s="7"/>
-      <c r="C203" s="7"/>
-      <c r="D203" s="7"/>
-      <c r="E203" s="7"/>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
-      <c r="H203" s="7"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="9"/>
-      <c r="B204" s="10"/>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="11"/>
-      <c r="F204" s="9"/>
-      <c r="G204" s="9"/>
-      <c r="H204" s="10"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="3"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="4"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A203" s="3"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="4"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A204" s="6"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="8"/>
+      <c r="H204" s="7"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A205" s="9"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="9"/>
+      <c r="H205" s="10"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="3"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -5538,7 +5569,7 @@
       <c r="G206" s="3"/>
       <c r="H206" s="4"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="3"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -5548,7 +5579,7 @@
       <c r="G207" s="3"/>
       <c r="H207" s="4"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="3"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -5558,7 +5589,7 @@
       <c r="G208" s="3"/>
       <c r="H208" s="4"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="3"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -5568,7 +5599,7 @@
       <c r="G209" s="3"/>
       <c r="H209" s="4"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="3"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -5578,7 +5609,7 @@
       <c r="G210" s="3"/>
       <c r="H210" s="4"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="3"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -5588,7 +5619,7 @@
       <c r="G211" s="3"/>
       <c r="H211" s="4"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" s="3"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -5598,7 +5629,7 @@
       <c r="G212" s="3"/>
       <c r="H212" s="4"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="3"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -5608,7 +5639,7 @@
       <c r="G213" s="3"/>
       <c r="H213" s="4"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="3"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -5618,25 +5649,35 @@
       <c r="G214" s="3"/>
       <c r="H214" s="4"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="9"/>
-      <c r="B215" s="10"/>
-      <c r="C215" s="10"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="11"/>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
-      <c r="H215" s="10"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="3"/>
-      <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="5"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
-      <c r="H216" s="4"/>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A215" s="3"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="4"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A216" s="9"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="11"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="10"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A217" s="3"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/warn-scraper/cache/tx/2023-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2023-twc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/matthew_mazer_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="14_{93AD3059-F962-4703-8523-4E16795AE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2B76EC2-C42E-4DF0-8840-092C3F4883A2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{560FE31C-78D8-4DAA-A1C4-594DF33EEAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57615" yWindow="90" windowWidth="14130" windowHeight="15480" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="2565" yWindow="765" windowWidth="19290" windowHeight="14370" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="278">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -832,6 +832,42 @@
   </si>
   <si>
     <t>Sulphur Springs</t>
+  </si>
+  <si>
+    <t>Wayforth, LLC (Cedar Park)</t>
+  </si>
+  <si>
+    <t>Cedar Park</t>
+  </si>
+  <si>
+    <t>Wayforth, LLC (Grapevine)</t>
+  </si>
+  <si>
+    <t>Wayforth, LLC (Houston)</t>
+  </si>
+  <si>
+    <t>S&amp;B Plant Services, LTD. (Deer Park)</t>
+  </si>
+  <si>
+    <t>S&amp;B Plant Services, LTD (Pasadena)</t>
+  </si>
+  <si>
+    <t>Pasadena</t>
+  </si>
+  <si>
+    <t>S&amp;B Plant Service, LTD (La Porte)</t>
+  </si>
+  <si>
+    <t>La Porte</t>
+  </si>
+  <si>
+    <t>Harland Clarke Corp</t>
+  </si>
+  <si>
+    <t>CVS Health (Richardson)</t>
+  </si>
+  <si>
+    <t>Appfolio, Inc.</t>
   </si>
 </sst>
 </file>
@@ -1344,25 +1380,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="30.26953125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.54296875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1388,483 +1424,481 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>45161</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="24">
+        <v>130</v>
+      </c>
+      <c r="F2" s="22">
+        <v>45261</v>
+      </c>
+      <c r="G2" s="22">
+        <v>45161</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>45161</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="24">
+        <v>167</v>
+      </c>
+      <c r="F3" s="22">
+        <v>45220</v>
+      </c>
+      <c r="G3" s="22">
+        <v>45161</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>45156</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="24">
+        <v>163</v>
+      </c>
+      <c r="F4" s="22">
+        <v>45201</v>
+      </c>
+      <c r="G4" s="22">
+        <v>45156</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>45156</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="24">
+        <v>32</v>
+      </c>
+      <c r="F5" s="22">
+        <v>45201</v>
+      </c>
+      <c r="G5" s="22">
+        <v>45156</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>45156</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="24">
+        <v>3</v>
+      </c>
+      <c r="F6" s="22">
+        <v>45201</v>
+      </c>
+      <c r="G6" s="22">
+        <v>45156</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>45156</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="24">
+        <v>38</v>
+      </c>
+      <c r="F7" s="22">
+        <v>45245</v>
+      </c>
+      <c r="G7" s="22">
+        <v>45156</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>45155</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="24">
+        <v>10</v>
+      </c>
+      <c r="F8" s="22">
+        <v>45156</v>
+      </c>
+      <c r="G8" s="22">
+        <v>45155</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>45155</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="24">
+        <v>15</v>
+      </c>
+      <c r="F9" s="22">
+        <v>45156</v>
+      </c>
+      <c r="G9" s="22">
+        <v>45155</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>45155</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="24">
+        <v>16</v>
+      </c>
+      <c r="F10" s="22">
+        <v>45156</v>
+      </c>
+      <c r="G10" s="22">
+        <v>45155</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>81</v>
+      </c>
+    